--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -70141,6 +70141,9 @@
           <t>24.6%</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>24.6%</t>
@@ -70161,11 +70164,21 @@
           <t>21.6%</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>21.6%</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -70293,6 +70306,9 @@
           <t>15.6%</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>23.0%</t>
@@ -70313,11 +70329,20 @@
           <t>17.6%</t>
         </is>
       </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>0.0%</t>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -69790,7 +69790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70349,6 +70349,175 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>42.0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>54.7%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>108.5%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26.4%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>38.0%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>50.3%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>102.6%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>26.4%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>33.5%</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>45.7%</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>106.7%</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>15.6%</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>17.6%</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>17.9%</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -14703,7 +14703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G714"/>
+  <dimension ref="A1:G715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25482,6 +25482,31 @@
       </c>
       <c r="G714" t="n">
         <v>998.35</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="6" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>2765.13</v>
+      </c>
+      <c r="C715" t="n">
+        <v>2709.27</v>
+      </c>
+      <c r="D715" t="n">
+        <v>2085.98</v>
+      </c>
+      <c r="E715" t="n">
+        <v>5507.01</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1106.08</v>
+      </c>
+      <c r="G715" t="n">
+        <v>998.54</v>
       </c>
     </row>
   </sheetData>
@@ -90829,7 +90854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91730,6 +91755,179 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9.7%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>62.4%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>117.9%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>36.8%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9.7%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>42.3%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>57.8%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>111.8%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>32.9%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>25.5%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>37.9%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>53.5%</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>114.9%</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>37.4%</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>17.4%</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>16.6%</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>19.5%</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -95705,1113 +95705,1068 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="10" customWidth="1" min="23" max="23"/>
-    <col width="10" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="10" customWidth="1" min="26" max="26"/>
-    <col width="10" customWidth="1" min="27" max="27"/>
-    <col width="10" customWidth="1" min="28" max="28"/>
-    <col width="11" customWidth="1" min="29" max="29"/>
-    <col width="11" customWidth="1" min="30" max="30"/>
-    <col width="11" customWidth="1" min="31" max="31"/>
-    <col width="11" customWidth="1" min="32" max="32"/>
-    <col width="11" customWidth="1" min="33" max="33"/>
-    <col width="11" customWidth="1" min="34" max="34"/>
-    <col width="11" customWidth="1" min="35" max="35"/>
-    <col width="12" customWidth="1" min="36" max="36"/>
-    <col width="15" customWidth="1" min="37" max="37"/>
-    <col width="15" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="15" customWidth="1" min="40" max="40"/>
-    <col width="15" customWidth="1" min="41" max="41"/>
-    <col width="15" customWidth="1" min="42" max="42"/>
-    <col width="16" customWidth="1" min="43" max="43"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_1D</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_1W</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_1M</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_3M</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_6M</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_1Y</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>트루밸류_YTD</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_1D</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_1W</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_1M</t>
         </is>
       </c>
-      <c r="L1" s="10" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_3M</t>
         </is>
       </c>
-      <c r="M1" s="10" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_6M</t>
         </is>
       </c>
-      <c r="N1" s="10" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_1Y</t>
         </is>
       </c>
-      <c r="O1" s="10" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>Value ESG_YTD</t>
         </is>
       </c>
-      <c r="P1" s="10" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_1D</t>
         </is>
       </c>
-      <c r="Q1" s="10" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_1W</t>
         </is>
       </c>
-      <c r="R1" s="10" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_1M</t>
         </is>
       </c>
-      <c r="S1" s="10" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_3M</t>
         </is>
       </c>
-      <c r="T1" s="10" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_6M</t>
         </is>
       </c>
-      <c r="U1" s="10" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_1Y</t>
         </is>
       </c>
-      <c r="V1" s="10" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>개방형 랩_YTD</t>
         </is>
       </c>
-      <c r="W1" s="10" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_1D</t>
         </is>
       </c>
-      <c r="X1" s="10" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_1W</t>
         </is>
       </c>
-      <c r="Y1" s="10" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_1M</t>
         </is>
       </c>
-      <c r="Z1" s="10" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_3M</t>
         </is>
       </c>
-      <c r="AA1" s="10" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_6M</t>
         </is>
       </c>
-      <c r="AB1" s="10" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_1Y</t>
         </is>
       </c>
-      <c r="AC1" s="10" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>KOSPI_YTD</t>
         </is>
       </c>
-      <c r="AD1" s="10" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_1D</t>
         </is>
       </c>
-      <c r="AE1" s="10" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_1W</t>
         </is>
       </c>
-      <c r="AF1" s="10" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_1M</t>
         </is>
       </c>
-      <c r="AG1" s="10" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_3M</t>
         </is>
       </c>
-      <c r="AH1" s="10" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_6M</t>
         </is>
       </c>
-      <c r="AI1" s="10" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_1Y</t>
         </is>
       </c>
-      <c r="AJ1" s="10" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>KOSDAQ_YTD</t>
         </is>
       </c>
-      <c r="AK1" s="10" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_1D</t>
         </is>
       </c>
-      <c r="AL1" s="10" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_1W</t>
         </is>
       </c>
-      <c r="AM1" s="10" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_1M</t>
         </is>
       </c>
-      <c r="AN1" s="10" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_3M</t>
         </is>
       </c>
-      <c r="AO1" s="10" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_6M</t>
         </is>
       </c>
-      <c r="AP1" s="10" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_1Y</t>
         </is>
       </c>
-      <c r="AQ1" s="10" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>목표전환형_YTD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>1.5%</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>5.7%</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>28.5%</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>38.6%</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>64.7%</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>115.2%</t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>28.5%</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>1.5%</t>
         </is>
       </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>5.7%</t>
         </is>
       </c>
-      <c r="K2" s="8" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>28.5%</t>
         </is>
       </c>
-      <c r="L2" s="8" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>34.6%</t>
         </is>
       </c>
-      <c r="M2" s="8" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>60.0%</t>
         </is>
       </c>
-      <c r="N2" s="8" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>109.1%</t>
         </is>
       </c>
-      <c r="O2" s="8" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>28.5%</t>
         </is>
       </c>
-      <c r="P2" s="8" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>1.8%</t>
         </is>
       </c>
-      <c r="Q2" s="8" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>4.7%</t>
         </is>
       </c>
-      <c r="R2" s="8" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>27.6%</t>
         </is>
       </c>
-      <c r="S2" s="8" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27.7%</t>
         </is>
       </c>
-      <c r="T2" s="8" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>53.7%</t>
         </is>
       </c>
-      <c r="U2" s="8" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>111.3%</t>
         </is>
       </c>
-      <c r="V2" s="8" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>27.6%</t>
         </is>
       </c>
-      <c r="W2" s="8" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1.6%</t>
         </is>
       </c>
-      <c r="X2" s="8" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>3.9%</t>
         </is>
       </c>
-      <c r="Y2" s="8" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>24.6%</t>
         </is>
       </c>
-      <c r="Z2" s="8" t="inlineStr"/>
-      <c r="AA2" s="8" t="inlineStr"/>
-      <c r="AB2" s="8" t="inlineStr"/>
-      <c r="AC2" s="8" t="inlineStr">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>24.6%</t>
         </is>
       </c>
-      <c r="AD2" s="8" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="AE2" s="8" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>1.4%</t>
         </is>
       </c>
-      <c r="AF2" s="8" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>21.6%</t>
         </is>
       </c>
-      <c r="AG2" s="8" t="inlineStr"/>
-      <c r="AH2" s="8" t="inlineStr"/>
-      <c r="AI2" s="8" t="inlineStr"/>
-      <c r="AJ2" s="8" t="inlineStr">
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>21.6%</t>
         </is>
       </c>
-      <c r="AK2" s="8" t="inlineStr"/>
-      <c r="AL2" s="8" t="inlineStr"/>
-      <c r="AM2" s="8" t="inlineStr"/>
-      <c r="AN2" s="8" t="inlineStr"/>
-      <c r="AO2" s="8" t="inlineStr"/>
-      <c r="AP2" s="8" t="inlineStr"/>
-      <c r="AQ2" s="8" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2026-02-10</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>19.8%</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>42.0%</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>54.7%</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>108.5%</t>
         </is>
       </c>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>26.4%</t>
         </is>
       </c>
-      <c r="I3" s="8" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="J3" s="8" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>19.8%</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>38.0%</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>50.3%</t>
         </is>
       </c>
-      <c r="N3" s="8" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>102.6%</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>26.4%</t>
         </is>
       </c>
-      <c r="P3" s="8" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="Q3" s="8" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>1.2%</t>
         </is>
       </c>
-      <c r="R3" s="8" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>20.3%</t>
         </is>
       </c>
-      <c r="S3" s="8" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>33.5%</t>
         </is>
       </c>
-      <c r="T3" s="8" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>45.7%</t>
         </is>
       </c>
-      <c r="U3" s="8" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>106.7%</t>
         </is>
       </c>
-      <c r="V3" s="8" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>26.9%</t>
         </is>
       </c>
-      <c r="W3" s="8" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="X3" s="8" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="Y3" s="8" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15.6%</t>
         </is>
       </c>
-      <c r="Z3" s="8" t="inlineStr"/>
-      <c r="AA3" s="8" t="inlineStr"/>
-      <c r="AB3" s="8" t="inlineStr"/>
-      <c r="AC3" s="8" t="inlineStr">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>23.0%</t>
         </is>
       </c>
-      <c r="AD3" s="8" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>-1.1%</t>
         </is>
       </c>
-      <c r="AE3" s="8" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="AF3" s="8" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>17.6%</t>
         </is>
       </c>
-      <c r="AG3" s="8" t="inlineStr"/>
-      <c r="AH3" s="8" t="inlineStr"/>
-      <c r="AI3" s="8" t="inlineStr"/>
-      <c r="AJ3" s="8" t="inlineStr">
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
-      <c r="AK3" s="8" t="inlineStr"/>
-      <c r="AL3" s="8" t="inlineStr"/>
-      <c r="AM3" s="8" t="inlineStr"/>
-      <c r="AN3" s="8" t="inlineStr"/>
-      <c r="AO3" s="8" t="inlineStr"/>
-      <c r="AP3" s="8" t="inlineStr"/>
-      <c r="AQ3" s="8" t="inlineStr">
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2026-02-11</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>19.8%</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>42.0%</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>54.7%</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>108.5%</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>26.4%</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>19.8%</t>
         </is>
       </c>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>38.0%</t>
         </is>
       </c>
-      <c r="M4" s="8" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>50.3%</t>
         </is>
       </c>
-      <c r="N4" s="8" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>102.6%</t>
         </is>
       </c>
-      <c r="O4" s="8" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>26.4%</t>
         </is>
       </c>
-      <c r="P4" s="8" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="Q4" s="8" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>1.2%</t>
         </is>
       </c>
-      <c r="R4" s="8" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>20.3%</t>
         </is>
       </c>
-      <c r="S4" s="8" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>33.5%</t>
         </is>
       </c>
-      <c r="T4" s="8" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>45.7%</t>
         </is>
       </c>
-      <c r="U4" s="8" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>106.7%</t>
         </is>
       </c>
-      <c r="V4" s="8" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>26.9%</t>
         </is>
       </c>
-      <c r="W4" s="8" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="X4" s="8" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="Y4" s="8" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15.6%</t>
         </is>
       </c>
-      <c r="Z4" s="8" t="inlineStr"/>
-      <c r="AA4" s="8" t="inlineStr"/>
-      <c r="AB4" s="8" t="inlineStr"/>
-      <c r="AC4" s="8" t="inlineStr">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>23.0%</t>
         </is>
       </c>
-      <c r="AD4" s="8" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>-1.1%</t>
         </is>
       </c>
-      <c r="AE4" s="8" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="AF4" s="8" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>17.6%</t>
         </is>
       </c>
-      <c r="AG4" s="8" t="inlineStr"/>
-      <c r="AH4" s="8" t="inlineStr"/>
-      <c r="AI4" s="8" t="inlineStr"/>
-      <c r="AJ4" s="8" t="inlineStr">
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
-      <c r="AK4" s="8" t="inlineStr"/>
-      <c r="AL4" s="8" t="inlineStr"/>
-      <c r="AM4" s="8" t="inlineStr"/>
-      <c r="AN4" s="8" t="inlineStr"/>
-      <c r="AO4" s="8" t="inlineStr"/>
-      <c r="AP4" s="8" t="inlineStr"/>
-      <c r="AQ4" s="8" t="inlineStr">
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>3.6%</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>7.1%</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>23.7%</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>47.3%</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>62.3%</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>116.8%</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>35.8%</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>3.6%</t>
         </is>
       </c>
-      <c r="J5" s="8" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>7.1%</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>23.7%</t>
         </is>
       </c>
-      <c r="L5" s="8" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>43.1%</t>
         </is>
       </c>
-      <c r="M5" s="8" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>57.7%</t>
         </is>
       </c>
-      <c r="N5" s="8" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>110.6%</t>
         </is>
       </c>
-      <c r="O5" s="8" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>32.0%</t>
         </is>
       </c>
-      <c r="P5" s="8" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>3.6%</t>
         </is>
       </c>
-      <c r="Q5" s="8" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>8.3%</t>
         </is>
       </c>
-      <c r="R5" s="8" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>24.2%</t>
         </is>
       </c>
-      <c r="S5" s="8" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>38.7%</t>
         </is>
       </c>
-      <c r="T5" s="8" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>53.1%</t>
         </is>
       </c>
-      <c r="U5" s="8" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>113.8%</t>
         </is>
       </c>
-      <c r="V5" s="8" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>36.4%</t>
         </is>
       </c>
-      <c r="W5" s="8" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>3.1%</t>
         </is>
       </c>
-      <c r="X5" s="8" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>6.9%</t>
         </is>
       </c>
-      <c r="Y5" s="8" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>19.4%</t>
         </is>
       </c>
-      <c r="Z5" s="8" t="inlineStr"/>
-      <c r="AA5" s="8" t="inlineStr"/>
-      <c r="AB5" s="8" t="inlineStr"/>
-      <c r="AC5" s="8" t="inlineStr">
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>31.0%</t>
         </is>
       </c>
-      <c r="AD5" s="8" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>1.0%</t>
         </is>
       </c>
-      <c r="AE5" s="8" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>1.6%</t>
         </is>
       </c>
-      <c r="AF5" s="8" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>18.5%</t>
         </is>
       </c>
-      <c r="AG5" s="8" t="inlineStr"/>
-      <c r="AH5" s="8" t="inlineStr"/>
-      <c r="AI5" s="8" t="inlineStr"/>
-      <c r="AJ5" s="8" t="inlineStr">
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>21.7%</t>
         </is>
       </c>
-      <c r="AK5" s="8" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="AL5" s="8" t="inlineStr"/>
-      <c r="AM5" s="8" t="inlineStr"/>
-      <c r="AN5" s="8" t="inlineStr"/>
-      <c r="AO5" s="8" t="inlineStr"/>
-      <c r="AP5" s="8" t="inlineStr"/>
-      <c r="AQ5" s="8" t="inlineStr">
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2026-02-13</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>9.7%</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>24.9%</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>46.5%</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>62.4%</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>117.9%</t>
         </is>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>36.8%</t>
         </is>
       </c>
-      <c r="I6" s="8" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="J6" s="8" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>9.7%</t>
         </is>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>24.9%</t>
         </is>
       </c>
-      <c r="L6" s="8" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>42.3%</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>57.8%</t>
         </is>
       </c>
-      <c r="N6" s="8" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>111.8%</t>
         </is>
       </c>
-      <c r="O6" s="8" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>32.9%</t>
         </is>
       </c>
-      <c r="P6" s="8" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="Q6" s="8" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>10.2%</t>
         </is>
       </c>
-      <c r="R6" s="8" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>25.5%</t>
         </is>
       </c>
-      <c r="S6" s="8" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>37.9%</t>
         </is>
       </c>
-      <c r="T6" s="8" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>53.5%</t>
         </is>
       </c>
-      <c r="U6" s="8" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>114.9%</t>
         </is>
       </c>
-      <c r="V6" s="8" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>37.4%</t>
         </is>
       </c>
-      <c r="W6" s="8" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="X6" s="8" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>8.2%</t>
         </is>
       </c>
-      <c r="Y6" s="8" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>17.4%</t>
         </is>
       </c>
-      <c r="Z6" s="8" t="inlineStr"/>
-      <c r="AA6" s="8" t="inlineStr"/>
-      <c r="AB6" s="8" t="inlineStr"/>
-      <c r="AC6" s="8" t="inlineStr">
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>30.7%</t>
         </is>
       </c>
-      <c r="AD6" s="8" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>-1.8%</t>
         </is>
       </c>
-      <c r="AE6" s="8" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>2.3%</t>
         </is>
       </c>
-      <c r="AF6" s="8" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>16.6%</t>
         </is>
       </c>
-      <c r="AG6" s="8" t="inlineStr"/>
-      <c r="AH6" s="8" t="inlineStr"/>
-      <c r="AI6" s="8" t="inlineStr"/>
-      <c r="AJ6" s="8" t="inlineStr">
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>19.5%</t>
         </is>
       </c>
-      <c r="AK6" s="8" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="AL6" s="8" t="inlineStr"/>
-      <c r="AM6" s="8" t="inlineStr"/>
-      <c r="AN6" s="8" t="inlineStr"/>
-      <c r="AO6" s="8" t="inlineStr"/>
-      <c r="AP6" s="8" t="inlineStr"/>
-      <c r="AQ6" s="8" t="inlineStr">
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>-0.1%</t>
         </is>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27499244-549D-4589-924E-1191DFB5DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF9EDC-F6BC-44D3-8FDE-2E4E6AA1ABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19904,7 +19904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="H360" sqref="H360"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C48325-D8C1-495D-90DB-1B26BD0A0E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD73E2A-ECBF-4762-9880-9962178E5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="1" r:id="rId1"/>
@@ -19904,8 +19904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G483"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="D469" sqref="D469"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="E483" sqref="E483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -42781,7 +42781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2749" workbookViewId="0">
+    <sheetView topLeftCell="A2749" workbookViewId="0">
       <selection activeCell="D2796" sqref="D2796"/>
     </sheetView>
   </sheetViews>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD73E2A-ECBF-4762-9880-9962178E5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B9E1F-18AD-4CDC-B6A2-633623991816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="1" r:id="rId1"/>
@@ -19904,7 +19904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+    <sheetView topLeftCell="A436" workbookViewId="0">
       <selection activeCell="E483" sqref="E483"/>
     </sheetView>
   </sheetViews>
@@ -42781,7 +42781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2796"/>
   <sheetViews>
-    <sheetView topLeftCell="A2749" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2749" workbookViewId="0">
       <selection activeCell="D2796" sqref="D2796"/>
     </sheetView>
   </sheetViews>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B9E1F-18AD-4CDC-B6A2-633623991816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89358AC5-C989-4D10-B0D8-E0F13FAE719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42782,7 +42782,7 @@
   <dimension ref="A1:G2796"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2749" workbookViewId="0">
-      <selection activeCell="D2796" sqref="D2796"/>
+      <selection activeCell="A2796" sqref="A2796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -81793,7 +81793,7 @@
       <c r="D2438" t="s">
         <v>60</v>
       </c>
-      <c r="E2438" s="3"/>
+      <c r="E2438" s="2"/>
       <c r="G2438" s="3"/>
     </row>
     <row r="2439" spans="1:7" x14ac:dyDescent="0.3">
@@ -81809,7 +81809,7 @@
       <c r="D2439" t="s">
         <v>948</v>
       </c>
-      <c r="E2439" s="3"/>
+      <c r="E2439" s="2"/>
       <c r="G2439" s="3"/>
     </row>
     <row r="2440" spans="1:7" x14ac:dyDescent="0.3">
@@ -81825,7 +81825,7 @@
       <c r="D2440" t="s">
         <v>15</v>
       </c>
-      <c r="E2440" s="3"/>
+      <c r="E2440" s="2"/>
       <c r="G2440" s="3"/>
     </row>
     <row r="2441" spans="1:7" x14ac:dyDescent="0.3">
@@ -81841,7 +81841,7 @@
       <c r="D2441" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2441" s="3"/>
+      <c r="E2441" s="2"/>
       <c r="G2441" s="3"/>
     </row>
     <row r="2442" spans="1:7" x14ac:dyDescent="0.3">
@@ -81857,7 +81857,7 @@
       <c r="D2442" t="s">
         <v>58</v>
       </c>
-      <c r="E2442" s="3"/>
+      <c r="E2442" s="2"/>
       <c r="G2442" s="3"/>
     </row>
     <row r="2443" spans="1:7" x14ac:dyDescent="0.3">
@@ -81873,7 +81873,7 @@
       <c r="D2443" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2443" s="3"/>
+      <c r="E2443" s="2"/>
       <c r="G2443" s="3"/>
     </row>
     <row r="2444" spans="1:7" x14ac:dyDescent="0.3">
@@ -81889,7 +81889,7 @@
       <c r="D2444" t="s">
         <v>29</v>
       </c>
-      <c r="E2444" s="3"/>
+      <c r="E2444" s="2"/>
       <c r="G2444" s="3"/>
     </row>
     <row r="2445" spans="1:7" x14ac:dyDescent="0.3">
@@ -81905,7 +81905,7 @@
       <c r="D2445" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2445" s="3"/>
+      <c r="E2445" s="2"/>
       <c r="G2445" s="3"/>
     </row>
     <row r="2446" spans="1:7" x14ac:dyDescent="0.3">
@@ -81921,7 +81921,7 @@
       <c r="D2446" t="s">
         <v>21</v>
       </c>
-      <c r="E2446" s="3"/>
+      <c r="E2446" s="2"/>
       <c r="G2446" s="3"/>
     </row>
     <row r="2447" spans="1:7" x14ac:dyDescent="0.3">
@@ -81937,7 +81937,7 @@
       <c r="D2447" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2447" s="3"/>
+      <c r="E2447" s="2"/>
       <c r="G2447" s="3"/>
     </row>
     <row r="2448" spans="1:7" x14ac:dyDescent="0.3">
@@ -81953,7 +81953,7 @@
       <c r="D2448" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2448" s="3"/>
+      <c r="E2448" s="2"/>
       <c r="G2448" s="3"/>
     </row>
     <row r="2449" spans="1:7" x14ac:dyDescent="0.3">
@@ -81969,7 +81969,7 @@
       <c r="D2449" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2449" s="3"/>
+      <c r="E2449" s="2"/>
       <c r="G2449" s="3"/>
     </row>
     <row r="2450" spans="1:7" x14ac:dyDescent="0.3">
@@ -81985,7 +81985,7 @@
       <c r="D2450" t="s">
         <v>60</v>
       </c>
-      <c r="E2450" s="3"/>
+      <c r="E2450" s="2"/>
       <c r="G2450" s="3"/>
     </row>
     <row r="2451" spans="1:7" x14ac:dyDescent="0.3">
@@ -82001,7 +82001,7 @@
       <c r="D2451" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E2451" s="3"/>
+      <c r="E2451" s="2"/>
       <c r="G2451" s="3"/>
     </row>
     <row r="2452" spans="1:7" x14ac:dyDescent="0.3">
@@ -82017,7 +82017,7 @@
       <c r="D2452" t="s">
         <v>29</v>
       </c>
-      <c r="E2452" s="3"/>
+      <c r="E2452" s="2"/>
       <c r="G2452" s="3"/>
     </row>
     <row r="2453" spans="1:7" x14ac:dyDescent="0.3">
@@ -82033,7 +82033,7 @@
       <c r="D2453" t="s">
         <v>60</v>
       </c>
-      <c r="E2453" s="3"/>
+      <c r="E2453" s="2"/>
       <c r="G2453" s="3"/>
     </row>
     <row r="2454" spans="1:7" x14ac:dyDescent="0.3">
@@ -82049,7 +82049,7 @@
       <c r="D2454" t="s">
         <v>27</v>
       </c>
-      <c r="E2454" s="3"/>
+      <c r="E2454" s="2"/>
       <c r="G2454" s="3"/>
     </row>
     <row r="2455" spans="1:7" x14ac:dyDescent="0.3">
@@ -82065,7 +82065,7 @@
       <c r="D2455" t="s">
         <v>803</v>
       </c>
-      <c r="E2455" s="3"/>
+      <c r="E2455" s="2"/>
       <c r="G2455" s="3"/>
     </row>
     <row r="2456" spans="1:7" x14ac:dyDescent="0.3">
@@ -82081,7 +82081,7 @@
       <c r="D2456" t="s">
         <v>887</v>
       </c>
-      <c r="E2456" s="3"/>
+      <c r="E2456" s="2"/>
       <c r="G2456" s="3"/>
     </row>
     <row r="2457" spans="1:7" x14ac:dyDescent="0.3">
@@ -82097,7 +82097,7 @@
       <c r="D2457" t="s">
         <v>58</v>
       </c>
-      <c r="E2457" s="3"/>
+      <c r="E2457" s="2"/>
       <c r="G2457" s="3"/>
     </row>
     <row r="2458" spans="1:7" x14ac:dyDescent="0.3">
@@ -82113,7 +82113,7 @@
       <c r="D2458" t="s">
         <v>17</v>
       </c>
-      <c r="E2458" s="3"/>
+      <c r="E2458" s="2"/>
       <c r="G2458" s="3"/>
     </row>
     <row r="2459" spans="1:7" x14ac:dyDescent="0.3">
@@ -82129,7 +82129,7 @@
       <c r="D2459" t="s">
         <v>21</v>
       </c>
-      <c r="E2459" s="3"/>
+      <c r="E2459" s="2"/>
       <c r="G2459" s="3"/>
     </row>
     <row r="2460" spans="1:7" x14ac:dyDescent="0.3">
@@ -82145,7 +82145,7 @@
       <c r="D2460" t="s">
         <v>13</v>
       </c>
-      <c r="E2460" s="3"/>
+      <c r="E2460" s="2"/>
       <c r="G2460" s="3"/>
     </row>
     <row r="2461" spans="1:7" x14ac:dyDescent="0.3">
@@ -82161,6 +82161,8 @@
       <c r="D2461" t="s">
         <v>887</v>
       </c>
+      <c r="E2461" s="2"/>
+      <c r="G2461" s="3"/>
     </row>
     <row r="2462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2462" t="s">
@@ -82175,6 +82177,8 @@
       <c r="D2462" t="e">
         <v>#N/A</v>
       </c>
+      <c r="E2462" s="2"/>
+      <c r="G2462" s="3"/>
     </row>
     <row r="2463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2463" t="s">
@@ -82189,6 +82193,8 @@
       <c r="D2463" t="s">
         <v>864</v>
       </c>
+      <c r="E2463" s="2"/>
+      <c r="G2463" s="3"/>
     </row>
     <row r="2464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2464" t="s">
@@ -82203,8 +82209,10 @@
       <c r="D2464" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="2465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2464" s="2"/>
+      <c r="G2464" s="3"/>
+    </row>
+    <row r="2465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2465" t="s">
         <v>5688</v>
       </c>
@@ -82217,8 +82225,10 @@
       <c r="D2465" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2465" s="2"/>
+      <c r="G2465" s="3"/>
+    </row>
+    <row r="2466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2466" t="s">
         <v>5690</v>
       </c>
@@ -82231,8 +82241,10 @@
       <c r="D2466" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2466" s="2"/>
+      <c r="G2466" s="3"/>
+    </row>
+    <row r="2467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2467" t="s">
         <v>5692</v>
       </c>
@@ -82245,8 +82257,10 @@
       <c r="D2467" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2467" s="2"/>
+      <c r="G2467" s="3"/>
+    </row>
+    <row r="2468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2468" t="s">
         <v>5694</v>
       </c>
@@ -82259,8 +82273,10 @@
       <c r="D2468" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2468" s="2"/>
+      <c r="G2468" s="3"/>
+    </row>
+    <row r="2469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2469" t="s">
         <v>5696</v>
       </c>
@@ -82273,8 +82289,10 @@
       <c r="D2469" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2469" s="2"/>
+      <c r="G2469" s="3"/>
+    </row>
+    <row r="2470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2470" t="s">
         <v>5698</v>
       </c>
@@ -82287,8 +82305,10 @@
       <c r="D2470" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2470" s="2"/>
+      <c r="G2470" s="3"/>
+    </row>
+    <row r="2471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2471" t="s">
         <v>5700</v>
       </c>
@@ -82301,8 +82321,10 @@
       <c r="D2471" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2471" s="2"/>
+      <c r="G2471" s="3"/>
+    </row>
+    <row r="2472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2472" t="s">
         <v>5702</v>
       </c>
@@ -82315,8 +82337,10 @@
       <c r="D2472" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2472" s="2"/>
+      <c r="G2472" s="3"/>
+    </row>
+    <row r="2473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2473" t="s">
         <v>5704</v>
       </c>
@@ -82329,8 +82353,10 @@
       <c r="D2473" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2473" s="2"/>
+      <c r="G2473" s="3"/>
+    </row>
+    <row r="2474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2474" t="s">
         <v>5706</v>
       </c>
@@ -82343,8 +82369,10 @@
       <c r="D2474" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2474" s="2"/>
+      <c r="G2474" s="3"/>
+    </row>
+    <row r="2475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2475" t="s">
         <v>5708</v>
       </c>
@@ -82357,8 +82385,10 @@
       <c r="D2475" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="2476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2475" s="2"/>
+      <c r="G2475" s="3"/>
+    </row>
+    <row r="2476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2476" t="s">
         <v>5710</v>
       </c>
@@ -82371,8 +82401,10 @@
       <c r="D2476" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2476" s="2"/>
+      <c r="G2476" s="3"/>
+    </row>
+    <row r="2477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2477" t="s">
         <v>5712</v>
       </c>
@@ -82385,8 +82417,10 @@
       <c r="D2477" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="2478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2477" s="2"/>
+      <c r="G2477" s="3"/>
+    </row>
+    <row r="2478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2478" t="s">
         <v>5714</v>
       </c>
@@ -82399,8 +82433,10 @@
       <c r="D2478" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2478" s="2"/>
+      <c r="G2478" s="3"/>
+    </row>
+    <row r="2479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2479" t="s">
         <v>5716</v>
       </c>
@@ -82413,8 +82449,10 @@
       <c r="D2479" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2479" s="2"/>
+      <c r="G2479" s="3"/>
+    </row>
+    <row r="2480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2480" t="s">
         <v>5718</v>
       </c>
@@ -82427,8 +82465,10 @@
       <c r="D2480" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2480" s="2"/>
+      <c r="G2480" s="3"/>
+    </row>
+    <row r="2481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2481" t="s">
         <v>5720</v>
       </c>
@@ -82441,8 +82481,10 @@
       <c r="D2481" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2481" s="2"/>
+      <c r="G2481" s="3"/>
+    </row>
+    <row r="2482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2482" t="s">
         <v>5722</v>
       </c>
@@ -82455,8 +82497,10 @@
       <c r="D2482" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2482" s="2"/>
+      <c r="G2482" s="3"/>
+    </row>
+    <row r="2483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2483" t="s">
         <v>5724</v>
       </c>
@@ -82469,8 +82513,10 @@
       <c r="D2483" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="2484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2483" s="2"/>
+      <c r="G2483" s="3"/>
+    </row>
+    <row r="2484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2484" t="s">
         <v>5726</v>
       </c>
@@ -82483,8 +82529,10 @@
       <c r="D2484" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="2485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2484" s="2"/>
+      <c r="G2484" s="3"/>
+    </row>
+    <row r="2485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2485" t="s">
         <v>5728</v>
       </c>
@@ -82497,8 +82545,10 @@
       <c r="D2485" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2485" s="2"/>
+      <c r="G2485" s="3"/>
+    </row>
+    <row r="2486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2486" t="s">
         <v>5730</v>
       </c>
@@ -82511,8 +82561,10 @@
       <c r="D2486" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2486" s="2"/>
+      <c r="G2486" s="3"/>
+    </row>
+    <row r="2487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2487" t="s">
         <v>5732</v>
       </c>
@@ -82525,8 +82577,10 @@
       <c r="D2487" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2487" s="2"/>
+      <c r="G2487" s="3"/>
+    </row>
+    <row r="2488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2488" t="s">
         <v>5734</v>
       </c>
@@ -82539,8 +82593,10 @@
       <c r="D2488" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2488" s="2"/>
+      <c r="G2488" s="3"/>
+    </row>
+    <row r="2489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2489" t="s">
         <v>5736</v>
       </c>
@@ -82553,8 +82609,10 @@
       <c r="D2489" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="2490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2489" s="2"/>
+      <c r="G2489" s="3"/>
+    </row>
+    <row r="2490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2490" t="s">
         <v>5738</v>
       </c>
@@ -82567,8 +82625,10 @@
       <c r="D2490" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2490" s="2"/>
+      <c r="G2490" s="3"/>
+    </row>
+    <row r="2491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2491" t="s">
         <v>5740</v>
       </c>
@@ -82581,8 +82641,10 @@
       <c r="D2491" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2491" s="2"/>
+      <c r="G2491" s="3"/>
+    </row>
+    <row r="2492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2492" t="s">
         <v>5742</v>
       </c>
@@ -82595,8 +82657,10 @@
       <c r="D2492" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2492" s="2"/>
+      <c r="G2492" s="3"/>
+    </row>
+    <row r="2493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2493" t="s">
         <v>5744</v>
       </c>
@@ -82609,8 +82673,10 @@
       <c r="D2493" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2493" s="2"/>
+      <c r="G2493" s="3"/>
+    </row>
+    <row r="2494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2494" t="s">
         <v>5746</v>
       </c>
@@ -82623,8 +82689,10 @@
       <c r="D2494" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2494" s="2"/>
+      <c r="G2494" s="3"/>
+    </row>
+    <row r="2495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2495" t="s">
         <v>5748</v>
       </c>
@@ -82637,8 +82705,10 @@
       <c r="D2495" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2495" s="2"/>
+      <c r="G2495" s="3"/>
+    </row>
+    <row r="2496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2496" t="s">
         <v>5750</v>
       </c>
@@ -82651,8 +82721,10 @@
       <c r="D2496" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2496" s="2"/>
+      <c r="G2496" s="3"/>
+    </row>
+    <row r="2497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2497" t="s">
         <v>5752</v>
       </c>
@@ -82665,8 +82737,10 @@
       <c r="D2497" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2497" s="2"/>
+      <c r="G2497" s="3"/>
+    </row>
+    <row r="2498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2498" t="s">
         <v>5754</v>
       </c>
@@ -82679,8 +82753,10 @@
       <c r="D2498" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2498" s="2"/>
+      <c r="G2498" s="3"/>
+    </row>
+    <row r="2499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2499" t="s">
         <v>5756</v>
       </c>
@@ -82693,8 +82769,10 @@
       <c r="D2499" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2499" s="2"/>
+      <c r="G2499" s="3"/>
+    </row>
+    <row r="2500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2500" t="s">
         <v>5758</v>
       </c>
@@ -82707,8 +82785,10 @@
       <c r="D2500" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="2501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2500" s="2"/>
+      <c r="G2500" s="3"/>
+    </row>
+    <row r="2501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2501" t="s">
         <v>5760</v>
       </c>
@@ -82721,8 +82801,10 @@
       <c r="D2501" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2501" s="2"/>
+      <c r="G2501" s="3"/>
+    </row>
+    <row r="2502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2502" t="s">
         <v>5762</v>
       </c>
@@ -82735,8 +82817,10 @@
       <c r="D2502" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2502" s="2"/>
+      <c r="G2502" s="3"/>
+    </row>
+    <row r="2503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2503" t="s">
         <v>5764</v>
       </c>
@@ -82749,8 +82833,10 @@
       <c r="D2503" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="2504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2503" s="2"/>
+      <c r="G2503" s="3"/>
+    </row>
+    <row r="2504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2504" t="s">
         <v>5766</v>
       </c>
@@ -82763,8 +82849,10 @@
       <c r="D2504" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2504" s="2"/>
+      <c r="G2504" s="3"/>
+    </row>
+    <row r="2505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2505" t="s">
         <v>5768</v>
       </c>
@@ -82777,8 +82865,10 @@
       <c r="D2505" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2505" s="2"/>
+      <c r="G2505" s="3"/>
+    </row>
+    <row r="2506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2506" t="s">
         <v>5770</v>
       </c>
@@ -82791,8 +82881,10 @@
       <c r="D2506" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2506" s="2"/>
+      <c r="G2506" s="3"/>
+    </row>
+    <row r="2507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2507" t="s">
         <v>5772</v>
       </c>
@@ -82805,8 +82897,10 @@
       <c r="D2507" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2507" s="2"/>
+      <c r="G2507" s="3"/>
+    </row>
+    <row r="2508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2508" t="s">
         <v>5774</v>
       </c>
@@ -82819,8 +82913,10 @@
       <c r="D2508" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2508" s="2"/>
+      <c r="G2508" s="3"/>
+    </row>
+    <row r="2509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2509" t="s">
         <v>5776</v>
       </c>
@@ -82833,8 +82929,10 @@
       <c r="D2509" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2509" s="2"/>
+      <c r="G2509" s="3"/>
+    </row>
+    <row r="2510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2510" t="s">
         <v>5778</v>
       </c>
@@ -82847,8 +82945,10 @@
       <c r="D2510" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2510" s="2"/>
+      <c r="G2510" s="3"/>
+    </row>
+    <row r="2511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2511" t="s">
         <v>5780</v>
       </c>
@@ -82861,8 +82961,10 @@
       <c r="D2511" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2511" s="2"/>
+      <c r="G2511" s="3"/>
+    </row>
+    <row r="2512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2512" t="s">
         <v>5782</v>
       </c>
@@ -82875,8 +82977,10 @@
       <c r="D2512" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2512" s="2"/>
+      <c r="G2512" s="3"/>
+    </row>
+    <row r="2513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2513" t="s">
         <v>5784</v>
       </c>
@@ -82889,8 +82993,10 @@
       <c r="D2513" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="2514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2513" s="2"/>
+      <c r="G2513" s="3"/>
+    </row>
+    <row r="2514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2514" t="s">
         <v>5786</v>
       </c>
@@ -82903,8 +83009,10 @@
       <c r="D2514" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2514" s="2"/>
+      <c r="G2514" s="3"/>
+    </row>
+    <row r="2515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2515" t="s">
         <v>5788</v>
       </c>
@@ -82917,8 +83025,10 @@
       <c r="D2515" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2515" s="2"/>
+      <c r="G2515" s="3"/>
+    </row>
+    <row r="2516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2516" t="s">
         <v>5790</v>
       </c>
@@ -82931,8 +83041,10 @@
       <c r="D2516" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2516" s="2"/>
+      <c r="G2516" s="3"/>
+    </row>
+    <row r="2517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2517" t="s">
         <v>5792</v>
       </c>
@@ -82945,8 +83057,10 @@
       <c r="D2517" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2517" s="2"/>
+      <c r="G2517" s="3"/>
+    </row>
+    <row r="2518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2518" t="s">
         <v>5794</v>
       </c>
@@ -82959,8 +83073,10 @@
       <c r="D2518" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2518" s="2"/>
+      <c r="G2518" s="3"/>
+    </row>
+    <row r="2519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2519" t="s">
         <v>5796</v>
       </c>
@@ -82973,8 +83089,10 @@
       <c r="D2519" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2519" s="2"/>
+      <c r="G2519" s="3"/>
+    </row>
+    <row r="2520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2520" t="s">
         <v>5798</v>
       </c>
@@ -82987,8 +83105,10 @@
       <c r="D2520" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="2521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2520" s="2"/>
+      <c r="G2520" s="3"/>
+    </row>
+    <row r="2521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2521" t="s">
         <v>5800</v>
       </c>
@@ -83001,8 +83121,10 @@
       <c r="D2521" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2521" s="2"/>
+      <c r="G2521" s="3"/>
+    </row>
+    <row r="2522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2522" t="s">
         <v>5802</v>
       </c>
@@ -83015,8 +83137,10 @@
       <c r="D2522" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2522" s="2"/>
+      <c r="G2522" s="3"/>
+    </row>
+    <row r="2523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2523" t="s">
         <v>5804</v>
       </c>
@@ -83029,8 +83153,10 @@
       <c r="D2523" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2523" s="2"/>
+      <c r="G2523" s="3"/>
+    </row>
+    <row r="2524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2524" t="s">
         <v>5806</v>
       </c>
@@ -83043,8 +83169,10 @@
       <c r="D2524" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2524" s="2"/>
+      <c r="G2524" s="3"/>
+    </row>
+    <row r="2525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2525" t="s">
         <v>5808</v>
       </c>
@@ -83057,8 +83185,10 @@
       <c r="D2525" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2525" s="2"/>
+      <c r="G2525" s="3"/>
+    </row>
+    <row r="2526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2526" t="s">
         <v>5810</v>
       </c>
@@ -83071,8 +83201,10 @@
       <c r="D2526" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2526" s="2"/>
+      <c r="G2526" s="3"/>
+    </row>
+    <row r="2527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2527" t="s">
         <v>5812</v>
       </c>
@@ -83085,8 +83217,10 @@
       <c r="D2527" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2527" s="2"/>
+      <c r="G2527" s="3"/>
+    </row>
+    <row r="2528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2528" t="s">
         <v>5814</v>
       </c>
@@ -83099,8 +83233,10 @@
       <c r="D2528" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2528" s="2"/>
+      <c r="G2528" s="3"/>
+    </row>
+    <row r="2529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2529" t="s">
         <v>5816</v>
       </c>
@@ -83113,8 +83249,10 @@
       <c r="D2529" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2529" s="2"/>
+      <c r="G2529" s="3"/>
+    </row>
+    <row r="2530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2530" t="s">
         <v>5818</v>
       </c>
@@ -83127,8 +83265,10 @@
       <c r="D2530" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2530" s="2"/>
+      <c r="G2530" s="3"/>
+    </row>
+    <row r="2531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2531" t="s">
         <v>5820</v>
       </c>
@@ -83141,8 +83281,10 @@
       <c r="D2531" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2531" s="2"/>
+      <c r="G2531" s="3"/>
+    </row>
+    <row r="2532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2532" t="s">
         <v>5822</v>
       </c>
@@ -83155,8 +83297,10 @@
       <c r="D2532" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2532" s="2"/>
+      <c r="G2532" s="3"/>
+    </row>
+    <row r="2533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2533" t="s">
         <v>5824</v>
       </c>
@@ -83169,8 +83313,10 @@
       <c r="D2533" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2533" s="2"/>
+      <c r="G2533" s="3"/>
+    </row>
+    <row r="2534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2534" t="s">
         <v>5826</v>
       </c>
@@ -83183,8 +83329,10 @@
       <c r="D2534" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2534" s="2"/>
+      <c r="G2534" s="3"/>
+    </row>
+    <row r="2535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2535" t="s">
         <v>5828</v>
       </c>
@@ -83197,8 +83345,10 @@
       <c r="D2535" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2535" s="2"/>
+      <c r="G2535" s="3"/>
+    </row>
+    <row r="2536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2536" t="s">
         <v>5830</v>
       </c>
@@ -83211,8 +83361,10 @@
       <c r="D2536" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2536" s="2"/>
+      <c r="G2536" s="3"/>
+    </row>
+    <row r="2537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2537" t="s">
         <v>5832</v>
       </c>
@@ -83225,8 +83377,10 @@
       <c r="D2537" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2537" s="2"/>
+      <c r="G2537" s="3"/>
+    </row>
+    <row r="2538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2538" t="s">
         <v>5834</v>
       </c>
@@ -83239,8 +83393,10 @@
       <c r="D2538" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2538" s="2"/>
+      <c r="G2538" s="3"/>
+    </row>
+    <row r="2539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2539" t="s">
         <v>5836</v>
       </c>
@@ -83253,8 +83409,10 @@
       <c r="D2539" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2539" s="2"/>
+      <c r="G2539" s="3"/>
+    </row>
+    <row r="2540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2540" t="s">
         <v>5838</v>
       </c>
@@ -83267,8 +83425,10 @@
       <c r="D2540" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2540" s="2"/>
+      <c r="G2540" s="3"/>
+    </row>
+    <row r="2541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2541" t="s">
         <v>5840</v>
       </c>
@@ -83281,8 +83441,10 @@
       <c r="D2541" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2541" s="2"/>
+      <c r="G2541" s="3"/>
+    </row>
+    <row r="2542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2542" t="s">
         <v>5842</v>
       </c>
@@ -83295,8 +83457,10 @@
       <c r="D2542" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2542" s="2"/>
+      <c r="G2542" s="3"/>
+    </row>
+    <row r="2543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2543" t="s">
         <v>5844</v>
       </c>
@@ -83309,8 +83473,10 @@
       <c r="D2543" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2543" s="2"/>
+      <c r="G2543" s="3"/>
+    </row>
+    <row r="2544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2544" t="s">
         <v>5846</v>
       </c>
@@ -83323,8 +83489,10 @@
       <c r="D2544" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2544" s="2"/>
+      <c r="G2544" s="3"/>
+    </row>
+    <row r="2545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2545" t="s">
         <v>5848</v>
       </c>
@@ -83337,8 +83505,10 @@
       <c r="D2545" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2545" s="2"/>
+      <c r="G2545" s="3"/>
+    </row>
+    <row r="2546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2546" t="s">
         <v>5850</v>
       </c>
@@ -83351,8 +83521,10 @@
       <c r="D2546" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2546" s="2"/>
+      <c r="G2546" s="3"/>
+    </row>
+    <row r="2547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2547" t="s">
         <v>5852</v>
       </c>
@@ -83365,8 +83537,10 @@
       <c r="D2547" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="2548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2547" s="2"/>
+      <c r="G2547" s="3"/>
+    </row>
+    <row r="2548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2548" t="s">
         <v>5854</v>
       </c>
@@ -83379,8 +83553,10 @@
       <c r="D2548" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2548" s="2"/>
+      <c r="G2548" s="3"/>
+    </row>
+    <row r="2549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2549" t="s">
         <v>5856</v>
       </c>
@@ -83393,8 +83569,10 @@
       <c r="D2549" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2549" s="2"/>
+      <c r="G2549" s="3"/>
+    </row>
+    <row r="2550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2550" t="s">
         <v>5858</v>
       </c>
@@ -83407,8 +83585,10 @@
       <c r="D2550" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="2551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2550" s="2"/>
+      <c r="G2550" s="3"/>
+    </row>
+    <row r="2551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2551" t="s">
         <v>5860</v>
       </c>
@@ -83421,8 +83601,10 @@
       <c r="D2551" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2551" s="2"/>
+      <c r="G2551" s="3"/>
+    </row>
+    <row r="2552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2552" t="s">
         <v>5862</v>
       </c>
@@ -83435,8 +83617,10 @@
       <c r="D2552" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2552" s="2"/>
+      <c r="G2552" s="3"/>
+    </row>
+    <row r="2553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2553" t="s">
         <v>5864</v>
       </c>
@@ -83449,8 +83633,10 @@
       <c r="D2553" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2553" s="2"/>
+      <c r="G2553" s="3"/>
+    </row>
+    <row r="2554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2554" t="s">
         <v>5866</v>
       </c>
@@ -83463,8 +83649,10 @@
       <c r="D2554" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2554" s="2"/>
+      <c r="G2554" s="3"/>
+    </row>
+    <row r="2555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2555" t="s">
         <v>5868</v>
       </c>
@@ -83477,8 +83665,10 @@
       <c r="D2555" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2555" s="2"/>
+      <c r="G2555" s="3"/>
+    </row>
+    <row r="2556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2556" t="s">
         <v>5870</v>
       </c>
@@ -83491,8 +83681,10 @@
       <c r="D2556" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2556" s="2"/>
+      <c r="G2556" s="3"/>
+    </row>
+    <row r="2557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2557" t="s">
         <v>5872</v>
       </c>
@@ -83505,8 +83697,10 @@
       <c r="D2557" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2557" s="2"/>
+      <c r="G2557" s="3"/>
+    </row>
+    <row r="2558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2558" t="s">
         <v>5874</v>
       </c>
@@ -83519,8 +83713,10 @@
       <c r="D2558" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2558" s="2"/>
+      <c r="G2558" s="3"/>
+    </row>
+    <row r="2559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2559" t="s">
         <v>5876</v>
       </c>
@@ -83533,8 +83729,10 @@
       <c r="D2559" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2559" s="2"/>
+      <c r="G2559" s="3"/>
+    </row>
+    <row r="2560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2560" t="s">
         <v>5878</v>
       </c>
@@ -83547,8 +83745,10 @@
       <c r="D2560" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2560" s="2"/>
+      <c r="G2560" s="3"/>
+    </row>
+    <row r="2561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2561" t="s">
         <v>5880</v>
       </c>
@@ -83561,8 +83761,10 @@
       <c r="D2561" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2561" s="2"/>
+      <c r="G2561" s="3"/>
+    </row>
+    <row r="2562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2562" t="s">
         <v>5882</v>
       </c>
@@ -83575,8 +83777,10 @@
       <c r="D2562" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2562" s="2"/>
+      <c r="G2562" s="3"/>
+    </row>
+    <row r="2563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2563" t="s">
         <v>5884</v>
       </c>
@@ -83589,8 +83793,10 @@
       <c r="D2563" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2563" s="2"/>
+      <c r="G2563" s="3"/>
+    </row>
+    <row r="2564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2564" t="s">
         <v>5886</v>
       </c>
@@ -83603,8 +83809,10 @@
       <c r="D2564" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2564" s="2"/>
+      <c r="G2564" s="3"/>
+    </row>
+    <row r="2565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2565" t="s">
         <v>5888</v>
       </c>
@@ -83617,8 +83825,10 @@
       <c r="D2565" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2565" s="2"/>
+      <c r="G2565" s="3"/>
+    </row>
+    <row r="2566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2566" t="s">
         <v>5890</v>
       </c>
@@ -83631,8 +83841,10 @@
       <c r="D2566" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2566" s="2"/>
+      <c r="G2566" s="3"/>
+    </row>
+    <row r="2567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2567" t="s">
         <v>5892</v>
       </c>
@@ -83645,8 +83857,10 @@
       <c r="D2567" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2567" s="2"/>
+      <c r="G2567" s="3"/>
+    </row>
+    <row r="2568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2568" t="s">
         <v>5894</v>
       </c>
@@ -83659,8 +83873,10 @@
       <c r="D2568" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2568" s="2"/>
+      <c r="G2568" s="3"/>
+    </row>
+    <row r="2569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2569" t="s">
         <v>5896</v>
       </c>
@@ -83673,8 +83889,10 @@
       <c r="D2569" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2569" s="2"/>
+      <c r="G2569" s="3"/>
+    </row>
+    <row r="2570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2570" t="s">
         <v>5898</v>
       </c>
@@ -83687,8 +83905,10 @@
       <c r="D2570" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2570" s="2"/>
+      <c r="G2570" s="3"/>
+    </row>
+    <row r="2571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2571" t="s">
         <v>5900</v>
       </c>
@@ -83701,8 +83921,10 @@
       <c r="D2571" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2571" s="2"/>
+      <c r="G2571" s="3"/>
+    </row>
+    <row r="2572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2572" t="s">
         <v>5902</v>
       </c>
@@ -83715,8 +83937,10 @@
       <c r="D2572" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2572" s="2"/>
+      <c r="G2572" s="3"/>
+    </row>
+    <row r="2573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2573" t="s">
         <v>5904</v>
       </c>
@@ -83729,8 +83953,10 @@
       <c r="D2573" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2573" s="2"/>
+      <c r="G2573" s="3"/>
+    </row>
+    <row r="2574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2574" t="s">
         <v>5906</v>
       </c>
@@ -83743,8 +83969,10 @@
       <c r="D2574" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2574" s="2"/>
+      <c r="G2574" s="3"/>
+    </row>
+    <row r="2575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2575" t="s">
         <v>5908</v>
       </c>
@@ -83757,8 +83985,10 @@
       <c r="D2575" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2575" s="2"/>
+      <c r="G2575" s="3"/>
+    </row>
+    <row r="2576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2576" t="s">
         <v>5910</v>
       </c>
@@ -83771,8 +84001,10 @@
       <c r="D2576" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2576" s="2"/>
+      <c r="G2576" s="3"/>
+    </row>
+    <row r="2577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2577" t="s">
         <v>5912</v>
       </c>
@@ -83785,8 +84017,10 @@
       <c r="D2577" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="2578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2577" s="2"/>
+      <c r="G2577" s="3"/>
+    </row>
+    <row r="2578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2578" t="s">
         <v>5914</v>
       </c>
@@ -83799,8 +84033,10 @@
       <c r="D2578" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2578" s="2"/>
+      <c r="G2578" s="3"/>
+    </row>
+    <row r="2579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2579" t="s">
         <v>5916</v>
       </c>
@@ -83813,8 +84049,10 @@
       <c r="D2579" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2579" s="2"/>
+      <c r="G2579" s="3"/>
+    </row>
+    <row r="2580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2580" t="s">
         <v>5918</v>
       </c>
@@ -83827,8 +84065,10 @@
       <c r="D2580" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2580" s="2"/>
+      <c r="G2580" s="3"/>
+    </row>
+    <row r="2581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2581" t="s">
         <v>5920</v>
       </c>
@@ -83841,8 +84081,10 @@
       <c r="D2581" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2581" s="2"/>
+      <c r="G2581" s="3"/>
+    </row>
+    <row r="2582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2582" t="s">
         <v>5922</v>
       </c>
@@ -83855,8 +84097,10 @@
       <c r="D2582" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2582" s="2"/>
+      <c r="G2582" s="3"/>
+    </row>
+    <row r="2583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2583" t="s">
         <v>5924</v>
       </c>
@@ -83869,8 +84113,10 @@
       <c r="D2583" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2583" s="2"/>
+      <c r="G2583" s="3"/>
+    </row>
+    <row r="2584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2584" t="s">
         <v>5926</v>
       </c>
@@ -83883,8 +84129,10 @@
       <c r="D2584" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2584" s="2"/>
+      <c r="G2584" s="3"/>
+    </row>
+    <row r="2585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2585" t="s">
         <v>5928</v>
       </c>
@@ -83897,8 +84145,10 @@
       <c r="D2585" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2585" s="2"/>
+      <c r="G2585" s="3"/>
+    </row>
+    <row r="2586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2586" t="s">
         <v>5930</v>
       </c>
@@ -83911,8 +84161,10 @@
       <c r="D2586" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2586" s="2"/>
+      <c r="G2586" s="3"/>
+    </row>
+    <row r="2587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2587" t="s">
         <v>5932</v>
       </c>
@@ -83925,8 +84177,10 @@
       <c r="D2587" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2587" s="2"/>
+      <c r="G2587" s="3"/>
+    </row>
+    <row r="2588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2588" t="s">
         <v>5934</v>
       </c>
@@ -83939,8 +84193,10 @@
       <c r="D2588" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2588" s="2"/>
+      <c r="G2588" s="3"/>
+    </row>
+    <row r="2589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2589" t="s">
         <v>5936</v>
       </c>
@@ -83953,8 +84209,10 @@
       <c r="D2589" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2589" s="2"/>
+      <c r="G2589" s="3"/>
+    </row>
+    <row r="2590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2590" t="s">
         <v>5938</v>
       </c>
@@ -83967,8 +84225,10 @@
       <c r="D2590" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2590" s="2"/>
+      <c r="G2590" s="3"/>
+    </row>
+    <row r="2591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2591" t="s">
         <v>5940</v>
       </c>
@@ -83981,8 +84241,10 @@
       <c r="D2591" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2591" s="2"/>
+      <c r="G2591" s="3"/>
+    </row>
+    <row r="2592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2592" t="s">
         <v>5942</v>
       </c>
@@ -83995,8 +84257,10 @@
       <c r="D2592" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2592" s="2"/>
+      <c r="G2592" s="3"/>
+    </row>
+    <row r="2593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2593" t="s">
         <v>5944</v>
       </c>
@@ -84009,8 +84273,10 @@
       <c r="D2593" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2593" s="2"/>
+      <c r="G2593" s="3"/>
+    </row>
+    <row r="2594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2594" t="s">
         <v>5946</v>
       </c>
@@ -84023,8 +84289,10 @@
       <c r="D2594" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2594" s="2"/>
+      <c r="G2594" s="3"/>
+    </row>
+    <row r="2595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2595" t="s">
         <v>5948</v>
       </c>
@@ -84037,8 +84305,10 @@
       <c r="D2595" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2595" s="2"/>
+      <c r="G2595" s="3"/>
+    </row>
+    <row r="2596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2596" t="s">
         <v>5950</v>
       </c>
@@ -84051,8 +84321,10 @@
       <c r="D2596" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2596" s="2"/>
+      <c r="G2596" s="3"/>
+    </row>
+    <row r="2597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2597" t="s">
         <v>5952</v>
       </c>
@@ -84065,8 +84337,10 @@
       <c r="D2597" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2597" s="2"/>
+      <c r="G2597" s="3"/>
+    </row>
+    <row r="2598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2598" t="s">
         <v>5954</v>
       </c>
@@ -84079,8 +84353,10 @@
       <c r="D2598" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2598" s="2"/>
+      <c r="G2598" s="3"/>
+    </row>
+    <row r="2599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2599" t="s">
         <v>5956</v>
       </c>
@@ -84093,8 +84369,10 @@
       <c r="D2599" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2599" s="2"/>
+      <c r="G2599" s="3"/>
+    </row>
+    <row r="2600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2600" t="s">
         <v>5958</v>
       </c>
@@ -84107,8 +84385,10 @@
       <c r="D2600" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2600" s="2"/>
+      <c r="G2600" s="3"/>
+    </row>
+    <row r="2601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2601" t="s">
         <v>5960</v>
       </c>
@@ -84121,8 +84401,10 @@
       <c r="D2601" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2601" s="2"/>
+      <c r="G2601" s="3"/>
+    </row>
+    <row r="2602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2602" t="s">
         <v>5962</v>
       </c>
@@ -84135,8 +84417,10 @@
       <c r="D2602" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2602" s="2"/>
+      <c r="G2602" s="3"/>
+    </row>
+    <row r="2603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2603" t="s">
         <v>5964</v>
       </c>
@@ -84149,8 +84433,10 @@
       <c r="D2603" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2603" s="2"/>
+      <c r="G2603" s="3"/>
+    </row>
+    <row r="2604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2604" t="s">
         <v>5966</v>
       </c>
@@ -84163,8 +84449,10 @@
       <c r="D2604" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2604" s="2"/>
+      <c r="G2604" s="3"/>
+    </row>
+    <row r="2605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2605" t="s">
         <v>5968</v>
       </c>
@@ -84177,8 +84465,10 @@
       <c r="D2605" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2605" s="2"/>
+      <c r="G2605" s="3"/>
+    </row>
+    <row r="2606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2606" t="s">
         <v>5970</v>
       </c>
@@ -84191,8 +84481,10 @@
       <c r="D2606" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2606" s="2"/>
+      <c r="G2606" s="3"/>
+    </row>
+    <row r="2607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2607" t="s">
         <v>5972</v>
       </c>
@@ -84205,8 +84497,10 @@
       <c r="D2607" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2607" s="2"/>
+      <c r="G2607" s="3"/>
+    </row>
+    <row r="2608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2608" t="s">
         <v>5974</v>
       </c>
@@ -84219,8 +84513,10 @@
       <c r="D2608" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2608" s="2"/>
+      <c r="G2608" s="3"/>
+    </row>
+    <row r="2609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2609" t="s">
         <v>5976</v>
       </c>
@@ -84233,8 +84529,10 @@
       <c r="D2609" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2609" s="2"/>
+      <c r="G2609" s="3"/>
+    </row>
+    <row r="2610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2610" t="s">
         <v>5978</v>
       </c>
@@ -84247,8 +84545,10 @@
       <c r="D2610" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2610" s="2"/>
+      <c r="G2610" s="3"/>
+    </row>
+    <row r="2611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2611" t="s">
         <v>5980</v>
       </c>
@@ -84261,8 +84561,10 @@
       <c r="D2611" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2611" s="2"/>
+      <c r="G2611" s="3"/>
+    </row>
+    <row r="2612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2612" t="s">
         <v>5982</v>
       </c>
@@ -84275,8 +84577,10 @@
       <c r="D2612" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2612" s="2"/>
+      <c r="G2612" s="3"/>
+    </row>
+    <row r="2613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2613" t="s">
         <v>5984</v>
       </c>
@@ -84289,8 +84593,10 @@
       <c r="D2613" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2613" s="2"/>
+      <c r="G2613" s="3"/>
+    </row>
+    <row r="2614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2614" t="s">
         <v>5986</v>
       </c>
@@ -84303,8 +84609,10 @@
       <c r="D2614" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2614" s="2"/>
+      <c r="G2614" s="3"/>
+    </row>
+    <row r="2615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2615" t="s">
         <v>5988</v>
       </c>
@@ -84317,8 +84625,10 @@
       <c r="D2615" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2615" s="2"/>
+      <c r="G2615" s="3"/>
+    </row>
+    <row r="2616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2616" t="s">
         <v>5990</v>
       </c>
@@ -84331,8 +84641,10 @@
       <c r="D2616" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2616" s="2"/>
+      <c r="G2616" s="3"/>
+    </row>
+    <row r="2617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2617" t="s">
         <v>5992</v>
       </c>
@@ -84345,8 +84657,10 @@
       <c r="D2617" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2617" s="2"/>
+      <c r="G2617" s="3"/>
+    </row>
+    <row r="2618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2618" t="s">
         <v>5994</v>
       </c>
@@ -84359,8 +84673,10 @@
       <c r="D2618" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2618" s="2"/>
+      <c r="G2618" s="3"/>
+    </row>
+    <row r="2619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2619" t="s">
         <v>5996</v>
       </c>
@@ -84373,8 +84689,10 @@
       <c r="D2619" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2619" s="2"/>
+      <c r="G2619" s="3"/>
+    </row>
+    <row r="2620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2620" t="s">
         <v>5998</v>
       </c>
@@ -84387,8 +84705,10 @@
       <c r="D2620" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2620" s="2"/>
+      <c r="G2620" s="3"/>
+    </row>
+    <row r="2621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2621" t="s">
         <v>6000</v>
       </c>
@@ -84401,8 +84721,10 @@
       <c r="D2621" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2621" s="2"/>
+      <c r="G2621" s="3"/>
+    </row>
+    <row r="2622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2622" t="s">
         <v>6002</v>
       </c>
@@ -84415,8 +84737,10 @@
       <c r="D2622" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2622" s="2"/>
+      <c r="G2622" s="3"/>
+    </row>
+    <row r="2623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2623" t="s">
         <v>6004</v>
       </c>
@@ -84429,8 +84753,10 @@
       <c r="D2623" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2623" s="2"/>
+      <c r="G2623" s="3"/>
+    </row>
+    <row r="2624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2624" t="s">
         <v>6006</v>
       </c>
@@ -84443,8 +84769,10 @@
       <c r="D2624" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2624" s="2"/>
+      <c r="G2624" s="3"/>
+    </row>
+    <row r="2625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2625" t="s">
         <v>6008</v>
       </c>
@@ -84457,8 +84785,10 @@
       <c r="D2625" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2625" s="2"/>
+      <c r="G2625" s="3"/>
+    </row>
+    <row r="2626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2626" t="s">
         <v>6010</v>
       </c>
@@ -84471,8 +84801,10 @@
       <c r="D2626" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2626" s="2"/>
+      <c r="G2626" s="3"/>
+    </row>
+    <row r="2627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2627" t="s">
         <v>6012</v>
       </c>
@@ -84485,8 +84817,10 @@
       <c r="D2627" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2627" s="2"/>
+      <c r="G2627" s="3"/>
+    </row>
+    <row r="2628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2628" t="s">
         <v>6014</v>
       </c>
@@ -84499,8 +84833,10 @@
       <c r="D2628" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2628" s="2"/>
+      <c r="G2628" s="3"/>
+    </row>
+    <row r="2629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2629" t="s">
         <v>6016</v>
       </c>
@@ -84513,8 +84849,10 @@
       <c r="D2629" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2629" s="2"/>
+      <c r="G2629" s="3"/>
+    </row>
+    <row r="2630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2630" t="s">
         <v>6018</v>
       </c>
@@ -84527,8 +84865,10 @@
       <c r="D2630" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2630" s="2"/>
+      <c r="G2630" s="3"/>
+    </row>
+    <row r="2631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2631" t="s">
         <v>6020</v>
       </c>
@@ -84541,8 +84881,10 @@
       <c r="D2631" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2631" s="2"/>
+      <c r="G2631" s="3"/>
+    </row>
+    <row r="2632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2632" t="s">
         <v>6022</v>
       </c>
@@ -84555,8 +84897,10 @@
       <c r="D2632" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2632" s="2"/>
+      <c r="G2632" s="3"/>
+    </row>
+    <row r="2633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2633" t="s">
         <v>6024</v>
       </c>
@@ -84569,8 +84913,10 @@
       <c r="D2633" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2633" s="2"/>
+      <c r="G2633" s="3"/>
+    </row>
+    <row r="2634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2634" t="s">
         <v>6026</v>
       </c>
@@ -84583,8 +84929,10 @@
       <c r="D2634" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2634" s="2"/>
+      <c r="G2634" s="3"/>
+    </row>
+    <row r="2635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2635" t="s">
         <v>6028</v>
       </c>
@@ -84597,8 +84945,10 @@
       <c r="D2635" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2635" s="2"/>
+      <c r="G2635" s="3"/>
+    </row>
+    <row r="2636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2636" t="s">
         <v>6030</v>
       </c>
@@ -84611,8 +84961,10 @@
       <c r="D2636" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2636" s="2"/>
+      <c r="G2636" s="3"/>
+    </row>
+    <row r="2637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2637" t="s">
         <v>6032</v>
       </c>
@@ -84625,8 +84977,10 @@
       <c r="D2637" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2637" s="2"/>
+      <c r="G2637" s="3"/>
+    </row>
+    <row r="2638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2638" t="s">
         <v>6034</v>
       </c>
@@ -84639,8 +84993,10 @@
       <c r="D2638" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2638" s="2"/>
+      <c r="G2638" s="3"/>
+    </row>
+    <row r="2639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2639" t="s">
         <v>6036</v>
       </c>
@@ -84653,8 +85009,10 @@
       <c r="D2639" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2639" s="2"/>
+      <c r="G2639" s="3"/>
+    </row>
+    <row r="2640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2640" t="s">
         <v>6038</v>
       </c>
@@ -84667,8 +85025,10 @@
       <c r="D2640" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2640" s="2"/>
+      <c r="G2640" s="3"/>
+    </row>
+    <row r="2641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2641" t="s">
         <v>6040</v>
       </c>
@@ -84681,8 +85041,10 @@
       <c r="D2641" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2641" s="2"/>
+      <c r="G2641" s="3"/>
+    </row>
+    <row r="2642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2642" t="s">
         <v>6042</v>
       </c>
@@ -84695,8 +85057,10 @@
       <c r="D2642" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2642" s="2"/>
+      <c r="G2642" s="3"/>
+    </row>
+    <row r="2643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2643" t="s">
         <v>6044</v>
       </c>
@@ -84709,8 +85073,10 @@
       <c r="D2643" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2643" s="2"/>
+      <c r="G2643" s="3"/>
+    </row>
+    <row r="2644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2644" t="s">
         <v>6046</v>
       </c>
@@ -84723,8 +85089,10 @@
       <c r="D2644" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2644" s="2"/>
+      <c r="G2644" s="3"/>
+    </row>
+    <row r="2645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2645" t="s">
         <v>6048</v>
       </c>
@@ -84737,8 +85105,10 @@
       <c r="D2645" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2645" s="2"/>
+      <c r="G2645" s="3"/>
+    </row>
+    <row r="2646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2646" t="s">
         <v>6050</v>
       </c>
@@ -84751,8 +85121,10 @@
       <c r="D2646" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2646" s="2"/>
+      <c r="G2646" s="3"/>
+    </row>
+    <row r="2647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2647" t="s">
         <v>6052</v>
       </c>
@@ -84765,8 +85137,10 @@
       <c r="D2647" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2647" s="2"/>
+      <c r="G2647" s="3"/>
+    </row>
+    <row r="2648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2648" t="s">
         <v>6054</v>
       </c>
@@ -84779,8 +85153,10 @@
       <c r="D2648" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2648" s="2"/>
+      <c r="G2648" s="3"/>
+    </row>
+    <row r="2649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2649" t="s">
         <v>6056</v>
       </c>
@@ -84793,8 +85169,10 @@
       <c r="D2649" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2649" s="2"/>
+      <c r="G2649" s="3"/>
+    </row>
+    <row r="2650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2650" t="s">
         <v>6058</v>
       </c>
@@ -84807,8 +85185,10 @@
       <c r="D2650" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2650" s="2"/>
+      <c r="G2650" s="3"/>
+    </row>
+    <row r="2651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2651" t="s">
         <v>6060</v>
       </c>
@@ -84821,8 +85201,10 @@
       <c r="D2651" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2651" s="2"/>
+      <c r="G2651" s="3"/>
+    </row>
+    <row r="2652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2652" t="s">
         <v>6062</v>
       </c>
@@ -84835,8 +85217,10 @@
       <c r="D2652" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2652" s="2"/>
+      <c r="G2652" s="3"/>
+    </row>
+    <row r="2653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2653" t="s">
         <v>6064</v>
       </c>
@@ -84849,8 +85233,10 @@
       <c r="D2653" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2653" s="2"/>
+      <c r="G2653" s="3"/>
+    </row>
+    <row r="2654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2654" t="s">
         <v>6066</v>
       </c>
@@ -84863,8 +85249,10 @@
       <c r="D2654" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2654" s="2"/>
+      <c r="G2654" s="3"/>
+    </row>
+    <row r="2655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2655" t="s">
         <v>6068</v>
       </c>
@@ -84877,8 +85265,10 @@
       <c r="D2655" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2655" s="2"/>
+      <c r="G2655" s="3"/>
+    </row>
+    <row r="2656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2656" t="s">
         <v>6070</v>
       </c>
@@ -84891,8 +85281,10 @@
       <c r="D2656" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2656" s="2"/>
+      <c r="G2656" s="3"/>
+    </row>
+    <row r="2657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2657" t="s">
         <v>6072</v>
       </c>
@@ -84905,8 +85297,10 @@
       <c r="D2657" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2657" s="2"/>
+      <c r="G2657" s="3"/>
+    </row>
+    <row r="2658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2658" t="s">
         <v>6074</v>
       </c>
@@ -84919,8 +85313,10 @@
       <c r="D2658" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2658" s="2"/>
+      <c r="G2658" s="3"/>
+    </row>
+    <row r="2659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2659" t="s">
         <v>6076</v>
       </c>
@@ -84933,8 +85329,10 @@
       <c r="D2659" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2659" s="2"/>
+      <c r="G2659" s="3"/>
+    </row>
+    <row r="2660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2660" t="s">
         <v>6078</v>
       </c>
@@ -84947,8 +85345,10 @@
       <c r="D2660" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2660" s="2"/>
+      <c r="G2660" s="3"/>
+    </row>
+    <row r="2661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2661" t="s">
         <v>6080</v>
       </c>
@@ -84961,8 +85361,10 @@
       <c r="D2661" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2661" s="2"/>
+      <c r="G2661" s="3"/>
+    </row>
+    <row r="2662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2662" t="s">
         <v>6082</v>
       </c>
@@ -84975,8 +85377,10 @@
       <c r="D2662" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2662" s="2"/>
+      <c r="G2662" s="3"/>
+    </row>
+    <row r="2663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2663" t="s">
         <v>6084</v>
       </c>
@@ -84989,8 +85393,10 @@
       <c r="D2663" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2663" s="2"/>
+      <c r="G2663" s="3"/>
+    </row>
+    <row r="2664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2664" t="s">
         <v>6086</v>
       </c>
@@ -85003,8 +85409,10 @@
       <c r="D2664" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2664" s="2"/>
+      <c r="G2664" s="3"/>
+    </row>
+    <row r="2665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2665" t="s">
         <v>6088</v>
       </c>
@@ -85017,8 +85425,10 @@
       <c r="D2665" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2665" s="2"/>
+      <c r="G2665" s="3"/>
+    </row>
+    <row r="2666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2666" t="s">
         <v>6090</v>
       </c>
@@ -85031,8 +85441,10 @@
       <c r="D2666" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2666" s="2"/>
+      <c r="G2666" s="3"/>
+    </row>
+    <row r="2667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2667" t="s">
         <v>6092</v>
       </c>
@@ -85045,8 +85457,10 @@
       <c r="D2667" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2667" s="2"/>
+      <c r="G2667" s="3"/>
+    </row>
+    <row r="2668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2668" t="s">
         <v>6094</v>
       </c>
@@ -85059,8 +85473,10 @@
       <c r="D2668" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2668" s="2"/>
+      <c r="G2668" s="3"/>
+    </row>
+    <row r="2669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2669" t="s">
         <v>6096</v>
       </c>
@@ -85073,8 +85489,10 @@
       <c r="D2669" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2669" s="2"/>
+      <c r="G2669" s="3"/>
+    </row>
+    <row r="2670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2670" t="s">
         <v>6098</v>
       </c>
@@ -85087,8 +85505,10 @@
       <c r="D2670" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2670" s="2"/>
+      <c r="G2670" s="3"/>
+    </row>
+    <row r="2671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2671" t="s">
         <v>6100</v>
       </c>
@@ -85101,8 +85521,10 @@
       <c r="D2671" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2671" s="2"/>
+      <c r="G2671" s="3"/>
+    </row>
+    <row r="2672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2672" t="s">
         <v>6102</v>
       </c>
@@ -85115,8 +85537,10 @@
       <c r="D2672" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2672" s="2"/>
+      <c r="G2672" s="3"/>
+    </row>
+    <row r="2673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2673" t="s">
         <v>6104</v>
       </c>
@@ -85129,8 +85553,10 @@
       <c r="D2673" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2673" s="2"/>
+      <c r="G2673" s="3"/>
+    </row>
+    <row r="2674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2674" t="s">
         <v>6106</v>
       </c>
@@ -85143,8 +85569,10 @@
       <c r="D2674" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2674" s="2"/>
+      <c r="G2674" s="3"/>
+    </row>
+    <row r="2675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2675" t="s">
         <v>6108</v>
       </c>
@@ -85157,8 +85585,10 @@
       <c r="D2675" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2675" s="2"/>
+      <c r="G2675" s="3"/>
+    </row>
+    <row r="2676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2676" t="s">
         <v>6110</v>
       </c>
@@ -85171,8 +85601,10 @@
       <c r="D2676" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2676" s="2"/>
+      <c r="G2676" s="3"/>
+    </row>
+    <row r="2677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2677" t="s">
         <v>6112</v>
       </c>
@@ -85185,8 +85617,10 @@
       <c r="D2677" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2677" s="2"/>
+      <c r="G2677" s="3"/>
+    </row>
+    <row r="2678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2678" t="s">
         <v>6114</v>
       </c>
@@ -85199,8 +85633,10 @@
       <c r="D2678" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2678" s="2"/>
+      <c r="G2678" s="3"/>
+    </row>
+    <row r="2679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2679" t="s">
         <v>6116</v>
       </c>
@@ -85213,8 +85649,10 @@
       <c r="D2679" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2679" s="2"/>
+      <c r="G2679" s="3"/>
+    </row>
+    <row r="2680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2680" t="s">
         <v>6118</v>
       </c>
@@ -85227,8 +85665,10 @@
       <c r="D2680" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2680" s="2"/>
+      <c r="G2680" s="3"/>
+    </row>
+    <row r="2681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2681" t="s">
         <v>6120</v>
       </c>
@@ -85241,8 +85681,10 @@
       <c r="D2681" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2681" s="2"/>
+      <c r="G2681" s="3"/>
+    </row>
+    <row r="2682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2682" t="s">
         <v>6122</v>
       </c>
@@ -85255,8 +85697,10 @@
       <c r="D2682" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2682" s="2"/>
+      <c r="G2682" s="3"/>
+    </row>
+    <row r="2683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2683" t="s">
         <v>6124</v>
       </c>
@@ -85269,8 +85713,10 @@
       <c r="D2683" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2683" s="2"/>
+      <c r="G2683" s="3"/>
+    </row>
+    <row r="2684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2684" t="s">
         <v>6126</v>
       </c>
@@ -85283,8 +85729,10 @@
       <c r="D2684" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2684" s="2"/>
+      <c r="G2684" s="3"/>
+    </row>
+    <row r="2685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2685" t="s">
         <v>6128</v>
       </c>
@@ -85297,8 +85745,10 @@
       <c r="D2685" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2685" s="2"/>
+      <c r="G2685" s="3"/>
+    </row>
+    <row r="2686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2686" t="s">
         <v>6130</v>
       </c>
@@ -85311,8 +85761,10 @@
       <c r="D2686" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2686" s="2"/>
+      <c r="G2686" s="3"/>
+    </row>
+    <row r="2687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2687" t="s">
         <v>6132</v>
       </c>
@@ -85325,8 +85777,10 @@
       <c r="D2687" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2687" s="2"/>
+      <c r="G2687" s="3"/>
+    </row>
+    <row r="2688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2688" t="s">
         <v>6134</v>
       </c>
@@ -85339,8 +85793,10 @@
       <c r="D2688" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2688" s="2"/>
+      <c r="G2688" s="3"/>
+    </row>
+    <row r="2689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2689" t="s">
         <v>6136</v>
       </c>
@@ -85353,8 +85809,10 @@
       <c r="D2689" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2689" s="2"/>
+      <c r="G2689" s="3"/>
+    </row>
+    <row r="2690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2690" t="s">
         <v>6138</v>
       </c>
@@ -85367,8 +85825,10 @@
       <c r="D2690" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2690" s="2"/>
+      <c r="G2690" s="3"/>
+    </row>
+    <row r="2691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2691" t="s">
         <v>6140</v>
       </c>
@@ -85381,8 +85841,10 @@
       <c r="D2691" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2691" s="2"/>
+      <c r="G2691" s="3"/>
+    </row>
+    <row r="2692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2692" t="s">
         <v>6142</v>
       </c>
@@ -85395,8 +85857,10 @@
       <c r="D2692" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2692" s="2"/>
+      <c r="G2692" s="3"/>
+    </row>
+    <row r="2693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2693" t="s">
         <v>6144</v>
       </c>
@@ -85409,8 +85873,10 @@
       <c r="D2693" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2693" s="2"/>
+      <c r="G2693" s="3"/>
+    </row>
+    <row r="2694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2694" t="s">
         <v>6146</v>
       </c>
@@ -85423,8 +85889,10 @@
       <c r="D2694" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2694" s="2"/>
+      <c r="G2694" s="3"/>
+    </row>
+    <row r="2695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2695" t="s">
         <v>6148</v>
       </c>
@@ -85437,8 +85905,10 @@
       <c r="D2695" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2695" s="2"/>
+      <c r="G2695" s="3"/>
+    </row>
+    <row r="2696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2696" t="s">
         <v>6150</v>
       </c>
@@ -85451,8 +85921,10 @@
       <c r="D2696" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2696" s="2"/>
+      <c r="G2696" s="3"/>
+    </row>
+    <row r="2697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2697" t="s">
         <v>6152</v>
       </c>
@@ -85465,8 +85937,10 @@
       <c r="D2697" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2697" s="2"/>
+      <c r="G2697" s="3"/>
+    </row>
+    <row r="2698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2698" t="s">
         <v>6154</v>
       </c>
@@ -85479,8 +85953,10 @@
       <c r="D2698" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2698" s="2"/>
+      <c r="G2698" s="3"/>
+    </row>
+    <row r="2699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2699" t="s">
         <v>6156</v>
       </c>
@@ -85493,8 +85969,10 @@
       <c r="D2699" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2699" s="2"/>
+      <c r="G2699" s="3"/>
+    </row>
+    <row r="2700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2700" t="s">
         <v>6158</v>
       </c>
@@ -85507,8 +85985,10 @@
       <c r="D2700" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2700" s="2"/>
+      <c r="G2700" s="3"/>
+    </row>
+    <row r="2701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2701" t="s">
         <v>6160</v>
       </c>
@@ -85521,8 +86001,10 @@
       <c r="D2701" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2701" s="2"/>
+      <c r="G2701" s="3"/>
+    </row>
+    <row r="2702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2702" t="s">
         <v>6162</v>
       </c>
@@ -85535,8 +86017,10 @@
       <c r="D2702" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2702" s="2"/>
+      <c r="G2702" s="3"/>
+    </row>
+    <row r="2703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2703" t="s">
         <v>6164</v>
       </c>
@@ -85549,8 +86033,10 @@
       <c r="D2703" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2703" s="2"/>
+      <c r="G2703" s="3"/>
+    </row>
+    <row r="2704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2704" t="s">
         <v>6166</v>
       </c>
@@ -85563,8 +86049,10 @@
       <c r="D2704" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2704" s="2"/>
+      <c r="G2704" s="3"/>
+    </row>
+    <row r="2705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2705" t="s">
         <v>6168</v>
       </c>
@@ -85577,8 +86065,10 @@
       <c r="D2705" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2705" s="2"/>
+      <c r="G2705" s="3"/>
+    </row>
+    <row r="2706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2706" t="s">
         <v>6170</v>
       </c>
@@ -85591,8 +86081,10 @@
       <c r="D2706" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2706" s="2"/>
+      <c r="G2706" s="3"/>
+    </row>
+    <row r="2707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2707" t="s">
         <v>6172</v>
       </c>
@@ -85605,8 +86097,10 @@
       <c r="D2707" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2707" s="2"/>
+      <c r="G2707" s="3"/>
+    </row>
+    <row r="2708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2708" t="s">
         <v>6174</v>
       </c>
@@ -85619,8 +86113,10 @@
       <c r="D2708" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2708" s="2"/>
+      <c r="G2708" s="3"/>
+    </row>
+    <row r="2709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2709" t="s">
         <v>6176</v>
       </c>
@@ -85633,8 +86129,10 @@
       <c r="D2709" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2709" s="2"/>
+      <c r="G2709" s="3"/>
+    </row>
+    <row r="2710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2710" t="s">
         <v>6178</v>
       </c>
@@ -85647,8 +86145,10 @@
       <c r="D2710" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2710" s="2"/>
+      <c r="G2710" s="3"/>
+    </row>
+    <row r="2711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2711" t="s">
         <v>6180</v>
       </c>
@@ -85661,8 +86161,10 @@
       <c r="D2711" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2711" s="2"/>
+      <c r="G2711" s="3"/>
+    </row>
+    <row r="2712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2712" t="s">
         <v>6182</v>
       </c>
@@ -85675,8 +86177,10 @@
       <c r="D2712" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2712" s="2"/>
+      <c r="G2712" s="3"/>
+    </row>
+    <row r="2713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2713" t="s">
         <v>6184</v>
       </c>
@@ -85689,8 +86193,10 @@
       <c r="D2713" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2713" s="2"/>
+      <c r="G2713" s="3"/>
+    </row>
+    <row r="2714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2714" t="s">
         <v>6186</v>
       </c>
@@ -85703,8 +86209,10 @@
       <c r="D2714" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2714" s="2"/>
+      <c r="G2714" s="3"/>
+    </row>
+    <row r="2715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2715" t="s">
         <v>6188</v>
       </c>
@@ -85717,8 +86225,10 @@
       <c r="D2715" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2715" s="2"/>
+      <c r="G2715" s="3"/>
+    </row>
+    <row r="2716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2716" t="s">
         <v>6190</v>
       </c>
@@ -85731,8 +86241,10 @@
       <c r="D2716" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2716" s="2"/>
+      <c r="G2716" s="3"/>
+    </row>
+    <row r="2717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2717" t="s">
         <v>6192</v>
       </c>
@@ -85745,8 +86257,10 @@
       <c r="D2717" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2717" s="2"/>
+      <c r="G2717" s="3"/>
+    </row>
+    <row r="2718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2718" t="s">
         <v>6194</v>
       </c>
@@ -85759,8 +86273,10 @@
       <c r="D2718" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2718" s="2"/>
+      <c r="G2718" s="3"/>
+    </row>
+    <row r="2719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2719" t="s">
         <v>6196</v>
       </c>
@@ -85773,8 +86289,10 @@
       <c r="D2719" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2719" s="2"/>
+      <c r="G2719" s="3"/>
+    </row>
+    <row r="2720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2720" t="s">
         <v>6198</v>
       </c>
@@ -85787,8 +86305,10 @@
       <c r="D2720" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2720" s="2"/>
+      <c r="G2720" s="3"/>
+    </row>
+    <row r="2721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2721" t="s">
         <v>6200</v>
       </c>
@@ -85801,8 +86321,10 @@
       <c r="D2721" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2721" s="2"/>
+      <c r="G2721" s="3"/>
+    </row>
+    <row r="2722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2722" t="s">
         <v>6202</v>
       </c>
@@ -85815,8 +86337,10 @@
       <c r="D2722" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2722" s="2"/>
+      <c r="G2722" s="3"/>
+    </row>
+    <row r="2723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2723" t="s">
         <v>6204</v>
       </c>
@@ -85829,8 +86353,10 @@
       <c r="D2723" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2723" s="2"/>
+      <c r="G2723" s="3"/>
+    </row>
+    <row r="2724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2724" t="s">
         <v>6206</v>
       </c>
@@ -85843,8 +86369,10 @@
       <c r="D2724" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2724" s="2"/>
+      <c r="G2724" s="3"/>
+    </row>
+    <row r="2725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2725" t="s">
         <v>6208</v>
       </c>
@@ -85857,8 +86385,10 @@
       <c r="D2725" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2725" s="2"/>
+      <c r="G2725" s="3"/>
+    </row>
+    <row r="2726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2726" t="s">
         <v>6210</v>
       </c>
@@ -85871,8 +86401,10 @@
       <c r="D2726" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2726" s="2"/>
+      <c r="G2726" s="3"/>
+    </row>
+    <row r="2727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2727" t="s">
         <v>6212</v>
       </c>
@@ -85885,8 +86417,10 @@
       <c r="D2727" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2727" s="2"/>
+      <c r="G2727" s="3"/>
+    </row>
+    <row r="2728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2728" t="s">
         <v>6214</v>
       </c>
@@ -85899,8 +86433,10 @@
       <c r="D2728" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2728" s="2"/>
+      <c r="G2728" s="3"/>
+    </row>
+    <row r="2729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2729" t="s">
         <v>6216</v>
       </c>
@@ -85913,8 +86449,10 @@
       <c r="D2729" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2729" s="2"/>
+      <c r="G2729" s="3"/>
+    </row>
+    <row r="2730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2730" t="s">
         <v>6218</v>
       </c>
@@ -85927,8 +86465,10 @@
       <c r="D2730" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2730" s="2"/>
+      <c r="G2730" s="3"/>
+    </row>
+    <row r="2731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2731" t="s">
         <v>6220</v>
       </c>
@@ -85941,8 +86481,10 @@
       <c r="D2731" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2731" s="2"/>
+      <c r="G2731" s="3"/>
+    </row>
+    <row r="2732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2732" t="s">
         <v>6222</v>
       </c>
@@ -85955,8 +86497,10 @@
       <c r="D2732" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2732" s="2"/>
+      <c r="G2732" s="3"/>
+    </row>
+    <row r="2733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2733" t="s">
         <v>6224</v>
       </c>
@@ -85969,8 +86513,10 @@
       <c r="D2733" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2733" s="2"/>
+      <c r="G2733" s="3"/>
+    </row>
+    <row r="2734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2734" t="s">
         <v>6226</v>
       </c>
@@ -85983,8 +86529,10 @@
       <c r="D2734" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2734" s="2"/>
+      <c r="G2734" s="3"/>
+    </row>
+    <row r="2735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2735" t="s">
         <v>6228</v>
       </c>
@@ -85997,8 +86545,10 @@
       <c r="D2735" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="2736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2735" s="2"/>
+      <c r="G2735" s="3"/>
+    </row>
+    <row r="2736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2736" t="s">
         <v>6230</v>
       </c>
@@ -86011,8 +86561,10 @@
       <c r="D2736" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2736" s="2"/>
+      <c r="G2736" s="3"/>
+    </row>
+    <row r="2737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2737" t="s">
         <v>6232</v>
       </c>
@@ -86025,8 +86577,10 @@
       <c r="D2737" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2737" s="2"/>
+      <c r="G2737" s="3"/>
+    </row>
+    <row r="2738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2738" t="s">
         <v>6234</v>
       </c>
@@ -86039,8 +86593,10 @@
       <c r="D2738" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2738" s="2"/>
+      <c r="G2738" s="3"/>
+    </row>
+    <row r="2739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2739" t="s">
         <v>6236</v>
       </c>
@@ -86053,8 +86609,10 @@
       <c r="D2739" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2739" s="2"/>
+      <c r="G2739" s="3"/>
+    </row>
+    <row r="2740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2740" t="s">
         <v>6238</v>
       </c>
@@ -86067,8 +86625,10 @@
       <c r="D2740" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2740" s="2"/>
+      <c r="G2740" s="3"/>
+    </row>
+    <row r="2741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2741" t="s">
         <v>6240</v>
       </c>
@@ -86081,8 +86641,10 @@
       <c r="D2741" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2741" s="2"/>
+      <c r="G2741" s="3"/>
+    </row>
+    <row r="2742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2742" t="s">
         <v>6242</v>
       </c>
@@ -86095,8 +86657,10 @@
       <c r="D2742" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2742" s="2"/>
+      <c r="G2742" s="3"/>
+    </row>
+    <row r="2743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2743" t="s">
         <v>6244</v>
       </c>
@@ -86109,8 +86673,10 @@
       <c r="D2743" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2743" s="2"/>
+      <c r="G2743" s="3"/>
+    </row>
+    <row r="2744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2744" t="s">
         <v>6246</v>
       </c>
@@ -86123,8 +86689,10 @@
       <c r="D2744" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2744" s="2"/>
+      <c r="G2744" s="3"/>
+    </row>
+    <row r="2745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2745" t="s">
         <v>6248</v>
       </c>
@@ -86137,8 +86705,10 @@
       <c r="D2745" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2745" s="2"/>
+      <c r="G2745" s="3"/>
+    </row>
+    <row r="2746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2746" t="s">
         <v>6250</v>
       </c>
@@ -86151,8 +86721,10 @@
       <c r="D2746" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2746" s="2"/>
+      <c r="G2746" s="3"/>
+    </row>
+    <row r="2747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2747" t="s">
         <v>6252</v>
       </c>
@@ -86165,8 +86737,10 @@
       <c r="D2747" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2747" s="2"/>
+      <c r="G2747" s="3"/>
+    </row>
+    <row r="2748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2748" t="s">
         <v>6254</v>
       </c>
@@ -86179,8 +86753,10 @@
       <c r="D2748" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2748" s="2"/>
+      <c r="G2748" s="3"/>
+    </row>
+    <row r="2749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2749" t="s">
         <v>6256</v>
       </c>
@@ -86193,8 +86769,10 @@
       <c r="D2749" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2749" s="2"/>
+      <c r="G2749" s="3"/>
+    </row>
+    <row r="2750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2750" t="s">
         <v>6258</v>
       </c>
@@ -86207,8 +86785,10 @@
       <c r="D2750" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2750" s="2"/>
+      <c r="G2750" s="3"/>
+    </row>
+    <row r="2751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2751" t="s">
         <v>6260</v>
       </c>
@@ -86221,8 +86801,10 @@
       <c r="D2751" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2751" s="2"/>
+      <c r="G2751" s="3"/>
+    </row>
+    <row r="2752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2752" t="s">
         <v>6262</v>
       </c>
@@ -86235,8 +86817,10 @@
       <c r="D2752" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2752" s="2"/>
+      <c r="G2752" s="3"/>
+    </row>
+    <row r="2753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2753" t="s">
         <v>6264</v>
       </c>
@@ -86249,8 +86833,10 @@
       <c r="D2753" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2753" s="2"/>
+      <c r="G2753" s="3"/>
+    </row>
+    <row r="2754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2754" t="s">
         <v>6266</v>
       </c>
@@ -86263,8 +86849,10 @@
       <c r="D2754" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2754" s="2"/>
+      <c r="G2754" s="3"/>
+    </row>
+    <row r="2755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2755" t="s">
         <v>6268</v>
       </c>
@@ -86277,8 +86865,10 @@
       <c r="D2755" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2755" s="2"/>
+      <c r="G2755" s="3"/>
+    </row>
+    <row r="2756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2756" t="s">
         <v>6270</v>
       </c>
@@ -86291,8 +86881,10 @@
       <c r="D2756" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2756" s="2"/>
+      <c r="G2756" s="3"/>
+    </row>
+    <row r="2757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2757" t="s">
         <v>6272</v>
       </c>
@@ -86305,8 +86897,10 @@
       <c r="D2757" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2757" s="2"/>
+      <c r="G2757" s="3"/>
+    </row>
+    <row r="2758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2758" t="s">
         <v>6274</v>
       </c>
@@ -86319,8 +86913,10 @@
       <c r="D2758" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2758" s="2"/>
+      <c r="G2758" s="3"/>
+    </row>
+    <row r="2759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2759" t="s">
         <v>6276</v>
       </c>
@@ -86333,8 +86929,10 @@
       <c r="D2759" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2759" s="2"/>
+      <c r="G2759" s="3"/>
+    </row>
+    <row r="2760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2760" t="s">
         <v>6278</v>
       </c>
@@ -86347,8 +86945,10 @@
       <c r="D2760" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2760" s="2"/>
+      <c r="G2760" s="3"/>
+    </row>
+    <row r="2761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2761" t="s">
         <v>6280</v>
       </c>
@@ -86361,8 +86961,10 @@
       <c r="D2761" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2761" s="2"/>
+      <c r="G2761" s="3"/>
+    </row>
+    <row r="2762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2762" t="s">
         <v>6282</v>
       </c>
@@ -86375,8 +86977,10 @@
       <c r="D2762" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2762" s="2"/>
+      <c r="G2762" s="3"/>
+    </row>
+    <row r="2763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2763" t="s">
         <v>6284</v>
       </c>
@@ -86389,8 +86993,10 @@
       <c r="D2763" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2763" s="2"/>
+      <c r="G2763" s="3"/>
+    </row>
+    <row r="2764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2764" t="s">
         <v>6286</v>
       </c>
@@ -86403,8 +87009,10 @@
       <c r="D2764" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2764" s="2"/>
+      <c r="G2764" s="3"/>
+    </row>
+    <row r="2765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2765" t="s">
         <v>6288</v>
       </c>
@@ -86417,8 +87025,10 @@
       <c r="D2765" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2765" s="2"/>
+      <c r="G2765" s="3"/>
+    </row>
+    <row r="2766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2766" t="s">
         <v>6290</v>
       </c>
@@ -86431,8 +87041,10 @@
       <c r="D2766" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2766" s="2"/>
+      <c r="G2766" s="3"/>
+    </row>
+    <row r="2767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2767" t="s">
         <v>6292</v>
       </c>
@@ -86445,8 +87057,10 @@
       <c r="D2767" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2767" s="2"/>
+      <c r="G2767" s="3"/>
+    </row>
+    <row r="2768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2768" t="s">
         <v>6294</v>
       </c>
@@ -86459,8 +87073,10 @@
       <c r="D2768" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2768" s="2"/>
+      <c r="G2768" s="3"/>
+    </row>
+    <row r="2769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2769" t="s">
         <v>6296</v>
       </c>
@@ -86473,8 +87089,10 @@
       <c r="D2769" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2769" s="2"/>
+      <c r="G2769" s="3"/>
+    </row>
+    <row r="2770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2770" t="s">
         <v>6298</v>
       </c>
@@ -86487,8 +87105,10 @@
       <c r="D2770" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2770" s="2"/>
+      <c r="G2770" s="3"/>
+    </row>
+    <row r="2771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2771" t="s">
         <v>6300</v>
       </c>
@@ -86501,8 +87121,10 @@
       <c r="D2771" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2771" s="2"/>
+      <c r="G2771" s="3"/>
+    </row>
+    <row r="2772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2772" t="s">
         <v>6302</v>
       </c>
@@ -86515,8 +87137,10 @@
       <c r="D2772" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2772" s="2"/>
+      <c r="G2772" s="3"/>
+    </row>
+    <row r="2773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2773" t="s">
         <v>6304</v>
       </c>
@@ -86529,8 +87153,10 @@
       <c r="D2773" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2773" s="2"/>
+      <c r="G2773" s="3"/>
+    </row>
+    <row r="2774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2774" t="s">
         <v>6306</v>
       </c>
@@ -86543,8 +87169,10 @@
       <c r="D2774" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2774" s="2"/>
+      <c r="G2774" s="3"/>
+    </row>
+    <row r="2775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2775" t="s">
         <v>6308</v>
       </c>
@@ -86557,8 +87185,10 @@
       <c r="D2775" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2775" s="2"/>
+      <c r="G2775" s="3"/>
+    </row>
+    <row r="2776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2776" t="s">
         <v>6310</v>
       </c>
@@ -86571,8 +87201,10 @@
       <c r="D2776" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2776" s="2"/>
+      <c r="G2776" s="3"/>
+    </row>
+    <row r="2777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2777" t="s">
         <v>6312</v>
       </c>
@@ -86585,8 +87217,10 @@
       <c r="D2777" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2777" s="2"/>
+      <c r="G2777" s="3"/>
+    </row>
+    <row r="2778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2778" t="s">
         <v>6314</v>
       </c>
@@ -86599,8 +87233,10 @@
       <c r="D2778" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2778" s="2"/>
+      <c r="G2778" s="3"/>
+    </row>
+    <row r="2779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2779" t="s">
         <v>6316</v>
       </c>
@@ -86613,8 +87249,10 @@
       <c r="D2779" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2779" s="2"/>
+      <c r="G2779" s="3"/>
+    </row>
+    <row r="2780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2780" t="s">
         <v>6318</v>
       </c>
@@ -86627,8 +87265,10 @@
       <c r="D2780" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2780" s="2"/>
+      <c r="G2780" s="3"/>
+    </row>
+    <row r="2781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2781" t="s">
         <v>6320</v>
       </c>
@@ -86641,8 +87281,10 @@
       <c r="D2781" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2781" s="2"/>
+      <c r="G2781" s="3"/>
+    </row>
+    <row r="2782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2782" t="s">
         <v>6322</v>
       </c>
@@ -86655,8 +87297,10 @@
       <c r="D2782" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2782" s="2"/>
+      <c r="G2782" s="3"/>
+    </row>
+    <row r="2783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2783" t="s">
         <v>6324</v>
       </c>
@@ -86669,8 +87313,10 @@
       <c r="D2783" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2783" s="2"/>
+      <c r="G2783" s="3"/>
+    </row>
+    <row r="2784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2784" t="s">
         <v>6326</v>
       </c>
@@ -86683,8 +87329,10 @@
       <c r="D2784" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2784" s="2"/>
+      <c r="G2784" s="3"/>
+    </row>
+    <row r="2785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2785" t="s">
         <v>6328</v>
       </c>
@@ -86697,8 +87345,10 @@
       <c r="D2785" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2785" s="2"/>
+      <c r="G2785" s="3"/>
+    </row>
+    <row r="2786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2786" t="s">
         <v>6330</v>
       </c>
@@ -86711,8 +87361,10 @@
       <c r="D2786" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2786" s="2"/>
+      <c r="G2786" s="3"/>
+    </row>
+    <row r="2787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2787" t="s">
         <v>6332</v>
       </c>
@@ -86725,8 +87377,10 @@
       <c r="D2787" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="2788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2787" s="2"/>
+      <c r="G2787" s="3"/>
+    </row>
+    <row r="2788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2788" t="s">
         <v>6333</v>
       </c>
@@ -86739,8 +87393,10 @@
       <c r="D2788" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2788" s="2"/>
+      <c r="G2788" s="3"/>
+    </row>
+    <row r="2789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2789" t="s">
         <v>6334</v>
       </c>
@@ -86753,8 +87409,10 @@
       <c r="D2789" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="2790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2789" s="2"/>
+      <c r="G2789" s="3"/>
+    </row>
+    <row r="2790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2790" t="s">
         <v>6335</v>
       </c>
@@ -86767,8 +87425,10 @@
       <c r="D2790" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2790" s="2"/>
+      <c r="G2790" s="3"/>
+    </row>
+    <row r="2791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2791" t="s">
         <v>6336</v>
       </c>
@@ -86781,8 +87441,10 @@
       <c r="D2791" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2791" s="2"/>
+      <c r="G2791" s="3"/>
+    </row>
+    <row r="2792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2792" t="s">
         <v>6338</v>
       </c>
@@ -86795,8 +87457,10 @@
       <c r="D2792" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2792" s="2"/>
+      <c r="G2792" s="3"/>
+    </row>
+    <row r="2793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2793" t="s">
         <v>6339</v>
       </c>
@@ -86809,8 +87473,10 @@
       <c r="D2793" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="2794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2793" s="2"/>
+      <c r="G2793" s="3"/>
+    </row>
+    <row r="2794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2794" t="s">
         <v>6340</v>
       </c>
@@ -86823,8 +87489,10 @@
       <c r="D2794" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2794" s="2"/>
+      <c r="G2794" s="3"/>
+    </row>
+    <row r="2795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2795" t="s">
         <v>6341</v>
       </c>
@@ -86837,8 +87505,10 @@
       <c r="D2795" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2795" s="2"/>
+      <c r="G2795" s="3"/>
+    </row>
+    <row r="2796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2796" t="s">
         <v>6342</v>
       </c>
@@ -86851,6 +87521,8 @@
       <c r="D2796" t="s">
         <v>29</v>
       </c>
+      <c r="E2796" s="2"/>
+      <c r="G2796" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89358AC5-C989-4D10-B0D8-E0F13FAE719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36591420-54CA-4B2D-9E89-7E8B4BFBE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="1" r:id="rId1"/>
@@ -42781,8 +42781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2749" workbookViewId="0">
-      <selection activeCell="A2796" sqref="A2796"/>
+    <sheetView topLeftCell="A2749" workbookViewId="0">
+      <selection activeCell="B2790" sqref="B2790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -87534,7 +87534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC11500-F4F2-4E39-89FB-BA831B51D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BCFC5-690A-455A-AC9C-717E90BB2E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="1" r:id="rId1"/>
@@ -19967,8 +19967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="E483" sqref="E483"/>
+    <sheetView topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31102,8 +31102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="A716" sqref="A716"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BCFC5-690A-455A-AC9C-717E90BB2E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A8434-6033-48B8-B2E4-355AB3BE740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31102,8 +31102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
+      <selection activeCell="E684" sqref="E684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A8434-6033-48B8-B2E4-355AB3BE740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A30265-05E9-431C-87DB-FCFA89557718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31103,10 +31103,19 @@
   <dimension ref="A1:G716"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="E684" sqref="E684"/>
+      <selection activeCell="F683" sqref="F683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A30265-05E9-431C-87DB-FCFA89557718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D405B5A-1C1F-4D39-BD41-C9148D2159FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31102,8 +31102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="F683" sqref="F683"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D405B5A-1C1F-4D39-BD41-C9148D2159FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA9AC0-D135-422E-965C-953A76D58686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
     <sheet name="Code" sheetId="3" r:id="rId3"/>
     <sheet name="수익률" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19637,7 +19650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -19663,6 +19676,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -19968,7 +19983,7 @@
   <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="A483" sqref="A483"/>
+      <selection activeCell="A482" sqref="A482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31100,10 +31115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:AA716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31117,7 +31132,7 @@
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>248</v>
       </c>
@@ -31140,23 +31155,38 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B3">
         <v>1013.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>253</v>
       </c>
@@ -31166,8 +31196,12 @@
       <c r="C4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>254</v>
       </c>
@@ -31177,8 +31211,10 @@
       <c r="C5">
         <v>1000.82</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>255</v>
       </c>
@@ -31189,7 +31225,7 @@
         <v>1011.19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>256</v>
       </c>
@@ -31199,8 +31235,10 @@
       <c r="C7">
         <v>1000.73</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>257</v>
       </c>
@@ -31210,8 +31248,12 @@
       <c r="C8">
         <v>998.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>258</v>
       </c>
@@ -31221,8 +31263,10 @@
       <c r="C9">
         <v>1017.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>259</v>
       </c>
@@ -31232,8 +31276,15 @@
       <c r="C10">
         <v>1025.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>260</v>
       </c>
@@ -31243,8 +31294,10 @@
       <c r="C11">
         <v>1025.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>261</v>
       </c>
@@ -31254,8 +31307,11 @@
       <c r="C12">
         <v>1034.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>262</v>
       </c>
@@ -31265,8 +31321,12 @@
       <c r="C13">
         <v>1009.59</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>263</v>
       </c>
@@ -31276,8 +31336,14 @@
       <c r="C14">
         <v>1021.12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>264</v>
       </c>
@@ -31287,8 +31353,13 @@
       <c r="C15">
         <v>1018.28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>265</v>
       </c>
@@ -31298,8 +31369,14 @@
       <c r="C16">
         <v>1016</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>266</v>
       </c>
@@ -31309,8 +31386,12 @@
       <c r="C17">
         <v>999.51</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>267</v>
       </c>
@@ -31320,8 +31401,16 @@
       <c r="C18">
         <v>1055.76</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>268</v>
       </c>
@@ -31331,8 +31420,13 @@
       <c r="C19">
         <v>1058.74</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>269</v>
       </c>
@@ -31342,8 +31436,9 @@
       <c r="C20">
         <v>1070.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>270</v>
       </c>
@@ -31353,8 +31448,14 @@
       <c r="C21">
         <v>1091.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>271</v>
       </c>
@@ -31364,8 +31465,11 @@
       <c r="C22">
         <v>1104.07</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>272</v>
       </c>
@@ -31375,8 +31479,10 @@
       <c r="C23">
         <v>1117.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>273</v>
       </c>
@@ -31387,7 +31493,7 @@
         <v>1122.0899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>274</v>
       </c>
@@ -31397,8 +31503,11 @@
       <c r="C25">
         <v>1109.48</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>275</v>
       </c>
@@ -31408,8 +31517,11 @@
       <c r="C26">
         <v>1110.23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>276</v>
       </c>
@@ -31419,8 +31531,11 @@
       <c r="C27">
         <v>1080.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>277</v>
       </c>
@@ -31431,7 +31546,7 @@
         <v>1061.4000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>278</v>
       </c>
@@ -31441,8 +31556,11 @@
       <c r="C29">
         <v>1059.8800000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>279</v>
       </c>
@@ -31453,7 +31571,7 @@
         <v>1048.98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>280</v>
       </c>
@@ -31463,8 +31581,12 @@
       <c r="C31">
         <v>1044.29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="AA31" s="10"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>281</v>
       </c>
@@ -31474,8 +31596,12 @@
       <c r="C32">
         <v>1052.76</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>282</v>
       </c>
@@ -31485,8 +31611,9 @@
       <c r="C33">
         <v>1061.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>283</v>
       </c>
@@ -31496,8 +31623,10 @@
       <c r="C34">
         <v>1059.22</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>284</v>
       </c>
@@ -31507,8 +31636,12 @@
       <c r="C35">
         <v>1054.3499999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>285</v>
       </c>
@@ -31518,8 +31651,11 @@
       <c r="C36">
         <v>1039.47</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>286</v>
       </c>
@@ -31529,8 +31665,12 @@
       <c r="C37">
         <v>1038.6300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>287</v>
       </c>
@@ -31540,8 +31680,9 @@
       <c r="C38">
         <v>1026.1300000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>288</v>
       </c>
@@ -31551,8 +31692,10 @@
       <c r="C39">
         <v>1019.56</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>289</v>
       </c>
@@ -31562,8 +31705,10 @@
       <c r="C40">
         <v>1025.6199999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P40" s="10"/>
+      <c r="AA40" s="10"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>290</v>
       </c>
@@ -31573,8 +31718,12 @@
       <c r="C41">
         <v>1019.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>291</v>
       </c>
@@ -31585,7 +31734,7 @@
         <v>1018.18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>292</v>
       </c>
@@ -31595,8 +31744,10 @@
       <c r="C43">
         <v>1030.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>293</v>
       </c>
@@ -31606,8 +31757,10 @@
       <c r="C44">
         <v>1044.6199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>294</v>
       </c>
@@ -31617,8 +31770,10 @@
       <c r="C45">
         <v>1048.8800000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>295</v>
       </c>
@@ -31628,8 +31783,10 @@
       <c r="C46">
         <v>1049.1400000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>296</v>
       </c>
@@ -31640,7 +31797,7 @@
         <v>1050.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>297</v>
       </c>
@@ -31651,7 +31808,7 @@
         <v>1052.8699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>298</v>
       </c>
@@ -31661,8 +31818,10 @@
       <c r="C49">
         <v>1051.49</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P49" s="10"/>
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>299</v>
       </c>
@@ -31672,8 +31831,11 @@
       <c r="C50">
         <v>1047.33</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>300</v>
       </c>
@@ -31683,8 +31845,12 @@
       <c r="C51">
         <v>1051.53</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>301</v>
       </c>
@@ -31694,8 +31860,9 @@
       <c r="C52">
         <v>1064.51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>302</v>
       </c>
@@ -31705,8 +31872,9 @@
       <c r="C53">
         <v>1058.4100000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>303</v>
       </c>
@@ -31716,8 +31884,10 @@
       <c r="C54">
         <v>1057.6400000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>304</v>
       </c>
@@ -31727,8 +31897,12 @@
       <c r="C55">
         <v>1068.08</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="T55" s="10"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>305</v>
       </c>
@@ -31738,8 +31912,14 @@
       <c r="C56">
         <v>1074.57</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>306</v>
       </c>
@@ -31749,8 +31929,9 @@
       <c r="C57">
         <v>1078.57</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P57" s="10"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>307</v>
       </c>
@@ -31760,8 +31941,10 @@
       <c r="C58">
         <v>1082.67</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>308</v>
       </c>
@@ -31771,8 +31954,9 @@
       <c r="C59">
         <v>1083.76</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>309</v>
       </c>
@@ -31783,7 +31967,7 @@
         <v>1080.3499999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>310</v>
       </c>
@@ -31793,8 +31977,10 @@
       <c r="C61">
         <v>1083.04</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>311</v>
       </c>
@@ -31804,8 +31990,10 @@
       <c r="C62">
         <v>1071.3699999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>312</v>
       </c>
@@ -31816,7 +32004,7 @@
         <v>1078.47</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>313</v>
       </c>
@@ -31826,8 +32014,11 @@
       <c r="C64">
         <v>1094.44</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>314</v>
       </c>
@@ -31838,7 +32029,7 @@
         <v>1091.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>315</v>
       </c>
@@ -31848,8 +32039,10 @@
       <c r="C66">
         <v>1097.8399999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>316</v>
       </c>
@@ -31860,7 +32053,7 @@
         <v>1086.82</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>317</v>
       </c>
@@ -31870,8 +32063,11 @@
       <c r="C68">
         <v>1086.07</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>318</v>
       </c>
@@ -31882,7 +32078,7 @@
         <v>1074.68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>319</v>
       </c>
@@ -31892,8 +32088,9 @@
       <c r="C70">
         <v>1074.96</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T70" s="10"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>320</v>
       </c>
@@ -31903,8 +32100,9 @@
       <c r="C71">
         <v>1080.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R71" s="10"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>321</v>
       </c>
@@ -31914,8 +32112,10 @@
       <c r="C72">
         <v>1077.6500000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>322</v>
       </c>
@@ -31925,8 +32125,10 @@
       <c r="C73">
         <v>1082.8900000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>323</v>
       </c>
@@ -31936,8 +32138,11 @@
       <c r="C74">
         <v>1085.96</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>324</v>
       </c>
@@ -31947,8 +32152,10 @@
       <c r="C75">
         <v>1092.1400000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>325</v>
       </c>
@@ -31958,8 +32165,12 @@
       <c r="C76">
         <v>1093.6400000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="T76" s="10"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>326</v>
       </c>
@@ -31969,8 +32180,9 @@
       <c r="C77">
         <v>1086.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>327</v>
       </c>
@@ -31981,7 +32193,7 @@
         <v>1066.95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>328</v>
       </c>
@@ -31991,8 +32203,10 @@
       <c r="C79">
         <v>1055.6400000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>329</v>
       </c>
@@ -32002,8 +32216,13 @@
       <c r="C80">
         <v>1047.43</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>330</v>
       </c>
@@ -32013,8 +32232,11 @@
       <c r="C81">
         <v>1069.82</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>331</v>
       </c>
@@ -32024,8 +32246,10 @@
       <c r="C82">
         <v>1077.26</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>332</v>
       </c>
@@ -32035,8 +32259,9 @@
       <c r="C83">
         <v>1072.17</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P83" s="10"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>333</v>
       </c>
@@ -32046,8 +32271,9 @@
       <c r="C84">
         <v>1087.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>334</v>
       </c>
@@ -32057,8 +32283,10 @@
       <c r="C85">
         <v>1083</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>335</v>
       </c>
@@ -32068,8 +32296,9 @@
       <c r="C86">
         <v>1077.96</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R86" s="10"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>336</v>
       </c>
@@ -32079,8 +32308,10 @@
       <c r="C87">
         <v>1077.97</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P87" s="10"/>
+      <c r="R87" s="10"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>337</v>
       </c>
@@ -32090,8 +32321,10 @@
       <c r="C88">
         <v>1097.54</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P88" s="10"/>
+      <c r="T88" s="10"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>338</v>
       </c>
@@ -32101,8 +32334,11 @@
       <c r="C89">
         <v>1085.1199999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>339</v>
       </c>
@@ -32112,8 +32348,9 @@
       <c r="C90">
         <v>1082.68</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>340</v>
       </c>
@@ -32123,8 +32360,10 @@
       <c r="C91">
         <v>1092.3399999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>341</v>
       </c>
@@ -32135,7 +32374,7 @@
         <v>1050.28</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>342</v>
       </c>
@@ -32145,8 +32384,9 @@
       <c r="C93">
         <v>1094.42</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Y93" s="10"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>343</v>
       </c>
@@ -32156,8 +32396,10 @@
       <c r="C94">
         <v>1113.19</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>344</v>
       </c>
@@ -32167,8 +32409,11 @@
       <c r="C95">
         <v>1121.31</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>345</v>
       </c>
@@ -32179,7 +32424,7 @@
         <v>1155.51</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>346</v>
       </c>
@@ -32189,8 +32434,10 @@
       <c r="C97">
         <v>1115.1400000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P97" s="10"/>
+      <c r="R97" s="10"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>347</v>
       </c>
@@ -32200,8 +32447,11 @@
       <c r="C98">
         <v>1126.1300000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>348</v>
       </c>
@@ -32211,8 +32461,10 @@
       <c r="C99">
         <v>1126.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>349</v>
       </c>
@@ -32222,8 +32474,10 @@
       <c r="C100">
         <v>1126.82</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P100" s="10"/>
+      <c r="AA100" s="10"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>350</v>
       </c>
@@ -32233,8 +32487,10 @@
       <c r="C101">
         <v>1113.55</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>351</v>
       </c>
@@ -32244,8 +32500,10 @@
       <c r="C102">
         <v>1133.75</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P102" s="10"/>
+      <c r="R102" s="10"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>352</v>
       </c>
@@ -32255,8 +32513,11 @@
       <c r="C103">
         <v>1128.99</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>353</v>
       </c>
@@ -32266,8 +32527,10 @@
       <c r="C104">
         <v>1161.0899999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>354</v>
       </c>
@@ -32277,8 +32540,9 @@
       <c r="C105">
         <v>1156.28</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P105" s="10"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>355</v>
       </c>
@@ -32288,8 +32552,10 @@
       <c r="C106">
         <v>1146.4000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>356</v>
       </c>
@@ -32300,7 +32566,7 @@
         <v>1141.9100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>357</v>
       </c>
@@ -32310,8 +32576,9 @@
       <c r="C108">
         <v>1125.74</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P108" s="10"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>358</v>
       </c>
@@ -32322,7 +32589,7 @@
         <v>1118.9100000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>359</v>
       </c>
@@ -32333,7 +32600,7 @@
         <v>1122.3499999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>360</v>
       </c>
@@ -32344,7 +32611,7 @@
         <v>1126.03</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>361</v>
       </c>
@@ -32354,8 +32621,9 @@
       <c r="C112">
         <v>1143.22</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P112" s="10"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>362</v>
       </c>
@@ -32366,7 +32634,7 @@
         <v>1122.0999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>363</v>
       </c>
@@ -32377,7 +32645,7 @@
         <v>1123.8800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>364</v>
       </c>
@@ -32388,7 +32656,7 @@
         <v>1132.8800000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>365</v>
       </c>
@@ -32399,7 +32667,7 @@
         <v>1154.3699999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>366</v>
       </c>
@@ -32410,7 +32678,7 @@
         <v>1158.19</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>367</v>
       </c>
@@ -32420,8 +32688,9 @@
       <c r="C118">
         <v>1175.83</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P118" s="10"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>368</v>
       </c>
@@ -32431,8 +32700,10 @@
       <c r="C119">
         <v>1167.6400000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>369</v>
       </c>
@@ -32442,8 +32713,10 @@
       <c r="C120">
         <v>1168.53</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>370</v>
       </c>
@@ -32454,7 +32727,7 @@
         <v>1164.0899999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>371</v>
       </c>
@@ -32464,8 +32737,9 @@
       <c r="C122">
         <v>1165.3699999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P122" s="10"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>372</v>
       </c>
@@ -32475,8 +32749,9 @@
       <c r="C123">
         <v>1155.25</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P123" s="10"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>373</v>
       </c>
@@ -32487,7 +32762,7 @@
         <v>1158.75</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>374</v>
       </c>
@@ -32497,8 +32772,10 @@
       <c r="C125">
         <v>1152.3900000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P125" s="10"/>
+      <c r="R125" s="10"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>375</v>
       </c>
@@ -32509,7 +32786,7 @@
         <v>1152.49</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>376</v>
       </c>
@@ -32520,7 +32797,7 @@
         <v>1166.48</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>377</v>
       </c>
@@ -32531,7 +32808,7 @@
         <v>1172.54</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>378</v>
       </c>
@@ -32542,7 +32819,7 @@
         <v>1159.29</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>379</v>
       </c>
@@ -32553,7 +32830,7 @@
         <v>1156.8699999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>380</v>
       </c>
@@ -32564,7 +32841,7 @@
         <v>1144.9000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>381</v>
       </c>
@@ -32575,7 +32852,7 @@
         <v>1124.56</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>382</v>
       </c>
@@ -32586,7 +32863,7 @@
         <v>1129.74</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>383</v>
       </c>
@@ -32597,7 +32874,7 @@
         <v>1129.76</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>384</v>
       </c>
@@ -32607,8 +32884,11 @@
       <c r="C135">
         <v>1118.26</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>385</v>
       </c>
@@ -32619,7 +32899,7 @@
         <v>1120.67</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>386</v>
       </c>
@@ -32630,7 +32910,7 @@
         <v>1105.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>387</v>
       </c>
@@ -32641,7 +32921,7 @@
         <v>1108.8</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>388</v>
       </c>
@@ -32652,7 +32932,7 @@
         <v>1117.53</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>389</v>
       </c>
@@ -32662,8 +32942,9 @@
       <c r="C140">
         <v>1103.96</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R140" s="10"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>390</v>
       </c>
@@ -32674,7 +32955,7 @@
         <v>1111.3699999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>391</v>
       </c>
@@ -32684,8 +32965,10 @@
       <c r="C142">
         <v>1123.02</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P142" s="10"/>
+      <c r="R142" s="10"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>392</v>
       </c>
@@ -32695,8 +32978,10 @@
       <c r="C143">
         <v>1121.8699999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P143" s="10"/>
+      <c r="R143" s="10"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>393</v>
       </c>
@@ -32707,7 +32992,7 @@
         <v>1112.69</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>394</v>
       </c>
@@ -32718,7 +33003,7 @@
         <v>1132.17</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>395</v>
       </c>
@@ -32729,7 +33014,7 @@
         <v>1129.25</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>396</v>
       </c>
@@ -32739,8 +33024,9 @@
       <c r="C147">
         <v>1102.48</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P147" s="10"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>397</v>
       </c>
@@ -32751,7 +33037,7 @@
         <v>1096.27</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>398</v>
       </c>
@@ -32761,8 +33047,10 @@
       <c r="C149">
         <v>1081.28</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P149" s="10"/>
+      <c r="Q149" s="10"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>399</v>
       </c>
@@ -32773,7 +33061,7 @@
         <v>1100.28</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>400</v>
       </c>
@@ -32783,8 +33071,11 @@
       <c r="C151">
         <v>1103.26</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q151" s="10"/>
+      <c r="R151" s="10"/>
+      <c r="T151" s="10"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>401</v>
       </c>
@@ -32795,7 +33086,7 @@
         <v>1082.53</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>402</v>
       </c>
@@ -32805,8 +33096,9 @@
       <c r="C153">
         <v>1079.74</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R153" s="10"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>403</v>
       </c>
@@ -32816,8 +33108,9 @@
       <c r="C154">
         <v>1086.33</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q154" s="10"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>404</v>
       </c>
@@ -32827,8 +33120,10 @@
       <c r="C155">
         <v>1069.05</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>405</v>
       </c>
@@ -32838,8 +33133,10 @@
       <c r="C156">
         <v>1071.44</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>406</v>
       </c>
@@ -32849,8 +33146,10 @@
       <c r="C157">
         <v>1084.57</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>407</v>
       </c>
@@ -32861,7 +33160,7 @@
         <v>1088.03</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>408</v>
       </c>
@@ -32872,7 +33171,7 @@
         <v>1111.68</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>409</v>
       </c>
@@ -32882,8 +33181,10 @@
       <c r="C160">
         <v>1097.3800000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>410</v>
       </c>
@@ -32893,8 +33194,10 @@
       <c r="C161">
         <v>1089.33</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P161" s="10"/>
+      <c r="Q161" s="10"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>411</v>
       </c>
@@ -32904,8 +33207,10 @@
       <c r="C162">
         <v>1088.05</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P162" s="10"/>
+      <c r="Q162" s="10"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>412</v>
       </c>
@@ -32915,8 +33220,10 @@
       <c r="C163">
         <v>1090.75</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>413</v>
       </c>
@@ -32926,8 +33233,9 @@
       <c r="C164">
         <v>1083.94</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P164" s="10"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>414</v>
       </c>
@@ -32938,7 +33246,7 @@
         <v>1094.23</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>415</v>
       </c>
@@ -32948,8 +33256,10 @@
       <c r="C166">
         <v>1102.8599999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>416</v>
       </c>
@@ -32960,7 +33270,7 @@
         <v>1097.96</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>417</v>
       </c>
@@ -32971,7 +33281,7 @@
         <v>1092.04</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>418</v>
       </c>
@@ -32981,8 +33291,10 @@
       <c r="C169">
         <v>1095.68</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>419</v>
       </c>
@@ -32992,8 +33304,10 @@
       <c r="C170">
         <v>1099.48</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>420</v>
       </c>
@@ -33004,7 +33318,7 @@
         <v>1102.0899999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>421</v>
       </c>
@@ -33014,8 +33328,11 @@
       <c r="C172">
         <v>1097.6600000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P172" s="10"/>
+      <c r="Q172" s="10"/>
+      <c r="R172" s="10"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>422</v>
       </c>
@@ -33026,7 +33343,7 @@
         <v>1088.68</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>423</v>
       </c>
@@ -33036,8 +33353,10 @@
       <c r="C174">
         <v>1096.25</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P174" s="10"/>
+      <c r="Q174" s="10"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>424</v>
       </c>
@@ -33048,7 +33367,7 @@
         <v>1099.43</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>425</v>
       </c>
@@ -33058,8 +33377,12 @@
       <c r="C176">
         <v>1096.9000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P176" s="10"/>
+      <c r="Q176" s="10"/>
+      <c r="R176" s="10"/>
+      <c r="T176" s="10"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>426</v>
       </c>
@@ -33069,8 +33392,10 @@
       <c r="C177">
         <v>1097.3599999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P177" s="10"/>
+      <c r="Q177" s="10"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>427</v>
       </c>
@@ -33080,8 +33405,10 @@
       <c r="C178">
         <v>1092.47</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>428</v>
       </c>
@@ -33092,7 +33419,7 @@
         <v>1083.21</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>429</v>
       </c>
@@ -33102,8 +33429,10 @@
       <c r="C180">
         <v>1067.94</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q180" s="10"/>
+      <c r="AA180" s="10"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>430</v>
       </c>
@@ -33114,7 +33443,7 @@
         <v>1085.6500000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>431</v>
       </c>
@@ -33124,8 +33453,9 @@
       <c r="C182">
         <v>1074.99</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P182" s="10"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>432</v>
       </c>
@@ -33136,7 +33466,7 @@
         <v>1084.78</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>433</v>
       </c>
@@ -33146,8 +33476,9 @@
       <c r="C184">
         <v>1093.9000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P184" s="10"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>434</v>
       </c>
@@ -33157,8 +33488,9 @@
       <c r="C185">
         <v>1097.3399999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P185" s="10"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>435</v>
       </c>
@@ -33169,7 +33501,7 @@
         <v>1104.0899999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>436</v>
       </c>
@@ -33179,8 +33511,10 @@
       <c r="C187">
         <v>1118.43</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P187" s="10"/>
+      <c r="R187" s="10"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>437</v>
       </c>
@@ -33190,8 +33524,10 @@
       <c r="C188">
         <v>1117.33</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>438</v>
       </c>
@@ -33201,8 +33537,10 @@
       <c r="C189">
         <v>1124.47</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>439</v>
       </c>
@@ -33213,7 +33551,7 @@
         <v>1123.45</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>440</v>
       </c>
@@ -33224,7 +33562,7 @@
         <v>1135.03</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>441</v>
       </c>
@@ -33235,7 +33573,7 @@
         <v>1129.47</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>442</v>
       </c>
@@ -33245,8 +33583,10 @@
       <c r="C193">
         <v>1117.56</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>443</v>
       </c>
@@ -33257,7 +33597,7 @@
         <v>1127.3699999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>444</v>
       </c>
@@ -33268,7 +33608,7 @@
         <v>1141.71</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>445</v>
       </c>
@@ -33278,8 +33618,9 @@
       <c r="C196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P196" s="10"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>446</v>
       </c>
@@ -33289,8 +33630,10 @@
       <c r="C197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P197" s="10"/>
+      <c r="R197" s="10"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>447</v>
       </c>
@@ -33300,8 +33643,10 @@
       <c r="C198">
         <v>1161.7</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>448</v>
       </c>
@@ -33311,8 +33656,10 @@
       <c r="C199">
         <v>1149.69</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P199" s="10"/>
+      <c r="R199" s="10"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>449</v>
       </c>
@@ -33323,7 +33670,7 @@
         <v>1148.1199999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>450</v>
       </c>
@@ -33334,7 +33681,7 @@
         <v>1140.6300000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
         <v>451</v>
       </c>
@@ -33345,7 +33692,7 @@
         <v>1153.74</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>452</v>
       </c>
@@ -33356,7 +33703,7 @@
         <v>1162.75</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
         <v>453</v>
       </c>
@@ -33366,8 +33713,10 @@
       <c r="C204">
         <v>1157.29</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
         <v>454</v>
       </c>
@@ -33378,7 +33727,7 @@
         <v>1159.1400000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
         <v>455</v>
       </c>
@@ -33388,8 +33737,9 @@
       <c r="C206">
         <v>1150.54</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P206" s="10"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>456</v>
       </c>
@@ -33399,8 +33749,10 @@
       <c r="C207">
         <v>1142.67</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P207" s="10"/>
+      <c r="Q207" s="10"/>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
         <v>457</v>
       </c>
@@ -33410,8 +33762,9 @@
       <c r="C208">
         <v>1133.06</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P208" s="10"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
         <v>458</v>
       </c>
@@ -33422,7 +33775,7 @@
         <v>1119.83</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>459</v>
       </c>
@@ -33433,7 +33786,7 @@
         <v>1118.2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>460</v>
       </c>
@@ -33443,8 +33796,12 @@
       <c r="C211">
         <v>1124.96</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P211" s="10"/>
+      <c r="Q211" s="10"/>
+      <c r="R211" s="10"/>
+      <c r="T211" s="10"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
         <v>461</v>
       </c>
@@ -33455,7 +33812,7 @@
         <v>1126.7</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>462</v>
       </c>
@@ -33465,8 +33822,10 @@
       <c r="C213">
         <v>1134.29</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R213" s="10"/>
+      <c r="T213" s="10"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>463</v>
       </c>
@@ -33476,8 +33835,10 @@
       <c r="C214">
         <v>1133.03</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P214" s="10"/>
+      <c r="Q214" s="10"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>464</v>
       </c>
@@ -33487,8 +33848,9 @@
       <c r="C215">
         <v>1143.44</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T215" s="10"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>465</v>
       </c>
@@ -33499,7 +33861,7 @@
         <v>1145.6099999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>466</v>
       </c>
@@ -33509,8 +33871,10 @@
       <c r="C217">
         <v>1134.17</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
         <v>467</v>
       </c>
@@ -33520,8 +33884,11 @@
       <c r="C218">
         <v>1132.94</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P218" s="10"/>
+      <c r="R218" s="10"/>
+      <c r="T218" s="10"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
         <v>468</v>
       </c>
@@ -33531,8 +33898,11 @@
       <c r="C219">
         <v>1128.55</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q219" s="10"/>
+      <c r="R219" s="10"/>
+      <c r="T219" s="10"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
         <v>469</v>
       </c>
@@ -33542,8 +33912,10 @@
       <c r="C220">
         <v>1126.69</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P220" s="10"/>
+      <c r="Q220" s="10"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
         <v>470</v>
       </c>
@@ -33554,7 +33926,7 @@
         <v>1153.4100000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
         <v>471</v>
       </c>
@@ -33564,8 +33936,10 @@
       <c r="C222">
         <v>1141.0999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P222" s="10"/>
+      <c r="T222" s="10"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
         <v>472</v>
       </c>
@@ -33575,8 +33949,9 @@
       <c r="C223">
         <v>1124.32</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="R223" s="10"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>473</v>
       </c>
@@ -33587,7 +33962,7 @@
         <v>1133.3800000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
         <v>474</v>
       </c>
@@ -33597,8 +33972,11 @@
       <c r="C225">
         <v>1134.33</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P225" s="10"/>
+      <c r="R225" s="10"/>
+      <c r="T225" s="10"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>475</v>
       </c>
@@ -33609,7 +33987,7 @@
         <v>1129.72</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>476</v>
       </c>
@@ -33619,8 +33997,10 @@
       <c r="C227">
         <v>1132.07</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P227" s="10"/>
+      <c r="Q227" s="10"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>477</v>
       </c>
@@ -33631,7 +34011,7 @@
         <v>1129.97</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>478</v>
       </c>
@@ -33641,8 +34021,10 @@
       <c r="C229">
         <v>1140.21</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>479</v>
       </c>
@@ -33652,8 +34034,10 @@
       <c r="C230">
         <v>1134.27</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>480</v>
       </c>
@@ -33663,8 +34047,11 @@
       <c r="C231">
         <v>1123.01</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="T231" s="10"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>481</v>
       </c>
@@ -33675,7 +34062,7 @@
         <v>1127.8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>482</v>
       </c>
@@ -33686,7 +34073,7 @@
         <v>1136.82</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>483</v>
       </c>
@@ -33697,7 +34084,7 @@
         <v>1135.46</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>484</v>
       </c>
@@ -33708,7 +34095,7 @@
         <v>1132.8599999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>485</v>
       </c>
@@ -33718,8 +34105,11 @@
       <c r="C236">
         <v>1126.3399999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P236" s="10"/>
+      <c r="Q236" s="10"/>
+      <c r="R236" s="10"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
         <v>486</v>
       </c>
@@ -33730,7 +34120,7 @@
         <v>1136.0999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
         <v>487</v>
       </c>
@@ -33741,7 +34131,7 @@
         <v>1137.51</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
         <v>488</v>
       </c>
@@ -33751,8 +34141,11 @@
       <c r="C239">
         <v>1128.6199999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
         <v>489</v>
       </c>
@@ -33763,7 +34156,7 @@
         <v>1135.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>490</v>
       </c>
@@ -33773,8 +34166,9 @@
       <c r="C241">
         <v>1135.3800000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P241" s="10"/>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>491</v>
       </c>
@@ -33784,8 +34178,9 @@
       <c r="C242">
         <v>1129.81</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P242" s="10"/>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>492</v>
       </c>
@@ -33795,8 +34190,11 @@
       <c r="C243">
         <v>1134.6199999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>493</v>
       </c>
@@ -33806,8 +34204,9 @@
       <c r="C244">
         <v>1135.83</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q244" s="10"/>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>494</v>
       </c>
@@ -33817,8 +34216,11 @@
       <c r="C245">
         <v>1134.54</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>495</v>
       </c>
@@ -33829,7 +34231,7 @@
         <v>1133.92</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>496</v>
       </c>
@@ -33840,7 +34242,7 @@
         <v>1146.67</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>497</v>
       </c>
@@ -33851,7 +34253,7 @@
         <v>1146.0899999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>498</v>
       </c>
@@ -33861,8 +34263,10 @@
       <c r="C249">
         <v>1152.21</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10"/>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>499</v>
       </c>
@@ -33873,7 +34277,7 @@
         <v>1151.03</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>500</v>
       </c>
@@ -33883,8 +34287,10 @@
       <c r="C251">
         <v>1153.1199999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P251" s="10"/>
+      <c r="Q251" s="10"/>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>501</v>
       </c>
@@ -33895,7 +34301,7 @@
         <v>1152.94</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>502</v>
       </c>
@@ -33905,8 +34311,10 @@
       <c r="C253">
         <v>1153.75</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P253" s="10"/>
+      <c r="Q253" s="10"/>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>503</v>
       </c>
@@ -33917,7 +34325,7 @@
         <v>1152.5999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>504</v>
       </c>
@@ -33928,7 +34336,7 @@
         <v>1159.1199999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>505</v>
       </c>
@@ -36758,7 +37166,7 @@
         <v>970.51</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="8" t="s">
         <v>714</v>
       </c>
@@ -36772,7 +37180,7 @@
         <v>965.96</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="8" t="s">
         <v>715</v>
       </c>
@@ -36785,8 +37193,14 @@
       <c r="D466">
         <v>963.87</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E466" s="9">
+        <v>2521.27</v>
+      </c>
+      <c r="F466">
+        <v>749.67</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="8" t="s">
         <v>716</v>
       </c>
@@ -36799,8 +37213,14 @@
       <c r="D467">
         <v>968.75</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E467" s="9">
+        <v>2539.0500000000002</v>
+      </c>
+      <c r="F467" s="9">
+        <v>749.59</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
         <v>717</v>
       </c>
@@ -36813,8 +37233,14 @@
       <c r="D468">
         <v>968.48</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E468" s="9">
+        <v>2548.39</v>
+      </c>
+      <c r="F468" s="9">
+        <v>745.18</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="8" t="s">
         <v>718</v>
       </c>
@@ -36827,8 +37253,14 @@
       <c r="D469">
         <v>970.49</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E469" s="9">
+        <v>2583.17</v>
+      </c>
+      <c r="F469" s="9">
+        <v>749.28</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
         <v>719</v>
       </c>
@@ -36841,8 +37273,14 @@
       <c r="D470">
         <v>991.32</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E470" s="9">
+        <v>2591.0500000000002</v>
+      </c>
+      <c r="F470" s="9">
+        <v>756.32</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
         <v>720</v>
       </c>
@@ -36855,8 +37293,14 @@
       <c r="D471">
         <v>994.3</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E471" s="9">
+        <v>2610.42</v>
+      </c>
+      <c r="F471" s="9">
+        <v>768.48</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
         <v>721</v>
       </c>
@@ -36869,8 +37313,14 @@
       <c r="D472">
         <v>1009.95</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E472" s="9">
+        <v>2626.81</v>
+      </c>
+      <c r="F472" s="9">
+        <v>773.65</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="8" t="s">
         <v>722</v>
       </c>
@@ -36883,8 +37333,14 @@
       <c r="D473">
         <v>1016.41</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E473" s="9">
+        <v>2671.52</v>
+      </c>
+      <c r="F473" s="9">
+        <v>778.27</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="s">
         <v>723</v>
       </c>
@@ -36897,8 +37353,14 @@
       <c r="D474">
         <v>999.09</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E474" s="9">
+        <v>2654.06</v>
+      </c>
+      <c r="F474" s="9">
+        <v>768.27</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="8" t="s">
         <v>724</v>
       </c>
@@ -36911,8 +37373,14 @@
       <c r="D475">
         <v>1000.69</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E475" s="9">
+        <v>2654.58</v>
+      </c>
+      <c r="F475" s="9">
+        <v>774.65</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="s">
         <v>725</v>
       </c>
@@ -36925,8 +37393,14 @@
       <c r="D476">
         <v>990.72</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E476" s="9">
+        <v>2645.27</v>
+      </c>
+      <c r="F476" s="9">
+        <v>773.33</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="8" t="s">
         <v>726</v>
       </c>
@@ -36939,8 +37413,14 @@
       <c r="D477">
         <v>989.1</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E477" s="9">
+        <v>2630.29</v>
+      </c>
+      <c r="F477" s="9">
+        <v>769.43</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="s">
         <v>727</v>
       </c>
@@ -36953,8 +37433,14 @@
       <c r="D478">
         <v>992.92</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E478" s="9">
+        <v>2641.09</v>
+      </c>
+      <c r="F478" s="9">
+        <v>771.41</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="8" t="s">
         <v>728</v>
       </c>
@@ -36967,8 +37453,14 @@
       <c r="D479">
         <v>998.06</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E479" s="9">
+        <v>2621.75</v>
+      </c>
+      <c r="F479" s="9">
+        <v>770.85</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="8" t="s">
         <v>729</v>
       </c>
@@ -36981,8 +37473,14 @@
       <c r="D480">
         <v>972.9</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E480" s="9">
+        <v>2532.7800000000002</v>
+      </c>
+      <c r="F480" s="9">
+        <v>743.96</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="8" t="s">
         <v>730</v>
       </c>
@@ -36995,8 +37493,14 @@
       <c r="D481">
         <v>971.51</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E481" s="9">
+        <v>2528.92</v>
+      </c>
+      <c r="F481" s="9">
+        <v>737.9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="s">
         <v>731</v>
       </c>
@@ -37009,8 +37513,14 @@
       <c r="D482">
         <v>992.15</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E482" s="9">
+        <v>2558.13</v>
+      </c>
+      <c r="F482" s="9">
+        <v>746.95</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="8" t="s">
         <v>732</v>
       </c>
@@ -37023,8 +37533,14 @@
       <c r="D483">
         <v>998.45</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E483" s="9">
+        <v>2576.16</v>
+      </c>
+      <c r="F483" s="9">
+        <v>734.92</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="s">
         <v>733</v>
       </c>
@@ -37037,8 +37553,14 @@
       <c r="D484">
         <v>992.03</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E484" s="9">
+        <v>2563.48</v>
+      </c>
+      <c r="F484" s="9">
+        <v>727.7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="8" t="s">
         <v>734</v>
       </c>
@@ -37051,8 +37573,14 @@
       <c r="D485">
         <v>993.6</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E485" s="9">
+        <v>2570.39</v>
+      </c>
+      <c r="F485" s="9">
+        <v>725.82</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="8" t="s">
         <v>735</v>
       </c>
@@ -37065,8 +37593,14 @@
       <c r="D486">
         <v>980.41</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E486" s="9">
+        <v>2537.6</v>
+      </c>
+      <c r="F486" s="9">
+        <v>721.5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="8" t="s">
         <v>736</v>
       </c>
@@ -37079,8 +37613,14 @@
       <c r="D487">
         <v>976.5</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E487" s="9">
+        <v>2574.8200000000002</v>
+      </c>
+      <c r="F487" s="9">
+        <v>729.49</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="8" t="s">
         <v>737</v>
       </c>
@@ -37093,8 +37633,14 @@
       <c r="D488">
         <v>983.95</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E488" s="9">
+        <v>2573.64</v>
+      </c>
+      <c r="F488" s="9">
+        <v>722.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="8" t="s">
         <v>738</v>
       </c>
@@ -37107,8 +37653,14 @@
       <c r="D489">
         <v>990.57</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E489" s="9">
+        <v>2566.36</v>
+      </c>
+      <c r="F489" s="9">
+        <v>734.26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="s">
         <v>739</v>
       </c>
@@ -37121,8 +37673,14 @@
       <c r="D490">
         <v>1007.13</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E490" s="9">
+        <v>2610.69</v>
+      </c>
+      <c r="F490" s="9">
+        <v>743.51</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="8" t="s">
         <v>740</v>
       </c>
@@ -37135,8 +37693,14 @@
       <c r="D491">
         <v>1001.82</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E491" s="9">
+        <v>2612.34</v>
+      </c>
+      <c r="F491" s="9">
+        <v>745.54</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="s">
         <v>741</v>
       </c>
@@ -37149,8 +37713,14 @@
       <c r="D492">
         <v>1006.55</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E492" s="9">
+        <v>2628.62</v>
+      </c>
+      <c r="F492" s="9">
+        <v>738.35</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="8" t="s">
         <v>742</v>
       </c>
@@ -37163,8 +37733,14 @@
       <c r="D493">
         <v>986.93</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E493" s="9">
+        <v>2637.1</v>
+      </c>
+      <c r="F493" s="9">
+        <v>725.15</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="8" t="s">
         <v>743</v>
       </c>
@@ -37177,8 +37753,14 @@
       <c r="D494">
         <v>988.76</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E494" s="9">
+        <v>2643.13</v>
+      </c>
+      <c r="F494" s="9">
+        <v>719.41</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="8" t="s">
         <v>744</v>
       </c>
@@ -37191,8 +37773,14 @@
       <c r="D495">
         <v>993.38</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E495" s="9">
+        <v>2632.07</v>
+      </c>
+      <c r="F495" s="9">
+        <v>720.22</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="8" t="s">
         <v>745</v>
       </c>
@@ -37205,8 +37793,14 @@
       <c r="D496">
         <v>993.67</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E496" s="9">
+        <v>2615.81</v>
+      </c>
+      <c r="F496" s="9">
+        <v>711.26</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="8" t="s">
         <v>746</v>
       </c>
@@ -37219,8 +37813,14 @@
       <c r="D497">
         <v>999.83</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E497" s="9">
+        <v>2643.94</v>
+      </c>
+      <c r="F497" s="9">
+        <v>716.48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="s">
         <v>747</v>
       </c>
@@ -37233,8 +37833,14 @@
       <c r="D498">
         <v>991.75</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E498" s="9">
+        <v>2607.15</v>
+      </c>
+      <c r="F498" s="9">
+        <v>707.49</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="8" t="s">
         <v>748</v>
       </c>
@@ -37247,8 +37853,14 @@
       <c r="D499">
         <v>995.37</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E499" s="9">
+        <v>2557.98</v>
+      </c>
+      <c r="F499" s="9">
+        <v>693.76</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="s">
         <v>749</v>
       </c>
@@ -37261,8 +37873,14 @@
       <c r="D500">
         <v>977</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E500" s="9">
+        <v>2481.12</v>
+      </c>
+      <c r="F500" s="9">
+        <v>672.85</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="8" t="s">
         <v>750</v>
       </c>
@@ -37275,8 +37893,14 @@
       <c r="D501">
         <v>986.94</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E501" s="9">
+        <v>2521.39</v>
+      </c>
+      <c r="F501" s="9">
+        <v>691.45</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="s">
         <v>751</v>
       </c>
@@ -37289,8 +37913,14 @@
       <c r="D502">
         <v>983.62</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E502" s="9">
+        <v>2505.86</v>
+      </c>
+      <c r="F502" s="9">
+        <v>684.85</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="8" t="s">
         <v>752</v>
       </c>
@@ -37303,8 +37933,14 @@
       <c r="D503">
         <v>985.1</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E503" s="9">
+        <v>2486.6999999999998</v>
+      </c>
+      <c r="F503" s="9">
+        <v>683.49</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="8" t="s">
         <v>753</v>
       </c>
@@ -37317,8 +37953,14 @@
       <c r="D504">
         <v>987.98</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E504" s="9">
+        <v>2465.42</v>
+      </c>
+      <c r="F504" s="9">
+        <v>687.39</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="8" t="s">
         <v>754</v>
       </c>
@@ -37331,8 +37973,14 @@
       <c r="D505">
         <v>950.3</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E505" s="9">
+        <v>2328.1999999999998</v>
+      </c>
+      <c r="F505" s="9">
+        <v>651.29999999999995</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
         <v>755</v>
       </c>
@@ -37345,8 +37993,14 @@
       <c r="D506">
         <v>962.95</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E506" s="9">
+        <v>2334.23</v>
+      </c>
+      <c r="F506" s="9">
+        <v>658.45</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
         <v>756</v>
       </c>
@@ -37359,8 +38013,14 @@
       <c r="D507">
         <v>940.43</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E507" s="9">
+        <v>2293.6999999999998</v>
+      </c>
+      <c r="F507" s="9">
+        <v>643.39</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
         <v>757</v>
       </c>
@@ -37373,8 +38033,14 @@
       <c r="D508">
         <v>984.74</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E508" s="9">
+        <v>2445.06</v>
+      </c>
+      <c r="F508" s="9">
+        <v>681.79</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="8" t="s">
         <v>758</v>
       </c>
@@ -37387,8 +38053,14 @@
       <c r="D509">
         <v>992.32</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E509" s="9">
+        <v>2432.7199999999998</v>
+      </c>
+      <c r="F509" s="9">
+        <v>695.59</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
         <v>759</v>
       </c>
@@ -37401,8 +38073,14 @@
       <c r="D510">
         <v>994.9</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E510" s="9">
+        <v>2455.89</v>
+      </c>
+      <c r="F510" s="9">
+        <v>708.98</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="8" t="s">
         <v>760</v>
       </c>
@@ -37415,8 +38093,14 @@
       <c r="D511">
         <v>994.33</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E511" s="9">
+        <v>2477.41</v>
+      </c>
+      <c r="F511" s="9">
+        <v>711.92</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
         <v>761</v>
       </c>
@@ -37429,8 +38113,14 @@
       <c r="D512">
         <v>998.39</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E512" s="9">
+        <v>2447.4299999999998</v>
+      </c>
+      <c r="F512" s="9">
+        <v>699.11</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
         <v>762</v>
       </c>
@@ -37443,8 +38133,14 @@
       <c r="D513">
         <v>1008.15</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E513" s="9">
+        <v>2470.41</v>
+      </c>
+      <c r="F513" s="9">
+        <v>711.75</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="s">
         <v>763</v>
       </c>
@@ -37457,8 +38153,14 @@
       <c r="D514">
         <v>1019.22</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E514" s="9">
+        <v>2483.42</v>
+      </c>
+      <c r="F514" s="9">
+        <v>717.77</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="8" t="s">
         <v>764</v>
       </c>
@@ -37471,8 +38173,14 @@
       <c r="D515">
         <v>1014.79</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E515" s="9">
+        <v>2488.42</v>
+      </c>
+      <c r="F515" s="9">
+        <v>715.45</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="8" t="s">
         <v>765</v>
       </c>
@@ -37485,8 +38193,14 @@
       <c r="D516">
         <v>1009.44</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E516" s="9">
+        <v>2486.64</v>
+      </c>
+      <c r="F516" s="9">
+        <v>716.12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="8" t="s">
         <v>766</v>
       </c>
@@ -37499,8 +38213,14 @@
       <c r="D517">
         <v>1006.63</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E517" s="9">
+        <v>2525.56</v>
+      </c>
+      <c r="F517" s="9">
+        <v>726.08</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
         <v>767</v>
       </c>
@@ -37513,8 +38233,14 @@
       <c r="D518">
         <v>1011.74</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E518" s="9">
+        <v>2522.33</v>
+      </c>
+      <c r="F518" s="9">
+        <v>726.08</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="8" t="s">
         <v>768</v>
       </c>
@@ -37527,8 +38253,14 @@
       <c r="D519">
         <v>1014.94</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E519" s="9">
+        <v>2546.3000000000002</v>
+      </c>
+      <c r="F519" s="9">
+        <v>729.69</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
         <v>769</v>
       </c>
@@ -37541,8 +38273,14 @@
       <c r="D520">
         <v>1016.09</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E520" s="9">
+        <v>2548.86</v>
+      </c>
+      <c r="F520" s="9">
+        <v>719.41</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="8" t="s">
         <v>770</v>
       </c>
@@ -37555,8 +38293,14 @@
       <c r="D521">
         <v>1028.73</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E521" s="9">
+        <v>2565.42</v>
+      </c>
+      <c r="F521" s="9">
+        <v>726.46</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="8" t="s">
         <v>771</v>
       </c>
@@ -37569,8 +38313,14 @@
       <c r="D522">
         <v>1034.72</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E522" s="9">
+        <v>2556.61</v>
+      </c>
+      <c r="F522" s="9">
+        <v>717.24</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="8" t="s">
         <v>772</v>
       </c>
@@ -37583,8 +38333,14 @@
       <c r="D523">
         <v>1037.21</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E523" s="9">
+        <v>2559.79</v>
+      </c>
+      <c r="F523" s="9">
+        <v>721.86</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="8" t="s">
         <v>773</v>
       </c>
@@ -37597,8 +38353,14 @@
       <c r="D524">
         <v>1044.28</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E524" s="9">
+        <v>2573.8000000000002</v>
+      </c>
+      <c r="F524" s="9">
+        <v>722.81</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="8" t="s">
         <v>774</v>
       </c>
@@ -37611,8 +38373,14 @@
       <c r="D525">
         <v>1056.67</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E525" s="9">
+        <v>2579.48</v>
+      </c>
+      <c r="F525" s="9">
+        <v>729.59</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="8" t="s">
         <v>775</v>
       </c>
@@ -37625,8 +38393,14 @@
       <c r="D526">
         <v>1057.72</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E526" s="9">
+        <v>2577.27</v>
+      </c>
+      <c r="F526" s="9">
+        <v>722.52</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="8" t="s">
         <v>776</v>
       </c>
@@ -37639,8 +38413,14 @@
       <c r="D527">
         <v>1059.3</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E527" s="9">
+        <v>2607.33</v>
+      </c>
+      <c r="F527" s="9">
+        <v>725.4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="8" t="s">
         <v>777</v>
       </c>
@@ -37653,8 +38433,14 @@
       <c r="D528">
         <v>1058.04</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E528" s="9">
+        <v>2608.42</v>
+      </c>
+      <c r="F528" s="9">
+        <v>731.88</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="8" t="s">
         <v>778</v>
       </c>
@@ -37667,8 +38453,14 @@
       <c r="D529">
         <v>1068.77</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E529" s="9">
+        <v>2640.57</v>
+      </c>
+      <c r="F529" s="9">
+        <v>739.05</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="8" t="s">
         <v>779</v>
       </c>
@@ -37681,8 +38473,14 @@
       <c r="D530">
         <v>1064.5899999999999</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E530" s="9">
+        <v>2621.36</v>
+      </c>
+      <c r="F530" s="9">
+        <v>733.23</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="8" t="s">
         <v>780</v>
       </c>
@@ -37695,8 +38493,14 @@
       <c r="D531">
         <v>1073.77</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E531" s="9">
+        <v>2626.87</v>
+      </c>
+      <c r="F531" s="9">
+        <v>725.07</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="8" t="s">
         <v>781</v>
       </c>
@@ -37709,8 +38513,14 @@
       <c r="D532">
         <v>1060.58</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E532" s="9">
+        <v>2603.42</v>
+      </c>
+      <c r="F532" s="9">
+        <v>713.75</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="8" t="s">
         <v>782</v>
       </c>
@@ -37723,8 +38533,14 @@
       <c r="D533">
         <v>1068.6300000000001</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E533" s="9">
+        <v>2601.8000000000002</v>
+      </c>
+      <c r="F533" s="9">
+        <v>715.55</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="8" t="s">
         <v>783</v>
       </c>
@@ -37737,8 +38553,14 @@
       <c r="D534">
         <v>1076.27</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E534" s="9">
+        <v>2625.58</v>
+      </c>
+      <c r="F534" s="9">
+        <v>723.62</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="8" t="s">
         <v>784</v>
       </c>
@@ -37751,8 +38573,14 @@
       <c r="D535">
         <v>1074.4000000000001</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E535" s="9">
+        <v>2593.67</v>
+      </c>
+      <c r="F535" s="9">
+        <v>717.67</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="8" t="s">
         <v>785</v>
       </c>
@@ -37765,8 +38593,14 @@
       <c r="D536">
         <v>1097.24</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E536" s="9">
+        <v>2592.09</v>
+      </c>
+      <c r="F536" s="9">
+        <v>715.98</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="8" t="s">
         <v>786</v>
       </c>
@@ -37779,8 +38613,14 @@
       <c r="D537">
         <v>1114.23</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E537" s="9">
+        <v>2644.4</v>
+      </c>
+      <c r="F537" s="9">
+        <v>725.27</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="8" t="s">
         <v>787</v>
       </c>
@@ -37793,8 +38633,14 @@
       <c r="D538">
         <v>1126.0999999999999</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E538" s="9">
+        <v>2637.22</v>
+      </c>
+      <c r="F538" s="9">
+        <v>727.11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="8" t="s">
         <v>788</v>
       </c>
@@ -37807,8 +38653,14 @@
       <c r="D539">
         <v>1120.83</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E539" s="9">
+        <v>2670.15</v>
+      </c>
+      <c r="F539" s="9">
+        <v>728.79</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="8" t="s">
         <v>789</v>
       </c>
@@ -37821,8 +38673,14 @@
       <c r="D540">
         <v>1135.58</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E540" s="9">
+        <v>2720.64</v>
+      </c>
+      <c r="F540" s="9">
+        <v>736.29</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="8" t="s">
         <v>790</v>
       </c>
@@ -37835,8 +38693,14 @@
       <c r="D541">
         <v>1121.51</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E541" s="9">
+        <v>2697.67</v>
+      </c>
+      <c r="F541" s="9">
+        <v>734.35</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="8" t="s">
         <v>791</v>
       </c>
@@ -37849,8 +38713,14 @@
       <c r="D542">
         <v>1134.3800000000001</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E542" s="9">
+        <v>2698.97</v>
+      </c>
+      <c r="F542" s="9">
+        <v>740.29</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="8" t="s">
         <v>792</v>
       </c>
@@ -37863,8 +38733,14 @@
       <c r="D543">
         <v>1170.58</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E543" s="9">
+        <v>2770.84</v>
+      </c>
+      <c r="F543" s="9">
+        <v>750.21</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="8" t="s">
         <v>793</v>
       </c>
@@ -37877,8 +38753,14 @@
       <c r="D544">
         <v>1175.0999999999999</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E544" s="9">
+        <v>2812.05</v>
+      </c>
+      <c r="F544" s="9">
+        <v>756.23</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="8" t="s">
         <v>794</v>
       </c>
@@ -37891,8 +38773,14 @@
       <c r="D545">
         <v>1194.9100000000001</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E545" s="9">
+        <v>2855.77</v>
+      </c>
+      <c r="F545" s="9">
+        <v>764.21</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="8" t="s">
         <v>795</v>
       </c>
@@ -37905,8 +38793,14 @@
       <c r="D546">
         <v>1229.47</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E546" s="9">
+        <v>2871.85</v>
+      </c>
+      <c r="F546" s="9">
+        <v>771.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="8" t="s">
         <v>796</v>
       </c>
@@ -37919,8 +38813,14 @@
       <c r="D547">
         <v>1245.3699999999999</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E547" s="9">
+        <v>2907.04</v>
+      </c>
+      <c r="F547" s="9">
+        <v>786.29</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="8" t="s">
         <v>797</v>
       </c>
@@ -37933,8 +38833,14 @@
       <c r="D548">
         <v>1253.04</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E548" s="9">
+        <v>2920.03</v>
+      </c>
+      <c r="F548" s="9">
+        <v>789.45</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="8" t="s">
         <v>798</v>
       </c>
@@ -37947,8 +38853,14 @@
       <c r="D549">
         <v>1249.71</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E549" s="9">
+        <v>2894.62</v>
+      </c>
+      <c r="F549" s="9">
+        <v>768.86</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="8" t="s">
         <v>799</v>
       </c>
@@ -37961,8 +38873,14 @@
       <c r="D550">
         <v>1276.78</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E550" s="9">
+        <v>2946.66</v>
+      </c>
+      <c r="F550" s="9">
+        <v>777.26</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="8" t="s">
         <v>800</v>
       </c>
@@ -37975,8 +38893,14 @@
       <c r="D551">
         <v>1275.6600000000001</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E551" s="9">
+        <v>2950.3</v>
+      </c>
+      <c r="F551" s="9">
+        <v>775.65</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="8" t="s">
         <v>801</v>
       </c>
@@ -37989,8 +38913,14 @@
       <c r="D552">
         <v>1286.6600000000001</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E552" s="9">
+        <v>2972.19</v>
+      </c>
+      <c r="F552" s="9">
+        <v>779.73</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="8" t="s">
         <v>802</v>
       </c>
@@ -38003,8 +38933,14 @@
       <c r="D553">
         <v>1312.9</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E553" s="9">
+        <v>2977.74</v>
+      </c>
+      <c r="F553" s="9">
+        <v>782.51</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="8" t="s">
         <v>803</v>
       </c>
@@ -38017,8 +38953,14 @@
       <c r="D554">
         <v>1310.3</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E554" s="9">
+        <v>3021.84</v>
+      </c>
+      <c r="F554" s="9">
+        <v>791.53</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="8" t="s">
         <v>804</v>
       </c>
@@ -38031,8 +38973,14 @@
       <c r="D555">
         <v>1315.55</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E555" s="9">
+        <v>3014.47</v>
+      </c>
+      <c r="F555" s="9">
+        <v>784.79</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="8" t="s">
         <v>805</v>
       </c>
@@ -38045,8 +38993,14 @@
       <c r="D556">
         <v>1322.63</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E556" s="9">
+        <v>3103.64</v>
+      </c>
+      <c r="F556" s="9">
+        <v>800.93</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="8" t="s">
         <v>806</v>
       </c>
@@ -38059,8 +39013,14 @@
       <c r="D557">
         <v>1330.92</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E557" s="9">
+        <v>3108.25</v>
+      </c>
+      <c r="F557" s="9">
+        <v>798.21</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="8" t="s">
         <v>807</v>
       </c>
@@ -38073,8 +39033,14 @@
       <c r="D558">
         <v>1314.71</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E558" s="9">
+        <v>3079.56</v>
+      </c>
+      <c r="F558" s="9">
+        <v>787.95</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="8" t="s">
         <v>808</v>
       </c>
@@ -38087,8 +39053,14 @@
       <c r="D559">
         <v>1313.23</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E559" s="9">
+        <v>3055.94</v>
+      </c>
+      <c r="F559" s="9">
+        <v>781.56</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="8" t="s">
         <v>809</v>
       </c>
@@ -38101,8 +39073,14 @@
       <c r="D560">
         <v>1327.31</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E560" s="9">
+        <v>3071.7</v>
+      </c>
+      <c r="F560" s="9">
+        <v>781.5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="8" t="s">
         <v>810</v>
       </c>
@@ -38115,8 +39093,14 @@
       <c r="D561">
         <v>1325.3</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E561" s="9">
+        <v>3089.65</v>
+      </c>
+      <c r="F561" s="9">
+        <v>783.67</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="8" t="s">
         <v>811</v>
       </c>
@@ -38129,8 +39113,14 @@
       <c r="D562">
         <v>1305.83</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E562" s="9">
+        <v>3075.06</v>
+      </c>
+      <c r="F562" s="9">
+        <v>782.17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="8" t="s">
         <v>812</v>
       </c>
@@ -38143,8 +39133,14 @@
       <c r="D563">
         <v>1301.98</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E563" s="9">
+        <v>3116.27</v>
+      </c>
+      <c r="F563" s="9">
+        <v>793.33</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="8" t="s">
         <v>813</v>
       </c>
@@ -38157,8 +39153,14 @@
       <c r="D564">
         <v>1267.2</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E564" s="9">
+        <v>3054.28</v>
+      </c>
+      <c r="F564" s="9">
+        <v>775.8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="8" t="s">
         <v>814</v>
       </c>
@@ -38171,8 +39173,14 @@
       <c r="D565">
         <v>1289.6099999999999</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E565" s="9">
+        <v>3059.47</v>
+      </c>
+      <c r="F565" s="9">
+        <v>778.46</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="8" t="s">
         <v>815</v>
       </c>
@@ -38185,8 +39193,14 @@
       <c r="D566">
         <v>1313.47</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E566" s="9">
+        <v>3114.95</v>
+      </c>
+      <c r="F566" s="9">
+        <v>784.24</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="8" t="s">
         <v>816</v>
       </c>
@@ -38199,8 +39213,14 @@
       <c r="D567">
         <v>1320.05</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E567" s="9">
+        <v>3133.74</v>
+      </c>
+      <c r="F567" s="9">
+        <v>790.36</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="8" t="s">
         <v>817</v>
       </c>
@@ -38213,8 +39233,14 @@
       <c r="D568">
         <v>1328.07</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E568" s="9">
+        <v>3183.23</v>
+      </c>
+      <c r="F568" s="9">
+        <v>797.7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="8" t="s">
         <v>818</v>
       </c>
@@ -38227,8 +39253,14 @@
       <c r="D569">
         <v>1327.06</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E569" s="9">
+        <v>3175.77</v>
+      </c>
+      <c r="F569" s="9">
+        <v>800.47</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="8" t="s">
         <v>819</v>
       </c>
@@ -38241,8 +39273,14 @@
       <c r="D570">
         <v>1343.78</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E570" s="9">
+        <v>3202.03</v>
+      </c>
+      <c r="F570" s="9">
+        <v>799.37</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="8" t="s">
         <v>820</v>
       </c>
@@ -38255,8 +39293,14 @@
       <c r="D571">
         <v>1370.49</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E571" s="9">
+        <v>3215.28</v>
+      </c>
+      <c r="F571" s="9">
+        <v>812.88</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="8" t="s">
         <v>821</v>
       </c>
@@ -38269,8 +39313,14 @@
       <c r="D572">
         <v>1362.47</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E572" s="9">
+        <v>3186.38</v>
+      </c>
+      <c r="F572" s="9">
+        <v>812.23</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="8" t="s">
         <v>822</v>
       </c>
@@ -38283,8 +39333,14 @@
       <c r="D573">
         <v>1365.48</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E573" s="9">
+        <v>3192.29</v>
+      </c>
+      <c r="F573" s="9">
+        <v>818.27</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="8" t="s">
         <v>823</v>
       </c>
@@ -38297,8 +39353,14 @@
       <c r="D574">
         <v>1357.08</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E574" s="9">
+        <v>3188.07</v>
+      </c>
+      <c r="F574" s="9">
+        <v>820.67</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="8" t="s">
         <v>824</v>
       </c>
@@ -38311,8 +39373,14 @@
       <c r="D575">
         <v>1360.35</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E575" s="9">
+        <v>3210.81</v>
+      </c>
+      <c r="F575" s="9">
+        <v>821.69</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="8" t="s">
         <v>825</v>
       </c>
@@ -38325,8 +39393,14 @@
       <c r="D576">
         <v>1342.45</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E576" s="9">
+        <v>3169.94</v>
+      </c>
+      <c r="F576" s="9">
+        <v>812.97</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="8" t="s">
         <v>826</v>
       </c>
@@ -38339,8 +39413,14 @@
       <c r="D577">
         <v>1346.07</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E577" s="9">
+        <v>3183.77</v>
+      </c>
+      <c r="F577" s="9">
+        <v>813.56</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="8" t="s">
         <v>827</v>
       </c>
@@ -38353,8 +39433,14 @@
       <c r="D578">
         <v>1346.96</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E578" s="9">
+        <v>3190.45</v>
+      </c>
+      <c r="F578" s="9">
+        <v>809.89</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="8" t="s">
         <v>828</v>
       </c>
@@ -38367,8 +39453,14 @@
       <c r="D579">
         <v>1332.92</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E579" s="9">
+        <v>3196.05</v>
+      </c>
+      <c r="F579" s="9">
+        <v>806.95</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="8" t="s">
         <v>829</v>
       </c>
@@ -38381,8 +39473,14 @@
       <c r="D580">
         <v>1323.77</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E580" s="9">
+        <v>3209.52</v>
+      </c>
+      <c r="F580" s="9">
+        <v>804.4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="8" t="s">
         <v>830</v>
       </c>
@@ -38395,8 +39493,14 @@
       <c r="D581">
         <v>1336.98</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E581" s="9">
+        <v>3230.57</v>
+      </c>
+      <c r="F581" s="9">
+        <v>804.45</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="8" t="s">
         <v>831</v>
       </c>
@@ -38409,8 +39513,14 @@
       <c r="D582">
         <v>1327.15</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E582" s="9">
+        <v>3254.47</v>
+      </c>
+      <c r="F582" s="9">
+        <v>803.67</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="8" t="s">
         <v>832</v>
       </c>
@@ -38423,8 +39533,14 @@
       <c r="D583">
         <v>1339.84</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E583" s="9">
+        <v>3245.44</v>
+      </c>
+      <c r="F583" s="9">
+        <v>805.24</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="8" t="s">
         <v>833</v>
       </c>
@@ -38437,8 +39553,14 @@
       <c r="D584">
         <v>1282.5899999999999</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E584" s="9">
+        <v>3119.41</v>
+      </c>
+      <c r="F584" s="9">
+        <v>772.79</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="8" t="s">
         <v>834</v>
       </c>
@@ -38451,8 +39573,14 @@
       <c r="D585">
         <v>1302.77</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E585" s="9">
+        <v>3147.75</v>
+      </c>
+      <c r="F585" s="9">
+        <v>784.06</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="8" t="s">
         <v>835</v>
       </c>
@@ -38465,8 +39593,14 @@
       <c r="D586">
         <v>1317.16</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E586" s="9">
+        <v>3198</v>
+      </c>
+      <c r="F586" s="9">
+        <v>798.6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="8" t="s">
         <v>836</v>
       </c>
@@ -38479,8 +39613,14 @@
       <c r="D587">
         <v>1330.53</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E587" s="9">
+        <v>3198.14</v>
+      </c>
+      <c r="F587" s="9">
+        <v>803.49</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="8" t="s">
         <v>837</v>
       </c>
@@ -38493,8 +39633,14 @@
       <c r="D588">
         <v>1340.62</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E588" s="9">
+        <v>3227.68</v>
+      </c>
+      <c r="F588" s="9">
+        <v>805.81</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="8" t="s">
         <v>838</v>
       </c>
@@ -38507,8 +39653,14 @@
       <c r="D589">
         <v>1367.4</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E589" s="9">
+        <v>3210.01</v>
+      </c>
+      <c r="F589" s="9">
+        <v>809.27</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="8" t="s">
         <v>839</v>
       </c>
@@ -38521,8 +39673,14 @@
       <c r="D590">
         <v>1362.99</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E590" s="9">
+        <v>3206.77</v>
+      </c>
+      <c r="F590" s="9">
+        <v>811.85</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="8" t="s">
         <v>840</v>
       </c>
@@ -38535,8 +39693,14 @@
       <c r="D591">
         <v>1352.44</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E591" s="9">
+        <v>3189.91</v>
+      </c>
+      <c r="F591" s="9">
+        <v>807.19</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="8" t="s">
         <v>841</v>
       </c>
@@ -38549,8 +39713,14 @@
       <c r="D592">
         <v>1358.57</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E592" s="9">
+        <v>3224.37</v>
+      </c>
+      <c r="F592" s="9">
+        <v>814.1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="8" t="s">
         <v>842</v>
       </c>
@@ -38563,8 +39733,14 @@
       <c r="D593">
         <v>1344.72</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E593" s="9">
+        <v>3225.66</v>
+      </c>
+      <c r="F593" s="9">
+        <v>815.26</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="8" t="s">
         <v>843</v>
       </c>
@@ -38577,8 +39753,14 @@
       <c r="D594">
         <v>1338.03</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E594" s="9">
+        <v>3177.28</v>
+      </c>
+      <c r="F594" s="9">
+        <v>798.05</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="8" t="s">
         <v>844</v>
       </c>
@@ -38591,8 +39773,14 @@
       <c r="D595">
         <v>1319.03</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E595" s="9">
+        <v>3151.56</v>
+      </c>
+      <c r="F595" s="9">
+        <v>787.96</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="8" t="s">
         <v>845</v>
       </c>
@@ -38605,8 +39793,14 @@
       <c r="D596">
         <v>1306.94</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E596" s="9">
+        <v>3130.09</v>
+      </c>
+      <c r="F596" s="9">
+        <v>777.61</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="8" t="s">
         <v>846</v>
       </c>
@@ -38619,8 +39813,14 @@
       <c r="D597">
         <v>1309.45</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E597" s="9">
+        <v>3141.74</v>
+      </c>
+      <c r="F597" s="9">
+        <v>777.24</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="8" t="s">
         <v>847</v>
       </c>
@@ -38633,8 +39833,14 @@
       <c r="D598">
         <v>1318.41</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E598" s="9">
+        <v>3168.73</v>
+      </c>
+      <c r="F598" s="9">
+        <v>782.51</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="8" t="s">
         <v>848</v>
       </c>
@@ -38647,8 +39853,14 @@
       <c r="D599">
         <v>1332.43</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E599" s="9">
+        <v>3209.86</v>
+      </c>
+      <c r="F599" s="9">
+        <v>798.02</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="8" t="s">
         <v>849</v>
       </c>
@@ -38661,8 +39873,14 @@
       <c r="D600">
         <v>1335.05</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E600" s="9">
+        <v>3179.36</v>
+      </c>
+      <c r="F600" s="9">
+        <v>801.66</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="8" t="s">
         <v>850</v>
       </c>
@@ -38675,8 +39893,14 @@
       <c r="D601">
         <v>1330.54</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E601" s="9">
+        <v>3187.16</v>
+      </c>
+      <c r="F601" s="9">
+        <v>801.72</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="8" t="s">
         <v>851</v>
       </c>
@@ -38689,8 +39913,14 @@
       <c r="D602">
         <v>1329.25</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E602" s="9">
+        <v>3196.32</v>
+      </c>
+      <c r="F602" s="9">
+        <v>798.43</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="8" t="s">
         <v>852</v>
       </c>
@@ -38703,8 +39933,14 @@
       <c r="D603">
         <v>1325.35</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E603" s="9">
+        <v>3186.01</v>
+      </c>
+      <c r="F603" s="9">
+        <v>796.91</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="8" t="s">
         <v>853</v>
       </c>
@@ -38717,8 +39953,14 @@
       <c r="D604">
         <v>1318.45</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E604" s="9">
+        <v>3142.93</v>
+      </c>
+      <c r="F604" s="9">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="8" t="s">
         <v>854</v>
       </c>
@@ -38731,8 +39973,14 @@
       <c r="D605">
         <v>1317.76</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E605" s="9">
+        <v>3172.35</v>
+      </c>
+      <c r="F605" s="9">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="8" t="s">
         <v>855</v>
       </c>
@@ -38745,8 +39993,14 @@
       <c r="D606">
         <v>1318.1</v>
       </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E606" s="9">
+        <v>3184.42</v>
+      </c>
+      <c r="F606" s="9">
+        <v>796.81</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="8" t="s">
         <v>856</v>
       </c>
@@ -38759,8 +40013,14 @@
       <c r="D607">
         <v>1324.77</v>
       </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E607" s="9">
+        <v>3200.83</v>
+      </c>
+      <c r="F607" s="9">
+        <v>805.42</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="8" t="s">
         <v>857</v>
       </c>
@@ -38773,8 +40033,14 @@
       <c r="D608">
         <v>1333.37</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E608" s="9">
+        <v>3205.12</v>
+      </c>
+      <c r="F608" s="9">
+        <v>811.4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="8" t="s">
         <v>858</v>
       </c>
@@ -38787,8 +40053,14 @@
       <c r="D609">
         <v>1343.85</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E609" s="9">
+        <v>3219.59</v>
+      </c>
+      <c r="F609" s="9">
+        <v>818.6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="8" t="s">
         <v>859</v>
       </c>
@@ -38801,8 +40073,14 @@
       <c r="D610">
         <v>1346.81</v>
       </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E610" s="9">
+        <v>3260.05</v>
+      </c>
+      <c r="F610" s="9">
+        <v>824.82</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="8" t="s">
         <v>860</v>
       </c>
@@ -38815,8 +40093,14 @@
       <c r="D611">
         <v>1351.49</v>
       </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E611" s="9">
+        <v>3314.53</v>
+      </c>
+      <c r="F611" s="9">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="8" t="s">
         <v>861</v>
       </c>
@@ -38829,8 +40113,14 @@
       <c r="D612">
         <v>1356.56</v>
       </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E612" s="9">
+        <v>3344.2</v>
+      </c>
+      <c r="F612" s="9">
+        <v>834.76</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="8" t="s">
         <v>862</v>
       </c>
@@ -38843,8 +40133,14 @@
       <c r="D613">
         <v>1370.58</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E613" s="9">
+        <v>3395.54</v>
+      </c>
+      <c r="F613" s="9">
+        <v>847.08</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="8" t="s">
         <v>863</v>
       </c>
@@ -38857,8 +40153,14 @@
       <c r="D614">
         <v>1381.23</v>
       </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E614" s="9">
+        <v>3407.31</v>
+      </c>
+      <c r="F614" s="9">
+        <v>852.69</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="8" t="s">
         <v>864</v>
       </c>
@@ -38871,8 +40173,14 @@
       <c r="D615">
         <v>1390.5</v>
       </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E615" s="9">
+        <v>3449.62</v>
+      </c>
+      <c r="F615" s="9">
+        <v>851.84</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="8" t="s">
         <v>865</v>
       </c>
@@ -38885,8 +40193,14 @@
       <c r="D616">
         <v>1386</v>
       </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E616" s="9">
+        <v>3413.4</v>
+      </c>
+      <c r="F616" s="9">
+        <v>845.53</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="8" t="s">
         <v>866</v>
       </c>
@@ -38899,8 +40213,14 @@
       <c r="D617">
         <v>1404.7</v>
       </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E617" s="9">
+        <v>3461.3</v>
+      </c>
+      <c r="F617" s="9">
+        <v>857.11</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="8" t="s">
         <v>867</v>
       </c>
@@ -38913,8 +40233,14 @@
       <c r="D618">
         <v>1404.69</v>
       </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E618" s="9">
+        <v>3445.24</v>
+      </c>
+      <c r="F618" s="9">
+        <v>863.11</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="8" t="s">
         <v>868</v>
       </c>
@@ -38927,8 +40253,14 @@
       <c r="D619">
         <v>1421.71</v>
       </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E619" s="9">
+        <v>3468.65</v>
+      </c>
+      <c r="F619" s="9">
+        <v>874.36</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="8" t="s">
         <v>869</v>
       </c>
@@ -38941,8 +40273,14 @@
       <c r="D620">
         <v>1410.74</v>
       </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E620" s="9">
+        <v>3486.19</v>
+      </c>
+      <c r="F620" s="9">
+        <v>872.21</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="8" t="s">
         <v>870</v>
       </c>
@@ -38955,8 +40293,14 @@
       <c r="D621">
         <v>1396.02</v>
       </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E621" s="9">
+        <v>3472.14</v>
+      </c>
+      <c r="F621" s="9">
+        <v>860.94</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="8" t="s">
         <v>871</v>
       </c>
@@ -38969,8 +40313,14 @@
       <c r="D622">
         <v>1370.12</v>
       </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E622" s="9">
+        <v>3471.11</v>
+      </c>
+      <c r="F622" s="9">
+        <v>852.48</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="8" t="s">
         <v>872</v>
       </c>
@@ -38983,8 +40333,14 @@
       <c r="D623">
         <v>1359.86</v>
       </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E623" s="9">
+        <v>3386.05</v>
+      </c>
+      <c r="F623" s="9">
+        <v>835.19</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="8" t="s">
         <v>873</v>
       </c>
@@ -38997,8 +40353,14 @@
       <c r="D624">
         <v>1372.11</v>
       </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E624" s="9">
+        <v>3431.21</v>
+      </c>
+      <c r="F624" s="9">
+        <v>846.71</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" s="8" t="s">
         <v>874</v>
       </c>
@@ -39011,8 +40373,14 @@
       <c r="D625">
         <v>1364.36</v>
       </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E625" s="9">
+        <v>3424.6</v>
+      </c>
+      <c r="F625" s="9">
+        <v>841.99</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" s="8" t="s">
         <v>875</v>
       </c>
@@ -39025,8 +40393,14 @@
       <c r="D626">
         <v>1378.75</v>
       </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E626" s="9">
+        <v>3455.83</v>
+      </c>
+      <c r="F626" s="9">
+        <v>845.34</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" s="8" t="s">
         <v>876</v>
       </c>
@@ -39039,8 +40413,14 @@
       <c r="D627">
         <v>1386.66</v>
       </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E627" s="9">
+        <v>3549.21</v>
+      </c>
+      <c r="F627" s="9">
+        <v>854.25</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" s="8" t="s">
         <v>877</v>
       </c>
@@ -39053,8 +40433,14 @@
       <c r="D628">
         <v>1408.03</v>
       </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E628" s="9">
+        <v>3610.6</v>
+      </c>
+      <c r="F628" s="9">
+        <v>859.49</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" s="8" t="s">
         <v>878</v>
       </c>
@@ -39067,8 +40453,14 @@
       <c r="D629">
         <v>1416.16</v>
       </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E629" s="9">
+        <v>3584.55</v>
+      </c>
+      <c r="F629" s="9">
+        <v>860.49</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="8" t="s">
         <v>879</v>
       </c>
@@ -39081,8 +40473,14 @@
       <c r="D630">
         <v>1397.86</v>
       </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E630" s="9">
+        <v>3561.81</v>
+      </c>
+      <c r="F630" s="9">
+        <v>847.96</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="8" t="s">
         <v>880</v>
       </c>
@@ -39095,8 +40493,14 @@
       <c r="D631">
         <v>1431.16</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E631" s="9">
+        <v>3657.28</v>
+      </c>
+      <c r="F631" s="9">
+        <v>864.72</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" s="8" t="s">
         <v>881</v>
       </c>
@@ -39109,8 +40513,14 @@
       <c r="D632">
         <v>1440.88</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E632" s="9">
+        <v>3748.37</v>
+      </c>
+      <c r="F632" s="9">
+        <v>865.41</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" s="8" t="s">
         <v>882</v>
       </c>
@@ -39123,8 +40533,14 @@
       <c r="D633">
         <v>1423.61</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E633" s="9">
+        <v>3748.89</v>
+      </c>
+      <c r="F633" s="9">
+        <v>859.54</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" s="8" t="s">
         <v>883</v>
       </c>
@@ -39137,8 +40553,14 @@
       <c r="D634">
         <v>1440.53</v>
       </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E634" s="9">
+        <v>3814.69</v>
+      </c>
+      <c r="F634" s="9">
+        <v>875.77</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" s="8" t="s">
         <v>884</v>
       </c>
@@ -39151,8 +40573,14 @@
       <c r="D635">
         <v>1432.16</v>
       </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E635" s="9">
+        <v>3823.84</v>
+      </c>
+      <c r="F635" s="9">
+        <v>872.5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" s="8" t="s">
         <v>885</v>
       </c>
@@ -39165,8 +40593,14 @@
       <c r="D636">
         <v>1436.84</v>
       </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E636" s="9">
+        <v>3883.68</v>
+      </c>
+      <c r="F636" s="9">
+        <v>879.15</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" s="8" t="s">
         <v>886</v>
       </c>
@@ -39179,8 +40613,14 @@
       <c r="D637">
         <v>1427.27</v>
       </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E637" s="9">
+        <v>3845.56</v>
+      </c>
+      <c r="F637" s="9">
+        <v>872.03</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="8" t="s">
         <v>887</v>
       </c>
@@ -39193,8 +40633,14 @@
       <c r="D638">
         <v>1445.17</v>
       </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E638" s="9">
+        <v>3941.59</v>
+      </c>
+      <c r="F638" s="9">
+        <v>883.08</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" s="8" t="s">
         <v>888</v>
       </c>
@@ -39207,8 +40653,14 @@
       <c r="D639">
         <v>1480.78</v>
       </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E639" s="9">
+        <v>4042.83</v>
+      </c>
+      <c r="F639" s="9">
+        <v>902.7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" s="8" t="s">
         <v>889</v>
       </c>
@@ -39221,8 +40673,14 @@
       <c r="D640">
         <v>1474.7</v>
       </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E640" s="9">
+        <v>4010.41</v>
+      </c>
+      <c r="F640" s="9">
+        <v>903.3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="8" t="s">
         <v>890</v>
       </c>
@@ -39235,8 +40693,14 @@
       <c r="D641">
         <v>1499.5</v>
       </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E641" s="9">
+        <v>4081.15</v>
+      </c>
+      <c r="F641" s="9">
+        <v>901.59</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="8" t="s">
         <v>891</v>
       </c>
@@ -39249,8 +40713,14 @@
       <c r="D642">
         <v>1516.24</v>
       </c>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E642" s="9">
+        <v>4086.89</v>
+      </c>
+      <c r="F642" s="9">
+        <v>890.86</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" s="8" t="s">
         <v>892</v>
       </c>
@@ -39263,8 +40733,14 @@
       <c r="D643">
         <v>1544.78</v>
       </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E643" s="9">
+        <v>4107.5</v>
+      </c>
+      <c r="F643" s="9">
+        <v>900.42</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="8" t="s">
         <v>893</v>
       </c>
@@ -39277,8 +40753,14 @@
       <c r="D644">
         <v>1592</v>
       </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E644" s="9">
+        <v>4221.87</v>
+      </c>
+      <c r="F644" s="9">
+        <v>914.55</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="8" t="s">
         <v>894</v>
       </c>
@@ -39291,8 +40773,14 @@
       <c r="D645">
         <v>1568.65</v>
       </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E645" s="9">
+        <v>4121.74</v>
+      </c>
+      <c r="F645" s="9">
+        <v>926.57</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="8" t="s">
         <v>895</v>
       </c>
@@ -39305,8 +40793,14 @@
       <c r="D646">
         <v>1520.56</v>
       </c>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E646" s="9">
+        <v>4004.42</v>
+      </c>
+      <c r="F646" s="9">
+        <v>901.89</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="8" t="s">
         <v>896</v>
       </c>
@@ -39319,8 +40813,14 @@
       <c r="D647">
         <v>1496.59</v>
       </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E647" s="9">
+        <v>4026.45</v>
+      </c>
+      <c r="F647" s="9">
+        <v>898.17</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="8" t="s">
         <v>897</v>
       </c>
@@ -39333,8 +40833,14 @@
       <c r="D648">
         <v>1467.11</v>
       </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E648" s="9">
+        <v>3953.76</v>
+      </c>
+      <c r="F648" s="9">
+        <v>876.81</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="8" t="s">
         <v>898</v>
       </c>
@@ -39347,8 +40853,14 @@
       <c r="D649">
         <v>1492.2</v>
       </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E649" s="9">
+        <v>4073.24</v>
+      </c>
+      <c r="F649" s="9">
+        <v>888.35</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="8" t="s">
         <v>899</v>
       </c>
@@ -39361,8 +40873,14 @@
       <c r="D650">
         <v>1484.57</v>
       </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E650" s="9">
+        <v>4106.3900000000003</v>
+      </c>
+      <c r="F650" s="9">
+        <v>884.27</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" s="8" t="s">
         <v>900</v>
       </c>
@@ -39375,8 +40893,14 @@
       <c r="D651">
         <v>1492.65</v>
       </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E651" s="9">
+        <v>4150.3900000000003</v>
+      </c>
+      <c r="F651" s="9">
+        <v>906.51</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" s="8" t="s">
         <v>901</v>
       </c>
@@ -39389,8 +40913,14 @@
       <c r="D652">
         <v>1512.59</v>
       </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E652" s="9">
+        <v>4170.63</v>
+      </c>
+      <c r="F652" s="9">
+        <v>918.37</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="8" t="s">
         <v>902</v>
       </c>
@@ -39403,8 +40933,14 @@
       <c r="D653">
         <v>1453.03</v>
       </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E653" s="9">
+        <v>4011.57</v>
+      </c>
+      <c r="F653" s="9">
+        <v>897.9</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" s="8" t="s">
         <v>903</v>
       </c>
@@ -39417,8 +40953,14 @@
       <c r="D654">
         <v>1483.78</v>
       </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E654" s="9">
+        <v>4089.25</v>
+      </c>
+      <c r="F654" s="9">
+        <v>902.67</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" s="8" t="s">
         <v>904</v>
       </c>
@@ -39431,8 +40973,14 @@
       <c r="D655">
         <v>1447.9</v>
       </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E655" s="9">
+        <v>3953.62</v>
+      </c>
+      <c r="F655" s="9">
+        <v>878.7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="8" t="s">
         <v>905</v>
       </c>
@@ -39445,8 +40993,14 @@
       <c r="D656">
         <v>1425.43</v>
       </c>
-    </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E656" s="9">
+        <v>3929.51</v>
+      </c>
+      <c r="F656" s="9">
+        <v>871.32</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" s="8" t="s">
         <v>906</v>
       </c>
@@ -39459,8 +41013,14 @@
       <c r="D657">
         <v>1468.44</v>
       </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E657" s="9">
+        <v>4004.85</v>
+      </c>
+      <c r="F657" s="9">
+        <v>891.94</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" s="8" t="s">
         <v>907</v>
       </c>
@@ -39473,8 +41033,14 @@
       <c r="D658">
         <v>1413.84</v>
       </c>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E658" s="9">
+        <v>3853.26</v>
+      </c>
+      <c r="F658" s="9">
+        <v>863.95</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" s="8" t="s">
         <v>908</v>
       </c>
@@ -39487,8 +41053,14 @@
       <c r="D659">
         <v>1415.38</v>
       </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E659" s="9">
+        <v>3846.06</v>
+      </c>
+      <c r="F659" s="9">
+        <v>856.44</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" s="8" t="s">
         <v>909</v>
       </c>
@@ -39501,8 +41073,14 @@
       <c r="D660">
         <v>1409.28</v>
       </c>
-    </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E660" s="9">
+        <v>3857.78</v>
+      </c>
+      <c r="F660" s="9">
+        <v>856.03</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" s="8" t="s">
         <v>910</v>
       </c>
@@ -39515,8 +41093,14 @@
       <c r="D661">
         <v>1447.77</v>
       </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E661" s="9">
+        <v>3960.87</v>
+      </c>
+      <c r="F661" s="9">
+        <v>877.32</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" s="8" t="s">
         <v>911</v>
       </c>
@@ -39529,8 +41113,14 @@
       <c r="D662">
         <v>1473.49</v>
       </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E662" s="9">
+        <v>3986.91</v>
+      </c>
+      <c r="F662" s="9">
+        <v>880.06</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" s="8" t="s">
         <v>912</v>
       </c>
@@ -39543,8 +41133,14 @@
       <c r="D663">
         <v>1454.96</v>
       </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E663" s="9">
+        <v>3926.59</v>
+      </c>
+      <c r="F663" s="9">
+        <v>912.67</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" s="8" t="s">
         <v>913</v>
       </c>
@@ -39557,8 +41153,14 @@
       <c r="D664">
         <v>1434.98</v>
       </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E664" s="9">
+        <v>3920.37</v>
+      </c>
+      <c r="F664" s="9">
+        <v>922.38</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" s="8" t="s">
         <v>914</v>
       </c>
@@ -39571,8 +41173,14 @@
       <c r="D665">
         <v>1455.56</v>
       </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E665" s="9">
+        <v>3994.93</v>
+      </c>
+      <c r="F665" s="9">
+        <v>928.42</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" s="8" t="s">
         <v>915</v>
       </c>
@@ -39585,8 +41193,14 @@
       <c r="D666">
         <v>1469.26</v>
       </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E666" s="9">
+        <v>4036.3</v>
+      </c>
+      <c r="F666" s="9">
+        <v>932.01</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" s="8" t="s">
         <v>916</v>
       </c>
@@ -39599,8 +41213,14 @@
       <c r="D667">
         <v>1465.77</v>
       </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E667" s="9">
+        <v>4028.51</v>
+      </c>
+      <c r="F667" s="9">
+        <v>929.83</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" s="8" t="s">
         <v>917</v>
       </c>
@@ -39613,8 +41233,14 @@
       <c r="D668">
         <v>1469.82</v>
       </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E668" s="9">
+        <v>4100.05</v>
+      </c>
+      <c r="F668" s="9">
+        <v>924.74</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" s="8" t="s">
         <v>918</v>
       </c>
@@ -39627,8 +41253,14 @@
       <c r="D669">
         <v>1471.32</v>
       </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E669" s="9">
+        <v>4154.8500000000004</v>
+      </c>
+      <c r="F669" s="9">
+        <v>927.79</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" s="8" t="s">
         <v>919</v>
       </c>
@@ -39641,8 +41273,14 @@
       <c r="D670">
         <v>1462.4</v>
       </c>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E670" s="9">
+        <v>4143.55</v>
+      </c>
+      <c r="F670" s="9">
+        <v>931.35</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" s="8" t="s">
         <v>920</v>
       </c>
@@ -39655,8 +41293,14 @@
       <c r="D671">
         <v>1467.54</v>
       </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E671" s="9">
+        <v>4135</v>
+      </c>
+      <c r="F671" s="9">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" s="8" t="s">
         <v>171</v>
       </c>
@@ -39668,6 +41312,12 @@
       </c>
       <c r="D672">
         <v>1450.07</v>
+      </c>
+      <c r="E672" s="9">
+        <v>4110.62</v>
+      </c>
+      <c r="F672" s="9">
+        <v>934.64</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.3">
@@ -39683,6 +41333,12 @@
       <c r="D673">
         <v>1467.3</v>
       </c>
+      <c r="E673" s="9">
+        <v>4167.16</v>
+      </c>
+      <c r="F673" s="9">
+        <v>937.34</v>
+      </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" s="8" t="s">
@@ -39697,6 +41353,12 @@
       <c r="D674">
         <v>1434.31</v>
       </c>
+      <c r="E674" s="9">
+        <v>4090.59</v>
+      </c>
+      <c r="F674" s="9">
+        <v>938.83</v>
+      </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" s="8" t="s">
@@ -39711,6 +41373,12 @@
       <c r="D675">
         <v>1411.73</v>
       </c>
+      <c r="E675" s="9">
+        <v>3999.13</v>
+      </c>
+      <c r="F675" s="9">
+        <v>916.11</v>
+      </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" s="8" t="s">
@@ -39725,6 +41393,12 @@
       <c r="D676">
         <v>1439.38</v>
       </c>
+      <c r="E676" s="9">
+        <v>4056.41</v>
+      </c>
+      <c r="F676" s="9">
+        <v>911.07</v>
+      </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" s="8" t="s">
@@ -39739,6 +41413,12 @@
       <c r="D677">
         <v>1432.6</v>
       </c>
+      <c r="E677" s="9">
+        <v>3994.51</v>
+      </c>
+      <c r="F677" s="9">
+        <v>901.33</v>
+      </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" s="8" t="s">
@@ -39753,6 +41433,12 @@
       <c r="D678">
         <v>1445.36</v>
       </c>
+      <c r="E678" s="9">
+        <v>4020.55</v>
+      </c>
+      <c r="F678" s="9">
+        <v>915.27</v>
+      </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" s="8" t="s">
@@ -39767,6 +41453,12 @@
       <c r="D679">
         <v>1478.96</v>
       </c>
+      <c r="E679" s="9">
+        <v>4105.93</v>
+      </c>
+      <c r="F679" s="9">
+        <v>929.14</v>
+      </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" s="8" t="s">
@@ -39781,6 +41473,12 @@
       <c r="D680">
         <v>1493.87</v>
       </c>
+      <c r="E680" s="9">
+        <v>4117.32</v>
+      </c>
+      <c r="F680" s="9">
+        <v>919.56</v>
+      </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" s="8" t="s">
@@ -39795,6 +41493,12 @@
       <c r="D681">
         <v>1487.1</v>
       </c>
+      <c r="E681" s="9">
+        <v>4108.62</v>
+      </c>
+      <c r="F681" s="9">
+        <v>915.2</v>
+      </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" s="8" t="s">
@@ -39809,6 +41513,12 @@
       <c r="D682">
         <v>1497.86</v>
       </c>
+      <c r="E682" s="9">
+        <v>4129.68</v>
+      </c>
+      <c r="F682" s="9">
+        <v>919.67</v>
+      </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" s="8" t="s">
@@ -39823,6 +41533,12 @@
       <c r="D683">
         <v>1546.08</v>
       </c>
+      <c r="E683" s="9">
+        <v>4220.5600000000004</v>
+      </c>
+      <c r="F683" s="9">
+        <v>932.59</v>
+      </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" s="8" t="s">
@@ -39837,10 +41553,10 @@
       <c r="D684">
         <v>1518.52</v>
       </c>
-      <c r="E684">
+      <c r="E684" s="9">
         <v>4214.17</v>
       </c>
-      <c r="F684">
+      <c r="F684" s="9">
         <v>925.47</v>
       </c>
     </row>
@@ -39857,10 +41573,10 @@
       <c r="D685">
         <v>1569.74</v>
       </c>
-      <c r="E685">
+      <c r="E685" s="9">
         <v>4309.63</v>
       </c>
-      <c r="F685">
+      <c r="F685" s="9">
         <v>945.57</v>
       </c>
     </row>
@@ -39877,10 +41593,10 @@
       <c r="D686">
         <v>1636.54</v>
       </c>
-      <c r="E686">
+      <c r="E686" s="9">
         <v>4457.5200000000004</v>
       </c>
-      <c r="F686">
+      <c r="F686" s="9">
         <v>957.5</v>
       </c>
     </row>
@@ -39897,10 +41613,10 @@
       <c r="D687">
         <v>1666.09</v>
       </c>
-      <c r="E687">
+      <c r="E687" s="9">
         <v>4525.4799999999996</v>
       </c>
-      <c r="F687">
+      <c r="F687" s="9">
         <v>955.97</v>
       </c>
     </row>
@@ -39917,10 +41633,10 @@
       <c r="D688">
         <v>1657.62</v>
       </c>
-      <c r="E688">
+      <c r="E688" s="9">
         <v>4551.0600000000004</v>
       </c>
-      <c r="F688">
+      <c r="F688" s="9">
         <v>947.39</v>
       </c>
     </row>
@@ -39937,10 +41653,10 @@
       <c r="D689">
         <v>1655.46</v>
       </c>
-      <c r="E689">
+      <c r="E689" s="9">
         <v>4552.37</v>
       </c>
-      <c r="F689">
+      <c r="F689" s="9">
         <v>944.06</v>
       </c>
     </row>
@@ -39957,10 +41673,10 @@
       <c r="D690">
         <v>1656.25</v>
       </c>
-      <c r="E690">
+      <c r="E690" s="9">
         <v>4586.32</v>
       </c>
-      <c r="F690">
+      <c r="F690" s="9">
         <v>947.92</v>
       </c>
     </row>
@@ -39977,10 +41693,10 @@
       <c r="D691">
         <v>1666.89</v>
       </c>
-      <c r="E691">
+      <c r="E691" s="9">
         <v>4624.79</v>
       </c>
-      <c r="F691">
+      <c r="F691" s="9">
         <v>949.81</v>
       </c>
     </row>
@@ -39997,10 +41713,10 @@
       <c r="D692">
         <v>1662.67</v>
       </c>
-      <c r="E692">
+      <c r="E692" s="9">
         <v>4692.6400000000003</v>
       </c>
-      <c r="F692">
+      <c r="F692" s="9">
         <v>948.98</v>
       </c>
     </row>
@@ -40017,10 +41733,10 @@
       <c r="D693">
         <v>1683.2</v>
       </c>
-      <c r="E693">
+      <c r="E693" s="9">
         <v>4723.1000000000004</v>
       </c>
-      <c r="F693">
+      <c r="F693" s="9">
         <v>942.18</v>
       </c>
     </row>
@@ -40037,10 +41753,10 @@
       <c r="D694">
         <v>1705.27</v>
       </c>
-      <c r="E694">
+      <c r="E694" s="9">
         <v>4797.55</v>
       </c>
-      <c r="F694">
+      <c r="F694" s="9">
         <v>951.16</v>
       </c>
     </row>
@@ -40057,10 +41773,10 @@
       <c r="D695">
         <v>1735.67</v>
       </c>
-      <c r="E695">
+      <c r="E695" s="9">
         <v>4840.74</v>
       </c>
-      <c r="F695">
+      <c r="F695" s="9">
         <v>954.59</v>
       </c>
     </row>
@@ -40077,10 +41793,10 @@
       <c r="D696">
         <v>1765.19</v>
       </c>
-      <c r="E696">
+      <c r="E696" s="9">
         <v>4904.66</v>
       </c>
-      <c r="F696">
+      <c r="F696" s="9">
         <v>968.36</v>
       </c>
     </row>
@@ -40097,10 +41813,10 @@
       <c r="D697">
         <v>1745.65</v>
       </c>
-      <c r="E697">
+      <c r="E697" s="9">
         <v>4885.75</v>
       </c>
-      <c r="F697">
+      <c r="F697" s="9">
         <v>976.37</v>
       </c>
     </row>
@@ -40117,10 +41833,10 @@
       <c r="D698">
         <v>1714.87</v>
       </c>
-      <c r="E698">
+      <c r="E698" s="9">
         <v>4909.93</v>
       </c>
-      <c r="F698">
+      <c r="F698" s="9">
         <v>951.29</v>
       </c>
     </row>
@@ -40137,10 +41853,10 @@
       <c r="D699">
         <v>1751.41</v>
       </c>
-      <c r="E699">
+      <c r="E699" s="9">
         <v>4952.53</v>
       </c>
-      <c r="F699">
+      <c r="F699" s="9">
         <v>970.35</v>
       </c>
     </row>
@@ -40157,10 +41873,10 @@
       <c r="D700">
         <v>1799.5</v>
       </c>
-      <c r="E700">
+      <c r="E700" s="9">
         <v>4990.07</v>
       </c>
-      <c r="F700">
+      <c r="F700" s="9">
         <v>993.93</v>
       </c>
     </row>
@@ -40177,10 +41893,10 @@
       <c r="D701">
         <v>1794.08</v>
       </c>
-      <c r="E701">
+      <c r="E701" s="9">
         <v>4949.59</v>
       </c>
-      <c r="F701">
+      <c r="F701" s="9">
         <v>1064.4100000000001</v>
       </c>
     </row>
@@ -40197,10 +41913,10 @@
       <c r="D702">
         <v>1855.83</v>
       </c>
-      <c r="E702">
+      <c r="E702" s="9">
         <v>5084.8500000000004</v>
       </c>
-      <c r="F702">
+      <c r="F702" s="9">
         <v>1082.5899999999999</v>
       </c>
     </row>
@@ -40217,10 +41933,10 @@
       <c r="D703">
         <v>1913.2</v>
       </c>
-      <c r="E703">
+      <c r="E703" s="9">
         <v>5170.8100000000004</v>
       </c>
-      <c r="F703">
+      <c r="F703" s="9">
         <v>1133.52</v>
       </c>
     </row>
@@ -40237,10 +41953,10 @@
       <c r="D704">
         <v>1933.99</v>
       </c>
-      <c r="E704">
+      <c r="E704" s="9">
         <v>5221.25</v>
       </c>
-      <c r="F704">
+      <c r="F704" s="9">
         <v>1164.4100000000001</v>
       </c>
     </row>
@@ -40257,10 +41973,10 @@
       <c r="D705">
         <v>1931.59</v>
       </c>
-      <c r="E705">
+      <c r="E705" s="9">
         <v>5224.3599999999997</v>
       </c>
-      <c r="F705">
+      <c r="F705" s="9">
         <v>1149.44</v>
       </c>
     </row>
@@ -40277,10 +41993,10 @@
       <c r="D706">
         <v>1823.85</v>
       </c>
-      <c r="E706">
+      <c r="E706" s="9">
         <v>4949.67</v>
       </c>
-      <c r="F706">
+      <c r="F706" s="9">
         <v>1098.3599999999999</v>
       </c>
     </row>
@@ -40297,10 +42013,10 @@
       <c r="D707">
         <v>1967.85</v>
       </c>
-      <c r="E707">
+      <c r="E707" s="9">
         <v>5288.08</v>
       </c>
-      <c r="F707">
+      <c r="F707" s="9">
         <v>1144.33</v>
       </c>
     </row>
@@ -40317,10 +42033,10 @@
       <c r="D708">
         <v>2002.73</v>
       </c>
-      <c r="E708">
+      <c r="E708" s="9">
         <v>5371.1</v>
       </c>
-      <c r="F708">
+      <c r="F708" s="9">
         <v>1149.43</v>
       </c>
     </row>
@@ -40337,10 +42053,10 @@
       <c r="D709">
         <v>1911.63</v>
       </c>
-      <c r="E709">
+      <c r="E709" s="9">
         <v>5163.57</v>
       </c>
-      <c r="F709">
+      <c r="F709" s="9">
         <v>1108.4100000000001</v>
       </c>
     </row>
@@ -40357,10 +42073,10 @@
       <c r="D710">
         <v>1892.96</v>
       </c>
-      <c r="E710">
+      <c r="E710" s="9">
         <v>5089.1400000000003</v>
       </c>
-      <c r="F710">
+      <c r="F710" s="9">
         <v>1080.77</v>
       </c>
     </row>
@@ -40377,10 +42093,10 @@
       <c r="D711">
         <v>2003.95</v>
       </c>
-      <c r="E711">
+      <c r="E711" s="9">
         <v>5298.04</v>
       </c>
-      <c r="F711">
+      <c r="F711" s="9">
         <v>1127.55</v>
       </c>
     </row>
@@ -40397,10 +42113,10 @@
       <c r="D712">
         <v>1991.93</v>
       </c>
-      <c r="E712">
+      <c r="E712" s="9">
         <v>5301.69</v>
       </c>
-      <c r="F712">
+      <c r="F712" s="9">
         <v>1115.2</v>
       </c>
     </row>
@@ -40417,10 +42133,10 @@
       <c r="D713">
         <v>1998.85</v>
       </c>
-      <c r="E713">
+      <c r="E713" s="9">
         <v>5354.49</v>
       </c>
-      <c r="F713">
+      <c r="F713" s="9">
         <v>1114.8699999999999</v>
       </c>
       <c r="G713">
@@ -40440,10 +42156,10 @@
       <c r="D714">
         <v>2070.84</v>
       </c>
-      <c r="E714">
+      <c r="E714" s="9">
         <v>5522.27</v>
       </c>
-      <c r="F714">
+      <c r="F714" s="9">
         <v>1125.99</v>
       </c>
       <c r="G714">
@@ -40463,10 +42179,10 @@
       <c r="D715">
         <v>2085.98</v>
       </c>
-      <c r="E715">
+      <c r="E715" s="9">
         <v>5507.01</v>
       </c>
-      <c r="F715">
+      <c r="F715" s="9">
         <v>1106.08</v>
       </c>
       <c r="G715">
@@ -40486,10 +42202,10 @@
       <c r="D716">
         <v>2164.6799999999998</v>
       </c>
-      <c r="E716">
+      <c r="E716" s="9">
         <v>5677.25</v>
       </c>
-      <c r="F716">
+      <c r="F716" s="9">
         <v>1160.71</v>
       </c>
       <c r="G716">

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA9AC0-D135-422E-965C-953A76D58686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D926DB-21A5-47A4-A438-BD04D80470C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31118,7 +31118,7 @@
   <dimension ref="A1:AA716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D926DB-21A5-47A4-A438-BD04D80470C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6449FDF-938D-4CF1-8F75-0BA366AE210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31118,7 +31118,7 @@
   <dimension ref="A1:AA716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6449FDF-938D-4CF1-8F75-0BA366AE210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AC9049-D615-482D-9F3B-F6041C9F5407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31118,7 +31118,7 @@
   <dimension ref="A1:AA716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -16459,62 +16459,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA716"/>
+  <dimension ref="A1:G717"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <cols>
-    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.25" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9.875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="8.5" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9.75" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="11.25" bestFit="1" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>트루밸류</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Value ESG</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>개방형 랩</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>KOSPI</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
-        <is>
-          <t>KOSDAQ</t>
-        </is>
-      </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>목표전환형</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
@@ -16522,20 +16513,9 @@
       <c r="B2" t="n">
         <v>1000</v>
       </c>
-      <c r="P2" s="10" t="n"/>
-      <c r="Q2" s="10" t="n"/>
-      <c r="R2" s="10" t="n"/>
-      <c r="S2" s="10" t="n"/>
-      <c r="T2" s="10" t="n"/>
-      <c r="U2" s="10" t="n"/>
-      <c r="V2" s="10" t="n"/>
-      <c r="W2" s="10" t="n"/>
-      <c r="X2" s="10" t="n"/>
-      <c r="Y2" s="10" t="n"/>
-      <c r="AA2" s="10" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
@@ -16543,13 +16523,9 @@
       <c r="B3" t="n">
         <v>1013.3</v>
       </c>
-      <c r="P3" s="10" t="n"/>
-      <c r="Q3" s="10" t="n"/>
-      <c r="R3" s="10" t="n"/>
-      <c r="T3" s="10" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
@@ -16560,13 +16536,9 @@
       <c r="C4" t="n">
         <v>1000</v>
       </c>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="T4" s="10" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
@@ -16577,11 +16549,9 @@
       <c r="C5" t="n">
         <v>1000.82</v>
       </c>
-      <c r="Q5" s="10" t="n"/>
-      <c r="T5" s="10" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
@@ -16594,7 +16564,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
@@ -16605,11 +16575,9 @@
       <c r="C7" t="n">
         <v>1000.73</v>
       </c>
-      <c r="P7" s="10" t="n"/>
-      <c r="Q7" s="10" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
@@ -16620,13 +16588,9 @@
       <c r="C8" t="n">
         <v>998.92</v>
       </c>
-      <c r="P8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-      <c r="R8" s="10" t="n"/>
-      <c r="T8" s="10" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
@@ -16637,11 +16601,9 @@
       <c r="C9" t="n">
         <v>1017.16</v>
       </c>
-      <c r="P9" s="10" t="n"/>
-      <c r="R9" s="10" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
@@ -16652,16 +16614,9 @@
       <c r="C10" t="n">
         <v>1025.08</v>
       </c>
-      <c r="P10" s="10" t="n"/>
-      <c r="Q10" s="10" t="n"/>
-      <c r="R10" s="10" t="n"/>
-      <c r="S10" s="10" t="n"/>
-      <c r="T10" s="10" t="n"/>
-      <c r="V10" s="10" t="n"/>
-      <c r="W10" s="10" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
@@ -16672,11 +16627,9 @@
       <c r="C11" t="n">
         <v>1025.93</v>
       </c>
-      <c r="P11" s="10" t="n"/>
-      <c r="R11" s="10" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
@@ -16687,12 +16640,9 @@
       <c r="C12" t="n">
         <v>1034.32</v>
       </c>
-      <c r="P12" s="10" t="n"/>
-      <c r="R12" s="10" t="n"/>
-      <c r="T12" s="10" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
@@ -16703,13 +16653,9 @@
       <c r="C13" t="n">
         <v>1009.59</v>
       </c>
-      <c r="P13" s="10" t="n"/>
-      <c r="Q13" s="10" t="n"/>
-      <c r="R13" s="10" t="n"/>
-      <c r="T13" s="10" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
@@ -16720,15 +16666,9 @@
       <c r="C14" t="n">
         <v>1021.12</v>
       </c>
-      <c r="P14" s="10" t="n"/>
-      <c r="Q14" s="10" t="n"/>
-      <c r="R14" s="10" t="n"/>
-      <c r="T14" s="10" t="n"/>
-      <c r="W14" s="10" t="n"/>
-      <c r="AA14" s="10" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
@@ -16739,14 +16679,9 @@
       <c r="C15" t="n">
         <v>1018.28</v>
       </c>
-      <c r="P15" s="10" t="n"/>
-      <c r="Q15" s="10" t="n"/>
-      <c r="R15" s="10" t="n"/>
-      <c r="T15" s="10" t="n"/>
-      <c r="AA15" s="10" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
@@ -16757,15 +16692,9 @@
       <c r="C16" t="n">
         <v>1016</v>
       </c>
-      <c r="P16" s="10" t="n"/>
-      <c r="Q16" s="10" t="n"/>
-      <c r="R16" s="10" t="n"/>
-      <c r="T16" s="10" t="n"/>
-      <c r="V16" s="10" t="n"/>
-      <c r="AA16" s="10" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
@@ -16776,13 +16705,9 @@
       <c r="C17" t="n">
         <v>999.51</v>
       </c>
-      <c r="P17" s="10" t="n"/>
-      <c r="Q17" s="10" t="n"/>
-      <c r="R17" s="10" t="n"/>
-      <c r="T17" s="10" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="11" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
@@ -16793,17 +16718,9 @@
       <c r="C18" t="n">
         <v>1055.76</v>
       </c>
-      <c r="P18" s="10" t="n"/>
-      <c r="Q18" s="10" t="n"/>
-      <c r="R18" s="10" t="n"/>
-      <c r="S18" s="10" t="n"/>
-      <c r="T18" s="10" t="n"/>
-      <c r="V18" s="10" t="n"/>
-      <c r="W18" s="10" t="n"/>
-      <c r="AA18" s="10" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
@@ -16814,14 +16731,9 @@
       <c r="C19" t="n">
         <v>1058.74</v>
       </c>
-      <c r="P19" s="10" t="n"/>
-      <c r="Q19" s="10" t="n"/>
-      <c r="R19" s="10" t="n"/>
-      <c r="T19" s="10" t="n"/>
-      <c r="W19" s="10" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
@@ -16832,10 +16744,9 @@
       <c r="C20" t="n">
         <v>1070.02</v>
       </c>
-      <c r="R20" s="10" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
@@ -16846,15 +16757,9 @@
       <c r="C21" t="n">
         <v>1091.78</v>
       </c>
-      <c r="P21" s="10" t="n"/>
-      <c r="Q21" s="10" t="n"/>
-      <c r="R21" s="10" t="n"/>
-      <c r="S21" s="10" t="n"/>
-      <c r="V21" s="10" t="n"/>
-      <c r="W21" s="10" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
@@ -16865,12 +16770,9 @@
       <c r="C22" t="n">
         <v>1104.07</v>
       </c>
-      <c r="P22" s="10" t="n"/>
-      <c r="R22" s="10" t="n"/>
-      <c r="T22" s="10" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
@@ -16881,11 +16783,9 @@
       <c r="C23" t="n">
         <v>1117.52</v>
       </c>
-      <c r="P23" s="10" t="n"/>
-      <c r="Q23" s="10" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
@@ -16898,7 +16798,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
@@ -16909,12 +16809,9 @@
       <c r="C25" t="n">
         <v>1109.48</v>
       </c>
-      <c r="P25" s="10" t="n"/>
-      <c r="Q25" s="10" t="n"/>
-      <c r="T25" s="10" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
@@ -16925,12 +16822,9 @@
       <c r="C26" t="n">
         <v>1110.23</v>
       </c>
-      <c r="P26" s="10" t="n"/>
-      <c r="Q26" s="10" t="n"/>
-      <c r="R26" s="10" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="inlineStr">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
@@ -16941,12 +16835,9 @@
       <c r="C27" t="n">
         <v>1080.8</v>
       </c>
-      <c r="P27" s="10" t="n"/>
-      <c r="Q27" s="10" t="n"/>
-      <c r="R27" s="10" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
@@ -16959,7 +16850,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
@@ -16970,12 +16861,9 @@
       <c r="C29" t="n">
         <v>1059.88</v>
       </c>
-      <c r="P29" s="10" t="n"/>
-      <c r="Q29" s="10" t="n"/>
-      <c r="T29" s="10" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
@@ -16988,7 +16876,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
@@ -16999,13 +16887,9 @@
       <c r="C31" t="n">
         <v>1044.29</v>
       </c>
-      <c r="P31" s="10" t="n"/>
-      <c r="Q31" s="10" t="n"/>
-      <c r="R31" s="10" t="n"/>
-      <c r="AA31" s="10" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="inlineStr">
+      <c r="A32" s="11" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
@@ -17016,13 +16900,9 @@
       <c r="C32" t="n">
         <v>1052.76</v>
       </c>
-      <c r="P32" s="10" t="n"/>
-      <c r="Q32" s="10" t="n"/>
-      <c r="T32" s="10" t="n"/>
-      <c r="V32" s="10" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="inlineStr">
+      <c r="A33" s="11" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
@@ -17033,10 +16913,9 @@
       <c r="C33" t="n">
         <v>1061.26</v>
       </c>
-      <c r="Q33" s="10" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="inlineStr">
+      <c r="A34" s="11" t="inlineStr">
         <is>
           <t>2023-05-02</t>
         </is>
@@ -17047,11 +16926,9 @@
       <c r="C34" t="n">
         <v>1059.22</v>
       </c>
-      <c r="P34" s="10" t="n"/>
-      <c r="Q34" s="10" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
+      <c r="A35" s="11" t="inlineStr">
         <is>
           <t>2023-05-03</t>
         </is>
@@ -17062,13 +16939,9 @@
       <c r="C35" t="n">
         <v>1054.35</v>
       </c>
-      <c r="P35" s="10" t="n"/>
-      <c r="Q35" s="10" t="n"/>
-      <c r="R35" s="10" t="n"/>
-      <c r="T35" s="10" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
+      <c r="A36" s="11" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
@@ -17079,12 +16952,9 @@
       <c r="C36" t="n">
         <v>1039.47</v>
       </c>
-      <c r="P36" s="10" t="n"/>
-      <c r="R36" s="10" t="n"/>
-      <c r="T36" s="10" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
+      <c r="A37" s="11" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
@@ -17095,13 +16965,9 @@
       <c r="C37" t="n">
         <v>1038.63</v>
       </c>
-      <c r="P37" s="10" t="n"/>
-      <c r="Q37" s="10" t="n"/>
-      <c r="R37" s="10" t="n"/>
-      <c r="T37" s="10" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+      <c r="A38" s="11" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
@@ -17112,10 +16978,9 @@
       <c r="C38" t="n">
         <v>1026.13</v>
       </c>
-      <c r="T38" s="10" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="inlineStr">
+      <c r="A39" s="11" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
@@ -17126,11 +16991,9 @@
       <c r="C39" t="n">
         <v>1019.56</v>
       </c>
-      <c r="P39" s="10" t="n"/>
-      <c r="Q39" s="10" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+      <c r="A40" s="11" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
@@ -17141,11 +17004,9 @@
       <c r="C40" t="n">
         <v>1025.62</v>
       </c>
-      <c r="P40" s="10" t="n"/>
-      <c r="AA40" s="10" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A41" s="11" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
@@ -17156,13 +17017,9 @@
       <c r="C41" t="n">
         <v>1019.32</v>
       </c>
-      <c r="P41" s="10" t="n"/>
-      <c r="Q41" s="10" t="n"/>
-      <c r="R41" s="10" t="n"/>
-      <c r="T41" s="10" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="inlineStr">
+      <c r="A42" s="11" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
@@ -17175,7 +17032,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
@@ -17186,11 +17043,9 @@
       <c r="C43" t="n">
         <v>1030.78</v>
       </c>
-      <c r="P43" s="10" t="n"/>
-      <c r="Q43" s="10" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
@@ -17201,11 +17056,9 @@
       <c r="C44" t="n">
         <v>1044.62</v>
       </c>
-      <c r="P44" s="10" t="n"/>
-      <c r="Q44" s="10" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+      <c r="A45" s="11" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
@@ -17216,11 +17069,9 @@
       <c r="C45" t="n">
         <v>1048.88</v>
       </c>
-      <c r="P45" s="10" t="n"/>
-      <c r="R45" s="10" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+      <c r="A46" s="11" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
@@ -17231,11 +17082,9 @@
       <c r="C46" t="n">
         <v>1049.14</v>
       </c>
-      <c r="P46" s="10" t="n"/>
-      <c r="Q46" s="10" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="inlineStr">
+      <c r="A47" s="11" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
@@ -17248,7 +17097,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="inlineStr">
+      <c r="A48" s="11" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
@@ -17261,7 +17110,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="inlineStr">
+      <c r="A49" s="11" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
@@ -17272,11 +17121,9 @@
       <c r="C49" t="n">
         <v>1051.49</v>
       </c>
-      <c r="P49" s="10" t="n"/>
-      <c r="R49" s="10" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="inlineStr">
+      <c r="A50" s="11" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
@@ -17287,12 +17134,9 @@
       <c r="C50" t="n">
         <v>1047.33</v>
       </c>
-      <c r="P50" s="10" t="n"/>
-      <c r="Q50" s="10" t="n"/>
-      <c r="R50" s="10" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="inlineStr">
+      <c r="A51" s="11" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
@@ -17303,13 +17147,9 @@
       <c r="C51" t="n">
         <v>1051.53</v>
       </c>
-      <c r="P51" s="10" t="n"/>
-      <c r="Q51" s="10" t="n"/>
-      <c r="R51" s="10" t="n"/>
-      <c r="W51" s="10" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
+      <c r="A52" s="11" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
@@ -17320,10 +17160,9 @@
       <c r="C52" t="n">
         <v>1064.51</v>
       </c>
-      <c r="T52" s="10" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="inlineStr">
+      <c r="A53" s="11" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
@@ -17334,10 +17173,9 @@
       <c r="C53" t="n">
         <v>1058.41</v>
       </c>
-      <c r="P53" s="10" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="inlineStr">
+      <c r="A54" s="11" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
@@ -17348,11 +17186,9 @@
       <c r="C54" t="n">
         <v>1057.64</v>
       </c>
-      <c r="Q54" s="10" t="n"/>
-      <c r="R54" s="10" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="inlineStr">
+      <c r="A55" s="11" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
@@ -17363,13 +17199,9 @@
       <c r="C55" t="n">
         <v>1068.08</v>
       </c>
-      <c r="P55" s="10" t="n"/>
-      <c r="Q55" s="10" t="n"/>
-      <c r="R55" s="10" t="n"/>
-      <c r="T55" s="10" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="inlineStr">
+      <c r="A56" s="11" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
@@ -17380,15 +17212,9 @@
       <c r="C56" t="n">
         <v>1074.57</v>
       </c>
-      <c r="P56" s="10" t="n"/>
-      <c r="Q56" s="10" t="n"/>
-      <c r="R56" s="10" t="n"/>
-      <c r="T56" s="10" t="n"/>
-      <c r="V56" s="10" t="n"/>
-      <c r="W56" s="10" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+      <c r="A57" s="11" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
@@ -17399,10 +17225,9 @@
       <c r="C57" t="n">
         <v>1078.57</v>
       </c>
-      <c r="P57" s="10" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
@@ -17413,11 +17238,9 @@
       <c r="C58" t="n">
         <v>1082.67</v>
       </c>
-      <c r="P58" s="10" t="n"/>
-      <c r="Q58" s="10" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
+      <c r="A59" s="11" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
@@ -17428,10 +17251,9 @@
       <c r="C59" t="n">
         <v>1083.76</v>
       </c>
-      <c r="Q59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
@@ -17444,7 +17266,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
+      <c r="A61" s="11" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
@@ -17455,11 +17277,9 @@
       <c r="C61" t="n">
         <v>1083.04</v>
       </c>
-      <c r="P61" s="10" t="n"/>
-      <c r="Q61" s="10" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
@@ -17470,11 +17290,9 @@
       <c r="C62" t="n">
         <v>1071.37</v>
       </c>
-      <c r="P62" s="10" t="n"/>
-      <c r="Q62" s="10" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+      <c r="A63" s="11" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
@@ -17487,7 +17305,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
+      <c r="A64" s="11" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
@@ -17498,12 +17316,9 @@
       <c r="C64" t="n">
         <v>1094.44</v>
       </c>
-      <c r="P64" s="10" t="n"/>
-      <c r="Q64" s="10" t="n"/>
-      <c r="R64" s="10" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="inlineStr">
+      <c r="A65" s="11" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
@@ -17516,7 +17331,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="inlineStr">
+      <c r="A66" s="11" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
@@ -17527,11 +17342,9 @@
       <c r="C66" t="n">
         <v>1097.84</v>
       </c>
-      <c r="P66" s="10" t="n"/>
-      <c r="Q66" s="10" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="inlineStr">
+      <c r="A67" s="11" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
@@ -17544,7 +17357,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
+      <c r="A68" s="11" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
@@ -17555,12 +17368,9 @@
       <c r="C68" t="n">
         <v>1086.07</v>
       </c>
-      <c r="P68" s="10" t="n"/>
-      <c r="Q68" s="10" t="n"/>
-      <c r="R68" s="10" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="inlineStr">
+      <c r="A69" s="11" t="inlineStr">
         <is>
           <t>2023-06-23</t>
         </is>
@@ -17573,7 +17383,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="inlineStr">
+      <c r="A70" s="11" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
@@ -17584,10 +17394,9 @@
       <c r="C70" t="n">
         <v>1074.96</v>
       </c>
-      <c r="T70" s="10" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="11" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
@@ -17598,10 +17407,9 @@
       <c r="C71" t="n">
         <v>1080.7</v>
       </c>
-      <c r="R71" s="10" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="inlineStr">
+      <c r="A72" s="11" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
@@ -17612,11 +17420,9 @@
       <c r="C72" t="n">
         <v>1077.65</v>
       </c>
-      <c r="P72" s="10" t="n"/>
-      <c r="Q72" s="10" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="inlineStr">
+      <c r="A73" s="11" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
@@ -17627,11 +17433,9 @@
       <c r="C73" t="n">
         <v>1082.89</v>
       </c>
-      <c r="P73" s="10" t="n"/>
-      <c r="Q73" s="10" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="inlineStr">
+      <c r="A74" s="11" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
@@ -17642,12 +17446,9 @@
       <c r="C74" t="n">
         <v>1085.96</v>
       </c>
-      <c r="P74" s="10" t="n"/>
-      <c r="Q74" s="10" t="n"/>
-      <c r="R74" s="10" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="inlineStr">
+      <c r="A75" s="11" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
@@ -17658,11 +17459,9 @@
       <c r="C75" t="n">
         <v>1092.14</v>
       </c>
-      <c r="P75" s="10" t="n"/>
-      <c r="Q75" s="10" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="inlineStr">
+      <c r="A76" s="11" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
@@ -17673,13 +17472,9 @@
       <c r="C76" t="n">
         <v>1093.64</v>
       </c>
-      <c r="P76" s="10" t="n"/>
-      <c r="Q76" s="10" t="n"/>
-      <c r="R76" s="10" t="n"/>
-      <c r="T76" s="10" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="inlineStr">
+      <c r="A77" s="11" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
@@ -17690,10 +17485,9 @@
       <c r="C77" t="n">
         <v>1086.7</v>
       </c>
-      <c r="Q77" s="10" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="inlineStr">
+      <c r="A78" s="11" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
@@ -17706,7 +17500,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="inlineStr">
+      <c r="A79" s="11" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
@@ -17717,11 +17511,9 @@
       <c r="C79" t="n">
         <v>1055.64</v>
       </c>
-      <c r="P79" s="10" t="n"/>
-      <c r="Q79" s="10" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="inlineStr">
+      <c r="A80" s="11" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
@@ -17732,14 +17524,9 @@
       <c r="C80" t="n">
         <v>1047.43</v>
       </c>
-      <c r="P80" s="10" t="n"/>
-      <c r="Q80" s="10" t="n"/>
-      <c r="R80" s="10" t="n"/>
-      <c r="T80" s="10" t="n"/>
-      <c r="AA80" s="10" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="inlineStr">
+      <c r="A81" s="11" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
@@ -17750,12 +17537,9 @@
       <c r="C81" t="n">
         <v>1069.82</v>
       </c>
-      <c r="P81" s="10" t="n"/>
-      <c r="R81" s="10" t="n"/>
-      <c r="T81" s="10" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="inlineStr">
+      <c r="A82" s="11" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
@@ -17766,11 +17550,9 @@
       <c r="C82" t="n">
         <v>1077.26</v>
       </c>
-      <c r="P82" s="10" t="n"/>
-      <c r="Q82" s="10" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="inlineStr">
+      <c r="A83" s="11" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
@@ -17781,10 +17563,9 @@
       <c r="C83" t="n">
         <v>1072.17</v>
       </c>
-      <c r="P83" s="10" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="inlineStr">
+      <c r="A84" s="11" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
@@ -17795,10 +17576,9 @@
       <c r="C84" t="n">
         <v>1087.2</v>
       </c>
-      <c r="P84" s="10" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="inlineStr">
+      <c r="A85" s="11" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
@@ -17809,11 +17589,9 @@
       <c r="C85" t="n">
         <v>1083</v>
       </c>
-      <c r="P85" s="10" t="n"/>
-      <c r="Q85" s="10" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="inlineStr">
+      <c r="A86" s="11" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
@@ -17824,10 +17602,9 @@
       <c r="C86" t="n">
         <v>1077.96</v>
       </c>
-      <c r="R86" s="10" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="inlineStr">
+      <c r="A87" s="11" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
@@ -17838,11 +17615,9 @@
       <c r="C87" t="n">
         <v>1077.97</v>
       </c>
-      <c r="P87" s="10" t="n"/>
-      <c r="R87" s="10" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="inlineStr">
+      <c r="A88" s="11" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
@@ -17853,11 +17628,9 @@
       <c r="C88" t="n">
         <v>1097.54</v>
       </c>
-      <c r="P88" s="10" t="n"/>
-      <c r="T88" s="10" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="inlineStr">
+      <c r="A89" s="11" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
@@ -17868,12 +17641,9 @@
       <c r="C89" t="n">
         <v>1085.12</v>
       </c>
-      <c r="P89" s="10" t="n"/>
-      <c r="Q89" s="10" t="n"/>
-      <c r="R89" s="10" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="inlineStr">
+      <c r="A90" s="11" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
@@ -17884,10 +17654,9 @@
       <c r="C90" t="n">
         <v>1082.68</v>
       </c>
-      <c r="P90" s="10" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="inlineStr">
+      <c r="A91" s="11" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
@@ -17898,11 +17667,9 @@
       <c r="C91" t="n">
         <v>1092.34</v>
       </c>
-      <c r="P91" s="10" t="n"/>
-      <c r="Q91" s="10" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="inlineStr">
+      <c r="A92" s="11" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
@@ -17915,7 +17682,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="inlineStr">
+      <c r="A93" s="11" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
@@ -17926,10 +17693,9 @@
       <c r="C93" t="n">
         <v>1094.42</v>
       </c>
-      <c r="Y93" s="10" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="inlineStr">
+      <c r="A94" s="11" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
@@ -17940,11 +17706,9 @@
       <c r="C94" t="n">
         <v>1113.19</v>
       </c>
-      <c r="P94" s="10" t="n"/>
-      <c r="Q94" s="10" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="inlineStr">
+      <c r="A95" s="11" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
@@ -17955,12 +17719,9 @@
       <c r="C95" t="n">
         <v>1121.31</v>
       </c>
-      <c r="P95" s="10" t="n"/>
-      <c r="Q95" s="10" t="n"/>
-      <c r="R95" s="10" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="inlineStr">
+      <c r="A96" s="11" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
@@ -17973,7 +17734,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="inlineStr">
+      <c r="A97" s="11" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
@@ -17984,11 +17745,9 @@
       <c r="C97" t="n">
         <v>1115.14</v>
       </c>
-      <c r="P97" s="10" t="n"/>
-      <c r="R97" s="10" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="inlineStr">
+      <c r="A98" s="11" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
@@ -17999,12 +17758,9 @@
       <c r="C98" t="n">
         <v>1126.13</v>
       </c>
-      <c r="P98" s="10" t="n"/>
-      <c r="Q98" s="10" t="n"/>
-      <c r="R98" s="10" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="inlineStr">
+      <c r="A99" s="11" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
@@ -18015,11 +17771,9 @@
       <c r="C99" t="n">
         <v>1126.2</v>
       </c>
-      <c r="P99" s="10" t="n"/>
-      <c r="Q99" s="10" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="inlineStr">
+      <c r="A100" s="11" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
@@ -18030,11 +17784,9 @@
       <c r="C100" t="n">
         <v>1126.82</v>
       </c>
-      <c r="P100" s="10" t="n"/>
-      <c r="AA100" s="10" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="inlineStr">
+      <c r="A101" s="11" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
@@ -18045,11 +17797,9 @@
       <c r="C101" t="n">
         <v>1113.55</v>
       </c>
-      <c r="P101" s="10" t="n"/>
-      <c r="Q101" s="10" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="8" t="inlineStr">
+      <c r="A102" s="11" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
@@ -18060,11 +17810,9 @@
       <c r="C102" t="n">
         <v>1133.75</v>
       </c>
-      <c r="P102" s="10" t="n"/>
-      <c r="R102" s="10" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="8" t="inlineStr">
+      <c r="A103" s="11" t="inlineStr">
         <is>
           <t>2023-08-10</t>
         </is>
@@ -18075,12 +17823,9 @@
       <c r="C103" t="n">
         <v>1128.99</v>
       </c>
-      <c r="P103" s="10" t="n"/>
-      <c r="Q103" s="10" t="n"/>
-      <c r="R103" s="10" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="8" t="inlineStr">
+      <c r="A104" s="11" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
@@ -18091,11 +17836,9 @@
       <c r="C104" t="n">
         <v>1161.09</v>
       </c>
-      <c r="P104" s="10" t="n"/>
-      <c r="Q104" s="10" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="8" t="inlineStr">
+      <c r="A105" s="11" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
@@ -18106,10 +17849,9 @@
       <c r="C105" t="n">
         <v>1156.28</v>
       </c>
-      <c r="P105" s="10" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="8" t="inlineStr">
+      <c r="A106" s="11" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
@@ -18120,11 +17862,9 @@
       <c r="C106" t="n">
         <v>1146.4</v>
       </c>
-      <c r="P106" s="10" t="n"/>
-      <c r="Q106" s="10" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="8" t="inlineStr">
+      <c r="A107" s="11" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
@@ -18137,7 +17877,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="8" t="inlineStr">
+      <c r="A108" s="11" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
@@ -18148,10 +17888,9 @@
       <c r="C108" t="n">
         <v>1125.74</v>
       </c>
-      <c r="P108" s="10" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="8" t="inlineStr">
+      <c r="A109" s="11" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
@@ -18164,7 +17903,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="8" t="inlineStr">
+      <c r="A110" s="11" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
@@ -18177,7 +17916,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="8" t="inlineStr">
+      <c r="A111" s="11" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
@@ -18190,7 +17929,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="8" t="inlineStr">
+      <c r="A112" s="11" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
@@ -18201,10 +17940,9 @@
       <c r="C112" t="n">
         <v>1143.22</v>
       </c>
-      <c r="P112" s="10" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="8" t="inlineStr">
+      <c r="A113" s="11" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
@@ -18217,7 +17955,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="8" t="inlineStr">
+      <c r="A114" s="11" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
@@ -18230,7 +17968,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="8" t="inlineStr">
+      <c r="A115" s="11" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
@@ -18243,7 +17981,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="8" t="inlineStr">
+      <c r="A116" s="11" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
@@ -18256,7 +17994,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="8" t="inlineStr">
+      <c r="A117" s="11" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
@@ -18269,7 +18007,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="8" t="inlineStr">
+      <c r="A118" s="11" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
@@ -18280,10 +18018,9 @@
       <c r="C118" t="n">
         <v>1175.83</v>
       </c>
-      <c r="P118" s="10" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="8" t="inlineStr">
+      <c r="A119" s="11" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
@@ -18294,11 +18031,9 @@
       <c r="C119" t="n">
         <v>1167.64</v>
       </c>
-      <c r="P119" s="10" t="n"/>
-      <c r="Q119" s="10" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr">
+      <c r="A120" s="11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
@@ -18309,11 +18044,9 @@
       <c r="C120" t="n">
         <v>1168.53</v>
       </c>
-      <c r="P120" s="10" t="n"/>
-      <c r="Q120" s="10" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr">
+      <c r="A121" s="11" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
@@ -18326,7 +18059,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr">
+      <c r="A122" s="11" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
@@ -18337,10 +18070,9 @@
       <c r="C122" t="n">
         <v>1165.37</v>
       </c>
-      <c r="P122" s="10" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr">
+      <c r="A123" s="11" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
@@ -18351,10 +18083,9 @@
       <c r="C123" t="n">
         <v>1155.25</v>
       </c>
-      <c r="P123" s="10" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr">
+      <c r="A124" s="11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
@@ -18367,7 +18098,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr">
+      <c r="A125" s="11" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
@@ -18378,11 +18109,9 @@
       <c r="C125" t="n">
         <v>1152.39</v>
       </c>
-      <c r="P125" s="10" t="n"/>
-      <c r="R125" s="10" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr">
+      <c r="A126" s="11" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
@@ -18395,7 +18124,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr">
+      <c r="A127" s="11" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
@@ -18408,7 +18137,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr">
+      <c r="A128" s="11" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
@@ -18421,7 +18150,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
+      <c r="A129" s="11" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
@@ -18434,7 +18163,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr">
+      <c r="A130" s="11" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
@@ -18447,7 +18176,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr">
+      <c r="A131" s="11" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
@@ -18460,7 +18189,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr">
+      <c r="A132" s="11" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
@@ -18473,7 +18202,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr">
+      <c r="A133" s="11" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
@@ -18486,7 +18215,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr">
+      <c r="A134" s="11" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
@@ -18499,7 +18228,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr">
+      <c r="A135" s="11" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
@@ -18510,12 +18239,9 @@
       <c r="C135" t="n">
         <v>1118.26</v>
       </c>
-      <c r="P135" s="10" t="n"/>
-      <c r="Q135" s="10" t="n"/>
-      <c r="R135" s="10" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr">
+      <c r="A136" s="11" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
@@ -18528,7 +18254,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr">
+      <c r="A137" s="11" t="inlineStr">
         <is>
           <t>2023-10-04</t>
         </is>
@@ -18541,7 +18267,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr">
+      <c r="A138" s="11" t="inlineStr">
         <is>
           <t>2023-10-05</t>
         </is>
@@ -18554,7 +18280,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr">
+      <c r="A139" s="11" t="inlineStr">
         <is>
           <t>2023-10-06</t>
         </is>
@@ -18567,7 +18293,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr">
+      <c r="A140" s="11" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
@@ -18578,10 +18304,9 @@
       <c r="C140" t="n">
         <v>1103.96</v>
       </c>
-      <c r="R140" s="10" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr">
+      <c r="A141" s="11" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
@@ -18594,7 +18319,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr">
+      <c r="A142" s="11" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
@@ -18605,11 +18330,9 @@
       <c r="C142" t="n">
         <v>1123.02</v>
       </c>
-      <c r="P142" s="10" t="n"/>
-      <c r="R142" s="10" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="8" t="inlineStr">
+      <c r="A143" s="11" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
@@ -18620,11 +18343,9 @@
       <c r="C143" t="n">
         <v>1121.87</v>
       </c>
-      <c r="P143" s="10" t="n"/>
-      <c r="R143" s="10" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="8" t="inlineStr">
+      <c r="A144" s="11" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
@@ -18637,7 +18358,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="8" t="inlineStr">
+      <c r="A145" s="11" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
@@ -18650,7 +18371,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="8" t="inlineStr">
+      <c r="A146" s="11" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
@@ -18663,7 +18384,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="8" t="inlineStr">
+      <c r="A147" s="11" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
@@ -18674,10 +18395,9 @@
       <c r="C147" t="n">
         <v>1102.48</v>
       </c>
-      <c r="P147" s="10" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="inlineStr">
+      <c r="A148" s="11" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
@@ -18690,7 +18410,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="8" t="inlineStr">
+      <c r="A149" s="11" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
@@ -18701,11 +18421,9 @@
       <c r="C149" t="n">
         <v>1081.28</v>
       </c>
-      <c r="P149" s="10" t="n"/>
-      <c r="Q149" s="10" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="8" t="inlineStr">
+      <c r="A150" s="11" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
@@ -18718,7 +18436,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="8" t="inlineStr">
+      <c r="A151" s="11" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
@@ -18729,12 +18447,9 @@
       <c r="C151" t="n">
         <v>1103.26</v>
       </c>
-      <c r="Q151" s="10" t="n"/>
-      <c r="R151" s="10" t="n"/>
-      <c r="T151" s="10" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="8" t="inlineStr">
+      <c r="A152" s="11" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
@@ -18747,7 +18462,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="8" t="inlineStr">
+      <c r="A153" s="11" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
@@ -18758,10 +18473,9 @@
       <c r="C153" t="n">
         <v>1079.74</v>
       </c>
-      <c r="R153" s="10" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="8" t="inlineStr">
+      <c r="A154" s="11" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
@@ -18772,10 +18486,9 @@
       <c r="C154" t="n">
         <v>1086.33</v>
       </c>
-      <c r="Q154" s="10" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="8" t="inlineStr">
+      <c r="A155" s="11" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
@@ -18786,11 +18499,9 @@
       <c r="C155" t="n">
         <v>1069.05</v>
       </c>
-      <c r="P155" s="10" t="n"/>
-      <c r="Q155" s="10" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="8" t="inlineStr">
+      <c r="A156" s="11" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
@@ -18801,11 +18512,9 @@
       <c r="C156" t="n">
         <v>1071.44</v>
       </c>
-      <c r="P156" s="10" t="n"/>
-      <c r="Q156" s="10" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="8" t="inlineStr">
+      <c r="A157" s="11" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
@@ -18816,11 +18525,9 @@
       <c r="C157" t="n">
         <v>1084.57</v>
       </c>
-      <c r="P157" s="10" t="n"/>
-      <c r="Q157" s="10" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="8" t="inlineStr">
+      <c r="A158" s="11" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
@@ -18833,7 +18540,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="8" t="inlineStr">
+      <c r="A159" s="11" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
@@ -18846,7 +18553,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="8" t="inlineStr">
+      <c r="A160" s="11" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
@@ -18857,11 +18564,9 @@
       <c r="C160" t="n">
         <v>1097.38</v>
       </c>
-      <c r="P160" s="10" t="n"/>
-      <c r="Q160" s="10" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="8" t="inlineStr">
+      <c r="A161" s="11" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
@@ -18872,11 +18577,9 @@
       <c r="C161" t="n">
         <v>1089.33</v>
       </c>
-      <c r="P161" s="10" t="n"/>
-      <c r="Q161" s="10" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="8" t="inlineStr">
+      <c r="A162" s="11" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
@@ -18887,11 +18590,9 @@
       <c r="C162" t="n">
         <v>1088.05</v>
       </c>
-      <c r="P162" s="10" t="n"/>
-      <c r="Q162" s="10" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="8" t="inlineStr">
+      <c r="A163" s="11" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
@@ -18902,11 +18603,9 @@
       <c r="C163" t="n">
         <v>1090.75</v>
       </c>
-      <c r="P163" s="10" t="n"/>
-      <c r="Q163" s="10" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="8" t="inlineStr">
+      <c r="A164" s="11" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
@@ -18917,10 +18616,9 @@
       <c r="C164" t="n">
         <v>1083.94</v>
       </c>
-      <c r="P164" s="10" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="8" t="inlineStr">
+      <c r="A165" s="11" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
@@ -18933,7 +18631,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="8" t="inlineStr">
+      <c r="A166" s="11" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
@@ -18944,11 +18642,9 @@
       <c r="C166" t="n">
         <v>1102.86</v>
       </c>
-      <c r="P166" s="10" t="n"/>
-      <c r="Q166" s="10" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="8" t="inlineStr">
+      <c r="A167" s="11" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
@@ -18961,7 +18657,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="8" t="inlineStr">
+      <c r="A168" s="11" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
@@ -18974,7 +18670,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="8" t="inlineStr">
+      <c r="A169" s="11" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
@@ -18985,11 +18681,9 @@
       <c r="C169" t="n">
         <v>1095.68</v>
       </c>
-      <c r="P169" s="10" t="n"/>
-      <c r="Q169" s="10" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="8" t="inlineStr">
+      <c r="A170" s="11" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
@@ -19000,11 +18694,9 @@
       <c r="C170" t="n">
         <v>1099.48</v>
       </c>
-      <c r="P170" s="10" t="n"/>
-      <c r="Q170" s="10" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="8" t="inlineStr">
+      <c r="A171" s="11" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
@@ -19017,7 +18709,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="8" t="inlineStr">
+      <c r="A172" s="11" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
@@ -19028,12 +18720,9 @@
       <c r="C172" t="n">
         <v>1097.66</v>
       </c>
-      <c r="P172" s="10" t="n"/>
-      <c r="Q172" s="10" t="n"/>
-      <c r="R172" s="10" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="8" t="inlineStr">
+      <c r="A173" s="11" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
@@ -19046,7 +18735,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="8" t="inlineStr">
+      <c r="A174" s="11" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
@@ -19057,11 +18746,9 @@
       <c r="C174" t="n">
         <v>1096.25</v>
       </c>
-      <c r="P174" s="10" t="n"/>
-      <c r="Q174" s="10" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="8" t="inlineStr">
+      <c r="A175" s="11" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
@@ -19074,7 +18761,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="8" t="inlineStr">
+      <c r="A176" s="11" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
@@ -19085,13 +18772,9 @@
       <c r="C176" t="n">
         <v>1096.9</v>
       </c>
-      <c r="P176" s="10" t="n"/>
-      <c r="Q176" s="10" t="n"/>
-      <c r="R176" s="10" t="n"/>
-      <c r="T176" s="10" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="8" t="inlineStr">
+      <c r="A177" s="11" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
@@ -19102,11 +18785,9 @@
       <c r="C177" t="n">
         <v>1097.36</v>
       </c>
-      <c r="P177" s="10" t="n"/>
-      <c r="Q177" s="10" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="8" t="inlineStr">
+      <c r="A178" s="11" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
@@ -19117,11 +18798,9 @@
       <c r="C178" t="n">
         <v>1092.47</v>
       </c>
-      <c r="P178" s="10" t="n"/>
-      <c r="Q178" s="10" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="8" t="inlineStr">
+      <c r="A179" s="11" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
@@ -19134,7 +18813,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="8" t="inlineStr">
+      <c r="A180" s="11" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
@@ -19145,11 +18824,9 @@
       <c r="C180" t="n">
         <v>1067.94</v>
       </c>
-      <c r="Q180" s="10" t="n"/>
-      <c r="AA180" s="10" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="8" t="inlineStr">
+      <c r="A181" s="11" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
@@ -19162,7 +18839,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="8" t="inlineStr">
+      <c r="A182" s="11" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
@@ -19173,10 +18850,9 @@
       <c r="C182" t="n">
         <v>1074.99</v>
       </c>
-      <c r="P182" s="10" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="8" t="inlineStr">
+      <c r="A183" s="11" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
@@ -19189,7 +18865,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="8" t="inlineStr">
+      <c r="A184" s="11" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
@@ -19200,10 +18876,9 @@
       <c r="C184" t="n">
         <v>1093.9</v>
       </c>
-      <c r="P184" s="10" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="8" t="inlineStr">
+      <c r="A185" s="11" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
@@ -19214,10 +18889,9 @@
       <c r="C185" t="n">
         <v>1097.34</v>
       </c>
-      <c r="P185" s="10" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="8" t="inlineStr">
+      <c r="A186" s="11" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
@@ -19230,7 +18904,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="8" t="inlineStr">
+      <c r="A187" s="11" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
@@ -19241,11 +18915,9 @@
       <c r="C187" t="n">
         <v>1118.43</v>
       </c>
-      <c r="P187" s="10" t="n"/>
-      <c r="R187" s="10" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="8" t="inlineStr">
+      <c r="A188" s="11" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
@@ -19256,11 +18928,9 @@
       <c r="C188" t="n">
         <v>1117.33</v>
       </c>
-      <c r="P188" s="10" t="n"/>
-      <c r="Q188" s="10" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="8" t="inlineStr">
+      <c r="A189" s="11" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
@@ -19271,11 +18941,9 @@
       <c r="C189" t="n">
         <v>1124.47</v>
       </c>
-      <c r="P189" s="10" t="n"/>
-      <c r="Q189" s="10" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="8" t="inlineStr">
+      <c r="A190" s="11" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
@@ -19288,7 +18956,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="8" t="inlineStr">
+      <c r="A191" s="11" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
@@ -19301,7 +18969,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="8" t="inlineStr">
+      <c r="A192" s="11" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
@@ -19314,7 +18982,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="8" t="inlineStr">
+      <c r="A193" s="11" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
@@ -19325,11 +18993,9 @@
       <c r="C193" t="n">
         <v>1117.56</v>
       </c>
-      <c r="P193" s="10" t="n"/>
-      <c r="Q193" s="10" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" s="8" t="inlineStr">
+      <c r="A194" s="11" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
@@ -19342,7 +19008,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="8" t="inlineStr">
+      <c r="A195" s="11" t="inlineStr">
         <is>
           <t>2023-12-27</t>
         </is>
@@ -19355,7 +19021,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="8" t="inlineStr">
+      <c r="A196" s="11" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
@@ -19366,10 +19032,9 @@
       <c r="C196" t="n">
         <v>0</v>
       </c>
-      <c r="P196" s="10" t="n"/>
     </row>
     <row r="197">
-      <c r="A197" s="8" t="inlineStr">
+      <c r="A197" s="11" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
@@ -19380,11 +19045,9 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="P197" s="10" t="n"/>
-      <c r="R197" s="10" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" s="8" t="inlineStr">
+      <c r="A198" s="11" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
@@ -19395,11 +19058,9 @@
       <c r="C198" t="n">
         <v>1161.7</v>
       </c>
-      <c r="P198" s="10" t="n"/>
-      <c r="Q198" s="10" t="n"/>
     </row>
     <row r="199">
-      <c r="A199" s="8" t="inlineStr">
+      <c r="A199" s="11" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
@@ -19410,11 +19071,9 @@
       <c r="C199" t="n">
         <v>1149.69</v>
       </c>
-      <c r="P199" s="10" t="n"/>
-      <c r="R199" s="10" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" s="8" t="inlineStr">
+      <c r="A200" s="11" t="inlineStr">
         <is>
           <t>2024-01-04</t>
         </is>
@@ -19427,7 +19086,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="8" t="inlineStr">
+      <c r="A201" s="11" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
@@ -19440,7 +19099,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="8" t="inlineStr">
+      <c r="A202" s="11" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
@@ -19453,7 +19112,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="8" t="inlineStr">
+      <c r="A203" s="11" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
@@ -19466,7 +19125,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="8" t="inlineStr">
+      <c r="A204" s="11" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
@@ -19477,11 +19136,9 @@
       <c r="C204" t="n">
         <v>1157.29</v>
       </c>
-      <c r="P204" s="10" t="n"/>
-      <c r="Q204" s="10" t="n"/>
     </row>
     <row r="205">
-      <c r="A205" s="8" t="inlineStr">
+      <c r="A205" s="11" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
@@ -19494,7 +19151,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="8" t="inlineStr">
+      <c r="A206" s="11" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
@@ -19505,10 +19162,9 @@
       <c r="C206" t="n">
         <v>1150.54</v>
       </c>
-      <c r="P206" s="10" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="8" t="inlineStr">
+      <c r="A207" s="11" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
@@ -19519,11 +19175,9 @@
       <c r="C207" t="n">
         <v>1142.67</v>
       </c>
-      <c r="P207" s="10" t="n"/>
-      <c r="Q207" s="10" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="8" t="inlineStr">
+      <c r="A208" s="11" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
@@ -19534,10 +19188,9 @@
       <c r="C208" t="n">
         <v>1133.06</v>
       </c>
-      <c r="P208" s="10" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="8" t="inlineStr">
+      <c r="A209" s="11" t="inlineStr">
         <is>
           <t>2024-01-17</t>
         </is>
@@ -19550,7 +19203,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="8" t="inlineStr">
+      <c r="A210" s="11" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
@@ -19563,7 +19216,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="8" t="inlineStr">
+      <c r="A211" s="11" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
@@ -19574,13 +19227,9 @@
       <c r="C211" t="n">
         <v>1124.96</v>
       </c>
-      <c r="P211" s="10" t="n"/>
-      <c r="Q211" s="10" t="n"/>
-      <c r="R211" s="10" t="n"/>
-      <c r="T211" s="10" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" s="8" t="inlineStr">
+      <c r="A212" s="11" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
@@ -19593,7 +19242,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="8" t="inlineStr">
+      <c r="A213" s="11" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
@@ -19604,11 +19253,9 @@
       <c r="C213" t="n">
         <v>1134.29</v>
       </c>
-      <c r="R213" s="10" t="n"/>
-      <c r="T213" s="10" t="n"/>
     </row>
     <row r="214">
-      <c r="A214" s="8" t="inlineStr">
+      <c r="A214" s="11" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
@@ -19619,11 +19266,9 @@
       <c r="C214" t="n">
         <v>1133.03</v>
       </c>
-      <c r="P214" s="10" t="n"/>
-      <c r="Q214" s="10" t="n"/>
     </row>
     <row r="215">
-      <c r="A215" s="8" t="inlineStr">
+      <c r="A215" s="11" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
@@ -19634,10 +19279,9 @@
       <c r="C215" t="n">
         <v>1143.44</v>
       </c>
-      <c r="T215" s="10" t="n"/>
     </row>
     <row r="216">
-      <c r="A216" s="8" t="inlineStr">
+      <c r="A216" s="11" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
@@ -19650,7 +19294,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="8" t="inlineStr">
+      <c r="A217" s="11" t="inlineStr">
         <is>
           <t>2024-01-29</t>
         </is>
@@ -19661,11 +19305,9 @@
       <c r="C217" t="n">
         <v>1134.17</v>
       </c>
-      <c r="P217" s="10" t="n"/>
-      <c r="Q217" s="10" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="8" t="inlineStr">
+      <c r="A218" s="11" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
@@ -19676,12 +19318,9 @@
       <c r="C218" t="n">
         <v>1132.94</v>
       </c>
-      <c r="P218" s="10" t="n"/>
-      <c r="R218" s="10" t="n"/>
-      <c r="T218" s="10" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="8" t="inlineStr">
+      <c r="A219" s="11" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
@@ -19692,12 +19331,9 @@
       <c r="C219" t="n">
         <v>1128.55</v>
       </c>
-      <c r="Q219" s="10" t="n"/>
-      <c r="R219" s="10" t="n"/>
-      <c r="T219" s="10" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="8" t="inlineStr">
+      <c r="A220" s="11" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
@@ -19708,11 +19344,9 @@
       <c r="C220" t="n">
         <v>1126.69</v>
       </c>
-      <c r="P220" s="10" t="n"/>
-      <c r="Q220" s="10" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="8" t="inlineStr">
+      <c r="A221" s="11" t="inlineStr">
         <is>
           <t>2024-02-02</t>
         </is>
@@ -19725,7 +19359,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="8" t="inlineStr">
+      <c r="A222" s="11" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
@@ -19736,11 +19370,9 @@
       <c r="C222" t="n">
         <v>1141.1</v>
       </c>
-      <c r="P222" s="10" t="n"/>
-      <c r="T222" s="10" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="8" t="inlineStr">
+      <c r="A223" s="11" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
@@ -19751,10 +19383,9 @@
       <c r="C223" t="n">
         <v>1124.32</v>
       </c>
-      <c r="R223" s="10" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="8" t="inlineStr">
+      <c r="A224" s="11" t="inlineStr">
         <is>
           <t>2024-02-07</t>
         </is>
@@ -19767,7 +19398,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="8" t="inlineStr">
+      <c r="A225" s="11" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
@@ -19778,12 +19409,9 @@
       <c r="C225" t="n">
         <v>1134.33</v>
       </c>
-      <c r="P225" s="10" t="n"/>
-      <c r="R225" s="10" t="n"/>
-      <c r="T225" s="10" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="8" t="inlineStr">
+      <c r="A226" s="11" t="inlineStr">
         <is>
           <t>2024-02-13</t>
         </is>
@@ -19796,7 +19424,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="8" t="inlineStr">
+      <c r="A227" s="11" t="inlineStr">
         <is>
           <t>2024-02-14</t>
         </is>
@@ -19807,11 +19435,9 @@
       <c r="C227" t="n">
         <v>1132.07</v>
       </c>
-      <c r="P227" s="10" t="n"/>
-      <c r="Q227" s="10" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="8" t="inlineStr">
+      <c r="A228" s="11" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
@@ -19824,7 +19450,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="8" t="inlineStr">
+      <c r="A229" s="11" t="inlineStr">
         <is>
           <t>2024-02-16</t>
         </is>
@@ -19835,11 +19461,9 @@
       <c r="C229" t="n">
         <v>1140.21</v>
       </c>
-      <c r="P229" s="10" t="n"/>
-      <c r="Q229" s="10" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="8" t="inlineStr">
+      <c r="A230" s="11" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
@@ -19850,11 +19474,9 @@
       <c r="C230" t="n">
         <v>1134.27</v>
       </c>
-      <c r="P230" s="10" t="n"/>
-      <c r="Q230" s="10" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="8" t="inlineStr">
+      <c r="A231" s="11" t="inlineStr">
         <is>
           <t>2024-02-20</t>
         </is>
@@ -19865,12 +19487,9 @@
       <c r="C231" t="n">
         <v>1123.01</v>
       </c>
-      <c r="P231" s="10" t="n"/>
-      <c r="R231" s="10" t="n"/>
-      <c r="T231" s="10" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="8" t="inlineStr">
+      <c r="A232" s="11" t="inlineStr">
         <is>
           <t>2024-02-21</t>
         </is>
@@ -19883,7 +19502,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="8" t="inlineStr">
+      <c r="A233" s="11" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
@@ -19896,7 +19515,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="8" t="inlineStr">
+      <c r="A234" s="11" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
@@ -19909,7 +19528,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="8" t="inlineStr">
+      <c r="A235" s="11" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
@@ -19922,7 +19541,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="8" t="inlineStr">
+      <c r="A236" s="11" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
@@ -19933,12 +19552,9 @@
       <c r="C236" t="n">
         <v>1126.34</v>
       </c>
-      <c r="P236" s="10" t="n"/>
-      <c r="Q236" s="10" t="n"/>
-      <c r="R236" s="10" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="8" t="inlineStr">
+      <c r="A237" s="11" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
@@ -19951,7 +19567,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="8" t="inlineStr">
+      <c r="A238" s="11" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
@@ -19964,7 +19580,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="8" t="inlineStr">
+      <c r="A239" s="11" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
@@ -19975,12 +19591,9 @@
       <c r="C239" t="n">
         <v>1128.62</v>
       </c>
-      <c r="P239" s="10" t="n"/>
-      <c r="Q239" s="10" t="n"/>
-      <c r="R239" s="10" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="8" t="inlineStr">
+      <c r="A240" s="11" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
@@ -19993,7 +19606,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="8" t="inlineStr">
+      <c r="A241" s="11" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
@@ -20004,10 +19617,9 @@
       <c r="C241" t="n">
         <v>1135.38</v>
       </c>
-      <c r="P241" s="10" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="8" t="inlineStr">
+      <c r="A242" s="11" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
@@ -20018,10 +19630,9 @@
       <c r="C242" t="n">
         <v>1129.81</v>
       </c>
-      <c r="P242" s="10" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="8" t="inlineStr">
+      <c r="A243" s="11" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
@@ -20032,12 +19643,9 @@
       <c r="C243" t="n">
         <v>1134.62</v>
       </c>
-      <c r="P243" s="10" t="n"/>
-      <c r="Q243" s="10" t="n"/>
-      <c r="R243" s="10" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="8" t="inlineStr">
+      <c r="A244" s="11" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
@@ -20048,10 +19656,9 @@
       <c r="C244" t="n">
         <v>1135.83</v>
       </c>
-      <c r="Q244" s="10" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="8" t="inlineStr">
+      <c r="A245" s="11" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
@@ -20062,12 +19669,9 @@
       <c r="C245" t="n">
         <v>1134.54</v>
       </c>
-      <c r="P245" s="10" t="n"/>
-      <c r="Q245" s="10" t="n"/>
-      <c r="R245" s="10" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="8" t="inlineStr">
+      <c r="A246" s="11" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
@@ -20080,7 +19684,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="8" t="inlineStr">
+      <c r="A247" s="11" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
@@ -20093,7 +19697,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="8" t="inlineStr">
+      <c r="A248" s="11" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
@@ -20106,7 +19710,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="8" t="inlineStr">
+      <c r="A249" s="11" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
@@ -20117,11 +19721,9 @@
       <c r="C249" t="n">
         <v>1152.21</v>
       </c>
-      <c r="P249" s="10" t="n"/>
-      <c r="Q249" s="10" t="n"/>
     </row>
     <row r="250">
-      <c r="A250" s="8" t="inlineStr">
+      <c r="A250" s="11" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
@@ -20134,7 +19736,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="8" t="inlineStr">
+      <c r="A251" s="11" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
@@ -20145,11 +19747,9 @@
       <c r="C251" t="n">
         <v>1153.12</v>
       </c>
-      <c r="P251" s="10" t="n"/>
-      <c r="Q251" s="10" t="n"/>
     </row>
     <row r="252">
-      <c r="A252" s="8" t="inlineStr">
+      <c r="A252" s="11" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
@@ -20162,7 +19762,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="8" t="inlineStr">
+      <c r="A253" s="11" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
@@ -20173,11 +19773,9 @@
       <c r="C253" t="n">
         <v>1153.75</v>
       </c>
-      <c r="P253" s="10" t="n"/>
-      <c r="Q253" s="10" t="n"/>
     </row>
     <row r="254">
-      <c r="A254" s="8" t="inlineStr">
+      <c r="A254" s="11" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
@@ -20190,7 +19788,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="8" t="inlineStr">
+      <c r="A255" s="11" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
@@ -20203,7 +19801,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="8" t="inlineStr">
+      <c r="A256" s="11" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
@@ -20216,7 +19814,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="8" t="inlineStr">
+      <c r="A257" s="11" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
@@ -20229,7 +19827,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="8" t="inlineStr">
+      <c r="A258" s="11" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
@@ -20242,7 +19840,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="8" t="inlineStr">
+      <c r="A259" s="11" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
@@ -20255,7 +19853,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="8" t="inlineStr">
+      <c r="A260" s="11" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
@@ -20268,7 +19866,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="8" t="inlineStr">
+      <c r="A261" s="11" t="inlineStr">
         <is>
           <t>2024-04-03</t>
         </is>
@@ -20281,7 +19879,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="8" t="inlineStr">
+      <c r="A262" s="11" t="inlineStr">
         <is>
           <t>2024-04-04</t>
         </is>
@@ -20294,7 +19892,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="8" t="inlineStr">
+      <c r="A263" s="11" t="inlineStr">
         <is>
           <t>2024-04-05</t>
         </is>
@@ -20307,7 +19905,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="8" t="inlineStr">
+      <c r="A264" s="11" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
@@ -20320,7 +19918,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="8" t="inlineStr">
+      <c r="A265" s="11" t="inlineStr">
         <is>
           <t>2024-04-09</t>
         </is>
@@ -20333,7 +19931,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="8" t="inlineStr">
+      <c r="A266" s="11" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
@@ -20346,7 +19944,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="8" t="inlineStr">
+      <c r="A267" s="11" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
@@ -20359,7 +19957,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="8" t="inlineStr">
+      <c r="A268" s="11" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
@@ -20372,7 +19970,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="8" t="inlineStr">
+      <c r="A269" s="11" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
@@ -20385,7 +19983,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="8" t="inlineStr">
+      <c r="A270" s="11" t="inlineStr">
         <is>
           <t>2024-04-17</t>
         </is>
@@ -20398,7 +19996,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="8" t="inlineStr">
+      <c r="A271" s="11" t="inlineStr">
         <is>
           <t>2024-04-18</t>
         </is>
@@ -20411,7 +20009,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="8" t="inlineStr">
+      <c r="A272" s="11" t="inlineStr">
         <is>
           <t>2024-04-19</t>
         </is>
@@ -20424,7 +20022,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="8" t="inlineStr">
+      <c r="A273" s="11" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
@@ -20437,7 +20035,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="8" t="inlineStr">
+      <c r="A274" s="11" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
@@ -20450,7 +20048,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="8" t="inlineStr">
+      <c r="A275" s="11" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
@@ -20463,7 +20061,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="8" t="inlineStr">
+      <c r="A276" s="11" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
@@ -20476,7 +20074,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="8" t="inlineStr">
+      <c r="A277" s="11" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
@@ -20489,7 +20087,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="8" t="inlineStr">
+      <c r="A278" s="11" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
@@ -20502,7 +20100,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="8" t="inlineStr">
+      <c r="A279" s="11" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
@@ -20515,7 +20113,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="8" t="inlineStr">
+      <c r="A280" s="11" t="inlineStr">
         <is>
           <t>2024-05-02</t>
         </is>
@@ -20528,7 +20126,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="8" t="inlineStr">
+      <c r="A281" s="11" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
@@ -20541,7 +20139,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="8" t="inlineStr">
+      <c r="A282" s="11" t="inlineStr">
         <is>
           <t>2024-05-07</t>
         </is>
@@ -20554,7 +20152,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="8" t="inlineStr">
+      <c r="A283" s="11" t="inlineStr">
         <is>
           <t>2024-05-08</t>
         </is>
@@ -20567,7 +20165,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="8" t="inlineStr">
+      <c r="A284" s="11" t="inlineStr">
         <is>
           <t>2024-05-09</t>
         </is>
@@ -20580,7 +20178,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="8" t="inlineStr">
+      <c r="A285" s="11" t="inlineStr">
         <is>
           <t>2024-05-10</t>
         </is>
@@ -20593,7 +20191,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="8" t="inlineStr">
+      <c r="A286" s="11" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
@@ -20606,7 +20204,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="8" t="inlineStr">
+      <c r="A287" s="11" t="inlineStr">
         <is>
           <t>2024-05-14</t>
         </is>
@@ -20619,7 +20217,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="8" t="inlineStr">
+      <c r="A288" s="11" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
@@ -20635,7 +20233,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="8" t="inlineStr">
+      <c r="A289" s="11" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
@@ -20651,7 +20249,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="8" t="inlineStr">
+      <c r="A290" s="11" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
@@ -20667,7 +20265,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="8" t="inlineStr">
+      <c r="A291" s="11" t="inlineStr">
         <is>
           <t>2024-05-21</t>
         </is>
@@ -20683,7 +20281,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="8" t="inlineStr">
+      <c r="A292" s="11" t="inlineStr">
         <is>
           <t>2024-05-22</t>
         </is>
@@ -20699,7 +20297,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="8" t="inlineStr">
+      <c r="A293" s="11" t="inlineStr">
         <is>
           <t>2024-05-23</t>
         </is>
@@ -20715,7 +20313,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="8" t="inlineStr">
+      <c r="A294" s="11" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
@@ -20731,7 +20329,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="8" t="inlineStr">
+      <c r="A295" s="11" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
@@ -20747,7 +20345,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="8" t="inlineStr">
+      <c r="A296" s="11" t="inlineStr">
         <is>
           <t>2024-05-28</t>
         </is>
@@ -20763,7 +20361,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="8" t="inlineStr">
+      <c r="A297" s="11" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
@@ -20779,7 +20377,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="8" t="inlineStr">
+      <c r="A298" s="11" t="inlineStr">
         <is>
           <t>2024-05-30</t>
         </is>
@@ -20795,7 +20393,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="8" t="inlineStr">
+      <c r="A299" s="11" t="inlineStr">
         <is>
           <t>2024-05-31</t>
         </is>
@@ -20811,7 +20409,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="8" t="inlineStr">
+      <c r="A300" s="11" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
@@ -20827,7 +20425,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="8" t="inlineStr">
+      <c r="A301" s="11" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
@@ -20843,7 +20441,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="8" t="inlineStr">
+      <c r="A302" s="11" t="inlineStr">
         <is>
           <t>2024-06-05</t>
         </is>
@@ -20859,7 +20457,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="8" t="inlineStr">
+      <c r="A303" s="11" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
@@ -20875,7 +20473,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="8" t="inlineStr">
+      <c r="A304" s="11" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
@@ -20891,7 +20489,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="8" t="inlineStr">
+      <c r="A305" s="11" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
@@ -20907,7 +20505,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="8" t="inlineStr">
+      <c r="A306" s="11" t="inlineStr">
         <is>
           <t>2024-06-12</t>
         </is>
@@ -20923,7 +20521,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="8" t="inlineStr">
+      <c r="A307" s="11" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
@@ -20939,7 +20537,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="8" t="inlineStr">
+      <c r="A308" s="11" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
@@ -20955,7 +20553,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="8" t="inlineStr">
+      <c r="A309" s="11" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
@@ -20971,7 +20569,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="8" t="inlineStr">
+      <c r="A310" s="11" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
@@ -20987,7 +20585,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="8" t="inlineStr">
+      <c r="A311" s="11" t="inlineStr">
         <is>
           <t>2024-06-19</t>
         </is>
@@ -21003,7 +20601,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="8" t="inlineStr">
+      <c r="A312" s="11" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
@@ -21019,7 +20617,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="8" t="inlineStr">
+      <c r="A313" s="11" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
@@ -21035,7 +20633,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="8" t="inlineStr">
+      <c r="A314" s="11" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
@@ -21051,7 +20649,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="8" t="inlineStr">
+      <c r="A315" s="11" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
@@ -21067,7 +20665,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="8" t="inlineStr">
+      <c r="A316" s="11" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
@@ -21083,7 +20681,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="8" t="inlineStr">
+      <c r="A317" s="11" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
@@ -21099,7 +20697,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="8" t="inlineStr">
+      <c r="A318" s="11" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
@@ -21115,7 +20713,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="8" t="inlineStr">
+      <c r="A319" s="11" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
@@ -21131,7 +20729,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="8" t="inlineStr">
+      <c r="A320" s="11" t="inlineStr">
         <is>
           <t>2024-07-02</t>
         </is>
@@ -21147,7 +20745,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="8" t="inlineStr">
+      <c r="A321" s="11" t="inlineStr">
         <is>
           <t>2024-07-03</t>
         </is>
@@ -21163,7 +20761,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="8" t="inlineStr">
+      <c r="A322" s="11" t="inlineStr">
         <is>
           <t>2024-07-04</t>
         </is>
@@ -21179,7 +20777,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="8" t="inlineStr">
+      <c r="A323" s="11" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
@@ -21195,7 +20793,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="8" t="inlineStr">
+      <c r="A324" s="11" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
@@ -21211,7 +20809,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="8" t="inlineStr">
+      <c r="A325" s="11" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
@@ -21227,7 +20825,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="8" t="inlineStr">
+      <c r="A326" s="11" t="inlineStr">
         <is>
           <t>2024-07-10</t>
         </is>
@@ -21243,7 +20841,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="8" t="inlineStr">
+      <c r="A327" s="11" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
@@ -21259,7 +20857,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="8" t="inlineStr">
+      <c r="A328" s="11" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
@@ -21275,7 +20873,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="8" t="inlineStr">
+      <c r="A329" s="11" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
@@ -21291,7 +20889,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="8" t="inlineStr">
+      <c r="A330" s="11" t="inlineStr">
         <is>
           <t>2024-07-16</t>
         </is>
@@ -21307,7 +20905,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="8" t="inlineStr">
+      <c r="A331" s="11" t="inlineStr">
         <is>
           <t>2024-07-17</t>
         </is>
@@ -21323,7 +20921,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="8" t="inlineStr">
+      <c r="A332" s="11" t="inlineStr">
         <is>
           <t>2024-07-18</t>
         </is>
@@ -21339,7 +20937,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="8" t="inlineStr">
+      <c r="A333" s="11" t="inlineStr">
         <is>
           <t>2024-07-19</t>
         </is>
@@ -21355,7 +20953,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="8" t="inlineStr">
+      <c r="A334" s="11" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
@@ -21371,7 +20969,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="8" t="inlineStr">
+      <c r="A335" s="11" t="inlineStr">
         <is>
           <t>2024-07-23</t>
         </is>
@@ -21387,7 +20985,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="8" t="inlineStr">
+      <c r="A336" s="11" t="inlineStr">
         <is>
           <t>2024-07-24</t>
         </is>
@@ -21403,7 +21001,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="8" t="inlineStr">
+      <c r="A337" s="11" t="inlineStr">
         <is>
           <t>2024-07-25</t>
         </is>
@@ -21419,7 +21017,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="8" t="inlineStr">
+      <c r="A338" s="11" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
@@ -21435,7 +21033,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="8" t="inlineStr">
+      <c r="A339" s="11" t="inlineStr">
         <is>
           <t>2024-07-29</t>
         </is>
@@ -21451,7 +21049,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="8" t="inlineStr">
+      <c r="A340" s="11" t="inlineStr">
         <is>
           <t>2024-07-30</t>
         </is>
@@ -21467,7 +21065,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="8" t="inlineStr">
+      <c r="A341" s="11" t="inlineStr">
         <is>
           <t>2024-07-31</t>
         </is>
@@ -21483,7 +21081,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="8" t="inlineStr">
+      <c r="A342" s="11" t="inlineStr">
         <is>
           <t>2024-08-01</t>
         </is>
@@ -21499,7 +21097,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="8" t="inlineStr">
+      <c r="A343" s="11" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
@@ -21515,7 +21113,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="8" t="inlineStr">
+      <c r="A344" s="11" t="inlineStr">
         <is>
           <t>2024-08-05</t>
         </is>
@@ -21531,7 +21129,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="8" t="inlineStr">
+      <c r="A345" s="11" t="inlineStr">
         <is>
           <t>2024-08-06</t>
         </is>
@@ -21547,7 +21145,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="8" t="inlineStr">
+      <c r="A346" s="11" t="inlineStr">
         <is>
           <t>2024-08-07</t>
         </is>
@@ -21563,7 +21161,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="8" t="inlineStr">
+      <c r="A347" s="11" t="inlineStr">
         <is>
           <t>2024-08-08</t>
         </is>
@@ -21579,7 +21177,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="8" t="inlineStr">
+      <c r="A348" s="11" t="inlineStr">
         <is>
           <t>2024-08-09</t>
         </is>
@@ -21595,7 +21193,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="8" t="inlineStr">
+      <c r="A349" s="11" t="inlineStr">
         <is>
           <t>2024-08-12</t>
         </is>
@@ -21611,7 +21209,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="8" t="inlineStr">
+      <c r="A350" s="11" t="inlineStr">
         <is>
           <t>2024-08-13</t>
         </is>
@@ -21627,7 +21225,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="8" t="inlineStr">
+      <c r="A351" s="11" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
@@ -21643,7 +21241,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="8" t="inlineStr">
+      <c r="A352" s="11" t="inlineStr">
         <is>
           <t>2024-08-16</t>
         </is>
@@ -21659,7 +21257,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="8" t="inlineStr">
+      <c r="A353" s="11" t="inlineStr">
         <is>
           <t>2024-08-19</t>
         </is>
@@ -21675,7 +21273,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="8" t="inlineStr">
+      <c r="A354" s="11" t="inlineStr">
         <is>
           <t>2024-08-20</t>
         </is>
@@ -21691,7 +21289,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="8" t="inlineStr">
+      <c r="A355" s="11" t="inlineStr">
         <is>
           <t>2024-08-21</t>
         </is>
@@ -21707,7 +21305,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="8" t="inlineStr">
+      <c r="A356" s="11" t="inlineStr">
         <is>
           <t>2024-08-22</t>
         </is>
@@ -21723,7 +21321,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="8" t="inlineStr">
+      <c r="A357" s="11" t="inlineStr">
         <is>
           <t>2024-08-23</t>
         </is>
@@ -21739,7 +21337,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="8" t="inlineStr">
+      <c r="A358" s="11" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>
@@ -21755,7 +21353,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="8" t="inlineStr">
+      <c r="A359" s="11" t="inlineStr">
         <is>
           <t>2024-08-27</t>
         </is>
@@ -21771,7 +21369,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="8" t="inlineStr">
+      <c r="A360" s="11" t="inlineStr">
         <is>
           <t>2024-08-28</t>
         </is>
@@ -21787,7 +21385,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="8" t="inlineStr">
+      <c r="A361" s="11" t="inlineStr">
         <is>
           <t>2024-08-29</t>
         </is>
@@ -21803,7 +21401,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="8" t="inlineStr">
+      <c r="A362" s="11" t="inlineStr">
         <is>
           <t>2024-08-30</t>
         </is>
@@ -21819,7 +21417,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="8" t="inlineStr">
+      <c r="A363" s="11" t="inlineStr">
         <is>
           <t>2024-09-02</t>
         </is>
@@ -21835,7 +21433,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="8" t="inlineStr">
+      <c r="A364" s="11" t="inlineStr">
         <is>
           <t>2024-09-03</t>
         </is>
@@ -21851,7 +21449,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="8" t="inlineStr">
+      <c r="A365" s="11" t="inlineStr">
         <is>
           <t>2024-09-04</t>
         </is>
@@ -21867,7 +21465,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="8" t="inlineStr">
+      <c r="A366" s="11" t="inlineStr">
         <is>
           <t>2024-09-05</t>
         </is>
@@ -21883,7 +21481,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="8" t="inlineStr">
+      <c r="A367" s="11" t="inlineStr">
         <is>
           <t>2024-09-06</t>
         </is>
@@ -21899,7 +21497,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="8" t="inlineStr">
+      <c r="A368" s="11" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>
@@ -21915,7 +21513,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="8" t="inlineStr">
+      <c r="A369" s="11" t="inlineStr">
         <is>
           <t>2024-09-10</t>
         </is>
@@ -21931,7 +21529,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="8" t="inlineStr">
+      <c r="A370" s="11" t="inlineStr">
         <is>
           <t>2024-09-11</t>
         </is>
@@ -21947,7 +21545,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="8" t="inlineStr">
+      <c r="A371" s="11" t="inlineStr">
         <is>
           <t>2024-09-12</t>
         </is>
@@ -21963,7 +21561,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="8" t="inlineStr">
+      <c r="A372" s="11" t="inlineStr">
         <is>
           <t>2024-09-13</t>
         </is>
@@ -21979,7 +21577,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="8" t="inlineStr">
+      <c r="A373" s="11" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
@@ -21995,7 +21593,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="8" t="inlineStr">
+      <c r="A374" s="11" t="inlineStr">
         <is>
           <t>2024-09-20</t>
         </is>
@@ -22011,7 +21609,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="8" t="inlineStr">
+      <c r="A375" s="11" t="inlineStr">
         <is>
           <t>2024-09-23</t>
         </is>
@@ -22027,7 +21625,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="8" t="inlineStr">
+      <c r="A376" s="11" t="inlineStr">
         <is>
           <t>2024-09-24</t>
         </is>
@@ -22043,7 +21641,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="8" t="inlineStr">
+      <c r="A377" s="11" t="inlineStr">
         <is>
           <t>2024-09-25</t>
         </is>
@@ -22059,7 +21657,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="8" t="inlineStr">
+      <c r="A378" s="11" t="inlineStr">
         <is>
           <t>2024-09-26</t>
         </is>
@@ -22075,7 +21673,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="8" t="inlineStr">
+      <c r="A379" s="11" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -22091,7 +21689,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="8" t="inlineStr">
+      <c r="A380" s="11" t="inlineStr">
         <is>
           <t>2024-09-30</t>
         </is>
@@ -22107,7 +21705,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="8" t="inlineStr">
+      <c r="A381" s="11" t="inlineStr">
         <is>
           <t>2024-10-02</t>
         </is>
@@ -22123,7 +21721,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="8" t="inlineStr">
+      <c r="A382" s="11" t="inlineStr">
         <is>
           <t>2024-10-04</t>
         </is>
@@ -22139,7 +21737,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="8" t="inlineStr">
+      <c r="A383" s="11" t="inlineStr">
         <is>
           <t>2024-10-07</t>
         </is>
@@ -22155,7 +21753,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="8" t="inlineStr">
+      <c r="A384" s="11" t="inlineStr">
         <is>
           <t>2024-10-08</t>
         </is>
@@ -22171,7 +21769,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="8" t="inlineStr">
+      <c r="A385" s="11" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
@@ -22187,7 +21785,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="8" t="inlineStr">
+      <c r="A386" s="11" t="inlineStr">
         <is>
           <t>2024-10-11</t>
         </is>
@@ -22203,7 +21801,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="8" t="inlineStr">
+      <c r="A387" s="11" t="inlineStr">
         <is>
           <t>2024-10-14</t>
         </is>
@@ -22219,7 +21817,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="8" t="inlineStr">
+      <c r="A388" s="11" t="inlineStr">
         <is>
           <t>2024-10-15</t>
         </is>
@@ -22235,7 +21833,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="8" t="inlineStr">
+      <c r="A389" s="11" t="inlineStr">
         <is>
           <t>2024-10-16</t>
         </is>
@@ -22251,7 +21849,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="8" t="inlineStr">
+      <c r="A390" s="11" t="inlineStr">
         <is>
           <t>2024-10-17</t>
         </is>
@@ -22267,7 +21865,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="8" t="inlineStr">
+      <c r="A391" s="11" t="inlineStr">
         <is>
           <t>2024-10-18</t>
         </is>
@@ -22283,7 +21881,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="8" t="inlineStr">
+      <c r="A392" s="11" t="inlineStr">
         <is>
           <t>2024-10-21</t>
         </is>
@@ -22299,7 +21897,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="8" t="inlineStr">
+      <c r="A393" s="11" t="inlineStr">
         <is>
           <t>2024-10-22</t>
         </is>
@@ -22315,7 +21913,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="8" t="inlineStr">
+      <c r="A394" s="11" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
@@ -22331,7 +21929,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="8" t="inlineStr">
+      <c r="A395" s="11" t="inlineStr">
         <is>
           <t>2024-10-24</t>
         </is>
@@ -22347,7 +21945,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="8" t="inlineStr">
+      <c r="A396" s="11" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
@@ -22363,7 +21961,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="8" t="inlineStr">
+      <c r="A397" s="11" t="inlineStr">
         <is>
           <t>2024-10-28</t>
         </is>
@@ -22379,7 +21977,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="8" t="inlineStr">
+      <c r="A398" s="11" t="inlineStr">
         <is>
           <t>2024-10-29</t>
         </is>
@@ -22395,7 +21993,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="8" t="inlineStr">
+      <c r="A399" s="11" t="inlineStr">
         <is>
           <t>2024-10-30</t>
         </is>
@@ -22411,7 +22009,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="8" t="inlineStr">
+      <c r="A400" s="11" t="inlineStr">
         <is>
           <t>2024-10-31</t>
         </is>
@@ -22427,7 +22025,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="8" t="inlineStr">
+      <c r="A401" s="11" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
@@ -22443,7 +22041,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="8" t="inlineStr">
+      <c r="A402" s="11" t="inlineStr">
         <is>
           <t>2024-11-04</t>
         </is>
@@ -22459,7 +22057,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="8" t="inlineStr">
+      <c r="A403" s="11" t="inlineStr">
         <is>
           <t>2024-11-05</t>
         </is>
@@ -22475,7 +22073,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="8" t="inlineStr">
+      <c r="A404" s="11" t="inlineStr">
         <is>
           <t>2024-11-06</t>
         </is>
@@ -22491,7 +22089,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="8" t="inlineStr">
+      <c r="A405" s="11" t="inlineStr">
         <is>
           <t>2024-11-07</t>
         </is>
@@ -22507,7 +22105,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="8" t="inlineStr">
+      <c r="A406" s="11" t="inlineStr">
         <is>
           <t>2024-11-08</t>
         </is>
@@ -22523,7 +22121,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="8" t="inlineStr">
+      <c r="A407" s="11" t="inlineStr">
         <is>
           <t>2024-11-11</t>
         </is>
@@ -22539,7 +22137,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="8" t="inlineStr">
+      <c r="A408" s="11" t="inlineStr">
         <is>
           <t>2024-11-12</t>
         </is>
@@ -22555,7 +22153,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="8" t="inlineStr">
+      <c r="A409" s="11" t="inlineStr">
         <is>
           <t>2024-11-13</t>
         </is>
@@ -22571,7 +22169,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="8" t="inlineStr">
+      <c r="A410" s="11" t="inlineStr">
         <is>
           <t>2024-11-14</t>
         </is>
@@ -22587,7 +22185,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="8" t="inlineStr">
+      <c r="A411" s="11" t="inlineStr">
         <is>
           <t>2024-11-15</t>
         </is>
@@ -22603,7 +22201,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="8" t="inlineStr">
+      <c r="A412" s="11" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
@@ -22619,7 +22217,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="8" t="inlineStr">
+      <c r="A413" s="11" t="inlineStr">
         <is>
           <t>2024-11-19</t>
         </is>
@@ -22635,7 +22233,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="8" t="inlineStr">
+      <c r="A414" s="11" t="inlineStr">
         <is>
           <t>2024-11-20</t>
         </is>
@@ -22651,7 +22249,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="8" t="inlineStr">
+      <c r="A415" s="11" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
@@ -22667,7 +22265,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="8" t="inlineStr">
+      <c r="A416" s="11" t="inlineStr">
         <is>
           <t>2024-11-22</t>
         </is>
@@ -22683,7 +22281,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="8" t="inlineStr">
+      <c r="A417" s="11" t="inlineStr">
         <is>
           <t>2024-11-25</t>
         </is>
@@ -22699,7 +22297,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="8" t="inlineStr">
+      <c r="A418" s="11" t="inlineStr">
         <is>
           <t>2024-11-26</t>
         </is>
@@ -22715,7 +22313,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="8" t="inlineStr">
+      <c r="A419" s="11" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
@@ -22731,7 +22329,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="8" t="inlineStr">
+      <c r="A420" s="11" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
@@ -22747,7 +22345,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="8" t="inlineStr">
+      <c r="A421" s="11" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
@@ -22763,7 +22361,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="8" t="inlineStr">
+      <c r="A422" s="11" t="inlineStr">
         <is>
           <t>2024-12-02</t>
         </is>
@@ -22779,7 +22377,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="8" t="inlineStr">
+      <c r="A423" s="11" t="inlineStr">
         <is>
           <t>2024-12-03</t>
         </is>
@@ -22795,7 +22393,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="8" t="inlineStr">
+      <c r="A424" s="11" t="inlineStr">
         <is>
           <t>2024-12-04</t>
         </is>
@@ -22811,7 +22409,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="8" t="inlineStr">
+      <c r="A425" s="11" t="inlineStr">
         <is>
           <t>2024-12-05</t>
         </is>
@@ -22827,7 +22425,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="8" t="inlineStr">
+      <c r="A426" s="11" t="inlineStr">
         <is>
           <t>2024-12-06</t>
         </is>
@@ -22843,7 +22441,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="8" t="inlineStr">
+      <c r="A427" s="11" t="inlineStr">
         <is>
           <t>2024-12-09</t>
         </is>
@@ -22859,7 +22457,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="8" t="inlineStr">
+      <c r="A428" s="11" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
@@ -22875,7 +22473,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="8" t="inlineStr">
+      <c r="A429" s="11" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
@@ -22891,7 +22489,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="8" t="inlineStr">
+      <c r="A430" s="11" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
@@ -22907,7 +22505,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="8" t="inlineStr">
+      <c r="A431" s="11" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
@@ -22923,7 +22521,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="8" t="inlineStr">
+      <c r="A432" s="11" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
@@ -22939,7 +22537,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="8" t="inlineStr">
+      <c r="A433" s="11" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
@@ -22955,7 +22553,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="8" t="inlineStr">
+      <c r="A434" s="11" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
@@ -22971,7 +22569,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="8" t="inlineStr">
+      <c r="A435" s="11" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
@@ -22987,7 +22585,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="8" t="inlineStr">
+      <c r="A436" s="11" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
@@ -23003,7 +22601,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="8" t="inlineStr">
+      <c r="A437" s="11" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
@@ -23019,7 +22617,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="8" t="inlineStr">
+      <c r="A438" s="11" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
@@ -23035,7 +22633,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="8" t="inlineStr">
+      <c r="A439" s="11" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
@@ -23051,7 +22649,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="8" t="inlineStr">
+      <c r="A440" s="11" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
@@ -23067,7 +22665,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="8" t="inlineStr">
+      <c r="A441" s="11" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
@@ -23083,7 +22681,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="8" t="inlineStr">
+      <c r="A442" s="11" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
@@ -23099,7 +22697,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="8" t="inlineStr">
+      <c r="A443" s="11" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
@@ -23115,7 +22713,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="8" t="inlineStr">
+      <c r="A444" s="11" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
@@ -23131,7 +22729,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="8" t="inlineStr">
+      <c r="A445" s="11" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
@@ -23147,7 +22745,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="8" t="inlineStr">
+      <c r="A446" s="11" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
@@ -23163,7 +22761,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="8" t="inlineStr">
+      <c r="A447" s="11" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
@@ -23179,7 +22777,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="8" t="inlineStr">
+      <c r="A448" s="11" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
@@ -23195,7 +22793,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="8" t="inlineStr">
+      <c r="A449" s="11" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
@@ -23211,7 +22809,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="8" t="inlineStr">
+      <c r="A450" s="11" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
@@ -23227,7 +22825,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="8" t="inlineStr">
+      <c r="A451" s="11" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
@@ -23243,7 +22841,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="8" t="inlineStr">
+      <c r="A452" s="11" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
@@ -23259,7 +22857,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="8" t="inlineStr">
+      <c r="A453" s="11" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
@@ -23275,7 +22873,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="8" t="inlineStr">
+      <c r="A454" s="11" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
@@ -23291,7 +22889,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="8" t="inlineStr">
+      <c r="A455" s="11" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
@@ -23307,7 +22905,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="8" t="inlineStr">
+      <c r="A456" s="11" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
@@ -23323,7 +22921,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="8" t="inlineStr">
+      <c r="A457" s="11" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
@@ -23339,7 +22937,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="8" t="inlineStr">
+      <c r="A458" s="11" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
@@ -23355,7 +22953,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="8" t="inlineStr">
+      <c r="A459" s="11" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
@@ -23371,7 +22969,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="8" t="inlineStr">
+      <c r="A460" s="11" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
@@ -23387,7 +22985,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="8" t="inlineStr">
+      <c r="A461" s="11" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
@@ -23403,7 +23001,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="8" t="inlineStr">
+      <c r="A462" s="11" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
@@ -23419,7 +23017,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="8" t="inlineStr">
+      <c r="A463" s="11" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
@@ -23435,7 +23033,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="8" t="inlineStr">
+      <c r="A464" s="11" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
@@ -23451,7 +23049,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="8" t="inlineStr">
+      <c r="A465" s="11" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
@@ -23467,7 +23065,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="8" t="inlineStr">
+      <c r="A466" s="11" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
@@ -23481,7 +23079,7 @@
       <c r="D466" t="n">
         <v>963.87</v>
       </c>
-      <c r="E466" s="9" t="n">
+      <c r="E466" t="n">
         <v>2521.27</v>
       </c>
       <c r="F466" t="n">
@@ -23489,7 +23087,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="8" t="inlineStr">
+      <c r="A467" s="11" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
@@ -23503,15 +23101,15 @@
       <c r="D467" t="n">
         <v>968.75</v>
       </c>
-      <c r="E467" s="9" t="n">
+      <c r="E467" t="n">
         <v>2539.05</v>
       </c>
-      <c r="F467" s="9" t="n">
+      <c r="F467" t="n">
         <v>749.59</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="8" t="inlineStr">
+      <c r="A468" s="11" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
@@ -23525,15 +23123,15 @@
       <c r="D468" t="n">
         <v>968.48</v>
       </c>
-      <c r="E468" s="9" t="n">
+      <c r="E468" t="n">
         <v>2548.39</v>
       </c>
-      <c r="F468" s="9" t="n">
+      <c r="F468" t="n">
         <v>745.1799999999999</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="8" t="inlineStr">
+      <c r="A469" s="11" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
@@ -23547,15 +23145,15 @@
       <c r="D469" t="n">
         <v>970.49</v>
       </c>
-      <c r="E469" s="9" t="n">
+      <c r="E469" t="n">
         <v>2583.17</v>
       </c>
-      <c r="F469" s="9" t="n">
+      <c r="F469" t="n">
         <v>749.28</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="8" t="inlineStr">
+      <c r="A470" s="11" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
@@ -23569,15 +23167,15 @@
       <c r="D470" t="n">
         <v>991.3200000000001</v>
       </c>
-      <c r="E470" s="9" t="n">
+      <c r="E470" t="n">
         <v>2591.05</v>
       </c>
-      <c r="F470" s="9" t="n">
+      <c r="F470" t="n">
         <v>756.3200000000001</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="8" t="inlineStr">
+      <c r="A471" s="11" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
@@ -23591,15 +23189,15 @@
       <c r="D471" t="n">
         <v>994.3</v>
       </c>
-      <c r="E471" s="9" t="n">
+      <c r="E471" t="n">
         <v>2610.42</v>
       </c>
-      <c r="F471" s="9" t="n">
+      <c r="F471" t="n">
         <v>768.48</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="8" t="inlineStr">
+      <c r="A472" s="11" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
@@ -23613,15 +23211,15 @@
       <c r="D472" t="n">
         <v>1009.95</v>
       </c>
-      <c r="E472" s="9" t="n">
+      <c r="E472" t="n">
         <v>2626.81</v>
       </c>
-      <c r="F472" s="9" t="n">
+      <c r="F472" t="n">
         <v>773.65</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="8" t="inlineStr">
+      <c r="A473" s="11" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
@@ -23635,15 +23233,15 @@
       <c r="D473" t="n">
         <v>1016.41</v>
       </c>
-      <c r="E473" s="9" t="n">
+      <c r="E473" t="n">
         <v>2671.52</v>
       </c>
-      <c r="F473" s="9" t="n">
+      <c r="F473" t="n">
         <v>778.27</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="8" t="inlineStr">
+      <c r="A474" s="11" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
@@ -23657,15 +23255,15 @@
       <c r="D474" t="n">
         <v>999.09</v>
       </c>
-      <c r="E474" s="9" t="n">
+      <c r="E474" t="n">
         <v>2654.06</v>
       </c>
-      <c r="F474" s="9" t="n">
+      <c r="F474" t="n">
         <v>768.27</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="8" t="inlineStr">
+      <c r="A475" s="11" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
@@ -23679,15 +23277,15 @@
       <c r="D475" t="n">
         <v>1000.69</v>
       </c>
-      <c r="E475" s="9" t="n">
+      <c r="E475" t="n">
         <v>2654.58</v>
       </c>
-      <c r="F475" s="9" t="n">
+      <c r="F475" t="n">
         <v>774.65</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="8" t="inlineStr">
+      <c r="A476" s="11" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
@@ -23701,15 +23299,15 @@
       <c r="D476" t="n">
         <v>990.72</v>
       </c>
-      <c r="E476" s="9" t="n">
+      <c r="E476" t="n">
         <v>2645.27</v>
       </c>
-      <c r="F476" s="9" t="n">
+      <c r="F476" t="n">
         <v>773.33</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="8" t="inlineStr">
+      <c r="A477" s="11" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
@@ -23723,15 +23321,15 @@
       <c r="D477" t="n">
         <v>989.1</v>
       </c>
-      <c r="E477" s="9" t="n">
+      <c r="E477" t="n">
         <v>2630.29</v>
       </c>
-      <c r="F477" s="9" t="n">
+      <c r="F477" t="n">
         <v>769.4299999999999</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="8" t="inlineStr">
+      <c r="A478" s="11" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
@@ -23745,15 +23343,15 @@
       <c r="D478" t="n">
         <v>992.92</v>
       </c>
-      <c r="E478" s="9" t="n">
+      <c r="E478" t="n">
         <v>2641.09</v>
       </c>
-      <c r="F478" s="9" t="n">
+      <c r="F478" t="n">
         <v>771.41</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="8" t="inlineStr">
+      <c r="A479" s="11" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
@@ -23767,15 +23365,15 @@
       <c r="D479" t="n">
         <v>998.0599999999999</v>
       </c>
-      <c r="E479" s="9" t="n">
+      <c r="E479" t="n">
         <v>2621.75</v>
       </c>
-      <c r="F479" s="9" t="n">
+      <c r="F479" t="n">
         <v>770.85</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="8" t="inlineStr">
+      <c r="A480" s="11" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
@@ -23789,15 +23387,15 @@
       <c r="D480" t="n">
         <v>972.9</v>
       </c>
-      <c r="E480" s="9" t="n">
+      <c r="E480" t="n">
         <v>2532.78</v>
       </c>
-      <c r="F480" s="9" t="n">
+      <c r="F480" t="n">
         <v>743.96</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="8" t="inlineStr">
+      <c r="A481" s="11" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
@@ -23811,15 +23409,15 @@
       <c r="D481" t="n">
         <v>971.51</v>
       </c>
-      <c r="E481" s="9" t="n">
+      <c r="E481" t="n">
         <v>2528.92</v>
       </c>
-      <c r="F481" s="9" t="n">
+      <c r="F481" t="n">
         <v>737.9</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="8" t="inlineStr">
+      <c r="A482" s="11" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
@@ -23833,15 +23431,15 @@
       <c r="D482" t="n">
         <v>992.15</v>
       </c>
-      <c r="E482" s="9" t="n">
+      <c r="E482" t="n">
         <v>2558.13</v>
       </c>
-      <c r="F482" s="9" t="n">
+      <c r="F482" t="n">
         <v>746.95</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="8" t="inlineStr">
+      <c r="A483" s="11" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
@@ -23855,15 +23453,15 @@
       <c r="D483" t="n">
         <v>998.45</v>
       </c>
-      <c r="E483" s="9" t="n">
+      <c r="E483" t="n">
         <v>2576.16</v>
       </c>
-      <c r="F483" s="9" t="n">
+      <c r="F483" t="n">
         <v>734.92</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="8" t="inlineStr">
+      <c r="A484" s="11" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
@@ -23877,15 +23475,15 @@
       <c r="D484" t="n">
         <v>992.03</v>
       </c>
-      <c r="E484" s="9" t="n">
+      <c r="E484" t="n">
         <v>2563.48</v>
       </c>
-      <c r="F484" s="9" t="n">
+      <c r="F484" t="n">
         <v>727.7</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="8" t="inlineStr">
+      <c r="A485" s="11" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
@@ -23899,15 +23497,15 @@
       <c r="D485" t="n">
         <v>993.6</v>
       </c>
-      <c r="E485" s="9" t="n">
+      <c r="E485" t="n">
         <v>2570.39</v>
       </c>
-      <c r="F485" s="9" t="n">
+      <c r="F485" t="n">
         <v>725.8200000000001</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="8" t="inlineStr">
+      <c r="A486" s="11" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
@@ -23921,15 +23519,15 @@
       <c r="D486" t="n">
         <v>980.41</v>
       </c>
-      <c r="E486" s="9" t="n">
+      <c r="E486" t="n">
         <v>2537.6</v>
       </c>
-      <c r="F486" s="9" t="n">
+      <c r="F486" t="n">
         <v>721.5</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="8" t="inlineStr">
+      <c r="A487" s="11" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
@@ -23943,15 +23541,15 @@
       <c r="D487" t="n">
         <v>976.5</v>
       </c>
-      <c r="E487" s="9" t="n">
+      <c r="E487" t="n">
         <v>2574.82</v>
       </c>
-      <c r="F487" s="9" t="n">
+      <c r="F487" t="n">
         <v>729.49</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="8" t="inlineStr">
+      <c r="A488" s="11" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
@@ -23965,15 +23563,15 @@
       <c r="D488" t="n">
         <v>983.95</v>
       </c>
-      <c r="E488" s="9" t="n">
+      <c r="E488" t="n">
         <v>2573.64</v>
       </c>
-      <c r="F488" s="9" t="n">
+      <c r="F488" t="n">
         <v>722.8</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="8" t="inlineStr">
+      <c r="A489" s="11" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
@@ -23987,15 +23585,15 @@
       <c r="D489" t="n">
         <v>990.5700000000001</v>
       </c>
-      <c r="E489" s="9" t="n">
+      <c r="E489" t="n">
         <v>2566.36</v>
       </c>
-      <c r="F489" s="9" t="n">
+      <c r="F489" t="n">
         <v>734.26</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="8" t="inlineStr">
+      <c r="A490" s="11" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
@@ -24009,15 +23607,15 @@
       <c r="D490" t="n">
         <v>1007.13</v>
       </c>
-      <c r="E490" s="9" t="n">
+      <c r="E490" t="n">
         <v>2610.69</v>
       </c>
-      <c r="F490" s="9" t="n">
+      <c r="F490" t="n">
         <v>743.51</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="8" t="inlineStr">
+      <c r="A491" s="11" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
@@ -24031,15 +23629,15 @@
       <c r="D491" t="n">
         <v>1001.82</v>
       </c>
-      <c r="E491" s="9" t="n">
+      <c r="E491" t="n">
         <v>2612.34</v>
       </c>
-      <c r="F491" s="9" t="n">
+      <c r="F491" t="n">
         <v>745.54</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="8" t="inlineStr">
+      <c r="A492" s="11" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
@@ -24053,15 +23651,15 @@
       <c r="D492" t="n">
         <v>1006.55</v>
       </c>
-      <c r="E492" s="9" t="n">
+      <c r="E492" t="n">
         <v>2628.62</v>
       </c>
-      <c r="F492" s="9" t="n">
+      <c r="F492" t="n">
         <v>738.35</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="8" t="inlineStr">
+      <c r="A493" s="11" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
@@ -24075,15 +23673,15 @@
       <c r="D493" t="n">
         <v>986.9299999999999</v>
       </c>
-      <c r="E493" s="9" t="n">
+      <c r="E493" t="n">
         <v>2637.1</v>
       </c>
-      <c r="F493" s="9" t="n">
+      <c r="F493" t="n">
         <v>725.15</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="8" t="inlineStr">
+      <c r="A494" s="11" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
@@ -24097,15 +23695,15 @@
       <c r="D494" t="n">
         <v>988.76</v>
       </c>
-      <c r="E494" s="9" t="n">
+      <c r="E494" t="n">
         <v>2643.13</v>
       </c>
-      <c r="F494" s="9" t="n">
+      <c r="F494" t="n">
         <v>719.41</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="8" t="inlineStr">
+      <c r="A495" s="11" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
@@ -24119,15 +23717,15 @@
       <c r="D495" t="n">
         <v>993.38</v>
       </c>
-      <c r="E495" s="9" t="n">
+      <c r="E495" t="n">
         <v>2632.07</v>
       </c>
-      <c r="F495" s="9" t="n">
+      <c r="F495" t="n">
         <v>720.22</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="8" t="inlineStr">
+      <c r="A496" s="11" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
@@ -24141,15 +23739,15 @@
       <c r="D496" t="n">
         <v>993.67</v>
       </c>
-      <c r="E496" s="9" t="n">
+      <c r="E496" t="n">
         <v>2615.81</v>
       </c>
-      <c r="F496" s="9" t="n">
+      <c r="F496" t="n">
         <v>711.26</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="8" t="inlineStr">
+      <c r="A497" s="11" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
@@ -24163,15 +23761,15 @@
       <c r="D497" t="n">
         <v>999.83</v>
       </c>
-      <c r="E497" s="9" t="n">
+      <c r="E497" t="n">
         <v>2643.94</v>
       </c>
-      <c r="F497" s="9" t="n">
+      <c r="F497" t="n">
         <v>716.48</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="8" t="inlineStr">
+      <c r="A498" s="11" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
@@ -24185,15 +23783,15 @@
       <c r="D498" t="n">
         <v>991.75</v>
       </c>
-      <c r="E498" s="9" t="n">
+      <c r="E498" t="n">
         <v>2607.15</v>
       </c>
-      <c r="F498" s="9" t="n">
+      <c r="F498" t="n">
         <v>707.49</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="8" t="inlineStr">
+      <c r="A499" s="11" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
@@ -24207,15 +23805,15 @@
       <c r="D499" t="n">
         <v>995.37</v>
       </c>
-      <c r="E499" s="9" t="n">
+      <c r="E499" t="n">
         <v>2557.98</v>
       </c>
-      <c r="F499" s="9" t="n">
+      <c r="F499" t="n">
         <v>693.76</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="8" t="inlineStr">
+      <c r="A500" s="11" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
@@ -24229,15 +23827,15 @@
       <c r="D500" t="n">
         <v>977</v>
       </c>
-      <c r="E500" s="9" t="n">
+      <c r="E500" t="n">
         <v>2481.12</v>
       </c>
-      <c r="F500" s="9" t="n">
+      <c r="F500" t="n">
         <v>672.85</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="8" t="inlineStr">
+      <c r="A501" s="11" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
@@ -24251,15 +23849,15 @@
       <c r="D501" t="n">
         <v>986.9400000000001</v>
       </c>
-      <c r="E501" s="9" t="n">
+      <c r="E501" t="n">
         <v>2521.39</v>
       </c>
-      <c r="F501" s="9" t="n">
+      <c r="F501" t="n">
         <v>691.45</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="8" t="inlineStr">
+      <c r="A502" s="11" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
@@ -24273,15 +23871,15 @@
       <c r="D502" t="n">
         <v>983.62</v>
       </c>
-      <c r="E502" s="9" t="n">
+      <c r="E502" t="n">
         <v>2505.86</v>
       </c>
-      <c r="F502" s="9" t="n">
+      <c r="F502" t="n">
         <v>684.85</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="8" t="inlineStr">
+      <c r="A503" s="11" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
@@ -24295,15 +23893,15 @@
       <c r="D503" t="n">
         <v>985.1</v>
       </c>
-      <c r="E503" s="9" t="n">
+      <c r="E503" t="n">
         <v>2486.7</v>
       </c>
-      <c r="F503" s="9" t="n">
+      <c r="F503" t="n">
         <v>683.49</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="8" t="inlineStr">
+      <c r="A504" s="11" t="inlineStr">
         <is>
           <t>2025-04-04</t>
         </is>
@@ -24317,15 +23915,15 @@
       <c r="D504" t="n">
         <v>987.98</v>
       </c>
-      <c r="E504" s="9" t="n">
+      <c r="E504" t="n">
         <v>2465.42</v>
       </c>
-      <c r="F504" s="9" t="n">
+      <c r="F504" t="n">
         <v>687.39</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="8" t="inlineStr">
+      <c r="A505" s="11" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
@@ -24339,15 +23937,15 @@
       <c r="D505" t="n">
         <v>950.3</v>
       </c>
-      <c r="E505" s="9" t="n">
+      <c r="E505" t="n">
         <v>2328.2</v>
       </c>
-      <c r="F505" s="9" t="n">
+      <c r="F505" t="n">
         <v>651.3</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="8" t="inlineStr">
+      <c r="A506" s="11" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
@@ -24361,15 +23959,15 @@
       <c r="D506" t="n">
         <v>962.95</v>
       </c>
-      <c r="E506" s="9" t="n">
+      <c r="E506" t="n">
         <v>2334.23</v>
       </c>
-      <c r="F506" s="9" t="n">
+      <c r="F506" t="n">
         <v>658.45</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="8" t="inlineStr">
+      <c r="A507" s="11" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
@@ -24383,15 +23981,15 @@
       <c r="D507" t="n">
         <v>940.4299999999999</v>
       </c>
-      <c r="E507" s="9" t="n">
+      <c r="E507" t="n">
         <v>2293.7</v>
       </c>
-      <c r="F507" s="9" t="n">
+      <c r="F507" t="n">
         <v>643.39</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="8" t="inlineStr">
+      <c r="A508" s="11" t="inlineStr">
         <is>
           <t>2025-04-10</t>
         </is>
@@ -24405,15 +24003,15 @@
       <c r="D508" t="n">
         <v>984.74</v>
       </c>
-      <c r="E508" s="9" t="n">
+      <c r="E508" t="n">
         <v>2445.06</v>
       </c>
-      <c r="F508" s="9" t="n">
+      <c r="F508" t="n">
         <v>681.79</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="8" t="inlineStr">
+      <c r="A509" s="11" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
@@ -24427,15 +24025,15 @@
       <c r="D509" t="n">
         <v>992.3200000000001</v>
       </c>
-      <c r="E509" s="9" t="n">
+      <c r="E509" t="n">
         <v>2432.72</v>
       </c>
-      <c r="F509" s="9" t="n">
+      <c r="F509" t="n">
         <v>695.59</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="8" t="inlineStr">
+      <c r="A510" s="11" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
@@ -24449,15 +24047,15 @@
       <c r="D510" t="n">
         <v>994.9</v>
       </c>
-      <c r="E510" s="9" t="n">
+      <c r="E510" t="n">
         <v>2455.89</v>
       </c>
-      <c r="F510" s="9" t="n">
+      <c r="F510" t="n">
         <v>708.98</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="8" t="inlineStr">
+      <c r="A511" s="11" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
@@ -24471,15 +24069,15 @@
       <c r="D511" t="n">
         <v>994.33</v>
       </c>
-      <c r="E511" s="9" t="n">
+      <c r="E511" t="n">
         <v>2477.41</v>
       </c>
-      <c r="F511" s="9" t="n">
+      <c r="F511" t="n">
         <v>711.92</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="8" t="inlineStr">
+      <c r="A512" s="11" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
@@ -24493,15 +24091,15 @@
       <c r="D512" t="n">
         <v>998.39</v>
       </c>
-      <c r="E512" s="9" t="n">
+      <c r="E512" t="n">
         <v>2447.43</v>
       </c>
-      <c r="F512" s="9" t="n">
+      <c r="F512" t="n">
         <v>699.11</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="8" t="inlineStr">
+      <c r="A513" s="11" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
@@ -24515,15 +24113,15 @@
       <c r="D513" t="n">
         <v>1008.15</v>
       </c>
-      <c r="E513" s="9" t="n">
+      <c r="E513" t="n">
         <v>2470.41</v>
       </c>
-      <c r="F513" s="9" t="n">
+      <c r="F513" t="n">
         <v>711.75</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="8" t="inlineStr">
+      <c r="A514" s="11" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
@@ -24537,15 +24135,15 @@
       <c r="D514" t="n">
         <v>1019.22</v>
       </c>
-      <c r="E514" s="9" t="n">
+      <c r="E514" t="n">
         <v>2483.42</v>
       </c>
-      <c r="F514" s="9" t="n">
+      <c r="F514" t="n">
         <v>717.77</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="8" t="inlineStr">
+      <c r="A515" s="11" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
@@ -24559,15 +24157,15 @@
       <c r="D515" t="n">
         <v>1014.79</v>
       </c>
-      <c r="E515" s="9" t="n">
+      <c r="E515" t="n">
         <v>2488.42</v>
       </c>
-      <c r="F515" s="9" t="n">
+      <c r="F515" t="n">
         <v>715.45</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="8" t="inlineStr">
+      <c r="A516" s="11" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
@@ -24581,15 +24179,15 @@
       <c r="D516" t="n">
         <v>1009.44</v>
       </c>
-      <c r="E516" s="9" t="n">
+      <c r="E516" t="n">
         <v>2486.64</v>
       </c>
-      <c r="F516" s="9" t="n">
+      <c r="F516" t="n">
         <v>716.12</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="8" t="inlineStr">
+      <c r="A517" s="11" t="inlineStr">
         <is>
           <t>2025-04-23</t>
         </is>
@@ -24603,15 +24201,15 @@
       <c r="D517" t="n">
         <v>1006.63</v>
       </c>
-      <c r="E517" s="9" t="n">
+      <c r="E517" t="n">
         <v>2525.56</v>
       </c>
-      <c r="F517" s="9" t="n">
+      <c r="F517" t="n">
         <v>726.08</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="8" t="inlineStr">
+      <c r="A518" s="11" t="inlineStr">
         <is>
           <t>2025-04-24</t>
         </is>
@@ -24625,15 +24223,15 @@
       <c r="D518" t="n">
         <v>1011.74</v>
       </c>
-      <c r="E518" s="9" t="n">
+      <c r="E518" t="n">
         <v>2522.33</v>
       </c>
-      <c r="F518" s="9" t="n">
+      <c r="F518" t="n">
         <v>726.08</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="8" t="inlineStr">
+      <c r="A519" s="11" t="inlineStr">
         <is>
           <t>2025-04-25</t>
         </is>
@@ -24647,15 +24245,15 @@
       <c r="D519" t="n">
         <v>1014.94</v>
       </c>
-      <c r="E519" s="9" t="n">
+      <c r="E519" t="n">
         <v>2546.3</v>
       </c>
-      <c r="F519" s="9" t="n">
+      <c r="F519" t="n">
         <v>729.6900000000001</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="8" t="inlineStr">
+      <c r="A520" s="11" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
@@ -24669,15 +24267,15 @@
       <c r="D520" t="n">
         <v>1016.09</v>
       </c>
-      <c r="E520" s="9" t="n">
+      <c r="E520" t="n">
         <v>2548.86</v>
       </c>
-      <c r="F520" s="9" t="n">
+      <c r="F520" t="n">
         <v>719.41</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="8" t="inlineStr">
+      <c r="A521" s="11" t="inlineStr">
         <is>
           <t>2025-04-29</t>
         </is>
@@ -24691,15 +24289,15 @@
       <c r="D521" t="n">
         <v>1028.73</v>
       </c>
-      <c r="E521" s="9" t="n">
+      <c r="E521" t="n">
         <v>2565.42</v>
       </c>
-      <c r="F521" s="9" t="n">
+      <c r="F521" t="n">
         <v>726.46</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="8" t="inlineStr">
+      <c r="A522" s="11" t="inlineStr">
         <is>
           <t>2025-04-30</t>
         </is>
@@ -24713,15 +24311,15 @@
       <c r="D522" t="n">
         <v>1034.72</v>
       </c>
-      <c r="E522" s="9" t="n">
+      <c r="E522" t="n">
         <v>2556.61</v>
       </c>
-      <c r="F522" s="9" t="n">
+      <c r="F522" t="n">
         <v>717.24</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="8" t="inlineStr">
+      <c r="A523" s="11" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
@@ -24735,15 +24333,15 @@
       <c r="D523" t="n">
         <v>1037.21</v>
       </c>
-      <c r="E523" s="9" t="n">
+      <c r="E523" t="n">
         <v>2559.79</v>
       </c>
-      <c r="F523" s="9" t="n">
+      <c r="F523" t="n">
         <v>721.86</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="8" t="inlineStr">
+      <c r="A524" s="11" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
@@ -24757,15 +24355,15 @@
       <c r="D524" t="n">
         <v>1044.28</v>
       </c>
-      <c r="E524" s="9" t="n">
+      <c r="E524" t="n">
         <v>2573.8</v>
       </c>
-      <c r="F524" s="9" t="n">
+      <c r="F524" t="n">
         <v>722.8099999999999</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="8" t="inlineStr">
+      <c r="A525" s="11" t="inlineStr">
         <is>
           <t>2025-05-08</t>
         </is>
@@ -24779,15 +24377,15 @@
       <c r="D525" t="n">
         <v>1056.67</v>
       </c>
-      <c r="E525" s="9" t="n">
+      <c r="E525" t="n">
         <v>2579.48</v>
       </c>
-      <c r="F525" s="9" t="n">
+      <c r="F525" t="n">
         <v>729.59</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="8" t="inlineStr">
+      <c r="A526" s="11" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
@@ -24801,15 +24399,15 @@
       <c r="D526" t="n">
         <v>1057.72</v>
       </c>
-      <c r="E526" s="9" t="n">
+      <c r="E526" t="n">
         <v>2577.27</v>
       </c>
-      <c r="F526" s="9" t="n">
+      <c r="F526" t="n">
         <v>722.52</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="8" t="inlineStr">
+      <c r="A527" s="11" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
@@ -24823,15 +24421,15 @@
       <c r="D527" t="n">
         <v>1059.3</v>
       </c>
-      <c r="E527" s="9" t="n">
+      <c r="E527" t="n">
         <v>2607.33</v>
       </c>
-      <c r="F527" s="9" t="n">
+      <c r="F527" t="n">
         <v>725.4</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="8" t="inlineStr">
+      <c r="A528" s="11" t="inlineStr">
         <is>
           <t>2025-05-13</t>
         </is>
@@ -24845,15 +24443,15 @@
       <c r="D528" t="n">
         <v>1058.04</v>
       </c>
-      <c r="E528" s="9" t="n">
+      <c r="E528" t="n">
         <v>2608.42</v>
       </c>
-      <c r="F528" s="9" t="n">
+      <c r="F528" t="n">
         <v>731.88</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="8" t="inlineStr">
+      <c r="A529" s="11" t="inlineStr">
         <is>
           <t>2025-05-14</t>
         </is>
@@ -24867,15 +24465,15 @@
       <c r="D529" t="n">
         <v>1068.77</v>
       </c>
-      <c r="E529" s="9" t="n">
+      <c r="E529" t="n">
         <v>2640.57</v>
       </c>
-      <c r="F529" s="9" t="n">
+      <c r="F529" t="n">
         <v>739.05</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="8" t="inlineStr">
+      <c r="A530" s="11" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>
@@ -24889,15 +24487,15 @@
       <c r="D530" t="n">
         <v>1064.59</v>
       </c>
-      <c r="E530" s="9" t="n">
+      <c r="E530" t="n">
         <v>2621.36</v>
       </c>
-      <c r="F530" s="9" t="n">
+      <c r="F530" t="n">
         <v>733.23</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="8" t="inlineStr">
+      <c r="A531" s="11" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
@@ -24911,15 +24509,15 @@
       <c r="D531" t="n">
         <v>1073.77</v>
       </c>
-      <c r="E531" s="9" t="n">
+      <c r="E531" t="n">
         <v>2626.87</v>
       </c>
-      <c r="F531" s="9" t="n">
+      <c r="F531" t="n">
         <v>725.0700000000001</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="8" t="inlineStr">
+      <c r="A532" s="11" t="inlineStr">
         <is>
           <t>2025-05-19</t>
         </is>
@@ -24933,15 +24531,15 @@
       <c r="D532" t="n">
         <v>1060.58</v>
       </c>
-      <c r="E532" s="9" t="n">
+      <c r="E532" t="n">
         <v>2603.42</v>
       </c>
-      <c r="F532" s="9" t="n">
+      <c r="F532" t="n">
         <v>713.75</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="8" t="inlineStr">
+      <c r="A533" s="11" t="inlineStr">
         <is>
           <t>2025-05-20</t>
         </is>
@@ -24955,15 +24553,15 @@
       <c r="D533" t="n">
         <v>1068.63</v>
       </c>
-      <c r="E533" s="9" t="n">
+      <c r="E533" t="n">
         <v>2601.8</v>
       </c>
-      <c r="F533" s="9" t="n">
+      <c r="F533" t="n">
         <v>715.55</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="8" t="inlineStr">
+      <c r="A534" s="11" t="inlineStr">
         <is>
           <t>2025-05-21</t>
         </is>
@@ -24977,15 +24575,15 @@
       <c r="D534" t="n">
         <v>1076.27</v>
       </c>
-      <c r="E534" s="9" t="n">
+      <c r="E534" t="n">
         <v>2625.58</v>
       </c>
-      <c r="F534" s="9" t="n">
+      <c r="F534" t="n">
         <v>723.62</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="8" t="inlineStr">
+      <c r="A535" s="11" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
@@ -24999,15 +24597,15 @@
       <c r="D535" t="n">
         <v>1074.4</v>
       </c>
-      <c r="E535" s="9" t="n">
+      <c r="E535" t="n">
         <v>2593.67</v>
       </c>
-      <c r="F535" s="9" t="n">
+      <c r="F535" t="n">
         <v>717.67</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="8" t="inlineStr">
+      <c r="A536" s="11" t="inlineStr">
         <is>
           <t>2025-05-23</t>
         </is>
@@ -25021,15 +24619,15 @@
       <c r="D536" t="n">
         <v>1097.24</v>
       </c>
-      <c r="E536" s="9" t="n">
+      <c r="E536" t="n">
         <v>2592.09</v>
       </c>
-      <c r="F536" s="9" t="n">
+      <c r="F536" t="n">
         <v>715.98</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="8" t="inlineStr">
+      <c r="A537" s="11" t="inlineStr">
         <is>
           <t>2025-05-26</t>
         </is>
@@ -25043,15 +24641,15 @@
       <c r="D537" t="n">
         <v>1114.23</v>
       </c>
-      <c r="E537" s="9" t="n">
+      <c r="E537" t="n">
         <v>2644.4</v>
       </c>
-      <c r="F537" s="9" t="n">
+      <c r="F537" t="n">
         <v>725.27</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="8" t="inlineStr">
+      <c r="A538" s="11" t="inlineStr">
         <is>
           <t>2025-05-27</t>
         </is>
@@ -25065,15 +24663,15 @@
       <c r="D538" t="n">
         <v>1126.1</v>
       </c>
-      <c r="E538" s="9" t="n">
+      <c r="E538" t="n">
         <v>2637.22</v>
       </c>
-      <c r="F538" s="9" t="n">
+      <c r="F538" t="n">
         <v>727.11</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="8" t="inlineStr">
+      <c r="A539" s="11" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
@@ -25087,15 +24685,15 @@
       <c r="D539" t="n">
         <v>1120.83</v>
       </c>
-      <c r="E539" s="9" t="n">
+      <c r="E539" t="n">
         <v>2670.15</v>
       </c>
-      <c r="F539" s="9" t="n">
+      <c r="F539" t="n">
         <v>728.79</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="8" t="inlineStr">
+      <c r="A540" s="11" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
@@ -25109,15 +24707,15 @@
       <c r="D540" t="n">
         <v>1135.58</v>
       </c>
-      <c r="E540" s="9" t="n">
+      <c r="E540" t="n">
         <v>2720.64</v>
       </c>
-      <c r="F540" s="9" t="n">
+      <c r="F540" t="n">
         <v>736.29</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="8" t="inlineStr">
+      <c r="A541" s="11" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
@@ -25131,15 +24729,15 @@
       <c r="D541" t="n">
         <v>1121.51</v>
       </c>
-      <c r="E541" s="9" t="n">
+      <c r="E541" t="n">
         <v>2697.67</v>
       </c>
-      <c r="F541" s="9" t="n">
+      <c r="F541" t="n">
         <v>734.35</v>
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="8" t="inlineStr">
+      <c r="A542" s="11" t="inlineStr">
         <is>
           <t>2025-06-02</t>
         </is>
@@ -25153,15 +24751,15 @@
       <c r="D542" t="n">
         <v>1134.38</v>
       </c>
-      <c r="E542" s="9" t="n">
+      <c r="E542" t="n">
         <v>2698.97</v>
       </c>
-      <c r="F542" s="9" t="n">
+      <c r="F542" t="n">
         <v>740.29</v>
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="8" t="inlineStr">
+      <c r="A543" s="11" t="inlineStr">
         <is>
           <t>2025-06-04</t>
         </is>
@@ -25175,15 +24773,15 @@
       <c r="D543" t="n">
         <v>1170.58</v>
       </c>
-      <c r="E543" s="9" t="n">
+      <c r="E543" t="n">
         <v>2770.84</v>
       </c>
-      <c r="F543" s="9" t="n">
+      <c r="F543" t="n">
         <v>750.21</v>
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="8" t="inlineStr">
+      <c r="A544" s="11" t="inlineStr">
         <is>
           <t>2025-06-05</t>
         </is>
@@ -25197,15 +24795,15 @@
       <c r="D544" t="n">
         <v>1175.1</v>
       </c>
-      <c r="E544" s="9" t="n">
+      <c r="E544" t="n">
         <v>2812.05</v>
       </c>
-      <c r="F544" s="9" t="n">
+      <c r="F544" t="n">
         <v>756.23</v>
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="8" t="inlineStr">
+      <c r="A545" s="11" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
@@ -25219,15 +24817,15 @@
       <c r="D545" t="n">
         <v>1194.91</v>
       </c>
-      <c r="E545" s="9" t="n">
+      <c r="E545" t="n">
         <v>2855.77</v>
       </c>
-      <c r="F545" s="9" t="n">
+      <c r="F545" t="n">
         <v>764.21</v>
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="8" t="inlineStr">
+      <c r="A546" s="11" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
@@ -25241,15 +24839,15 @@
       <c r="D546" t="n">
         <v>1229.47</v>
       </c>
-      <c r="E546" s="9" t="n">
+      <c r="E546" t="n">
         <v>2871.85</v>
       </c>
-      <c r="F546" s="9" t="n">
+      <c r="F546" t="n">
         <v>771.2</v>
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="8" t="inlineStr">
+      <c r="A547" s="11" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
@@ -25263,15 +24861,15 @@
       <c r="D547" t="n">
         <v>1245.37</v>
       </c>
-      <c r="E547" s="9" t="n">
+      <c r="E547" t="n">
         <v>2907.04</v>
       </c>
-      <c r="F547" s="9" t="n">
+      <c r="F547" t="n">
         <v>786.29</v>
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="8" t="inlineStr">
+      <c r="A548" s="11" t="inlineStr">
         <is>
           <t>2025-06-12</t>
         </is>
@@ -25285,15 +24883,15 @@
       <c r="D548" t="n">
         <v>1253.04</v>
       </c>
-      <c r="E548" s="9" t="n">
+      <c r="E548" t="n">
         <v>2920.03</v>
       </c>
-      <c r="F548" s="9" t="n">
+      <c r="F548" t="n">
         <v>789.45</v>
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="8" t="inlineStr">
+      <c r="A549" s="11" t="inlineStr">
         <is>
           <t>2025-06-13</t>
         </is>
@@ -25307,15 +24905,15 @@
       <c r="D549" t="n">
         <v>1249.71</v>
       </c>
-      <c r="E549" s="9" t="n">
+      <c r="E549" t="n">
         <v>2894.62</v>
       </c>
-      <c r="F549" s="9" t="n">
+      <c r="F549" t="n">
         <v>768.86</v>
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="8" t="inlineStr">
+      <c r="A550" s="11" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
@@ -25329,15 +24927,15 @@
       <c r="D550" t="n">
         <v>1276.78</v>
       </c>
-      <c r="E550" s="9" t="n">
+      <c r="E550" t="n">
         <v>2946.66</v>
       </c>
-      <c r="F550" s="9" t="n">
+      <c r="F550" t="n">
         <v>777.26</v>
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="8" t="inlineStr">
+      <c r="A551" s="11" t="inlineStr">
         <is>
           <t>2025-06-17</t>
         </is>
@@ -25351,15 +24949,15 @@
       <c r="D551" t="n">
         <v>1275.66</v>
       </c>
-      <c r="E551" s="9" t="n">
+      <c r="E551" t="n">
         <v>2950.3</v>
       </c>
-      <c r="F551" s="9" t="n">
+      <c r="F551" t="n">
         <v>775.65</v>
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="8" t="inlineStr">
+      <c r="A552" s="11" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
@@ -25373,15 +24971,15 @@
       <c r="D552" t="n">
         <v>1286.66</v>
       </c>
-      <c r="E552" s="9" t="n">
+      <c r="E552" t="n">
         <v>2972.19</v>
       </c>
-      <c r="F552" s="9" t="n">
+      <c r="F552" t="n">
         <v>779.73</v>
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="8" t="inlineStr">
+      <c r="A553" s="11" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
@@ -25395,15 +24993,15 @@
       <c r="D553" t="n">
         <v>1312.9</v>
       </c>
-      <c r="E553" s="9" t="n">
+      <c r="E553" t="n">
         <v>2977.74</v>
       </c>
-      <c r="F553" s="9" t="n">
+      <c r="F553" t="n">
         <v>782.51</v>
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="8" t="inlineStr">
+      <c r="A554" s="11" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
@@ -25417,15 +25015,15 @@
       <c r="D554" t="n">
         <v>1310.3</v>
       </c>
-      <c r="E554" s="9" t="n">
+      <c r="E554" t="n">
         <v>3021.84</v>
       </c>
-      <c r="F554" s="9" t="n">
+      <c r="F554" t="n">
         <v>791.53</v>
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="8" t="inlineStr">
+      <c r="A555" s="11" t="inlineStr">
         <is>
           <t>2025-06-23</t>
         </is>
@@ -25439,15 +25037,15 @@
       <c r="D555" t="n">
         <v>1315.55</v>
       </c>
-      <c r="E555" s="9" t="n">
+      <c r="E555" t="n">
         <v>3014.47</v>
       </c>
-      <c r="F555" s="9" t="n">
+      <c r="F555" t="n">
         <v>784.79</v>
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="8" t="inlineStr">
+      <c r="A556" s="11" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
@@ -25461,15 +25059,15 @@
       <c r="D556" t="n">
         <v>1322.63</v>
       </c>
-      <c r="E556" s="9" t="n">
+      <c r="E556" t="n">
         <v>3103.64</v>
       </c>
-      <c r="F556" s="9" t="n">
+      <c r="F556" t="n">
         <v>800.9299999999999</v>
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="8" t="inlineStr">
+      <c r="A557" s="11" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
@@ -25483,15 +25081,15 @@
       <c r="D557" t="n">
         <v>1330.92</v>
       </c>
-      <c r="E557" s="9" t="n">
+      <c r="E557" t="n">
         <v>3108.25</v>
       </c>
-      <c r="F557" s="9" t="n">
+      <c r="F557" t="n">
         <v>798.21</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="8" t="inlineStr">
+      <c r="A558" s="11" t="inlineStr">
         <is>
           <t>2025-06-26</t>
         </is>
@@ -25505,15 +25103,15 @@
       <c r="D558" t="n">
         <v>1314.71</v>
       </c>
-      <c r="E558" s="9" t="n">
+      <c r="E558" t="n">
         <v>3079.56</v>
       </c>
-      <c r="F558" s="9" t="n">
+      <c r="F558" t="n">
         <v>787.95</v>
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="8" t="inlineStr">
+      <c r="A559" s="11" t="inlineStr">
         <is>
           <t>2025-06-27</t>
         </is>
@@ -25527,15 +25125,15 @@
       <c r="D559" t="n">
         <v>1313.23</v>
       </c>
-      <c r="E559" s="9" t="n">
+      <c r="E559" t="n">
         <v>3055.94</v>
       </c>
-      <c r="F559" s="9" t="n">
+      <c r="F559" t="n">
         <v>781.5599999999999</v>
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="8" t="inlineStr">
+      <c r="A560" s="11" t="inlineStr">
         <is>
           <t>2025-06-30</t>
         </is>
@@ -25549,15 +25147,15 @@
       <c r="D560" t="n">
         <v>1327.31</v>
       </c>
-      <c r="E560" s="9" t="n">
+      <c r="E560" t="n">
         <v>3071.7</v>
       </c>
-      <c r="F560" s="9" t="n">
+      <c r="F560" t="n">
         <v>781.5</v>
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="8" t="inlineStr">
+      <c r="A561" s="11" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
@@ -25571,15 +25169,15 @@
       <c r="D561" t="n">
         <v>1325.3</v>
       </c>
-      <c r="E561" s="9" t="n">
+      <c r="E561" t="n">
         <v>3089.65</v>
       </c>
-      <c r="F561" s="9" t="n">
+      <c r="F561" t="n">
         <v>783.67</v>
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="8" t="inlineStr">
+      <c r="A562" s="11" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
@@ -25593,15 +25191,15 @@
       <c r="D562" t="n">
         <v>1305.83</v>
       </c>
-      <c r="E562" s="9" t="n">
+      <c r="E562" t="n">
         <v>3075.06</v>
       </c>
-      <c r="F562" s="9" t="n">
+      <c r="F562" t="n">
         <v>782.17</v>
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="8" t="inlineStr">
+      <c r="A563" s="11" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
@@ -25615,15 +25213,15 @@
       <c r="D563" t="n">
         <v>1301.98</v>
       </c>
-      <c r="E563" s="9" t="n">
+      <c r="E563" t="n">
         <v>3116.27</v>
       </c>
-      <c r="F563" s="9" t="n">
+      <c r="F563" t="n">
         <v>793.33</v>
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="8" t="inlineStr">
+      <c r="A564" s="11" t="inlineStr">
         <is>
           <t>2025-07-04</t>
         </is>
@@ -25637,15 +25235,15 @@
       <c r="D564" t="n">
         <v>1267.2</v>
       </c>
-      <c r="E564" s="9" t="n">
+      <c r="E564" t="n">
         <v>3054.28</v>
       </c>
-      <c r="F564" s="9" t="n">
+      <c r="F564" t="n">
         <v>775.8</v>
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="8" t="inlineStr">
+      <c r="A565" s="11" t="inlineStr">
         <is>
           <t>2025-07-07</t>
         </is>
@@ -25659,15 +25257,15 @@
       <c r="D565" t="n">
         <v>1289.61</v>
       </c>
-      <c r="E565" s="9" t="n">
+      <c r="E565" t="n">
         <v>3059.47</v>
       </c>
-      <c r="F565" s="9" t="n">
+      <c r="F565" t="n">
         <v>778.46</v>
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="8" t="inlineStr">
+      <c r="A566" s="11" t="inlineStr">
         <is>
           <t>2025-07-08</t>
         </is>
@@ -25681,15 +25279,15 @@
       <c r="D566" t="n">
         <v>1313.47</v>
       </c>
-      <c r="E566" s="9" t="n">
+      <c r="E566" t="n">
         <v>3114.95</v>
       </c>
-      <c r="F566" s="9" t="n">
+      <c r="F566" t="n">
         <v>784.24</v>
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="8" t="inlineStr">
+      <c r="A567" s="11" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
@@ -25703,15 +25301,15 @@
       <c r="D567" t="n">
         <v>1320.05</v>
       </c>
-      <c r="E567" s="9" t="n">
+      <c r="E567" t="n">
         <v>3133.74</v>
       </c>
-      <c r="F567" s="9" t="n">
+      <c r="F567" t="n">
         <v>790.36</v>
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="8" t="inlineStr">
+      <c r="A568" s="11" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
@@ -25725,15 +25323,15 @@
       <c r="D568" t="n">
         <v>1328.07</v>
       </c>
-      <c r="E568" s="9" t="n">
+      <c r="E568" t="n">
         <v>3183.23</v>
       </c>
-      <c r="F568" s="9" t="n">
+      <c r="F568" t="n">
         <v>797.7</v>
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="8" t="inlineStr">
+      <c r="A569" s="11" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
@@ -25747,15 +25345,15 @@
       <c r="D569" t="n">
         <v>1327.06</v>
       </c>
-      <c r="E569" s="9" t="n">
+      <c r="E569" t="n">
         <v>3175.77</v>
       </c>
-      <c r="F569" s="9" t="n">
+      <c r="F569" t="n">
         <v>800.47</v>
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="8" t="inlineStr">
+      <c r="A570" s="11" t="inlineStr">
         <is>
           <t>2025-07-14</t>
         </is>
@@ -25769,15 +25367,15 @@
       <c r="D570" t="n">
         <v>1343.78</v>
       </c>
-      <c r="E570" s="9" t="n">
+      <c r="E570" t="n">
         <v>3202.03</v>
       </c>
-      <c r="F570" s="9" t="n">
+      <c r="F570" t="n">
         <v>799.37</v>
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="8" t="inlineStr">
+      <c r="A571" s="11" t="inlineStr">
         <is>
           <t>2025-07-15</t>
         </is>
@@ -25791,15 +25389,15 @@
       <c r="D571" t="n">
         <v>1370.49</v>
       </c>
-      <c r="E571" s="9" t="n">
+      <c r="E571" t="n">
         <v>3215.28</v>
       </c>
-      <c r="F571" s="9" t="n">
+      <c r="F571" t="n">
         <v>812.88</v>
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="8" t="inlineStr">
+      <c r="A572" s="11" t="inlineStr">
         <is>
           <t>2025-07-16</t>
         </is>
@@ -25813,15 +25411,15 @@
       <c r="D572" t="n">
         <v>1362.47</v>
       </c>
-      <c r="E572" s="9" t="n">
+      <c r="E572" t="n">
         <v>3186.38</v>
       </c>
-      <c r="F572" s="9" t="n">
+      <c r="F572" t="n">
         <v>812.23</v>
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="8" t="inlineStr">
+      <c r="A573" s="11" t="inlineStr">
         <is>
           <t>2025-07-17</t>
         </is>
@@ -25835,15 +25433,15 @@
       <c r="D573" t="n">
         <v>1365.48</v>
       </c>
-      <c r="E573" s="9" t="n">
+      <c r="E573" t="n">
         <v>3192.29</v>
       </c>
-      <c r="F573" s="9" t="n">
+      <c r="F573" t="n">
         <v>818.27</v>
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="8" t="inlineStr">
+      <c r="A574" s="11" t="inlineStr">
         <is>
           <t>2025-07-18</t>
         </is>
@@ -25857,15 +25455,15 @@
       <c r="D574" t="n">
         <v>1357.08</v>
       </c>
-      <c r="E574" s="9" t="n">
+      <c r="E574" t="n">
         <v>3188.07</v>
       </c>
-      <c r="F574" s="9" t="n">
+      <c r="F574" t="n">
         <v>820.67</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="8" t="inlineStr">
+      <c r="A575" s="11" t="inlineStr">
         <is>
           <t>2025-07-21</t>
         </is>
@@ -25879,15 +25477,15 @@
       <c r="D575" t="n">
         <v>1360.35</v>
       </c>
-      <c r="E575" s="9" t="n">
+      <c r="E575" t="n">
         <v>3210.81</v>
       </c>
-      <c r="F575" s="9" t="n">
+      <c r="F575" t="n">
         <v>821.6900000000001</v>
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="8" t="inlineStr">
+      <c r="A576" s="11" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
@@ -25901,15 +25499,15 @@
       <c r="D576" t="n">
         <v>1342.45</v>
       </c>
-      <c r="E576" s="9" t="n">
+      <c r="E576" t="n">
         <v>3169.94</v>
       </c>
-      <c r="F576" s="9" t="n">
+      <c r="F576" t="n">
         <v>812.97</v>
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="8" t="inlineStr">
+      <c r="A577" s="11" t="inlineStr">
         <is>
           <t>2025-07-23</t>
         </is>
@@ -25923,15 +25521,15 @@
       <c r="D577" t="n">
         <v>1346.07</v>
       </c>
-      <c r="E577" s="9" t="n">
+      <c r="E577" t="n">
         <v>3183.77</v>
       </c>
-      <c r="F577" s="9" t="n">
+      <c r="F577" t="n">
         <v>813.5599999999999</v>
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="8" t="inlineStr">
+      <c r="A578" s="11" t="inlineStr">
         <is>
           <t>2025-07-24</t>
         </is>
@@ -25945,15 +25543,15 @@
       <c r="D578" t="n">
         <v>1346.96</v>
       </c>
-      <c r="E578" s="9" t="n">
+      <c r="E578" t="n">
         <v>3190.45</v>
       </c>
-      <c r="F578" s="9" t="n">
+      <c r="F578" t="n">
         <v>809.89</v>
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="8" t="inlineStr">
+      <c r="A579" s="11" t="inlineStr">
         <is>
           <t>2025-07-25</t>
         </is>
@@ -25967,15 +25565,15 @@
       <c r="D579" t="n">
         <v>1332.92</v>
       </c>
-      <c r="E579" s="9" t="n">
+      <c r="E579" t="n">
         <v>3196.05</v>
       </c>
-      <c r="F579" s="9" t="n">
+      <c r="F579" t="n">
         <v>806.95</v>
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="8" t="inlineStr">
+      <c r="A580" s="11" t="inlineStr">
         <is>
           <t>2025-07-28</t>
         </is>
@@ -25989,15 +25587,15 @@
       <c r="D580" t="n">
         <v>1323.77</v>
       </c>
-      <c r="E580" s="9" t="n">
+      <c r="E580" t="n">
         <v>3209.52</v>
       </c>
-      <c r="F580" s="9" t="n">
+      <c r="F580" t="n">
         <v>804.4</v>
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="8" t="inlineStr">
+      <c r="A581" s="11" t="inlineStr">
         <is>
           <t>2025-07-29</t>
         </is>
@@ -26011,15 +25609,15 @@
       <c r="D581" t="n">
         <v>1336.98</v>
       </c>
-      <c r="E581" s="9" t="n">
+      <c r="E581" t="n">
         <v>3230.57</v>
       </c>
-      <c r="F581" s="9" t="n">
+      <c r="F581" t="n">
         <v>804.45</v>
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="8" t="inlineStr">
+      <c r="A582" s="11" t="inlineStr">
         <is>
           <t>2025-07-30</t>
         </is>
@@ -26033,15 +25631,15 @@
       <c r="D582" t="n">
         <v>1327.15</v>
       </c>
-      <c r="E582" s="9" t="n">
+      <c r="E582" t="n">
         <v>3254.47</v>
       </c>
-      <c r="F582" s="9" t="n">
+      <c r="F582" t="n">
         <v>803.67</v>
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="8" t="inlineStr">
+      <c r="A583" s="11" t="inlineStr">
         <is>
           <t>2025-07-31</t>
         </is>
@@ -26055,15 +25653,15 @@
       <c r="D583" t="n">
         <v>1339.84</v>
       </c>
-      <c r="E583" s="9" t="n">
+      <c r="E583" t="n">
         <v>3245.44</v>
       </c>
-      <c r="F583" s="9" t="n">
+      <c r="F583" t="n">
         <v>805.24</v>
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="8" t="inlineStr">
+      <c r="A584" s="11" t="inlineStr">
         <is>
           <t>2025-08-01</t>
         </is>
@@ -26077,15 +25675,15 @@
       <c r="D584" t="n">
         <v>1282.59</v>
       </c>
-      <c r="E584" s="9" t="n">
+      <c r="E584" t="n">
         <v>3119.41</v>
       </c>
-      <c r="F584" s="9" t="n">
+      <c r="F584" t="n">
         <v>772.79</v>
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="8" t="inlineStr">
+      <c r="A585" s="11" t="inlineStr">
         <is>
           <t>2025-08-04</t>
         </is>
@@ -26099,15 +25697,15 @@
       <c r="D585" t="n">
         <v>1302.77</v>
       </c>
-      <c r="E585" s="9" t="n">
+      <c r="E585" t="n">
         <v>3147.75</v>
       </c>
-      <c r="F585" s="9" t="n">
+      <c r="F585" t="n">
         <v>784.0599999999999</v>
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="8" t="inlineStr">
+      <c r="A586" s="11" t="inlineStr">
         <is>
           <t>2025-08-05</t>
         </is>
@@ -26121,15 +25719,15 @@
       <c r="D586" t="n">
         <v>1317.16</v>
       </c>
-      <c r="E586" s="9" t="n">
+      <c r="E586" t="n">
         <v>3198</v>
       </c>
-      <c r="F586" s="9" t="n">
+      <c r="F586" t="n">
         <v>798.6</v>
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="8" t="inlineStr">
+      <c r="A587" s="11" t="inlineStr">
         <is>
           <t>2025-08-06</t>
         </is>
@@ -26143,15 +25741,15 @@
       <c r="D587" t="n">
         <v>1330.53</v>
       </c>
-      <c r="E587" s="9" t="n">
+      <c r="E587" t="n">
         <v>3198.14</v>
       </c>
-      <c r="F587" s="9" t="n">
+      <c r="F587" t="n">
         <v>803.49</v>
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="8" t="inlineStr">
+      <c r="A588" s="11" t="inlineStr">
         <is>
           <t>2025-08-07</t>
         </is>
@@ -26165,15 +25763,15 @@
       <c r="D588" t="n">
         <v>1340.62</v>
       </c>
-      <c r="E588" s="9" t="n">
+      <c r="E588" t="n">
         <v>3227.68</v>
       </c>
-      <c r="F588" s="9" t="n">
+      <c r="F588" t="n">
         <v>805.8099999999999</v>
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="8" t="inlineStr">
+      <c r="A589" s="11" t="inlineStr">
         <is>
           <t>2025-08-08</t>
         </is>
@@ -26187,15 +25785,15 @@
       <c r="D589" t="n">
         <v>1367.4</v>
       </c>
-      <c r="E589" s="9" t="n">
+      <c r="E589" t="n">
         <v>3210.01</v>
       </c>
-      <c r="F589" s="9" t="n">
+      <c r="F589" t="n">
         <v>809.27</v>
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="8" t="inlineStr">
+      <c r="A590" s="11" t="inlineStr">
         <is>
           <t>2025-08-11</t>
         </is>
@@ -26209,15 +25807,15 @@
       <c r="D590" t="n">
         <v>1362.99</v>
       </c>
-      <c r="E590" s="9" t="n">
+      <c r="E590" t="n">
         <v>3206.77</v>
       </c>
-      <c r="F590" s="9" t="n">
+      <c r="F590" t="n">
         <v>811.85</v>
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="8" t="inlineStr">
+      <c r="A591" s="11" t="inlineStr">
         <is>
           <t>2025-08-12</t>
         </is>
@@ -26231,15 +25829,15 @@
       <c r="D591" t="n">
         <v>1352.44</v>
       </c>
-      <c r="E591" s="9" t="n">
+      <c r="E591" t="n">
         <v>3189.91</v>
       </c>
-      <c r="F591" s="9" t="n">
+      <c r="F591" t="n">
         <v>807.1900000000001</v>
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="8" t="inlineStr">
+      <c r="A592" s="11" t="inlineStr">
         <is>
           <t>2025-08-13</t>
         </is>
@@ -26253,15 +25851,15 @@
       <c r="D592" t="n">
         <v>1358.57</v>
       </c>
-      <c r="E592" s="9" t="n">
+      <c r="E592" t="n">
         <v>3224.37</v>
       </c>
-      <c r="F592" s="9" t="n">
+      <c r="F592" t="n">
         <v>814.1</v>
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="8" t="inlineStr">
+      <c r="A593" s="11" t="inlineStr">
         <is>
           <t>2025-08-14</t>
         </is>
@@ -26275,15 +25873,15 @@
       <c r="D593" t="n">
         <v>1344.72</v>
       </c>
-      <c r="E593" s="9" t="n">
+      <c r="E593" t="n">
         <v>3225.66</v>
       </c>
-      <c r="F593" s="9" t="n">
+      <c r="F593" t="n">
         <v>815.26</v>
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="8" t="inlineStr">
+      <c r="A594" s="11" t="inlineStr">
         <is>
           <t>2025-08-18</t>
         </is>
@@ -26297,15 +25895,15 @@
       <c r="D594" t="n">
         <v>1338.03</v>
       </c>
-      <c r="E594" s="9" t="n">
+      <c r="E594" t="n">
         <v>3177.28</v>
       </c>
-      <c r="F594" s="9" t="n">
+      <c r="F594" t="n">
         <v>798.05</v>
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="8" t="inlineStr">
+      <c r="A595" s="11" t="inlineStr">
         <is>
           <t>2025-08-19</t>
         </is>
@@ -26319,15 +25917,15 @@
       <c r="D595" t="n">
         <v>1319.03</v>
       </c>
-      <c r="E595" s="9" t="n">
+      <c r="E595" t="n">
         <v>3151.56</v>
       </c>
-      <c r="F595" s="9" t="n">
+      <c r="F595" t="n">
         <v>787.96</v>
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="8" t="inlineStr">
+      <c r="A596" s="11" t="inlineStr">
         <is>
           <t>2025-08-20</t>
         </is>
@@ -26341,15 +25939,15 @@
       <c r="D596" t="n">
         <v>1306.94</v>
       </c>
-      <c r="E596" s="9" t="n">
+      <c r="E596" t="n">
         <v>3130.09</v>
       </c>
-      <c r="F596" s="9" t="n">
+      <c r="F596" t="n">
         <v>777.61</v>
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="8" t="inlineStr">
+      <c r="A597" s="11" t="inlineStr">
         <is>
           <t>2025-08-21</t>
         </is>
@@ -26363,15 +25961,15 @@
       <c r="D597" t="n">
         <v>1309.45</v>
       </c>
-      <c r="E597" s="9" t="n">
+      <c r="E597" t="n">
         <v>3141.74</v>
       </c>
-      <c r="F597" s="9" t="n">
+      <c r="F597" t="n">
         <v>777.24</v>
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="8" t="inlineStr">
+      <c r="A598" s="11" t="inlineStr">
         <is>
           <t>2025-08-22</t>
         </is>
@@ -26385,15 +25983,15 @@
       <c r="D598" t="n">
         <v>1318.41</v>
       </c>
-      <c r="E598" s="9" t="n">
+      <c r="E598" t="n">
         <v>3168.73</v>
       </c>
-      <c r="F598" s="9" t="n">
+      <c r="F598" t="n">
         <v>782.51</v>
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="8" t="inlineStr">
+      <c r="A599" s="11" t="inlineStr">
         <is>
           <t>2025-08-25</t>
         </is>
@@ -26407,15 +26005,15 @@
       <c r="D599" t="n">
         <v>1332.43</v>
       </c>
-      <c r="E599" s="9" t="n">
+      <c r="E599" t="n">
         <v>3209.86</v>
       </c>
-      <c r="F599" s="9" t="n">
+      <c r="F599" t="n">
         <v>798.02</v>
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="8" t="inlineStr">
+      <c r="A600" s="11" t="inlineStr">
         <is>
           <t>2025-08-26</t>
         </is>
@@ -26429,15 +26027,15 @@
       <c r="D600" t="n">
         <v>1335.05</v>
       </c>
-      <c r="E600" s="9" t="n">
+      <c r="E600" t="n">
         <v>3179.36</v>
       </c>
-      <c r="F600" s="9" t="n">
+      <c r="F600" t="n">
         <v>801.66</v>
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="8" t="inlineStr">
+      <c r="A601" s="11" t="inlineStr">
         <is>
           <t>2025-08-27</t>
         </is>
@@ -26451,15 +26049,15 @@
       <c r="D601" t="n">
         <v>1330.54</v>
       </c>
-      <c r="E601" s="9" t="n">
+      <c r="E601" t="n">
         <v>3187.16</v>
       </c>
-      <c r="F601" s="9" t="n">
+      <c r="F601" t="n">
         <v>801.72</v>
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="8" t="inlineStr">
+      <c r="A602" s="11" t="inlineStr">
         <is>
           <t>2025-08-28</t>
         </is>
@@ -26473,15 +26071,15 @@
       <c r="D602" t="n">
         <v>1329.25</v>
       </c>
-      <c r="E602" s="9" t="n">
+      <c r="E602" t="n">
         <v>3196.32</v>
       </c>
-      <c r="F602" s="9" t="n">
+      <c r="F602" t="n">
         <v>798.4299999999999</v>
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="8" t="inlineStr">
+      <c r="A603" s="11" t="inlineStr">
         <is>
           <t>2025-08-29</t>
         </is>
@@ -26495,15 +26093,15 @@
       <c r="D603" t="n">
         <v>1325.35</v>
       </c>
-      <c r="E603" s="9" t="n">
+      <c r="E603" t="n">
         <v>3186.01</v>
       </c>
-      <c r="F603" s="9" t="n">
+      <c r="F603" t="n">
         <v>796.91</v>
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="8" t="inlineStr">
+      <c r="A604" s="11" t="inlineStr">
         <is>
           <t>2025-09-01</t>
         </is>
@@ -26517,15 +26115,15 @@
       <c r="D604" t="n">
         <v>1318.45</v>
       </c>
-      <c r="E604" s="9" t="n">
+      <c r="E604" t="n">
         <v>3142.93</v>
       </c>
-      <c r="F604" s="9" t="n">
+      <c r="F604" t="n">
         <v>785</v>
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="8" t="inlineStr">
+      <c r="A605" s="11" t="inlineStr">
         <is>
           <t>2025-09-02</t>
         </is>
@@ -26539,15 +26137,15 @@
       <c r="D605" t="n">
         <v>1317.76</v>
       </c>
-      <c r="E605" s="9" t="n">
+      <c r="E605" t="n">
         <v>3172.35</v>
       </c>
-      <c r="F605" s="9" t="n">
+      <c r="F605" t="n">
         <v>794</v>
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="8" t="inlineStr">
+      <c r="A606" s="11" t="inlineStr">
         <is>
           <t>2025-09-03</t>
         </is>
@@ -26561,15 +26159,15 @@
       <c r="D606" t="n">
         <v>1318.1</v>
       </c>
-      <c r="E606" s="9" t="n">
+      <c r="E606" t="n">
         <v>3184.42</v>
       </c>
-      <c r="F606" s="9" t="n">
+      <c r="F606" t="n">
         <v>796.8099999999999</v>
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="8" t="inlineStr">
+      <c r="A607" s="11" t="inlineStr">
         <is>
           <t>2025-09-04</t>
         </is>
@@ -26583,15 +26181,15 @@
       <c r="D607" t="n">
         <v>1324.77</v>
       </c>
-      <c r="E607" s="9" t="n">
+      <c r="E607" t="n">
         <v>3200.83</v>
       </c>
-      <c r="F607" s="9" t="n">
+      <c r="F607" t="n">
         <v>805.42</v>
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="8" t="inlineStr">
+      <c r="A608" s="11" t="inlineStr">
         <is>
           <t>2025-09-05</t>
         </is>
@@ -26605,15 +26203,15 @@
       <c r="D608" t="n">
         <v>1333.37</v>
       </c>
-      <c r="E608" s="9" t="n">
+      <c r="E608" t="n">
         <v>3205.12</v>
       </c>
-      <c r="F608" s="9" t="n">
+      <c r="F608" t="n">
         <v>811.4</v>
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="8" t="inlineStr">
+      <c r="A609" s="11" t="inlineStr">
         <is>
           <t>2025-09-08</t>
         </is>
@@ -26627,15 +26225,15 @@
       <c r="D609" t="n">
         <v>1343.85</v>
       </c>
-      <c r="E609" s="9" t="n">
+      <c r="E609" t="n">
         <v>3219.59</v>
       </c>
-      <c r="F609" s="9" t="n">
+      <c r="F609" t="n">
         <v>818.6</v>
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="8" t="inlineStr">
+      <c r="A610" s="11" t="inlineStr">
         <is>
           <t>2025-09-09</t>
         </is>
@@ -26649,15 +26247,15 @@
       <c r="D610" t="n">
         <v>1346.81</v>
       </c>
-      <c r="E610" s="9" t="n">
+      <c r="E610" t="n">
         <v>3260.05</v>
       </c>
-      <c r="F610" s="9" t="n">
+      <c r="F610" t="n">
         <v>824.8200000000001</v>
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="8" t="inlineStr">
+      <c r="A611" s="11" t="inlineStr">
         <is>
           <t>2025-09-10</t>
         </is>
@@ -26671,15 +26269,15 @@
       <c r="D611" t="n">
         <v>1351.49</v>
       </c>
-      <c r="E611" s="9" t="n">
+      <c r="E611" t="n">
         <v>3314.53</v>
       </c>
-      <c r="F611" s="9" t="n">
+      <c r="F611" t="n">
         <v>833</v>
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="8" t="inlineStr">
+      <c r="A612" s="11" t="inlineStr">
         <is>
           <t>2025-09-11</t>
         </is>
@@ -26693,15 +26291,15 @@
       <c r="D612" t="n">
         <v>1356.56</v>
       </c>
-      <c r="E612" s="9" t="n">
+      <c r="E612" t="n">
         <v>3344.2</v>
       </c>
-      <c r="F612" s="9" t="n">
+      <c r="F612" t="n">
         <v>834.76</v>
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="8" t="inlineStr">
+      <c r="A613" s="11" t="inlineStr">
         <is>
           <t>2025-09-12</t>
         </is>
@@ -26715,15 +26313,15 @@
       <c r="D613" t="n">
         <v>1370.58</v>
       </c>
-      <c r="E613" s="9" t="n">
+      <c r="E613" t="n">
         <v>3395.54</v>
       </c>
-      <c r="F613" s="9" t="n">
+      <c r="F613" t="n">
         <v>847.08</v>
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="8" t="inlineStr">
+      <c r="A614" s="11" t="inlineStr">
         <is>
           <t>2025-09-15</t>
         </is>
@@ -26737,15 +26335,15 @@
       <c r="D614" t="n">
         <v>1381.23</v>
       </c>
-      <c r="E614" s="9" t="n">
+      <c r="E614" t="n">
         <v>3407.31</v>
       </c>
-      <c r="F614" s="9" t="n">
+      <c r="F614" t="n">
         <v>852.6900000000001</v>
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="8" t="inlineStr">
+      <c r="A615" s="11" t="inlineStr">
         <is>
           <t>2025-09-16</t>
         </is>
@@ -26759,15 +26357,15 @@
       <c r="D615" t="n">
         <v>1390.5</v>
       </c>
-      <c r="E615" s="9" t="n">
+      <c r="E615" t="n">
         <v>3449.62</v>
       </c>
-      <c r="F615" s="9" t="n">
+      <c r="F615" t="n">
         <v>851.84</v>
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="8" t="inlineStr">
+      <c r="A616" s="11" t="inlineStr">
         <is>
           <t>2025-09-17</t>
         </is>
@@ -26781,15 +26379,15 @@
       <c r="D616" t="n">
         <v>1386</v>
       </c>
-      <c r="E616" s="9" t="n">
+      <c r="E616" t="n">
         <v>3413.4</v>
       </c>
-      <c r="F616" s="9" t="n">
+      <c r="F616" t="n">
         <v>845.53</v>
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="8" t="inlineStr">
+      <c r="A617" s="11" t="inlineStr">
         <is>
           <t>2025-09-18</t>
         </is>
@@ -26803,15 +26401,15 @@
       <c r="D617" t="n">
         <v>1404.7</v>
       </c>
-      <c r="E617" s="9" t="n">
+      <c r="E617" t="n">
         <v>3461.3</v>
       </c>
-      <c r="F617" s="9" t="n">
+      <c r="F617" t="n">
         <v>857.11</v>
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="8" t="inlineStr">
+      <c r="A618" s="11" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
@@ -26825,15 +26423,15 @@
       <c r="D618" t="n">
         <v>1404.69</v>
       </c>
-      <c r="E618" s="9" t="n">
+      <c r="E618" t="n">
         <v>3445.24</v>
       </c>
-      <c r="F618" s="9" t="n">
+      <c r="F618" t="n">
         <v>863.11</v>
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="8" t="inlineStr">
+      <c r="A619" s="11" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
@@ -26847,15 +26445,15 @@
       <c r="D619" t="n">
         <v>1421.71</v>
       </c>
-      <c r="E619" s="9" t="n">
+      <c r="E619" t="n">
         <v>3468.65</v>
       </c>
-      <c r="F619" s="9" t="n">
+      <c r="F619" t="n">
         <v>874.36</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="8" t="inlineStr">
+      <c r="A620" s="11" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
@@ -26869,15 +26467,15 @@
       <c r="D620" t="n">
         <v>1410.74</v>
       </c>
-      <c r="E620" s="9" t="n">
+      <c r="E620" t="n">
         <v>3486.19</v>
       </c>
-      <c r="F620" s="9" t="n">
+      <c r="F620" t="n">
         <v>872.21</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="8" t="inlineStr">
+      <c r="A621" s="11" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -26891,15 +26489,15 @@
       <c r="D621" t="n">
         <v>1396.02</v>
       </c>
-      <c r="E621" s="9" t="n">
+      <c r="E621" t="n">
         <v>3472.14</v>
       </c>
-      <c r="F621" s="9" t="n">
+      <c r="F621" t="n">
         <v>860.9400000000001</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="8" t="inlineStr">
+      <c r="A622" s="11" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -26913,15 +26511,15 @@
       <c r="D622" t="n">
         <v>1370.12</v>
       </c>
-      <c r="E622" s="9" t="n">
+      <c r="E622" t="n">
         <v>3471.11</v>
       </c>
-      <c r="F622" s="9" t="n">
+      <c r="F622" t="n">
         <v>852.48</v>
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="8" t="inlineStr">
+      <c r="A623" s="11" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
@@ -26935,15 +26533,15 @@
       <c r="D623" t="n">
         <v>1359.86</v>
       </c>
-      <c r="E623" s="9" t="n">
+      <c r="E623" t="n">
         <v>3386.05</v>
       </c>
-      <c r="F623" s="9" t="n">
+      <c r="F623" t="n">
         <v>835.1900000000001</v>
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="8" t="inlineStr">
+      <c r="A624" s="11" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -26957,15 +26555,15 @@
       <c r="D624" t="n">
         <v>1372.11</v>
       </c>
-      <c r="E624" s="9" t="n">
+      <c r="E624" t="n">
         <v>3431.21</v>
       </c>
-      <c r="F624" s="9" t="n">
+      <c r="F624" t="n">
         <v>846.71</v>
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="8" t="inlineStr">
+      <c r="A625" s="11" t="inlineStr">
         <is>
           <t>2025-09-30</t>
         </is>
@@ -26979,15 +26577,15 @@
       <c r="D625" t="n">
         <v>1364.36</v>
       </c>
-      <c r="E625" s="9" t="n">
+      <c r="E625" t="n">
         <v>3424.6</v>
       </c>
-      <c r="F625" s="9" t="n">
+      <c r="F625" t="n">
         <v>841.99</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="8" t="inlineStr">
+      <c r="A626" s="11" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
@@ -27001,15 +26599,15 @@
       <c r="D626" t="n">
         <v>1378.75</v>
       </c>
-      <c r="E626" s="9" t="n">
+      <c r="E626" t="n">
         <v>3455.83</v>
       </c>
-      <c r="F626" s="9" t="n">
+      <c r="F626" t="n">
         <v>845.34</v>
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="8" t="inlineStr">
+      <c r="A627" s="11" t="inlineStr">
         <is>
           <t>2025-10-02</t>
         </is>
@@ -27023,15 +26621,15 @@
       <c r="D627" t="n">
         <v>1386.66</v>
       </c>
-      <c r="E627" s="9" t="n">
+      <c r="E627" t="n">
         <v>3549.21</v>
       </c>
-      <c r="F627" s="9" t="n">
+      <c r="F627" t="n">
         <v>854.25</v>
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="8" t="inlineStr">
+      <c r="A628" s="11" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
@@ -27045,15 +26643,15 @@
       <c r="D628" t="n">
         <v>1408.03</v>
       </c>
-      <c r="E628" s="9" t="n">
+      <c r="E628" t="n">
         <v>3610.6</v>
       </c>
-      <c r="F628" s="9" t="n">
+      <c r="F628" t="n">
         <v>859.49</v>
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="8" t="inlineStr">
+      <c r="A629" s="11" t="inlineStr">
         <is>
           <t>2025-10-13</t>
         </is>
@@ -27067,15 +26665,15 @@
       <c r="D629" t="n">
         <v>1416.16</v>
       </c>
-      <c r="E629" s="9" t="n">
+      <c r="E629" t="n">
         <v>3584.55</v>
       </c>
-      <c r="F629" s="9" t="n">
+      <c r="F629" t="n">
         <v>860.49</v>
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="8" t="inlineStr">
+      <c r="A630" s="11" t="inlineStr">
         <is>
           <t>2025-10-14</t>
         </is>
@@ -27089,15 +26687,15 @@
       <c r="D630" t="n">
         <v>1397.86</v>
       </c>
-      <c r="E630" s="9" t="n">
+      <c r="E630" t="n">
         <v>3561.81</v>
       </c>
-      <c r="F630" s="9" t="n">
+      <c r="F630" t="n">
         <v>847.96</v>
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="8" t="inlineStr">
+      <c r="A631" s="11" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
@@ -27111,15 +26709,15 @@
       <c r="D631" t="n">
         <v>1431.16</v>
       </c>
-      <c r="E631" s="9" t="n">
+      <c r="E631" t="n">
         <v>3657.28</v>
       </c>
-      <c r="F631" s="9" t="n">
+      <c r="F631" t="n">
         <v>864.72</v>
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="8" t="inlineStr">
+      <c r="A632" s="11" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
@@ -27133,15 +26731,15 @@
       <c r="D632" t="n">
         <v>1440.88</v>
       </c>
-      <c r="E632" s="9" t="n">
+      <c r="E632" t="n">
         <v>3748.37</v>
       </c>
-      <c r="F632" s="9" t="n">
+      <c r="F632" t="n">
         <v>865.41</v>
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="8" t="inlineStr">
+      <c r="A633" s="11" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
@@ -27155,15 +26753,15 @@
       <c r="D633" t="n">
         <v>1423.61</v>
       </c>
-      <c r="E633" s="9" t="n">
+      <c r="E633" t="n">
         <v>3748.89</v>
       </c>
-      <c r="F633" s="9" t="n">
+      <c r="F633" t="n">
         <v>859.54</v>
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="8" t="inlineStr">
+      <c r="A634" s="11" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
@@ -27177,15 +26775,15 @@
       <c r="D634" t="n">
         <v>1440.53</v>
       </c>
-      <c r="E634" s="9" t="n">
+      <c r="E634" t="n">
         <v>3814.69</v>
       </c>
-      <c r="F634" s="9" t="n">
+      <c r="F634" t="n">
         <v>875.77</v>
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="8" t="inlineStr">
+      <c r="A635" s="11" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
@@ -27199,15 +26797,15 @@
       <c r="D635" t="n">
         <v>1432.16</v>
       </c>
-      <c r="E635" s="9" t="n">
+      <c r="E635" t="n">
         <v>3823.84</v>
       </c>
-      <c r="F635" s="9" t="n">
+      <c r="F635" t="n">
         <v>872.5</v>
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="8" t="inlineStr">
+      <c r="A636" s="11" t="inlineStr">
         <is>
           <t>2025-10-22</t>
         </is>
@@ -27221,15 +26819,15 @@
       <c r="D636" t="n">
         <v>1436.84</v>
       </c>
-      <c r="E636" s="9" t="n">
+      <c r="E636" t="n">
         <v>3883.68</v>
       </c>
-      <c r="F636" s="9" t="n">
+      <c r="F636" t="n">
         <v>879.15</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="8" t="inlineStr">
+      <c r="A637" s="11" t="inlineStr">
         <is>
           <t>2025-10-23</t>
         </is>
@@ -27243,15 +26841,15 @@
       <c r="D637" t="n">
         <v>1427.27</v>
       </c>
-      <c r="E637" s="9" t="n">
+      <c r="E637" t="n">
         <v>3845.56</v>
       </c>
-      <c r="F637" s="9" t="n">
+      <c r="F637" t="n">
         <v>872.03</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="8" t="inlineStr">
+      <c r="A638" s="11" t="inlineStr">
         <is>
           <t>2025-10-24</t>
         </is>
@@ -27265,15 +26863,15 @@
       <c r="D638" t="n">
         <v>1445.17</v>
       </c>
-      <c r="E638" s="9" t="n">
+      <c r="E638" t="n">
         <v>3941.59</v>
       </c>
-      <c r="F638" s="9" t="n">
+      <c r="F638" t="n">
         <v>883.08</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="8" t="inlineStr">
+      <c r="A639" s="11" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
@@ -27287,15 +26885,15 @@
       <c r="D639" t="n">
         <v>1480.78</v>
       </c>
-      <c r="E639" s="9" t="n">
+      <c r="E639" t="n">
         <v>4042.83</v>
       </c>
-      <c r="F639" s="9" t="n">
+      <c r="F639" t="n">
         <v>902.7</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="8" t="inlineStr">
+      <c r="A640" s="11" t="inlineStr">
         <is>
           <t>2025-10-28</t>
         </is>
@@ -27309,15 +26907,15 @@
       <c r="D640" t="n">
         <v>1474.7</v>
       </c>
-      <c r="E640" s="9" t="n">
+      <c r="E640" t="n">
         <v>4010.41</v>
       </c>
-      <c r="F640" s="9" t="n">
+      <c r="F640" t="n">
         <v>903.3</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="8" t="inlineStr">
+      <c r="A641" s="11" t="inlineStr">
         <is>
           <t>2025-10-29</t>
         </is>
@@ -27331,15 +26929,15 @@
       <c r="D641" t="n">
         <v>1499.5</v>
       </c>
-      <c r="E641" s="9" t="n">
+      <c r="E641" t="n">
         <v>4081.15</v>
       </c>
-      <c r="F641" s="9" t="n">
+      <c r="F641" t="n">
         <v>901.59</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="8" t="inlineStr">
+      <c r="A642" s="11" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
@@ -27353,15 +26951,15 @@
       <c r="D642" t="n">
         <v>1516.24</v>
       </c>
-      <c r="E642" s="9" t="n">
+      <c r="E642" t="n">
         <v>4086.89</v>
       </c>
-      <c r="F642" s="9" t="n">
+      <c r="F642" t="n">
         <v>890.86</v>
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="8" t="inlineStr">
+      <c r="A643" s="11" t="inlineStr">
         <is>
           <t>2025-10-31</t>
         </is>
@@ -27375,15 +26973,15 @@
       <c r="D643" t="n">
         <v>1544.78</v>
       </c>
-      <c r="E643" s="9" t="n">
+      <c r="E643" t="n">
         <v>4107.5</v>
       </c>
-      <c r="F643" s="9" t="n">
+      <c r="F643" t="n">
         <v>900.42</v>
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="8" t="inlineStr">
+      <c r="A644" s="11" t="inlineStr">
         <is>
           <t>2025-11-03</t>
         </is>
@@ -27397,15 +26995,15 @@
       <c r="D644" t="n">
         <v>1592</v>
       </c>
-      <c r="E644" s="9" t="n">
+      <c r="E644" t="n">
         <v>4221.87</v>
       </c>
-      <c r="F644" s="9" t="n">
+      <c r="F644" t="n">
         <v>914.55</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="8" t="inlineStr">
+      <c r="A645" s="11" t="inlineStr">
         <is>
           <t>2025-11-04</t>
         </is>
@@ -27419,15 +27017,15 @@
       <c r="D645" t="n">
         <v>1568.65</v>
       </c>
-      <c r="E645" s="9" t="n">
+      <c r="E645" t="n">
         <v>4121.74</v>
       </c>
-      <c r="F645" s="9" t="n">
+      <c r="F645" t="n">
         <v>926.5700000000001</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="8" t="inlineStr">
+      <c r="A646" s="11" t="inlineStr">
         <is>
           <t>2025-11-05</t>
         </is>
@@ -27441,15 +27039,15 @@
       <c r="D646" t="n">
         <v>1520.56</v>
       </c>
-      <c r="E646" s="9" t="n">
+      <c r="E646" t="n">
         <v>4004.42</v>
       </c>
-      <c r="F646" s="9" t="n">
+      <c r="F646" t="n">
         <v>901.89</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="8" t="inlineStr">
+      <c r="A647" s="11" t="inlineStr">
         <is>
           <t>2025-11-06</t>
         </is>
@@ -27463,15 +27061,15 @@
       <c r="D647" t="n">
         <v>1496.59</v>
       </c>
-      <c r="E647" s="9" t="n">
+      <c r="E647" t="n">
         <v>4026.45</v>
       </c>
-      <c r="F647" s="9" t="n">
+      <c r="F647" t="n">
         <v>898.17</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="8" t="inlineStr">
+      <c r="A648" s="11" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
@@ -27485,15 +27083,15 @@
       <c r="D648" t="n">
         <v>1467.11</v>
       </c>
-      <c r="E648" s="9" t="n">
+      <c r="E648" t="n">
         <v>3953.76</v>
       </c>
-      <c r="F648" s="9" t="n">
+      <c r="F648" t="n">
         <v>876.8099999999999</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="8" t="inlineStr">
+      <c r="A649" s="11" t="inlineStr">
         <is>
           <t>2025-11-10</t>
         </is>
@@ -27507,15 +27105,15 @@
       <c r="D649" t="n">
         <v>1492.2</v>
       </c>
-      <c r="E649" s="9" t="n">
+      <c r="E649" t="n">
         <v>4073.24</v>
       </c>
-      <c r="F649" s="9" t="n">
+      <c r="F649" t="n">
         <v>888.35</v>
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="8" t="inlineStr">
+      <c r="A650" s="11" t="inlineStr">
         <is>
           <t>2025-11-11</t>
         </is>
@@ -27529,15 +27127,15 @@
       <c r="D650" t="n">
         <v>1484.57</v>
       </c>
-      <c r="E650" s="9" t="n">
+      <c r="E650" t="n">
         <v>4106.39</v>
       </c>
-      <c r="F650" s="9" t="n">
+      <c r="F650" t="n">
         <v>884.27</v>
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="8" t="inlineStr">
+      <c r="A651" s="11" t="inlineStr">
         <is>
           <t>2025-11-12</t>
         </is>
@@ -27551,15 +27149,15 @@
       <c r="D651" t="n">
         <v>1492.65</v>
       </c>
-      <c r="E651" s="9" t="n">
+      <c r="E651" t="n">
         <v>4150.39</v>
       </c>
-      <c r="F651" s="9" t="n">
+      <c r="F651" t="n">
         <v>906.51</v>
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="8" t="inlineStr">
+      <c r="A652" s="11" t="inlineStr">
         <is>
           <t>2025-11-13</t>
         </is>
@@ -27573,15 +27171,15 @@
       <c r="D652" t="n">
         <v>1512.59</v>
       </c>
-      <c r="E652" s="9" t="n">
+      <c r="E652" t="n">
         <v>4170.63</v>
       </c>
-      <c r="F652" s="9" t="n">
+      <c r="F652" t="n">
         <v>918.37</v>
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="8" t="inlineStr">
+      <c r="A653" s="11" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
@@ -27595,15 +27193,15 @@
       <c r="D653" t="n">
         <v>1453.03</v>
       </c>
-      <c r="E653" s="9" t="n">
+      <c r="E653" t="n">
         <v>4011.57</v>
       </c>
-      <c r="F653" s="9" t="n">
+      <c r="F653" t="n">
         <v>897.9</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="8" t="inlineStr">
+      <c r="A654" s="11" t="inlineStr">
         <is>
           <t>2025-11-17</t>
         </is>
@@ -27617,15 +27215,15 @@
       <c r="D654" t="n">
         <v>1483.78</v>
       </c>
-      <c r="E654" s="9" t="n">
+      <c r="E654" t="n">
         <v>4089.25</v>
       </c>
-      <c r="F654" s="9" t="n">
+      <c r="F654" t="n">
         <v>902.67</v>
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="8" t="inlineStr">
+      <c r="A655" s="11" t="inlineStr">
         <is>
           <t>2025-11-18</t>
         </is>
@@ -27639,15 +27237,15 @@
       <c r="D655" t="n">
         <v>1447.9</v>
       </c>
-      <c r="E655" s="9" t="n">
+      <c r="E655" t="n">
         <v>3953.62</v>
       </c>
-      <c r="F655" s="9" t="n">
+      <c r="F655" t="n">
         <v>878.7</v>
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="8" t="inlineStr">
+      <c r="A656" s="11" t="inlineStr">
         <is>
           <t>2025-11-19</t>
         </is>
@@ -27661,15 +27259,15 @@
       <c r="D656" t="n">
         <v>1425.43</v>
       </c>
-      <c r="E656" s="9" t="n">
+      <c r="E656" t="n">
         <v>3929.51</v>
       </c>
-      <c r="F656" s="9" t="n">
+      <c r="F656" t="n">
         <v>871.3200000000001</v>
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="8" t="inlineStr">
+      <c r="A657" s="11" t="inlineStr">
         <is>
           <t>2025-11-20</t>
         </is>
@@ -27683,15 +27281,15 @@
       <c r="D657" t="n">
         <v>1468.44</v>
       </c>
-      <c r="E657" s="9" t="n">
+      <c r="E657" t="n">
         <v>4004.85</v>
       </c>
-      <c r="F657" s="9" t="n">
+      <c r="F657" t="n">
         <v>891.9400000000001</v>
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="8" t="inlineStr">
+      <c r="A658" s="11" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
@@ -27705,15 +27303,15 @@
       <c r="D658" t="n">
         <v>1413.84</v>
       </c>
-      <c r="E658" s="9" t="n">
+      <c r="E658" t="n">
         <v>3853.26</v>
       </c>
-      <c r="F658" s="9" t="n">
+      <c r="F658" t="n">
         <v>863.95</v>
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="8" t="inlineStr">
+      <c r="A659" s="11" t="inlineStr">
         <is>
           <t>2025-11-24</t>
         </is>
@@ -27727,15 +27325,15 @@
       <c r="D659" t="n">
         <v>1415.38</v>
       </c>
-      <c r="E659" s="9" t="n">
+      <c r="E659" t="n">
         <v>3846.06</v>
       </c>
-      <c r="F659" s="9" t="n">
+      <c r="F659" t="n">
         <v>856.4400000000001</v>
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="8" t="inlineStr">
+      <c r="A660" s="11" t="inlineStr">
         <is>
           <t>2025-11-25</t>
         </is>
@@ -27749,15 +27347,15 @@
       <c r="D660" t="n">
         <v>1409.28</v>
       </c>
-      <c r="E660" s="9" t="n">
+      <c r="E660" t="n">
         <v>3857.78</v>
       </c>
-      <c r="F660" s="9" t="n">
+      <c r="F660" t="n">
         <v>856.03</v>
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="8" t="inlineStr">
+      <c r="A661" s="11" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
@@ -27771,15 +27369,15 @@
       <c r="D661" t="n">
         <v>1447.77</v>
       </c>
-      <c r="E661" s="9" t="n">
+      <c r="E661" t="n">
         <v>3960.87</v>
       </c>
-      <c r="F661" s="9" t="n">
+      <c r="F661" t="n">
         <v>877.3200000000001</v>
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="8" t="inlineStr">
+      <c r="A662" s="11" t="inlineStr">
         <is>
           <t>2025-11-27</t>
         </is>
@@ -27793,15 +27391,15 @@
       <c r="D662" t="n">
         <v>1473.49</v>
       </c>
-      <c r="E662" s="9" t="n">
+      <c r="E662" t="n">
         <v>3986.91</v>
       </c>
-      <c r="F662" s="9" t="n">
+      <c r="F662" t="n">
         <v>880.0599999999999</v>
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="8" t="inlineStr">
+      <c r="A663" s="11" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
@@ -27815,15 +27413,15 @@
       <c r="D663" t="n">
         <v>1454.96</v>
       </c>
-      <c r="E663" s="9" t="n">
+      <c r="E663" t="n">
         <v>3926.59</v>
       </c>
-      <c r="F663" s="9" t="n">
+      <c r="F663" t="n">
         <v>912.67</v>
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="8" t="inlineStr">
+      <c r="A664" s="11" t="inlineStr">
         <is>
           <t>2025-12-01</t>
         </is>
@@ -27837,15 +27435,15 @@
       <c r="D664" t="n">
         <v>1434.98</v>
       </c>
-      <c r="E664" s="9" t="n">
+      <c r="E664" t="n">
         <v>3920.37</v>
       </c>
-      <c r="F664" s="9" t="n">
+      <c r="F664" t="n">
         <v>922.38</v>
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="8" t="inlineStr">
+      <c r="A665" s="11" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
@@ -27859,15 +27457,15 @@
       <c r="D665" t="n">
         <v>1455.56</v>
       </c>
-      <c r="E665" s="9" t="n">
+      <c r="E665" t="n">
         <v>3994.93</v>
       </c>
-      <c r="F665" s="9" t="n">
+      <c r="F665" t="n">
         <v>928.42</v>
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="8" t="inlineStr">
+      <c r="A666" s="11" t="inlineStr">
         <is>
           <t>2025-12-03</t>
         </is>
@@ -27881,15 +27479,15 @@
       <c r="D666" t="n">
         <v>1469.26</v>
       </c>
-      <c r="E666" s="9" t="n">
+      <c r="E666" t="n">
         <v>4036.3</v>
       </c>
-      <c r="F666" s="9" t="n">
+      <c r="F666" t="n">
         <v>932.01</v>
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="8" t="inlineStr">
+      <c r="A667" s="11" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
@@ -27903,15 +27501,15 @@
       <c r="D667" t="n">
         <v>1465.77</v>
       </c>
-      <c r="E667" s="9" t="n">
+      <c r="E667" t="n">
         <v>4028.51</v>
       </c>
-      <c r="F667" s="9" t="n">
+      <c r="F667" t="n">
         <v>929.83</v>
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="8" t="inlineStr">
+      <c r="A668" s="11" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
@@ -27925,15 +27523,15 @@
       <c r="D668" t="n">
         <v>1469.82</v>
       </c>
-      <c r="E668" s="9" t="n">
+      <c r="E668" t="n">
         <v>4100.05</v>
       </c>
-      <c r="F668" s="9" t="n">
+      <c r="F668" t="n">
         <v>924.74</v>
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="8" t="inlineStr">
+      <c r="A669" s="11" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
@@ -27947,15 +27545,15 @@
       <c r="D669" t="n">
         <v>1471.32</v>
       </c>
-      <c r="E669" s="9" t="n">
+      <c r="E669" t="n">
         <v>4154.85</v>
       </c>
-      <c r="F669" s="9" t="n">
+      <c r="F669" t="n">
         <v>927.79</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="8" t="inlineStr">
+      <c r="A670" s="11" t="inlineStr">
         <is>
           <t>2025-12-09</t>
         </is>
@@ -27969,15 +27567,15 @@
       <c r="D670" t="n">
         <v>1462.4</v>
       </c>
-      <c r="E670" s="9" t="n">
+      <c r="E670" t="n">
         <v>4143.55</v>
       </c>
-      <c r="F670" s="9" t="n">
+      <c r="F670" t="n">
         <v>931.35</v>
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="8" t="inlineStr">
+      <c r="A671" s="11" t="inlineStr">
         <is>
           <t>2025-12-10</t>
         </is>
@@ -27991,15 +27589,15 @@
       <c r="D671" t="n">
         <v>1467.54</v>
       </c>
-      <c r="E671" s="9" t="n">
+      <c r="E671" t="n">
         <v>4135</v>
       </c>
-      <c r="F671" s="9" t="n">
+      <c r="F671" t="n">
         <v>935</v>
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="8" t="inlineStr">
+      <c r="A672" s="11" t="inlineStr">
         <is>
           <t>2025-12-11</t>
         </is>
@@ -28013,15 +27611,15 @@
       <c r="D672" t="n">
         <v>1450.07</v>
       </c>
-      <c r="E672" s="9" t="n">
+      <c r="E672" t="n">
         <v>4110.62</v>
       </c>
-      <c r="F672" s="9" t="n">
+      <c r="F672" t="n">
         <v>934.64</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="8" t="inlineStr">
+      <c r="A673" s="11" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
@@ -28035,15 +27633,15 @@
       <c r="D673" t="n">
         <v>1467.3</v>
       </c>
-      <c r="E673" s="9" t="n">
+      <c r="E673" t="n">
         <v>4167.16</v>
       </c>
-      <c r="F673" s="9" t="n">
+      <c r="F673" t="n">
         <v>937.34</v>
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="8" t="inlineStr">
+      <c r="A674" s="11" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
@@ -28057,15 +27655,15 @@
       <c r="D674" t="n">
         <v>1434.31</v>
       </c>
-      <c r="E674" s="9" t="n">
+      <c r="E674" t="n">
         <v>4090.59</v>
       </c>
-      <c r="F674" s="9" t="n">
+      <c r="F674" t="n">
         <v>938.83</v>
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="8" t="inlineStr">
+      <c r="A675" s="11" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
@@ -28079,15 +27677,15 @@
       <c r="D675" t="n">
         <v>1411.73</v>
       </c>
-      <c r="E675" s="9" t="n">
+      <c r="E675" t="n">
         <v>3999.13</v>
       </c>
-      <c r="F675" s="9" t="n">
+      <c r="F675" t="n">
         <v>916.11</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="8" t="inlineStr">
+      <c r="A676" s="11" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
@@ -28101,15 +27699,15 @@
       <c r="D676" t="n">
         <v>1439.38</v>
       </c>
-      <c r="E676" s="9" t="n">
+      <c r="E676" t="n">
         <v>4056.41</v>
       </c>
-      <c r="F676" s="9" t="n">
+      <c r="F676" t="n">
         <v>911.0700000000001</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="8" t="inlineStr">
+      <c r="A677" s="11" t="inlineStr">
         <is>
           <t>2025-12-18</t>
         </is>
@@ -28123,15 +27721,15 @@
       <c r="D677" t="n">
         <v>1432.6</v>
       </c>
-      <c r="E677" s="9" t="n">
+      <c r="E677" t="n">
         <v>3994.51</v>
       </c>
-      <c r="F677" s="9" t="n">
+      <c r="F677" t="n">
         <v>901.33</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="8" t="inlineStr">
+      <c r="A678" s="11" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
@@ -28145,15 +27743,15 @@
       <c r="D678" t="n">
         <v>1445.36</v>
       </c>
-      <c r="E678" s="9" t="n">
+      <c r="E678" t="n">
         <v>4020.55</v>
       </c>
-      <c r="F678" s="9" t="n">
+      <c r="F678" t="n">
         <v>915.27</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="8" t="inlineStr">
+      <c r="A679" s="11" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
@@ -28167,15 +27765,15 @@
       <c r="D679" t="n">
         <v>1478.96</v>
       </c>
-      <c r="E679" s="9" t="n">
+      <c r="E679" t="n">
         <v>4105.93</v>
       </c>
-      <c r="F679" s="9" t="n">
+      <c r="F679" t="n">
         <v>929.14</v>
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="8" t="inlineStr">
+      <c r="A680" s="11" t="inlineStr">
         <is>
           <t>2025-12-23</t>
         </is>
@@ -28189,15 +27787,15 @@
       <c r="D680" t="n">
         <v>1493.87</v>
       </c>
-      <c r="E680" s="9" t="n">
+      <c r="E680" t="n">
         <v>4117.32</v>
       </c>
-      <c r="F680" s="9" t="n">
+      <c r="F680" t="n">
         <v>919.5599999999999</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="8" t="inlineStr">
+      <c r="A681" s="11" t="inlineStr">
         <is>
           <t>2025-12-24</t>
         </is>
@@ -28211,15 +27809,15 @@
       <c r="D681" t="n">
         <v>1487.1</v>
       </c>
-      <c r="E681" s="9" t="n">
+      <c r="E681" t="n">
         <v>4108.62</v>
       </c>
-      <c r="F681" s="9" t="n">
+      <c r="F681" t="n">
         <v>915.2</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="8" t="inlineStr">
+      <c r="A682" s="11" t="inlineStr">
         <is>
           <t>2025-12-26</t>
         </is>
@@ -28233,15 +27831,15 @@
       <c r="D682" t="n">
         <v>1497.86</v>
       </c>
-      <c r="E682" s="9" t="n">
+      <c r="E682" t="n">
         <v>4129.68</v>
       </c>
-      <c r="F682" s="9" t="n">
+      <c r="F682" t="n">
         <v>919.67</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="8" t="inlineStr">
+      <c r="A683" s="11" t="inlineStr">
         <is>
           <t>2025-12-29</t>
         </is>
@@ -28255,15 +27853,15 @@
       <c r="D683" t="n">
         <v>1546.08</v>
       </c>
-      <c r="E683" s="9" t="n">
+      <c r="E683" t="n">
         <v>4220.56</v>
       </c>
-      <c r="F683" s="9" t="n">
+      <c r="F683" t="n">
         <v>932.59</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="8" t="inlineStr">
+      <c r="A684" s="11" t="inlineStr">
         <is>
           <t>2025-12-30</t>
         </is>
@@ -28277,15 +27875,15 @@
       <c r="D684" t="n">
         <v>1518.52</v>
       </c>
-      <c r="E684" s="9" t="n">
+      <c r="E684" t="n">
         <v>4214.17</v>
       </c>
-      <c r="F684" s="9" t="n">
+      <c r="F684" t="n">
         <v>925.47</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="8" t="inlineStr">
+      <c r="A685" s="11" t="inlineStr">
         <is>
           <t>2026-01-02</t>
         </is>
@@ -28299,15 +27897,15 @@
       <c r="D685" t="n">
         <v>1569.74</v>
       </c>
-      <c r="E685" s="9" t="n">
+      <c r="E685" t="n">
         <v>4309.63</v>
       </c>
-      <c r="F685" s="9" t="n">
+      <c r="F685" t="n">
         <v>945.5700000000001</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="8" t="inlineStr">
+      <c r="A686" s="11" t="inlineStr">
         <is>
           <t>2026-01-05</t>
         </is>
@@ -28321,15 +27919,15 @@
       <c r="D686" t="n">
         <v>1636.54</v>
       </c>
-      <c r="E686" s="9" t="n">
+      <c r="E686" t="n">
         <v>4457.52</v>
       </c>
-      <c r="F686" s="9" t="n">
+      <c r="F686" t="n">
         <v>957.5</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="8" t="inlineStr">
+      <c r="A687" s="11" t="inlineStr">
         <is>
           <t>2026-01-06</t>
         </is>
@@ -28343,15 +27941,15 @@
       <c r="D687" t="n">
         <v>1666.09</v>
       </c>
-      <c r="E687" s="9" t="n">
+      <c r="E687" t="n">
         <v>4525.48</v>
       </c>
-      <c r="F687" s="9" t="n">
+      <c r="F687" t="n">
         <v>955.97</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="8" t="inlineStr">
+      <c r="A688" s="11" t="inlineStr">
         <is>
           <t>2026-01-07</t>
         </is>
@@ -28365,15 +27963,15 @@
       <c r="D688" t="n">
         <v>1657.62</v>
       </c>
-      <c r="E688" s="9" t="n">
+      <c r="E688" t="n">
         <v>4551.06</v>
       </c>
-      <c r="F688" s="9" t="n">
+      <c r="F688" t="n">
         <v>947.39</v>
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="8" t="inlineStr">
+      <c r="A689" s="11" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
@@ -28387,15 +27985,15 @@
       <c r="D689" t="n">
         <v>1655.46</v>
       </c>
-      <c r="E689" s="9" t="n">
+      <c r="E689" t="n">
         <v>4552.37</v>
       </c>
-      <c r="F689" s="9" t="n">
+      <c r="F689" t="n">
         <v>944.0599999999999</v>
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="8" t="inlineStr">
+      <c r="A690" s="11" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
@@ -28409,15 +28007,15 @@
       <c r="D690" t="n">
         <v>1656.25</v>
       </c>
-      <c r="E690" s="9" t="n">
+      <c r="E690" t="n">
         <v>4586.32</v>
       </c>
-      <c r="F690" s="9" t="n">
+      <c r="F690" t="n">
         <v>947.92</v>
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="8" t="inlineStr">
+      <c r="A691" s="11" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
@@ -28431,15 +28029,15 @@
       <c r="D691" t="n">
         <v>1666.89</v>
       </c>
-      <c r="E691" s="9" t="n">
+      <c r="E691" t="n">
         <v>4624.79</v>
       </c>
-      <c r="F691" s="9" t="n">
+      <c r="F691" t="n">
         <v>949.8099999999999</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="8" t="inlineStr">
+      <c r="A692" s="11" t="inlineStr">
         <is>
           <t>2026-01-13</t>
         </is>
@@ -28453,15 +28051,15 @@
       <c r="D692" t="n">
         <v>1662.67</v>
       </c>
-      <c r="E692" s="9" t="n">
+      <c r="E692" t="n">
         <v>4692.64</v>
       </c>
-      <c r="F692" s="9" t="n">
+      <c r="F692" t="n">
         <v>948.98</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="8" t="inlineStr">
+      <c r="A693" s="11" t="inlineStr">
         <is>
           <t>2026-01-14</t>
         </is>
@@ -28475,15 +28073,15 @@
       <c r="D693" t="n">
         <v>1683.2</v>
       </c>
-      <c r="E693" s="9" t="n">
+      <c r="E693" t="n">
         <v>4723.1</v>
       </c>
-      <c r="F693" s="9" t="n">
+      <c r="F693" t="n">
         <v>942.1799999999999</v>
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="8" t="inlineStr">
+      <c r="A694" s="11" t="inlineStr">
         <is>
           <t>2026-01-15</t>
         </is>
@@ -28497,15 +28095,15 @@
       <c r="D694" t="n">
         <v>1705.27</v>
       </c>
-      <c r="E694" s="9" t="n">
+      <c r="E694" t="n">
         <v>4797.55</v>
       </c>
-      <c r="F694" s="9" t="n">
+      <c r="F694" t="n">
         <v>951.16</v>
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="8" t="inlineStr">
+      <c r="A695" s="11" t="inlineStr">
         <is>
           <t>2026-01-16</t>
         </is>
@@ -28519,15 +28117,15 @@
       <c r="D695" t="n">
         <v>1735.67</v>
       </c>
-      <c r="E695" s="9" t="n">
+      <c r="E695" t="n">
         <v>4840.74</v>
       </c>
-      <c r="F695" s="9" t="n">
+      <c r="F695" t="n">
         <v>954.59</v>
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="8" t="inlineStr">
+      <c r="A696" s="11" t="inlineStr">
         <is>
           <t>2026-01-19</t>
         </is>
@@ -28541,15 +28139,15 @@
       <c r="D696" t="n">
         <v>1765.19</v>
       </c>
-      <c r="E696" s="9" t="n">
+      <c r="E696" t="n">
         <v>4904.66</v>
       </c>
-      <c r="F696" s="9" t="n">
+      <c r="F696" t="n">
         <v>968.36</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="8" t="inlineStr">
+      <c r="A697" s="11" t="inlineStr">
         <is>
           <t>2026-01-20</t>
         </is>
@@ -28563,15 +28161,15 @@
       <c r="D697" t="n">
         <v>1745.65</v>
       </c>
-      <c r="E697" s="9" t="n">
+      <c r="E697" t="n">
         <v>4885.75</v>
       </c>
-      <c r="F697" s="9" t="n">
+      <c r="F697" t="n">
         <v>976.37</v>
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="8" t="inlineStr">
+      <c r="A698" s="11" t="inlineStr">
         <is>
           <t>2026-01-21</t>
         </is>
@@ -28585,15 +28183,15 @@
       <c r="D698" t="n">
         <v>1714.87</v>
       </c>
-      <c r="E698" s="9" t="n">
+      <c r="E698" t="n">
         <v>4909.93</v>
       </c>
-      <c r="F698" s="9" t="n">
+      <c r="F698" t="n">
         <v>951.29</v>
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="8" t="inlineStr">
+      <c r="A699" s="11" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
@@ -28607,15 +28205,15 @@
       <c r="D699" t="n">
         <v>1751.41</v>
       </c>
-      <c r="E699" s="9" t="n">
+      <c r="E699" t="n">
         <v>4952.53</v>
       </c>
-      <c r="F699" s="9" t="n">
+      <c r="F699" t="n">
         <v>970.35</v>
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="8" t="inlineStr">
+      <c r="A700" s="11" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
@@ -28629,15 +28227,15 @@
       <c r="D700" t="n">
         <v>1799.5</v>
       </c>
-      <c r="E700" s="9" t="n">
+      <c r="E700" t="n">
         <v>4990.07</v>
       </c>
-      <c r="F700" s="9" t="n">
+      <c r="F700" t="n">
         <v>993.9299999999999</v>
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="8" t="inlineStr">
+      <c r="A701" s="11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
@@ -28651,15 +28249,15 @@
       <c r="D701" t="n">
         <v>1794.08</v>
       </c>
-      <c r="E701" s="9" t="n">
+      <c r="E701" t="n">
         <v>4949.59</v>
       </c>
-      <c r="F701" s="9" t="n">
+      <c r="F701" t="n">
         <v>1064.41</v>
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="8" t="inlineStr">
+      <c r="A702" s="11" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
@@ -28673,15 +28271,15 @@
       <c r="D702" t="n">
         <v>1855.83</v>
       </c>
-      <c r="E702" s="9" t="n">
+      <c r="E702" t="n">
         <v>5084.85</v>
       </c>
-      <c r="F702" s="9" t="n">
+      <c r="F702" t="n">
         <v>1082.59</v>
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="8" t="inlineStr">
+      <c r="A703" s="11" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
@@ -28695,15 +28293,15 @@
       <c r="D703" t="n">
         <v>1913.2</v>
       </c>
-      <c r="E703" s="9" t="n">
+      <c r="E703" t="n">
         <v>5170.81</v>
       </c>
-      <c r="F703" s="9" t="n">
+      <c r="F703" t="n">
         <v>1133.52</v>
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="8" t="inlineStr">
+      <c r="A704" s="11" t="inlineStr">
         <is>
           <t>2026-01-29</t>
         </is>
@@ -28717,15 +28315,15 @@
       <c r="D704" t="n">
         <v>1933.99</v>
       </c>
-      <c r="E704" s="9" t="n">
+      <c r="E704" t="n">
         <v>5221.25</v>
       </c>
-      <c r="F704" s="9" t="n">
+      <c r="F704" t="n">
         <v>1164.41</v>
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="8" t="inlineStr">
+      <c r="A705" s="11" t="inlineStr">
         <is>
           <t>2026-01-30</t>
         </is>
@@ -28739,15 +28337,15 @@
       <c r="D705" t="n">
         <v>1931.59</v>
       </c>
-      <c r="E705" s="9" t="n">
+      <c r="E705" t="n">
         <v>5224.36</v>
       </c>
-      <c r="F705" s="9" t="n">
+      <c r="F705" t="n">
         <v>1149.44</v>
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="8" t="inlineStr">
+      <c r="A706" s="11" t="inlineStr">
         <is>
           <t>2026-02-02</t>
         </is>
@@ -28761,15 +28359,15 @@
       <c r="D706" t="n">
         <v>1823.85</v>
       </c>
-      <c r="E706" s="9" t="n">
+      <c r="E706" t="n">
         <v>4949.67</v>
       </c>
-      <c r="F706" s="9" t="n">
+      <c r="F706" t="n">
         <v>1098.36</v>
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="8" t="inlineStr">
+      <c r="A707" s="11" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
@@ -28783,15 +28381,15 @@
       <c r="D707" t="n">
         <v>1967.85</v>
       </c>
-      <c r="E707" s="9" t="n">
+      <c r="E707" t="n">
         <v>5288.08</v>
       </c>
-      <c r="F707" s="9" t="n">
+      <c r="F707" t="n">
         <v>1144.33</v>
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="8" t="inlineStr">
+      <c r="A708" s="11" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
@@ -28805,15 +28403,15 @@
       <c r="D708" t="n">
         <v>2002.73</v>
       </c>
-      <c r="E708" s="9" t="n">
+      <c r="E708" t="n">
         <v>5371.1</v>
       </c>
-      <c r="F708" s="9" t="n">
+      <c r="F708" t="n">
         <v>1149.43</v>
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="8" t="inlineStr">
+      <c r="A709" s="11" t="inlineStr">
         <is>
           <t>2026-02-05</t>
         </is>
@@ -28827,15 +28425,15 @@
       <c r="D709" t="n">
         <v>1911.63</v>
       </c>
-      <c r="E709" s="9" t="n">
+      <c r="E709" t="n">
         <v>5163.57</v>
       </c>
-      <c r="F709" s="9" t="n">
+      <c r="F709" t="n">
         <v>1108.41</v>
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="8" t="inlineStr">
+      <c r="A710" s="11" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>
@@ -28849,15 +28447,15 @@
       <c r="D710" t="n">
         <v>1892.96</v>
       </c>
-      <c r="E710" s="9" t="n">
+      <c r="E710" t="n">
         <v>5089.14</v>
       </c>
-      <c r="F710" s="9" t="n">
+      <c r="F710" t="n">
         <v>1080.77</v>
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="8" t="inlineStr">
+      <c r="A711" s="11" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
@@ -28871,15 +28469,15 @@
       <c r="D711" t="n">
         <v>2003.95</v>
       </c>
-      <c r="E711" s="9" t="n">
+      <c r="E711" t="n">
         <v>5298.04</v>
       </c>
-      <c r="F711" s="9" t="n">
+      <c r="F711" t="n">
         <v>1127.55</v>
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="8" t="inlineStr">
+      <c r="A712" s="11" t="inlineStr">
         <is>
           <t>2026-02-10</t>
         </is>
@@ -28893,15 +28491,15 @@
       <c r="D712" t="n">
         <v>1991.93</v>
       </c>
-      <c r="E712" s="9" t="n">
+      <c r="E712" t="n">
         <v>5301.69</v>
       </c>
-      <c r="F712" s="9" t="n">
+      <c r="F712" t="n">
         <v>1115.2</v>
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="8" t="inlineStr">
+      <c r="A713" s="11" t="inlineStr">
         <is>
           <t>2026-02-11</t>
         </is>
@@ -28915,10 +28513,10 @@
       <c r="D713" t="n">
         <v>1998.85</v>
       </c>
-      <c r="E713" s="9" t="n">
+      <c r="E713" t="n">
         <v>5354.49</v>
       </c>
-      <c r="F713" s="9" t="n">
+      <c r="F713" t="n">
         <v>1114.87</v>
       </c>
       <c r="G713" t="n">
@@ -28926,7 +28524,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="8" t="inlineStr">
+      <c r="A714" s="11" t="inlineStr">
         <is>
           <t>2026-02-12</t>
         </is>
@@ -28940,10 +28538,10 @@
       <c r="D714" t="n">
         <v>2070.84</v>
       </c>
-      <c r="E714" s="9" t="n">
+      <c r="E714" t="n">
         <v>5522.27</v>
       </c>
-      <c r="F714" s="9" t="n">
+      <c r="F714" t="n">
         <v>1125.99</v>
       </c>
       <c r="G714" t="n">
@@ -28951,7 +28549,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="8" t="inlineStr">
+      <c r="A715" s="11" t="inlineStr">
         <is>
           <t>2026-02-13</t>
         </is>
@@ -28965,10 +28563,10 @@
       <c r="D715" t="n">
         <v>2085.98</v>
       </c>
-      <c r="E715" s="9" t="n">
+      <c r="E715" t="n">
         <v>5507.01</v>
       </c>
-      <c r="F715" s="9" t="n">
+      <c r="F715" t="n">
         <v>1106.08</v>
       </c>
       <c r="G715" t="n">
@@ -28976,7 +28574,7 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="8" t="inlineStr">
+      <c r="A716" s="11" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
@@ -28990,14 +28588,39 @@
       <c r="D716" t="n">
         <v>2164.68</v>
       </c>
-      <c r="E716" s="9" t="n">
+      <c r="E716" t="n">
         <v>5677.25</v>
       </c>
-      <c r="F716" s="9" t="n">
+      <c r="F716" t="n">
         <v>1160.71</v>
       </c>
       <c r="G716" t="n">
         <v>1012.37</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="11" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>2908.73</v>
+      </c>
+      <c r="C717" t="n">
+        <v>2849.97</v>
+      </c>
+      <c r="D717" t="n">
+        <v>2194.31</v>
+      </c>
+      <c r="E717" t="n">
+        <v>5808.53</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1024.43</v>
       </c>
     </row>
   </sheetData>
@@ -95017,7 +94640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96292,6 +95915,207 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.4%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>122.7%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>43.9%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>54.9%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>72.6%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>116.4%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>39.8%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>25.7%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>49.4%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>67.9%</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>119.6%</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>44.5%</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>18.9%</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>45.0%</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>85.6%</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>118.9%</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>37.8%</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>18.2%</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>29.4%</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>48.4%</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>50.2%</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>24.7%</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -16513,6 +16513,12 @@
       <c r="B2" t="n">
         <v>1000</v>
       </c>
+      <c r="E2" t="n">
+        <v>2377.91</v>
+      </c>
+      <c r="F2" t="n">
+        <v>781.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
@@ -16523,6 +16529,12 @@
       <c r="B3" t="n">
         <v>1013.3</v>
       </c>
+      <c r="E3" t="n">
+        <v>2395.69</v>
+      </c>
+      <c r="F3" t="n">
+        <v>797.39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
@@ -16536,6 +16548,12 @@
       <c r="C4" t="n">
         <v>1000</v>
       </c>
+      <c r="E4" t="n">
+        <v>2379.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>802.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
@@ -16549,6 +16567,12 @@
       <c r="C5" t="n">
         <v>1000.82</v>
       </c>
+      <c r="E5" t="n">
+        <v>2388.35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>802.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
@@ -16562,6 +16586,12 @@
       <c r="C6" t="n">
         <v>1011.19</v>
       </c>
+      <c r="E6" t="n">
+        <v>2416.96</v>
+      </c>
+      <c r="F6" t="n">
+        <v>813.4299999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
@@ -16575,6 +16605,12 @@
       <c r="C7" t="n">
         <v>1000.73</v>
       </c>
+      <c r="E7" t="n">
+        <v>2424.48</v>
+      </c>
+      <c r="F7" t="n">
+        <v>812.1900000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
@@ -16588,6 +16624,12 @@
       <c r="C8" t="n">
         <v>998.92</v>
       </c>
+      <c r="E8" t="n">
+        <v>2414.96</v>
+      </c>
+      <c r="F8" t="n">
+        <v>824.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
@@ -16601,6 +16643,12 @@
       <c r="C9" t="n">
         <v>1017.16</v>
       </c>
+      <c r="E9" t="n">
+        <v>2409.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>827.6900000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
@@ -16614,6 +16662,12 @@
       <c r="C10" t="n">
         <v>1025.08</v>
       </c>
+      <c r="E10" t="n">
+        <v>2434.94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>833.51</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
@@ -16627,6 +16681,12 @@
       <c r="C11" t="n">
         <v>1025.93</v>
       </c>
+      <c r="E11" t="n">
+        <v>2443.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>843.9400000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
@@ -16640,6 +16700,12 @@
       <c r="C12" t="n">
         <v>1034.32</v>
       </c>
+      <c r="E12" t="n">
+        <v>2453.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>850.48</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
@@ -16653,6 +16719,12 @@
       <c r="C13" t="n">
         <v>1009.59</v>
       </c>
+      <c r="E13" t="n">
+        <v>2476.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>847.52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
@@ -16666,6 +16738,12 @@
       <c r="C14" t="n">
         <v>1021.12</v>
       </c>
+      <c r="E14" t="n">
+        <v>2472.34</v>
+      </c>
+      <c r="F14" t="n">
+        <v>854.96</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
@@ -16679,6 +16757,12 @@
       <c r="C15" t="n">
         <v>1018.28</v>
       </c>
+      <c r="E15" t="n">
+        <v>2480.51</v>
+      </c>
+      <c r="F15" t="n">
+        <v>857.1799999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
@@ -16692,6 +16776,12 @@
       <c r="C16" t="n">
         <v>1016</v>
       </c>
+      <c r="E16" t="n">
+        <v>2495.21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>872.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
@@ -16705,6 +16795,12 @@
       <c r="C17" t="n">
         <v>999.51</v>
       </c>
+      <c r="E17" t="n">
+        <v>2459.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>865.58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
@@ -16718,6 +16814,12 @@
       <c r="C18" t="n">
         <v>1055.76</v>
       </c>
+      <c r="E18" t="n">
+        <v>2490.41</v>
+      </c>
+      <c r="F18" t="n">
+        <v>880.0700000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
@@ -16731,6 +16833,12 @@
       <c r="C19" t="n">
         <v>1058.74</v>
       </c>
+      <c r="E19" t="n">
+        <v>2512.08</v>
+      </c>
+      <c r="F19" t="n">
+        <v>887.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
@@ -16744,6 +16852,12 @@
       <c r="C20" t="n">
         <v>1070.02</v>
       </c>
+      <c r="E20" t="n">
+        <v>2547.86</v>
+      </c>
+      <c r="F20" t="n">
+        <v>898.9400000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
@@ -16757,6 +16871,12 @@
       <c r="C21" t="n">
         <v>1091.78</v>
       </c>
+      <c r="E21" t="n">
+        <v>2550.64</v>
+      </c>
+      <c r="F21" t="n">
+        <v>890.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
@@ -16770,6 +16890,12 @@
       <c r="C22" t="n">
         <v>1104.07</v>
       </c>
+      <c r="E22" t="n">
+        <v>2561.66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>894.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
@@ -16783,6 +16909,12 @@
       <c r="C23" t="n">
         <v>1117.52</v>
       </c>
+      <c r="E23" t="n">
+        <v>2571.49</v>
+      </c>
+      <c r="F23" t="n">
+        <v>903.84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
@@ -16796,6 +16928,12 @@
       <c r="C24" t="n">
         <v>1122.09</v>
       </c>
+      <c r="E24" t="n">
+        <v>2575.91</v>
+      </c>
+      <c r="F24" t="n">
+        <v>909.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
@@ -16809,6 +16947,12 @@
       <c r="C25" t="n">
         <v>1109.48</v>
       </c>
+      <c r="E25" t="n">
+        <v>2571.09</v>
+      </c>
+      <c r="F25" t="n">
+        <v>909.02</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
@@ -16822,6 +16966,12 @@
       <c r="C26" t="n">
         <v>1110.23</v>
       </c>
+      <c r="E26" t="n">
+        <v>2575.08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>909.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
@@ -16835,6 +16985,12 @@
       <c r="C27" t="n">
         <v>1080.8</v>
       </c>
+      <c r="E27" t="n">
+        <v>2563.11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>885.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
@@ -16848,6 +17004,12 @@
       <c r="C28" t="n">
         <v>1061.4</v>
       </c>
+      <c r="E28" t="n">
+        <v>2544.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>868.8200000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
@@ -16861,6 +17023,12 @@
       <c r="C29" t="n">
         <v>1059.88</v>
       </c>
+      <c r="E29" t="n">
+        <v>2523.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>855.23</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
@@ -16874,6 +17042,12 @@
       <c r="C30" t="n">
         <v>1048.98</v>
       </c>
+      <c r="E30" t="n">
+        <v>2489.02</v>
+      </c>
+      <c r="F30" t="n">
+        <v>838.71</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
@@ -16887,6 +17061,12 @@
       <c r="C31" t="n">
         <v>1044.29</v>
       </c>
+      <c r="E31" t="n">
+        <v>2484.83</v>
+      </c>
+      <c r="F31" t="n">
+        <v>830.4400000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
@@ -16900,6 +17080,12 @@
       <c r="C32" t="n">
         <v>1052.76</v>
       </c>
+      <c r="E32" t="n">
+        <v>2495.81</v>
+      </c>
+      <c r="F32" t="n">
+        <v>850.21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
@@ -16913,6 +17099,12 @@
       <c r="C33" t="n">
         <v>1061.26</v>
       </c>
+      <c r="E33" t="n">
+        <v>2501.53</v>
+      </c>
+      <c r="F33" t="n">
+        <v>842.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
@@ -16926,6 +17118,12 @@
       <c r="C34" t="n">
         <v>1059.22</v>
       </c>
+      <c r="E34" t="n">
+        <v>2524.39</v>
+      </c>
+      <c r="F34" t="n">
+        <v>855.61</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
@@ -16939,6 +17137,12 @@
       <c r="C35" t="n">
         <v>1054.35</v>
       </c>
+      <c r="E35" t="n">
+        <v>2501.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>843.1799999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
@@ -16952,6 +17156,12 @@
       <c r="C36" t="n">
         <v>1039.47</v>
       </c>
+      <c r="E36" t="n">
+        <v>2500.94</v>
+      </c>
+      <c r="F36" t="n">
+        <v>845.0599999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
@@ -16965,6 +17175,12 @@
       <c r="C37" t="n">
         <v>1038.63</v>
       </c>
+      <c r="E37" t="n">
+        <v>2513.21</v>
+      </c>
+      <c r="F37" t="n">
+        <v>842.28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
@@ -16978,6 +17194,12 @@
       <c r="C38" t="n">
         <v>1026.13</v>
       </c>
+      <c r="E38" t="n">
+        <v>2510.06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>835.85</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
@@ -16991,6 +17213,12 @@
       <c r="C39" t="n">
         <v>1019.56</v>
       </c>
+      <c r="E39" t="n">
+        <v>2496.51</v>
+      </c>
+      <c r="F39" t="n">
+        <v>829.74</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
@@ -17004,6 +17232,12 @@
       <c r="C40" t="n">
         <v>1025.62</v>
       </c>
+      <c r="E40" t="n">
+        <v>2491</v>
+      </c>
+      <c r="F40" t="n">
+        <v>824.54</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
@@ -17017,6 +17251,12 @@
       <c r="C41" t="n">
         <v>1019.32</v>
       </c>
+      <c r="E41" t="n">
+        <v>2475.42</v>
+      </c>
+      <c r="F41" t="n">
+        <v>822.4299999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
@@ -17030,6 +17270,12 @@
       <c r="C42" t="n">
         <v>1018.18</v>
       </c>
+      <c r="E42" t="n">
+        <v>2479.35</v>
+      </c>
+      <c r="F42" t="n">
+        <v>814.53</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
@@ -17043,6 +17289,12 @@
       <c r="C43" t="n">
         <v>1030.78</v>
       </c>
+      <c r="E43" t="n">
+        <v>2480.24</v>
+      </c>
+      <c r="F43" t="n">
+        <v>816.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
@@ -17056,6 +17308,12 @@
       <c r="C44" t="n">
         <v>1044.62</v>
       </c>
+      <c r="E44" t="n">
+        <v>2494.66</v>
+      </c>
+      <c r="F44" t="n">
+        <v>834.1900000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
@@ -17069,6 +17327,12 @@
       <c r="C45" t="n">
         <v>1048.88</v>
       </c>
+      <c r="E45" t="n">
+        <v>2515.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>835.89</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
@@ -17082,6 +17346,12 @@
       <c r="C46" t="n">
         <v>1049.14</v>
       </c>
+      <c r="E46" t="n">
+        <v>2537.79</v>
+      </c>
+      <c r="F46" t="n">
+        <v>841.72</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
@@ -17095,6 +17365,12 @@
       <c r="C47" t="n">
         <v>1050.7</v>
       </c>
+      <c r="E47" t="n">
+        <v>2557.08</v>
+      </c>
+      <c r="F47" t="n">
+        <v>852.04</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
@@ -17108,6 +17384,12 @@
       <c r="C48" t="n">
         <v>1052.87</v>
       </c>
+      <c r="E48" t="n">
+        <v>2567.55</v>
+      </c>
+      <c r="F48" t="n">
+        <v>859.16</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
@@ -17121,6 +17403,12 @@
       <c r="C49" t="n">
         <v>1051.49</v>
       </c>
+      <c r="E49" t="n">
+        <v>2567.45</v>
+      </c>
+      <c r="F49" t="n">
+        <v>855.46</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
@@ -17134,6 +17422,12 @@
       <c r="C50" t="n">
         <v>1047.33</v>
       </c>
+      <c r="E50" t="n">
+        <v>2554.69</v>
+      </c>
+      <c r="F50" t="n">
+        <v>847.72</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
@@ -17147,6 +17441,12 @@
       <c r="C51" t="n">
         <v>1051.53</v>
       </c>
+      <c r="E51" t="n">
+        <v>2558.81</v>
+      </c>
+      <c r="F51" t="n">
+        <v>843.23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
@@ -17160,6 +17460,12 @@
       <c r="C52" t="n">
         <v>1064.51</v>
       </c>
+      <c r="E52" t="n">
+        <v>2585.52</v>
+      </c>
+      <c r="F52" t="n">
+        <v>851.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
@@ -17173,6 +17479,12 @@
       <c r="C53" t="n">
         <v>1058.41</v>
       </c>
+      <c r="E53" t="n">
+        <v>2577.12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>856.9400000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
@@ -17186,6 +17498,12 @@
       <c r="C54" t="n">
         <v>1057.64</v>
       </c>
+      <c r="E54" t="n">
+        <v>2569.17</v>
+      </c>
+      <c r="F54" t="n">
+        <v>863.78</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
@@ -17199,6 +17517,12 @@
       <c r="C55" t="n">
         <v>1068.08</v>
       </c>
+      <c r="E55" t="n">
+        <v>2601.36</v>
+      </c>
+      <c r="F55" t="n">
+        <v>868.0599999999999</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
@@ -17212,6 +17536,12 @@
       <c r="C56" t="n">
         <v>1074.57</v>
       </c>
+      <c r="E56" t="n">
+        <v>2615.41</v>
+      </c>
+      <c r="F56" t="n">
+        <v>870.28</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
@@ -17225,6 +17555,12 @@
       <c r="C57" t="n">
         <v>1078.57</v>
       </c>
+      <c r="E57" t="n">
+        <v>2615.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>880.72</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
@@ -17238,6 +17574,12 @@
       <c r="C58" t="n">
         <v>1082.67</v>
       </c>
+      <c r="E58" t="n">
+        <v>2610.85</v>
+      </c>
+      <c r="F58" t="n">
+        <v>876.13</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
@@ -17251,6 +17593,12 @@
       <c r="C59" t="n">
         <v>1083.76</v>
       </c>
+      <c r="E59" t="n">
+        <v>2641.16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>883.71</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
@@ -17264,6 +17612,12 @@
       <c r="C60" t="n">
         <v>1080.35</v>
       </c>
+      <c r="E60" t="n">
+        <v>2629.35</v>
+      </c>
+      <c r="F60" t="n">
+        <v>885.76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
@@ -17277,6 +17631,12 @@
       <c r="C61" t="n">
         <v>1083.04</v>
       </c>
+      <c r="E61" t="n">
+        <v>2637.95</v>
+      </c>
+      <c r="F61" t="n">
+        <v>896.8099999999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
@@ -17290,6 +17650,12 @@
       <c r="C62" t="n">
         <v>1071.37</v>
       </c>
+      <c r="E62" t="n">
+        <v>2619.08</v>
+      </c>
+      <c r="F62" t="n">
+        <v>871.83</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
@@ -17303,6 +17669,12 @@
       <c r="C63" t="n">
         <v>1078.47</v>
       </c>
+      <c r="E63" t="n">
+        <v>2608.54</v>
+      </c>
+      <c r="F63" t="n">
+        <v>878.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
@@ -17316,6 +17688,12 @@
       <c r="C64" t="n">
         <v>1094.44</v>
       </c>
+      <c r="E64" t="n">
+        <v>2625.79</v>
+      </c>
+      <c r="F64" t="n">
+        <v>887.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
@@ -17329,6 +17707,12 @@
       <c r="C65" t="n">
         <v>1091.2</v>
       </c>
+      <c r="E65" t="n">
+        <v>2609.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>888.61</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
@@ -17342,6 +17726,12 @@
       <c r="C66" t="n">
         <v>1097.84</v>
       </c>
+      <c r="E66" t="n">
+        <v>2604.91</v>
+      </c>
+      <c r="F66" t="n">
+        <v>886.41</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
@@ -17355,6 +17745,12 @@
       <c r="C67" t="n">
         <v>1086.82</v>
       </c>
+      <c r="E67" t="n">
+        <v>2582.63</v>
+      </c>
+      <c r="F67" t="n">
+        <v>875.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
@@ -17368,6 +17764,12 @@
       <c r="C68" t="n">
         <v>1086.07</v>
       </c>
+      <c r="E68" t="n">
+        <v>2593.7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>876.38</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
@@ -17381,6 +17783,12 @@
       <c r="C69" t="n">
         <v>1074.68</v>
       </c>
+      <c r="E69" t="n">
+        <v>2570.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>874.84</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
@@ -17394,6 +17802,12 @@
       <c r="C70" t="n">
         <v>1074.96</v>
       </c>
+      <c r="E70" t="n">
+        <v>2582.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>879.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
@@ -17407,6 +17821,12 @@
       <c r="C71" t="n">
         <v>1080.7</v>
       </c>
+      <c r="E71" t="n">
+        <v>2581.39</v>
+      </c>
+      <c r="F71" t="n">
+        <v>874.14</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -17420,6 +17840,12 @@
       <c r="C72" t="n">
         <v>1077.65</v>
       </c>
+      <c r="E72" t="n">
+        <v>2564.19</v>
+      </c>
+      <c r="F72" t="n">
+        <v>866.97</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
@@ -17433,6 +17859,12 @@
       <c r="C73" t="n">
         <v>1082.89</v>
       </c>
+      <c r="E73" t="n">
+        <v>2550.02</v>
+      </c>
+      <c r="F73" t="n">
+        <v>861.79</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
@@ -17446,6 +17878,12 @@
       <c r="C74" t="n">
         <v>1085.96</v>
       </c>
+      <c r="E74" t="n">
+        <v>2564.28</v>
+      </c>
+      <c r="F74" t="n">
+        <v>868.24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
@@ -17459,6 +17897,12 @@
       <c r="C75" t="n">
         <v>1092.14</v>
       </c>
+      <c r="E75" t="n">
+        <v>2602.47</v>
+      </c>
+      <c r="F75" t="n">
+        <v>889.29</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
@@ -17472,6 +17916,12 @@
       <c r="C76" t="n">
         <v>1093.64</v>
       </c>
+      <c r="E76" t="n">
+        <v>2593.31</v>
+      </c>
+      <c r="F76" t="n">
+        <v>890</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
@@ -17485,6 +17935,12 @@
       <c r="C77" t="n">
         <v>1086.7</v>
       </c>
+      <c r="E77" t="n">
+        <v>2579</v>
+      </c>
+      <c r="F77" t="n">
+        <v>891.1799999999999</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
@@ -17498,6 +17954,12 @@
       <c r="C78" t="n">
         <v>1066.95</v>
       </c>
+      <c r="E78" t="n">
+        <v>2556.29</v>
+      </c>
+      <c r="F78" t="n">
+        <v>870.53</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
@@ -17511,6 +17973,12 @@
       <c r="C79" t="n">
         <v>1055.64</v>
       </c>
+      <c r="E79" t="n">
+        <v>2526.71</v>
+      </c>
+      <c r="F79" t="n">
+        <v>867.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
@@ -17524,6 +17992,12 @@
       <c r="C80" t="n">
         <v>1047.43</v>
       </c>
+      <c r="E80" t="n">
+        <v>2520.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>860.35</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
@@ -17537,6 +18011,12 @@
       <c r="C81" t="n">
         <v>1069.82</v>
       </c>
+      <c r="E81" t="n">
+        <v>2562.49</v>
+      </c>
+      <c r="F81" t="n">
+        <v>878.73</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
@@ -17550,6 +18030,12 @@
       <c r="C82" t="n">
         <v>1077.26</v>
       </c>
+      <c r="E82" t="n">
+        <v>2574.72</v>
+      </c>
+      <c r="F82" t="n">
+        <v>879.88</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
@@ -17563,6 +18049,12 @@
       <c r="C83" t="n">
         <v>1072.17</v>
       </c>
+      <c r="E83" t="n">
+        <v>2591.23</v>
+      </c>
+      <c r="F83" t="n">
+        <v>893.0700000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
@@ -17576,6 +18068,12 @@
       <c r="C84" t="n">
         <v>1087.2</v>
       </c>
+      <c r="E84" t="n">
+        <v>2628.3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>896.28</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
@@ -17589,6 +18087,12 @@
       <c r="C85" t="n">
         <v>1083</v>
       </c>
+      <c r="E85" t="n">
+        <v>2619</v>
+      </c>
+      <c r="F85" t="n">
+        <v>898.29</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
@@ -17602,6 +18106,12 @@
       <c r="C86" t="n">
         <v>1077.96</v>
       </c>
+      <c r="E86" t="n">
+        <v>2607.62</v>
+      </c>
+      <c r="F86" t="n">
+        <v>914.14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
@@ -17615,6 +18125,12 @@
       <c r="C87" t="n">
         <v>1077.97</v>
       </c>
+      <c r="E87" t="n">
+        <v>2608.24</v>
+      </c>
+      <c r="F87" t="n">
+        <v>923.72</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
@@ -17628,6 +18144,12 @@
       <c r="C88" t="n">
         <v>1097.54</v>
       </c>
+      <c r="E88" t="n">
+        <v>2600.23</v>
+      </c>
+      <c r="F88" t="n">
+        <v>931.6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
@@ -17641,6 +18163,12 @@
       <c r="C89" t="n">
         <v>1085.12</v>
       </c>
+      <c r="E89" t="n">
+        <v>2609.76</v>
+      </c>
+      <c r="F89" t="n">
+        <v>934.58</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
@@ -17654,6 +18182,12 @@
       <c r="C90" t="n">
         <v>1082.68</v>
       </c>
+      <c r="E90" t="n">
+        <v>2628.53</v>
+      </c>
+      <c r="F90" t="n">
+        <v>929.9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
@@ -17667,6 +18201,12 @@
       <c r="C91" t="n">
         <v>1092.34</v>
       </c>
+      <c r="E91" t="n">
+        <v>2636.46</v>
+      </c>
+      <c r="F91" t="n">
+        <v>939.96</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
@@ -17680,6 +18220,12 @@
       <c r="C92" t="n">
         <v>1050.28</v>
       </c>
+      <c r="E92" t="n">
+        <v>2592.36</v>
+      </c>
+      <c r="F92" t="n">
+        <v>900.63</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
@@ -17693,6 +18239,12 @@
       <c r="C93" t="n">
         <v>1094.42</v>
       </c>
+      <c r="E93" t="n">
+        <v>2603.81</v>
+      </c>
+      <c r="F93" t="n">
+        <v>883.79</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
@@ -17706,6 +18258,12 @@
       <c r="C94" t="n">
         <v>1113.19</v>
       </c>
+      <c r="E94" t="n">
+        <v>2608.32</v>
+      </c>
+      <c r="F94" t="n">
+        <v>913.74</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
@@ -17719,6 +18277,12 @@
       <c r="C95" t="n">
         <v>1121.31</v>
       </c>
+      <c r="E95" t="n">
+        <v>2632.58</v>
+      </c>
+      <c r="F95" t="n">
+        <v>935.97</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
@@ -17732,6 +18296,12 @@
       <c r="C96" t="n">
         <v>1155.51</v>
       </c>
+      <c r="E96" t="n">
+        <v>2667.07</v>
+      </c>
+      <c r="F96" t="n">
+        <v>939.67</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
@@ -17745,6 +18315,12 @@
       <c r="C97" t="n">
         <v>1115.14</v>
       </c>
+      <c r="E97" t="n">
+        <v>2616.47</v>
+      </c>
+      <c r="F97" t="n">
+        <v>909.76</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
@@ -17758,6 +18334,12 @@
       <c r="C98" t="n">
         <v>1126.13</v>
       </c>
+      <c r="E98" t="n">
+        <v>2605.39</v>
+      </c>
+      <c r="F98" t="n">
+        <v>920.3200000000001</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
@@ -17771,6 +18353,12 @@
       <c r="C99" t="n">
         <v>1126.2</v>
       </c>
+      <c r="E99" t="n">
+        <v>2602.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>918.4299999999999</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
@@ -17784,6 +18372,12 @@
       <c r="C100" t="n">
         <v>1126.82</v>
       </c>
+      <c r="E100" t="n">
+        <v>2580.71</v>
+      </c>
+      <c r="F100" t="n">
+        <v>898.22</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
@@ -17797,6 +18391,12 @@
       <c r="C101" t="n">
         <v>1113.55</v>
       </c>
+      <c r="E101" t="n">
+        <v>2573.98</v>
+      </c>
+      <c r="F101" t="n">
+        <v>892.34</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
@@ -17810,6 +18410,12 @@
       <c r="C102" t="n">
         <v>1133.75</v>
       </c>
+      <c r="E102" t="n">
+        <v>2605.12</v>
+      </c>
+      <c r="F102" t="n">
+        <v>908.98</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
@@ -17823,6 +18429,12 @@
       <c r="C103" t="n">
         <v>1128.99</v>
       </c>
+      <c r="E103" t="n">
+        <v>2601.56</v>
+      </c>
+      <c r="F103" t="n">
+        <v>911.29</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
@@ -17836,6 +18448,12 @@
       <c r="C104" t="n">
         <v>1161.09</v>
       </c>
+      <c r="E104" t="n">
+        <v>2591.26</v>
+      </c>
+      <c r="F104" t="n">
+        <v>912.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
@@ -17849,6 +18467,12 @@
       <c r="C105" t="n">
         <v>1156.28</v>
       </c>
+      <c r="E105" t="n">
+        <v>2570.87</v>
+      </c>
+      <c r="F105" t="n">
+        <v>901.6799999999999</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
@@ -17862,6 +18486,12 @@
       <c r="C106" t="n">
         <v>1146.4</v>
       </c>
+      <c r="E106" t="n">
+        <v>2525.64</v>
+      </c>
+      <c r="F106" t="n">
+        <v>878.29</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
@@ -17875,6 +18505,12 @@
       <c r="C107" t="n">
         <v>1141.91</v>
       </c>
+      <c r="E107" t="n">
+        <v>2519.85</v>
+      </c>
+      <c r="F107" t="n">
+        <v>886.04</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
@@ -17888,6 +18524,12 @@
       <c r="C108" t="n">
         <v>1125.74</v>
       </c>
+      <c r="E108" t="n">
+        <v>2504.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>877.3200000000001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
@@ -17901,6 +18543,12 @@
       <c r="C109" t="n">
         <v>1118.91</v>
       </c>
+      <c r="E109" t="n">
+        <v>2508.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>888.71</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
@@ -17914,6 +18562,12 @@
       <c r="C110" t="n">
         <v>1122.35</v>
       </c>
+      <c r="E110" t="n">
+        <v>2515.74</v>
+      </c>
+      <c r="F110" t="n">
+        <v>893.33</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
@@ -17927,6 +18581,12 @@
       <c r="C111" t="n">
         <v>1126.03</v>
       </c>
+      <c r="E111" t="n">
+        <v>2505.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>882.87</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
@@ -17940,6 +18600,12 @@
       <c r="C112" t="n">
         <v>1143.22</v>
       </c>
+      <c r="E112" t="n">
+        <v>2537.68</v>
+      </c>
+      <c r="F112" t="n">
+        <v>901.74</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
@@ -17953,6 +18619,12 @@
       <c r="C113" t="n">
         <v>1122.1</v>
       </c>
+      <c r="E113" t="n">
+        <v>2519.14</v>
+      </c>
+      <c r="F113" t="n">
+        <v>899.38</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
@@ -17966,6 +18638,12 @@
       <c r="C114" t="n">
         <v>1123.88</v>
       </c>
+      <c r="E114" t="n">
+        <v>2543.41</v>
+      </c>
+      <c r="F114" t="n">
+        <v>909.38</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
@@ -17979,6 +18657,12 @@
       <c r="C115" t="n">
         <v>1132.88</v>
       </c>
+      <c r="E115" t="n">
+        <v>2552.16</v>
+      </c>
+      <c r="F115" t="n">
+        <v>916.24</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
@@ -17992,6 +18676,12 @@
       <c r="C116" t="n">
         <v>1154.37</v>
       </c>
+      <c r="E116" t="n">
+        <v>2561.22</v>
+      </c>
+      <c r="F116" t="n">
+        <v>923.8099999999999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
@@ -18005,6 +18695,12 @@
       <c r="C117" t="n">
         <v>1158.19</v>
       </c>
+      <c r="E117" t="n">
+        <v>2556.27</v>
+      </c>
+      <c r="F117" t="n">
+        <v>928.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
@@ -18018,6 +18714,12 @@
       <c r="C118" t="n">
         <v>1175.83</v>
       </c>
+      <c r="E118" t="n">
+        <v>2563.71</v>
+      </c>
+      <c r="F118" t="n">
+        <v>919.74</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
@@ -18031,6 +18733,12 @@
       <c r="C119" t="n">
         <v>1167.64</v>
       </c>
+      <c r="E119" t="n">
+        <v>2584.55</v>
+      </c>
+      <c r="F119" t="n">
+        <v>919.16</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
@@ -18044,6 +18752,12 @@
       <c r="C120" t="n">
         <v>1168.53</v>
       </c>
+      <c r="E120" t="n">
+        <v>2582.18</v>
+      </c>
+      <c r="F120" t="n">
+        <v>921.48</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
@@ -18057,6 +18771,12 @@
       <c r="C121" t="n">
         <v>1164.09</v>
       </c>
+      <c r="E121" t="n">
+        <v>2563.34</v>
+      </c>
+      <c r="F121" t="n">
+        <v>917.95</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
@@ -18070,6 +18790,12 @@
       <c r="C122" t="n">
         <v>1165.37</v>
       </c>
+      <c r="E122" t="n">
+        <v>2548.26</v>
+      </c>
+      <c r="F122" t="n">
+        <v>906.36</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
@@ -18083,6 +18809,12 @@
       <c r="C123" t="n">
         <v>1155.25</v>
       </c>
+      <c r="E123" t="n">
+        <v>2547.68</v>
+      </c>
+      <c r="F123" t="n">
+        <v>914.1799999999999</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
@@ -18096,6 +18828,12 @@
       <c r="C124" t="n">
         <v>1158.75</v>
       </c>
+      <c r="E124" t="n">
+        <v>2556.88</v>
+      </c>
+      <c r="F124" t="n">
+        <v>912.55</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
@@ -18109,6 +18847,12 @@
       <c r="C125" t="n">
         <v>1152.39</v>
       </c>
+      <c r="E125" t="n">
+        <v>2536.58</v>
+      </c>
+      <c r="F125" t="n">
+        <v>898.04</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
@@ -18122,6 +18866,12 @@
       <c r="C126" t="n">
         <v>1152.49</v>
       </c>
+      <c r="E126" t="n">
+        <v>2534.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>882.72</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
@@ -18135,6 +18885,12 @@
       <c r="C127" t="n">
         <v>1166.48</v>
       </c>
+      <c r="E127" t="n">
+        <v>2572.89</v>
+      </c>
+      <c r="F127" t="n">
+        <v>899.47</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
@@ -18148,6 +18904,12 @@
       <c r="C128" t="n">
         <v>1172.54</v>
       </c>
+      <c r="E128" t="n">
+        <v>2601.28</v>
+      </c>
+      <c r="F128" t="n">
+        <v>899.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
@@ -18161,6 +18923,12 @@
       <c r="C129" t="n">
         <v>1159.29</v>
       </c>
+      <c r="E129" t="n">
+        <v>2574.72</v>
+      </c>
+      <c r="F129" t="n">
+        <v>891.29</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
@@ -18174,6 +18942,12 @@
       <c r="C130" t="n">
         <v>1156.87</v>
       </c>
+      <c r="E130" t="n">
+        <v>2559.21</v>
+      </c>
+      <c r="F130" t="n">
+        <v>883.89</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
@@ -18187,6 +18961,12 @@
       <c r="C131" t="n">
         <v>1144.9</v>
       </c>
+      <c r="E131" t="n">
+        <v>2559.74</v>
+      </c>
+      <c r="F131" t="n">
+        <v>882.72</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
@@ -18200,6 +18980,12 @@
       <c r="C132" t="n">
         <v>1124.56</v>
       </c>
+      <c r="E132" t="n">
+        <v>2514.97</v>
+      </c>
+      <c r="F132" t="n">
+        <v>860.6799999999999</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
@@ -18213,6 +18999,12 @@
       <c r="C133" t="n">
         <v>1129.74</v>
       </c>
+      <c r="E133" t="n">
+        <v>2508.13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>857.35</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
@@ -18226,6 +19018,12 @@
       <c r="C134" t="n">
         <v>1129.76</v>
       </c>
+      <c r="E134" t="n">
+        <v>2495.76</v>
+      </c>
+      <c r="F134" t="n">
+        <v>839.17</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
@@ -18239,6 +19037,12 @@
       <c r="C135" t="n">
         <v>1118.26</v>
       </c>
+      <c r="E135" t="n">
+        <v>2462.97</v>
+      </c>
+      <c r="F135" t="n">
+        <v>827.8200000000001</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
@@ -18252,6 +19056,12 @@
       <c r="C136" t="n">
         <v>1120.67</v>
       </c>
+      <c r="E136" t="n">
+        <v>2465.07</v>
+      </c>
+      <c r="F136" t="n">
+        <v>841.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
@@ -18265,6 +19075,12 @@
       <c r="C137" t="n">
         <v>1105.42</v>
       </c>
+      <c r="E137" t="n">
+        <v>2405.69</v>
+      </c>
+      <c r="F137" t="n">
+        <v>807.4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
@@ -18278,6 +19094,12 @@
       <c r="C138" t="n">
         <v>1108.8</v>
       </c>
+      <c r="E138" t="n">
+        <v>2403.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>801.02</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
@@ -18291,6 +19113,12 @@
       <c r="C139" t="n">
         <v>1117.53</v>
       </c>
+      <c r="E139" t="n">
+        <v>2408.73</v>
+      </c>
+      <c r="F139" t="n">
+        <v>816.39</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
@@ -18304,6 +19132,12 @@
       <c r="C140" t="n">
         <v>1103.96</v>
       </c>
+      <c r="E140" t="n">
+        <v>2402.58</v>
+      </c>
+      <c r="F140" t="n">
+        <v>795</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
@@ -18317,6 +19151,12 @@
       <c r="C141" t="n">
         <v>1111.37</v>
       </c>
+      <c r="E141" t="n">
+        <v>2450.08</v>
+      </c>
+      <c r="F141" t="n">
+        <v>817.12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
@@ -18330,6 +19170,12 @@
       <c r="C142" t="n">
         <v>1123.02</v>
       </c>
+      <c r="E142" t="n">
+        <v>2479.82</v>
+      </c>
+      <c r="F142" t="n">
+        <v>835.49</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
@@ -18343,6 +19189,12 @@
       <c r="C143" t="n">
         <v>1121.87</v>
       </c>
+      <c r="E143" t="n">
+        <v>2456.15</v>
+      </c>
+      <c r="F143" t="n">
+        <v>822.78</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
@@ -18356,6 +19208,12 @@
       <c r="C144" t="n">
         <v>1112.69</v>
       </c>
+      <c r="E144" t="n">
+        <v>2436.24</v>
+      </c>
+      <c r="F144" t="n">
+        <v>810.54</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
@@ -18369,6 +19227,12 @@
       <c r="C145" t="n">
         <v>1132.17</v>
       </c>
+      <c r="E145" t="n">
+        <v>2460.17</v>
+      </c>
+      <c r="F145" t="n">
+        <v>820.38</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
@@ -18382,6 +19246,12 @@
       <c r="C146" t="n">
         <v>1129.25</v>
       </c>
+      <c r="E146" t="n">
+        <v>2462.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>808.89</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
@@ -18395,6 +19265,12 @@
       <c r="C147" t="n">
         <v>1102.48</v>
       </c>
+      <c r="E147" t="n">
+        <v>2415.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>784.04</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
@@ -18408,6 +19284,12 @@
       <c r="C148" t="n">
         <v>1096.27</v>
       </c>
+      <c r="E148" t="n">
+        <v>2375</v>
+      </c>
+      <c r="F148" t="n">
+        <v>769.25</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
@@ -18421,6 +19303,12 @@
       <c r="C149" t="n">
         <v>1081.28</v>
       </c>
+      <c r="E149" t="n">
+        <v>2357.02</v>
+      </c>
+      <c r="F149" t="n">
+        <v>763.6900000000001</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
@@ -18434,6 +19322,12 @@
       <c r="C150" t="n">
         <v>1100.28</v>
       </c>
+      <c r="E150" t="n">
+        <v>2383.51</v>
+      </c>
+      <c r="F150" t="n">
+        <v>784.86</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
@@ -18447,6 +19341,12 @@
       <c r="C151" t="n">
         <v>1103.26</v>
       </c>
+      <c r="E151" t="n">
+        <v>2363.17</v>
+      </c>
+      <c r="F151" t="n">
+        <v>770.84</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
@@ -18460,6 +19360,12 @@
       <c r="C152" t="n">
         <v>1082.53</v>
       </c>
+      <c r="E152" t="n">
+        <v>2299.08</v>
+      </c>
+      <c r="F152" t="n">
+        <v>743.85</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
@@ -18473,6 +19379,12 @@
       <c r="C153" t="n">
         <v>1079.74</v>
       </c>
+      <c r="E153" t="n">
+        <v>2302.81</v>
+      </c>
+      <c r="F153" t="n">
+        <v>748.49</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
@@ -18486,6 +19398,12 @@
       <c r="C154" t="n">
         <v>1086.33</v>
       </c>
+      <c r="E154" t="n">
+        <v>2310.55</v>
+      </c>
+      <c r="F154" t="n">
+        <v>757.12</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
@@ -18499,6 +19417,12 @@
       <c r="C155" t="n">
         <v>1069.05</v>
       </c>
+      <c r="E155" t="n">
+        <v>2277.99</v>
+      </c>
+      <c r="F155" t="n">
+        <v>736.1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
@@ -18512,6 +19436,12 @@
       <c r="C156" t="n">
         <v>1071.44</v>
       </c>
+      <c r="E156" t="n">
+        <v>2301.56</v>
+      </c>
+      <c r="F156" t="n">
+        <v>739.23</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
@@ -18525,6 +19455,12 @@
       <c r="C157" t="n">
         <v>1084.57</v>
       </c>
+      <c r="E157" t="n">
+        <v>2343.12</v>
+      </c>
+      <c r="F157" t="n">
+        <v>772.84</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
@@ -18538,6 +19474,12 @@
       <c r="C158" t="n">
         <v>1088.03</v>
       </c>
+      <c r="E158" t="n">
+        <v>2368.34</v>
+      </c>
+      <c r="F158" t="n">
+        <v>782.05</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
@@ -18551,6 +19493,12 @@
       <c r="C159" t="n">
         <v>1111.68</v>
       </c>
+      <c r="E159" t="n">
+        <v>2502.37</v>
+      </c>
+      <c r="F159" t="n">
+        <v>839.45</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
@@ -18564,6 +19512,12 @@
       <c r="C160" t="n">
         <v>1097.38</v>
       </c>
+      <c r="E160" t="n">
+        <v>2443.96</v>
+      </c>
+      <c r="F160" t="n">
+        <v>824.37</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
@@ -18577,6 +19531,12 @@
       <c r="C161" t="n">
         <v>1089.33</v>
       </c>
+      <c r="E161" t="n">
+        <v>2421.62</v>
+      </c>
+      <c r="F161" t="n">
+        <v>811.02</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
@@ -18590,6 +19550,12 @@
       <c r="C162" t="n">
         <v>1088.05</v>
       </c>
+      <c r="E162" t="n">
+        <v>2427.08</v>
+      </c>
+      <c r="F162" t="n">
+        <v>802.87</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
@@ -18603,6 +19569,12 @@
       <c r="C163" t="n">
         <v>1090.75</v>
       </c>
+      <c r="E163" t="n">
+        <v>2409.66</v>
+      </c>
+      <c r="F163" t="n">
+        <v>789.3099999999999</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
@@ -18616,6 +19588,12 @@
       <c r="C164" t="n">
         <v>1083.94</v>
       </c>
+      <c r="E164" t="n">
+        <v>2403.76</v>
+      </c>
+      <c r="F164" t="n">
+        <v>774.42</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
@@ -18629,6 +19607,12 @@
       <c r="C165" t="n">
         <v>1094.23</v>
       </c>
+      <c r="E165" t="n">
+        <v>2433.25</v>
+      </c>
+      <c r="F165" t="n">
+        <v>794.1900000000001</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
@@ -18642,6 +19626,12 @@
       <c r="C166" t="n">
         <v>1102.86</v>
       </c>
+      <c r="E166" t="n">
+        <v>2486.67</v>
+      </c>
+      <c r="F166" t="n">
+        <v>809.36</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
@@ -18655,6 +19645,12 @@
       <c r="C167" t="n">
         <v>1097.96</v>
       </c>
+      <c r="E167" t="n">
+        <v>2488.18</v>
+      </c>
+      <c r="F167" t="n">
+        <v>811.11</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
@@ -18668,6 +19664,12 @@
       <c r="C168" t="n">
         <v>1092.04</v>
       </c>
+      <c r="E168" t="n">
+        <v>2469.85</v>
+      </c>
+      <c r="F168" t="n">
+        <v>799.0599999999999</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
@@ -18681,6 +19683,12 @@
       <c r="C169" t="n">
         <v>1095.68</v>
       </c>
+      <c r="E169" t="n">
+        <v>2491.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>813.08</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="11" t="inlineStr">
@@ -18694,6 +19702,12 @@
       <c r="C170" t="n">
         <v>1099.48</v>
       </c>
+      <c r="E170" t="n">
+        <v>2510.42</v>
+      </c>
+      <c r="F170" t="n">
+        <v>817.01</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="11" t="inlineStr">
@@ -18707,6 +19721,12 @@
       <c r="C171" t="n">
         <v>1102.09</v>
       </c>
+      <c r="E171" t="n">
+        <v>2511.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>814.61</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="11" t="inlineStr">
@@ -18720,6 +19740,12 @@
       <c r="C172" t="n">
         <v>1097.66</v>
       </c>
+      <c r="E172" t="n">
+        <v>2514.96</v>
+      </c>
+      <c r="F172" t="n">
+        <v>815.98</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="11" t="inlineStr">
@@ -18733,6 +19759,12 @@
       <c r="C173" t="n">
         <v>1088.68</v>
       </c>
+      <c r="E173" t="n">
+        <v>2496.63</v>
+      </c>
+      <c r="F173" t="n">
+        <v>815</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="11" t="inlineStr">
@@ -18746,6 +19778,12 @@
       <c r="C174" t="n">
         <v>1096.25</v>
       </c>
+      <c r="E174" t="n">
+        <v>2495.66</v>
+      </c>
+      <c r="F174" t="n">
+        <v>810.25</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="11" t="inlineStr">
@@ -18759,6 +19797,12 @@
       <c r="C175" t="n">
         <v>1099.43</v>
       </c>
+      <c r="E175" t="n">
+        <v>2521.76</v>
+      </c>
+      <c r="F175" t="n">
+        <v>816.4400000000001</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="11" t="inlineStr">
@@ -18772,6 +19816,12 @@
       <c r="C176" t="n">
         <v>1096.9</v>
       </c>
+      <c r="E176" t="n">
+        <v>2519.81</v>
+      </c>
+      <c r="F176" t="n">
+        <v>822.4400000000001</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="11" t="inlineStr">
@@ -18785,6 +19835,12 @@
       <c r="C177" t="n">
         <v>1097.36</v>
       </c>
+      <c r="E177" t="n">
+        <v>2535.29</v>
+      </c>
+      <c r="F177" t="n">
+        <v>831.6799999999999</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="11" t="inlineStr">
@@ -18798,6 +19854,12 @@
       <c r="C178" t="n">
         <v>1092.47</v>
       </c>
+      <c r="E178" t="n">
+        <v>2505.01</v>
+      </c>
+      <c r="F178" t="n">
+        <v>827.24</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
@@ -18811,6 +19873,12 @@
       <c r="C179" t="n">
         <v>1083.21</v>
       </c>
+      <c r="E179" t="n">
+        <v>2514.95</v>
+      </c>
+      <c r="F179" t="n">
+        <v>828.52</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="11" t="inlineStr">
@@ -18824,6 +19892,12 @@
       <c r="C180" t="n">
         <v>1067.94</v>
       </c>
+      <c r="E180" t="n">
+        <v>2494.28</v>
+      </c>
+      <c r="F180" t="n">
+        <v>813.38</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="11" t="inlineStr">
@@ -18837,6 +19911,12 @@
       <c r="C181" t="n">
         <v>1085.65</v>
       </c>
+      <c r="E181" t="n">
+        <v>2495.38</v>
+      </c>
+      <c r="F181" t="n">
+        <v>819.54</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="11" t="inlineStr">
@@ -18850,6 +19930,12 @@
       <c r="C182" t="n">
         <v>1074.99</v>
       </c>
+      <c r="E182" t="n">
+        <v>2492.07</v>
+      </c>
+      <c r="F182" t="n">
+        <v>813.2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="11" t="inlineStr">
@@ -18863,6 +19949,12 @@
       <c r="C183" t="n">
         <v>1084.78</v>
       </c>
+      <c r="E183" t="n">
+        <v>2517.85</v>
+      </c>
+      <c r="F183" t="n">
+        <v>830.37</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="11" t="inlineStr">
@@ -18876,6 +19968,12 @@
       <c r="C184" t="n">
         <v>1093.9</v>
       </c>
+      <c r="E184" t="n">
+        <v>2525.36</v>
+      </c>
+      <c r="F184" t="n">
+        <v>835.25</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="11" t="inlineStr">
@@ -18889,6 +19987,12 @@
       <c r="C185" t="n">
         <v>1097.34</v>
       </c>
+      <c r="E185" t="n">
+        <v>2535.27</v>
+      </c>
+      <c r="F185" t="n">
+        <v>839.53</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="11" t="inlineStr">
@@ -18902,6 +20006,12 @@
       <c r="C186" t="n">
         <v>1104.09</v>
       </c>
+      <c r="E186" t="n">
+        <v>2510.66</v>
+      </c>
+      <c r="F186" t="n">
+        <v>829.3099999999999</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="11" t="inlineStr">
@@ -18915,6 +20025,12 @@
       <c r="C187" t="n">
         <v>1118.43</v>
       </c>
+      <c r="E187" t="n">
+        <v>2544.18</v>
+      </c>
+      <c r="F187" t="n">
+        <v>840.59</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="11" t="inlineStr">
@@ -18928,6 +20044,12 @@
       <c r="C188" t="n">
         <v>1117.33</v>
       </c>
+      <c r="E188" t="n">
+        <v>2563.56</v>
+      </c>
+      <c r="F188" t="n">
+        <v>838.3099999999999</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="11" t="inlineStr">
@@ -18941,6 +20063,12 @@
       <c r="C189" t="n">
         <v>1124.47</v>
       </c>
+      <c r="E189" t="n">
+        <v>2566.86</v>
+      </c>
+      <c r="F189" t="n">
+        <v>850.96</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="11" t="inlineStr">
@@ -18954,6 +20082,12 @@
       <c r="C190" t="n">
         <v>1123.45</v>
       </c>
+      <c r="E190" t="n">
+        <v>2568.55</v>
+      </c>
+      <c r="F190" t="n">
+        <v>858.3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="11" t="inlineStr">
@@ -18967,6 +20101,12 @@
       <c r="C191" t="n">
         <v>1135.03</v>
       </c>
+      <c r="E191" t="n">
+        <v>2614.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>862.98</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="11" t="inlineStr">
@@ -18980,6 +20120,12 @@
       <c r="C192" t="n">
         <v>1129.47</v>
       </c>
+      <c r="E192" t="n">
+        <v>2600.02</v>
+      </c>
+      <c r="F192" t="n">
+        <v>859.4400000000001</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="11" t="inlineStr">
@@ -18993,6 +20139,12 @@
       <c r="C193" t="n">
         <v>1117.56</v>
       </c>
+      <c r="E193" t="n">
+        <v>2599.51</v>
+      </c>
+      <c r="F193" t="n">
+        <v>854.62</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="11" t="inlineStr">
@@ -19006,6 +20158,12 @@
       <c r="C194" t="n">
         <v>1127.37</v>
       </c>
+      <c r="E194" t="n">
+        <v>2602.59</v>
+      </c>
+      <c r="F194" t="n">
+        <v>848.34</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="11" t="inlineStr">
@@ -19019,6 +20177,12 @@
       <c r="C195" t="n">
         <v>1141.71</v>
       </c>
+      <c r="E195" t="n">
+        <v>2613.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>859.79</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="11" t="inlineStr">
@@ -19032,6 +20196,12 @@
       <c r="C196" t="n">
         <v>0</v>
       </c>
+      <c r="E196" t="n">
+        <v>2655.28</v>
+      </c>
+      <c r="F196" t="n">
+        <v>866.5700000000001</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="11" t="inlineStr">
@@ -19058,6 +20228,12 @@
       <c r="C198" t="n">
         <v>1161.7</v>
       </c>
+      <c r="E198" t="n">
+        <v>2669.81</v>
+      </c>
+      <c r="F198" t="n">
+        <v>878.9299999999999</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="11" t="inlineStr">
@@ -19071,6 +20247,12 @@
       <c r="C199" t="n">
         <v>1149.69</v>
       </c>
+      <c r="E199" t="n">
+        <v>2607.31</v>
+      </c>
+      <c r="F199" t="n">
+        <v>871.5700000000001</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="11" t="inlineStr">
@@ -19084,6 +20266,12 @@
       <c r="C200" t="n">
         <v>1148.12</v>
       </c>
+      <c r="E200" t="n">
+        <v>2587.02</v>
+      </c>
+      <c r="F200" t="n">
+        <v>866.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="11" t="inlineStr">
@@ -19097,6 +20285,12 @@
       <c r="C201" t="n">
         <v>1140.63</v>
       </c>
+      <c r="E201" t="n">
+        <v>2578.08</v>
+      </c>
+      <c r="F201" t="n">
+        <v>878.33</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="11" t="inlineStr">
@@ -19110,6 +20304,12 @@
       <c r="C202" t="n">
         <v>1153.74</v>
       </c>
+      <c r="E202" t="n">
+        <v>2567.82</v>
+      </c>
+      <c r="F202" t="n">
+        <v>879.34</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="11" t="inlineStr">
@@ -19123,6 +20323,12 @@
       <c r="C203" t="n">
         <v>1162.75</v>
       </c>
+      <c r="E203" t="n">
+        <v>2561.24</v>
+      </c>
+      <c r="F203" t="n">
+        <v>884.64</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="11" t="inlineStr">
@@ -19136,6 +20342,12 @@
       <c r="C204" t="n">
         <v>1157.29</v>
       </c>
+      <c r="E204" t="n">
+        <v>2541.98</v>
+      </c>
+      <c r="F204" t="n">
+        <v>875.46</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="11" t="inlineStr">
@@ -19149,6 +20361,12 @@
       <c r="C205" t="n">
         <v>1159.14</v>
       </c>
+      <c r="E205" t="n">
+        <v>2540.27</v>
+      </c>
+      <c r="F205" t="n">
+        <v>882.53</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="11" t="inlineStr">
@@ -19162,6 +20380,12 @@
       <c r="C206" t="n">
         <v>1150.54</v>
       </c>
+      <c r="E206" t="n">
+        <v>2525.05</v>
+      </c>
+      <c r="F206" t="n">
+        <v>868.08</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="11" t="inlineStr">
@@ -19175,6 +20399,12 @@
       <c r="C207" t="n">
         <v>1142.67</v>
       </c>
+      <c r="E207" t="n">
+        <v>2525.99</v>
+      </c>
+      <c r="F207" t="n">
+        <v>859.71</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="11" t="inlineStr">
@@ -19188,6 +20418,12 @@
       <c r="C208" t="n">
         <v>1133.06</v>
       </c>
+      <c r="E208" t="n">
+        <v>2497.59</v>
+      </c>
+      <c r="F208" t="n">
+        <v>854.83</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="11" t="inlineStr">
@@ -19201,6 +20437,12 @@
       <c r="C209" t="n">
         <v>1119.83</v>
       </c>
+      <c r="E209" t="n">
+        <v>2435.9</v>
+      </c>
+      <c r="F209" t="n">
+        <v>833.05</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="11" t="inlineStr">
@@ -19214,6 +20456,12 @@
       <c r="C210" t="n">
         <v>1118.2</v>
       </c>
+      <c r="E210" t="n">
+        <v>2440.04</v>
+      </c>
+      <c r="F210" t="n">
+        <v>840.33</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="11" t="inlineStr">
@@ -19227,6 +20475,12 @@
       <c r="C211" t="n">
         <v>1124.96</v>
       </c>
+      <c r="E211" t="n">
+        <v>2472.74</v>
+      </c>
+      <c r="F211" t="n">
+        <v>842.67</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="11" t="inlineStr">
@@ -19240,6 +20494,12 @@
       <c r="C212" t="n">
         <v>1126.7</v>
       </c>
+      <c r="E212" t="n">
+        <v>2464.35</v>
+      </c>
+      <c r="F212" t="n">
+        <v>839.6900000000001</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="11" t="inlineStr">
@@ -19253,6 +20513,12 @@
       <c r="C213" t="n">
         <v>1134.29</v>
       </c>
+      <c r="E213" t="n">
+        <v>2478.61</v>
+      </c>
+      <c r="F213" t="n">
+        <v>840.11</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="11" t="inlineStr">
@@ -19266,6 +20532,12 @@
       <c r="C214" t="n">
         <v>1133.03</v>
       </c>
+      <c r="E214" t="n">
+        <v>2469.69</v>
+      </c>
+      <c r="F214" t="n">
+        <v>836.21</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="11" t="inlineStr">
@@ -19279,6 +20551,12 @@
       <c r="C215" t="n">
         <v>1143.44</v>
       </c>
+      <c r="E215" t="n">
+        <v>2470.34</v>
+      </c>
+      <c r="F215" t="n">
+        <v>823.74</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="11" t="inlineStr">
@@ -19292,6 +20570,12 @@
       <c r="C216" t="n">
         <v>1145.61</v>
       </c>
+      <c r="E216" t="n">
+        <v>2478.56</v>
+      </c>
+      <c r="F216" t="n">
+        <v>837.24</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="11" t="inlineStr">
@@ -19305,6 +20589,12 @@
       <c r="C217" t="n">
         <v>1134.17</v>
       </c>
+      <c r="E217" t="n">
+        <v>2500.65</v>
+      </c>
+      <c r="F217" t="n">
+        <v>819.14</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="11" t="inlineStr">
@@ -19318,6 +20608,12 @@
       <c r="C218" t="n">
         <v>1132.94</v>
       </c>
+      <c r="E218" t="n">
+        <v>2498.81</v>
+      </c>
+      <c r="F218" t="n">
+        <v>818.86</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="11" t="inlineStr">
@@ -19331,6 +20627,12 @@
       <c r="C219" t="n">
         <v>1128.55</v>
       </c>
+      <c r="E219" t="n">
+        <v>2497.09</v>
+      </c>
+      <c r="F219" t="n">
+        <v>799.24</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="11" t="inlineStr">
@@ -19344,6 +20646,12 @@
       <c r="C220" t="n">
         <v>1126.69</v>
       </c>
+      <c r="E220" t="n">
+        <v>2542.46</v>
+      </c>
+      <c r="F220" t="n">
+        <v>798.73</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="11" t="inlineStr">
@@ -19357,6 +20665,12 @@
       <c r="C221" t="n">
         <v>1153.41</v>
       </c>
+      <c r="E221" t="n">
+        <v>2615.31</v>
+      </c>
+      <c r="F221" t="n">
+        <v>814.77</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="11" t="inlineStr">
@@ -19370,6 +20684,12 @@
       <c r="C222" t="n">
         <v>1141.1</v>
       </c>
+      <c r="E222" t="n">
+        <v>2591.31</v>
+      </c>
+      <c r="F222" t="n">
+        <v>807.99</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="11" t="inlineStr">
@@ -19383,6 +20703,12 @@
       <c r="C223" t="n">
         <v>1124.32</v>
       </c>
+      <c r="E223" t="n">
+        <v>2576.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>807.03</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="11" t="inlineStr">
@@ -19396,6 +20722,12 @@
       <c r="C224" t="n">
         <v>1133.38</v>
       </c>
+      <c r="E224" t="n">
+        <v>2609.58</v>
+      </c>
+      <c r="F224" t="n">
+        <v>811.92</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="11" t="inlineStr">
@@ -19409,6 +20741,12 @@
       <c r="C225" t="n">
         <v>1134.33</v>
       </c>
+      <c r="E225" t="n">
+        <v>2620.32</v>
+      </c>
+      <c r="F225" t="n">
+        <v>826.58</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="11" t="inlineStr">
@@ -19422,6 +20760,12 @@
       <c r="C226" t="n">
         <v>1129.72</v>
       </c>
+      <c r="E226" t="n">
+        <v>2649.64</v>
+      </c>
+      <c r="F226" t="n">
+        <v>845.15</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="11" t="inlineStr">
@@ -19435,6 +20779,12 @@
       <c r="C227" t="n">
         <v>1132.07</v>
       </c>
+      <c r="E227" t="n">
+        <v>2620.42</v>
+      </c>
+      <c r="F227" t="n">
+        <v>853.3</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="11" t="inlineStr">
@@ -19448,6 +20798,12 @@
       <c r="C228" t="n">
         <v>1129.97</v>
       </c>
+      <c r="E228" t="n">
+        <v>2613.8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>859.21</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="11" t="inlineStr">
@@ -19461,6 +20817,12 @@
       <c r="C229" t="n">
         <v>1140.21</v>
       </c>
+      <c r="E229" t="n">
+        <v>2648.76</v>
+      </c>
+      <c r="F229" t="n">
+        <v>857.6</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="11" t="inlineStr">
@@ -19474,6 +20836,12 @@
       <c r="C230" t="n">
         <v>1134.27</v>
       </c>
+      <c r="E230" t="n">
+        <v>2680.26</v>
+      </c>
+      <c r="F230" t="n">
+        <v>858.47</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="11" t="inlineStr">
@@ -19487,6 +20855,12 @@
       <c r="C231" t="n">
         <v>1123.01</v>
       </c>
+      <c r="E231" t="n">
+        <v>2657.79</v>
+      </c>
+      <c r="F231" t="n">
+        <v>866.17</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="11" t="inlineStr">
@@ -19500,6 +20874,12 @@
       <c r="C232" t="n">
         <v>1127.8</v>
       </c>
+      <c r="E232" t="n">
+        <v>2653.31</v>
+      </c>
+      <c r="F232" t="n">
+        <v>864.0700000000001</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="11" t="inlineStr">
@@ -19513,6 +20893,12 @@
       <c r="C233" t="n">
         <v>1136.82</v>
       </c>
+      <c r="E233" t="n">
+        <v>2664.27</v>
+      </c>
+      <c r="F233" t="n">
+        <v>870.11</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="11" t="inlineStr">
@@ -19526,6 +20912,12 @@
       <c r="C234" t="n">
         <v>1135.46</v>
       </c>
+      <c r="E234" t="n">
+        <v>2667.7</v>
+      </c>
+      <c r="F234" t="n">
+        <v>868.5700000000001</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="11" t="inlineStr">
@@ -19539,6 +20931,12 @@
       <c r="C235" t="n">
         <v>1132.86</v>
       </c>
+      <c r="E235" t="n">
+        <v>2647.08</v>
+      </c>
+      <c r="F235" t="n">
+        <v>867.4</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="11" t="inlineStr">
@@ -19552,6 +20950,12 @@
       <c r="C236" t="n">
         <v>1126.34</v>
       </c>
+      <c r="E236" t="n">
+        <v>2625.05</v>
+      </c>
+      <c r="F236" t="n">
+        <v>853.75</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="11" t="inlineStr">
@@ -19565,6 +20969,12 @@
       <c r="C237" t="n">
         <v>1136.1</v>
       </c>
+      <c r="E237" t="n">
+        <v>2652.29</v>
+      </c>
+      <c r="F237" t="n">
+        <v>863.39</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="11" t="inlineStr">
@@ -19578,6 +20988,12 @@
       <c r="C238" t="n">
         <v>1137.51</v>
       </c>
+      <c r="E238" t="n">
+        <v>2642.36</v>
+      </c>
+      <c r="F238" t="n">
+        <v>862.96</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="11" t="inlineStr">
@@ -19591,6 +21007,12 @@
       <c r="C239" t="n">
         <v>1128.62</v>
       </c>
+      <c r="E239" t="n">
+        <v>2674.27</v>
+      </c>
+      <c r="F239" t="n">
+        <v>872.97</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="11" t="inlineStr">
@@ -19604,6 +21026,12 @@
       <c r="C240" t="n">
         <v>1135.8</v>
       </c>
+      <c r="E240" t="n">
+        <v>2649.4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>866.37</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="11" t="inlineStr">
@@ -19617,6 +21045,12 @@
       <c r="C241" t="n">
         <v>1135.38</v>
       </c>
+      <c r="E241" t="n">
+        <v>2641.49</v>
+      </c>
+      <c r="F241" t="n">
+        <v>870.67</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="11" t="inlineStr">
@@ -19630,6 +21064,12 @@
       <c r="C242" t="n">
         <v>1129.81</v>
       </c>
+      <c r="E242" t="n">
+        <v>2647.62</v>
+      </c>
+      <c r="F242" t="n">
+        <v>863.37</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="11" t="inlineStr">
@@ -19643,6 +21083,12 @@
       <c r="C243" t="n">
         <v>1134.62</v>
       </c>
+      <c r="E243" t="n">
+        <v>2680.35</v>
+      </c>
+      <c r="F243" t="n">
+        <v>873.1799999999999</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="11" t="inlineStr">
@@ -19656,6 +21102,12 @@
       <c r="C244" t="n">
         <v>1135.83</v>
       </c>
+      <c r="E244" t="n">
+        <v>2659.84</v>
+      </c>
+      <c r="F244" t="n">
+        <v>875.9299999999999</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="11" t="inlineStr">
@@ -19669,6 +21121,12 @@
       <c r="C245" t="n">
         <v>1134.54</v>
       </c>
+      <c r="E245" t="n">
+        <v>2681.81</v>
+      </c>
+      <c r="F245" t="n">
+        <v>889.71</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="11" t="inlineStr">
@@ -19682,6 +21140,12 @@
       <c r="C246" t="n">
         <v>1133.92</v>
       </c>
+      <c r="E246" t="n">
+        <v>2693.57</v>
+      </c>
+      <c r="F246" t="n">
+        <v>889.9299999999999</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="11" t="inlineStr">
@@ -19695,6 +21159,12 @@
       <c r="C247" t="n">
         <v>1146.67</v>
       </c>
+      <c r="E247" t="n">
+        <v>2718.76</v>
+      </c>
+      <c r="F247" t="n">
+        <v>887.52</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="11" t="inlineStr">
@@ -19708,6 +21178,12 @@
       <c r="C248" t="n">
         <v>1146.09</v>
       </c>
+      <c r="E248" t="n">
+        <v>2666.84</v>
+      </c>
+      <c r="F248" t="n">
+        <v>880.46</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="11" t="inlineStr">
@@ -19721,6 +21197,12 @@
       <c r="C249" t="n">
         <v>1152.21</v>
       </c>
+      <c r="E249" t="n">
+        <v>2685.84</v>
+      </c>
+      <c r="F249" t="n">
+        <v>894.48</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="11" t="inlineStr">
@@ -19734,6 +21216,12 @@
       <c r="C250" t="n">
         <v>1151.03</v>
       </c>
+      <c r="E250" t="n">
+        <v>2656.17</v>
+      </c>
+      <c r="F250" t="n">
+        <v>891.91</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="11" t="inlineStr">
@@ -19747,6 +21235,12 @@
       <c r="C251" t="n">
         <v>1153.12</v>
       </c>
+      <c r="E251" t="n">
+        <v>2690.14</v>
+      </c>
+      <c r="F251" t="n">
+        <v>891.45</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="11" t="inlineStr">
@@ -19760,6 +21254,12 @@
       <c r="C252" t="n">
         <v>1152.94</v>
       </c>
+      <c r="E252" t="n">
+        <v>2754.86</v>
+      </c>
+      <c r="F252" t="n">
+        <v>904.29</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="11" t="inlineStr">
@@ -19773,6 +21273,12 @@
       <c r="C253" t="n">
         <v>1153.75</v>
       </c>
+      <c r="E253" t="n">
+        <v>2748.56</v>
+      </c>
+      <c r="F253" t="n">
+        <v>903.98</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="11" t="inlineStr">
@@ -19786,6 +21292,12 @@
       <c r="C254" t="n">
         <v>1152.6</v>
       </c>
+      <c r="E254" t="n">
+        <v>2737.57</v>
+      </c>
+      <c r="F254" t="n">
+        <v>913.6900000000001</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="11" t="inlineStr">
@@ -19799,6 +21311,12 @@
       <c r="C255" t="n">
         <v>1159.12</v>
       </c>
+      <c r="E255" t="n">
+        <v>2757.09</v>
+      </c>
+      <c r="F255" t="n">
+        <v>916.09</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="11" t="inlineStr">
@@ -19812,6 +21330,12 @@
       <c r="C256" t="n">
         <v>1174</v>
       </c>
+      <c r="E256" t="n">
+        <v>2755.11</v>
+      </c>
+      <c r="F256" t="n">
+        <v>911.25</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="11" t="inlineStr">
@@ -19825,6 +21349,12 @@
       <c r="C257" t="n">
         <v>1176.04</v>
       </c>
+      <c r="E257" t="n">
+        <v>2745.82</v>
+      </c>
+      <c r="F257" t="n">
+        <v>910.05</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="11" t="inlineStr">
@@ -19838,6 +21368,12 @@
       <c r="C258" t="n">
         <v>1168.54</v>
       </c>
+      <c r="E258" t="n">
+        <v>2746.63</v>
+      </c>
+      <c r="F258" t="n">
+        <v>905.5</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="11" t="inlineStr">
@@ -19851,6 +21387,12 @@
       <c r="C259" t="n">
         <v>1197.14</v>
       </c>
+      <c r="E259" t="n">
+        <v>2747.86</v>
+      </c>
+      <c r="F259" t="n">
+        <v>912.45</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="11" t="inlineStr">
@@ -19864,6 +21406,12 @@
       <c r="C260" t="n">
         <v>1191.61</v>
       </c>
+      <c r="E260" t="n">
+        <v>2753.16</v>
+      </c>
+      <c r="F260" t="n">
+        <v>891.59</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="11" t="inlineStr">
@@ -19877,6 +21425,12 @@
       <c r="C261" t="n">
         <v>1188.1</v>
       </c>
+      <c r="E261" t="n">
+        <v>2706.97</v>
+      </c>
+      <c r="F261" t="n">
+        <v>879.96</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="11" t="inlineStr">
@@ -19890,6 +21444,12 @@
       <c r="C262" t="n">
         <v>1196.31</v>
       </c>
+      <c r="E262" t="n">
+        <v>2742</v>
+      </c>
+      <c r="F262" t="n">
+        <v>882.9</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="11" t="inlineStr">
@@ -19903,6 +21463,12 @@
       <c r="C263" t="n">
         <v>1192.68</v>
       </c>
+      <c r="E263" t="n">
+        <v>2714.21</v>
+      </c>
+      <c r="F263" t="n">
+        <v>872.29</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="11" t="inlineStr">
@@ -19916,6 +21482,12 @@
       <c r="C264" t="n">
         <v>1179.24</v>
       </c>
+      <c r="E264" t="n">
+        <v>2717.65</v>
+      </c>
+      <c r="F264" t="n">
+        <v>860.5700000000001</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="11" t="inlineStr">
@@ -19929,6 +21501,12 @@
       <c r="C265" t="n">
         <v>1184.12</v>
       </c>
+      <c r="E265" t="n">
+        <v>2705.16</v>
+      </c>
+      <c r="F265" t="n">
+        <v>859.33</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="11" t="inlineStr">
@@ -19942,6 +21520,12 @@
       <c r="C266" t="n">
         <v>1189.64</v>
       </c>
+      <c r="E266" t="n">
+        <v>2706.96</v>
+      </c>
+      <c r="F266" t="n">
+        <v>858.1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="11" t="inlineStr">
@@ -19955,6 +21539,12 @@
       <c r="C267" t="n">
         <v>1186.54</v>
       </c>
+      <c r="E267" t="n">
+        <v>2681.82</v>
+      </c>
+      <c r="F267" t="n">
+        <v>860.47</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="11" t="inlineStr">
@@ -19968,6 +21558,12 @@
       <c r="C268" t="n">
         <v>1187.28</v>
       </c>
+      <c r="E268" t="n">
+        <v>2670.43</v>
+      </c>
+      <c r="F268" t="n">
+        <v>852.42</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="11" t="inlineStr">
@@ -19981,6 +21577,12 @@
       <c r="C269" t="n">
         <v>1172.24</v>
       </c>
+      <c r="E269" t="n">
+        <v>2609.63</v>
+      </c>
+      <c r="F269" t="n">
+        <v>832.8099999999999</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="11" t="inlineStr">
@@ -19994,6 +21596,12 @@
       <c r="C270" t="n">
         <v>1172.07</v>
       </c>
+      <c r="E270" t="n">
+        <v>2584.18</v>
+      </c>
+      <c r="F270" t="n">
+        <v>833.03</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="11" t="inlineStr">
@@ -20007,6 +21615,12 @@
       <c r="C271" t="n">
         <v>1192.55</v>
       </c>
+      <c r="E271" t="n">
+        <v>2634.7</v>
+      </c>
+      <c r="F271" t="n">
+        <v>855.65</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="11" t="inlineStr">
@@ -20020,6 +21634,12 @@
       <c r="C272" t="n">
         <v>1182.83</v>
       </c>
+      <c r="E272" t="n">
+        <v>2591.86</v>
+      </c>
+      <c r="F272" t="n">
+        <v>841.91</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="11" t="inlineStr">
@@ -20033,6 +21653,12 @@
       <c r="C273" t="n">
         <v>1198.67</v>
       </c>
+      <c r="E273" t="n">
+        <v>2629.44</v>
+      </c>
+      <c r="F273" t="n">
+        <v>845.8200000000001</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="11" t="inlineStr">
@@ -20046,6 +21672,12 @@
       <c r="C274" t="n">
         <v>1189.99</v>
       </c>
+      <c r="E274" t="n">
+        <v>2623.02</v>
+      </c>
+      <c r="F274" t="n">
+        <v>845.4400000000001</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="11" t="inlineStr">
@@ -20059,6 +21691,12 @@
       <c r="C275" t="n">
         <v>1200.15</v>
       </c>
+      <c r="E275" t="n">
+        <v>2675.75</v>
+      </c>
+      <c r="F275" t="n">
+        <v>862.23</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="11" t="inlineStr">
@@ -20072,6 +21710,12 @@
       <c r="C276" t="n">
         <v>1192.51</v>
       </c>
+      <c r="E276" t="n">
+        <v>2628.62</v>
+      </c>
+      <c r="F276" t="n">
+        <v>853.26</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="11" t="inlineStr">
@@ -20085,6 +21729,12 @@
       <c r="C277" t="n">
         <v>1193.73</v>
       </c>
+      <c r="E277" t="n">
+        <v>2656.33</v>
+      </c>
+      <c r="F277" t="n">
+        <v>856.8200000000001</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="11" t="inlineStr">
@@ -20098,6 +21748,12 @@
       <c r="C278" t="n">
         <v>1213.9</v>
       </c>
+      <c r="E278" t="n">
+        <v>2687.44</v>
+      </c>
+      <c r="F278" t="n">
+        <v>869.72</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="11" t="inlineStr">
@@ -20111,6 +21767,12 @@
       <c r="C279" t="n">
         <v>1206.12</v>
       </c>
+      <c r="E279" t="n">
+        <v>2692.06</v>
+      </c>
+      <c r="F279" t="n">
+        <v>868.9299999999999</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="11" t="inlineStr">
@@ -20124,6 +21786,12 @@
       <c r="C280" t="n">
         <v>1210.66</v>
       </c>
+      <c r="E280" t="n">
+        <v>2683.65</v>
+      </c>
+      <c r="F280" t="n">
+        <v>867.48</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="11" t="inlineStr">
@@ -20137,6 +21805,12 @@
       <c r="C281" t="n">
         <v>1217.46</v>
       </c>
+      <c r="E281" t="n">
+        <v>2676.63</v>
+      </c>
+      <c r="F281" t="n">
+        <v>865.59</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="11" t="inlineStr">
@@ -20150,6 +21824,12 @@
       <c r="C282" t="n">
         <v>1236.52</v>
       </c>
+      <c r="E282" t="n">
+        <v>2734.36</v>
+      </c>
+      <c r="F282" t="n">
+        <v>871.26</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="11" t="inlineStr">
@@ -20163,6 +21843,12 @@
       <c r="C283" t="n">
         <v>1242.93</v>
       </c>
+      <c r="E283" t="n">
+        <v>2745.05</v>
+      </c>
+      <c r="F283" t="n">
+        <v>872.42</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="11" t="inlineStr">
@@ -20176,6 +21862,12 @@
       <c r="C284" t="n">
         <v>1237.58</v>
       </c>
+      <c r="E284" t="n">
+        <v>2712.14</v>
+      </c>
+      <c r="F284" t="n">
+        <v>870.15</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="11" t="inlineStr">
@@ -20189,6 +21881,12 @@
       <c r="C285" t="n">
         <v>1220.48</v>
       </c>
+      <c r="E285" t="n">
+        <v>2727.63</v>
+      </c>
+      <c r="F285" t="n">
+        <v>864.16</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="11" t="inlineStr">
@@ -20202,6 +21900,12 @@
       <c r="C286" t="n">
         <v>1222.63</v>
       </c>
+      <c r="E286" t="n">
+        <v>2727.21</v>
+      </c>
+      <c r="F286" t="n">
+        <v>854.4299999999999</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="11" t="inlineStr">
@@ -20215,6 +21919,12 @@
       <c r="C287" t="n">
         <v>1224.2</v>
       </c>
+      <c r="E287" t="n">
+        <v>2730.34</v>
+      </c>
+      <c r="F287" t="n">
+        <v>862.15</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="11" t="inlineStr">
@@ -20231,6 +21941,12 @@
       <c r="D288" t="n">
         <v>1000</v>
       </c>
+      <c r="E288" t="n">
+        <v>2753</v>
+      </c>
+      <c r="F288" t="n">
+        <v>870.37</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="11" t="inlineStr">
@@ -20247,6 +21963,12 @@
       <c r="D289" t="n">
         <v>999.7</v>
       </c>
+      <c r="E289" t="n">
+        <v>2724.62</v>
+      </c>
+      <c r="F289" t="n">
+        <v>855.0599999999999</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="11" t="inlineStr">
@@ -20263,6 +21985,12 @@
       <c r="D290" t="n">
         <v>1000.84</v>
       </c>
+      <c r="E290" t="n">
+        <v>2742.14</v>
+      </c>
+      <c r="F290" t="n">
+        <v>847.08</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="11" t="inlineStr">
@@ -20279,6 +22007,12 @@
       <c r="D291" t="n">
         <v>1003.6</v>
       </c>
+      <c r="E291" t="n">
+        <v>2724.18</v>
+      </c>
+      <c r="F291" t="n">
+        <v>846.51</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="11" t="inlineStr">
@@ -20295,6 +22029,12 @@
       <c r="D292" t="n">
         <v>1001.45</v>
       </c>
+      <c r="E292" t="n">
+        <v>2723.46</v>
+      </c>
+      <c r="F292" t="n">
+        <v>845.72</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="11" t="inlineStr">
@@ -20311,6 +22051,12 @@
       <c r="D293" t="n">
         <v>1000.27</v>
       </c>
+      <c r="E293" t="n">
+        <v>2721.81</v>
+      </c>
+      <c r="F293" t="n">
+        <v>846.58</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="11" t="inlineStr">
@@ -20327,6 +22073,12 @@
       <c r="D294" t="n">
         <v>994.62</v>
       </c>
+      <c r="E294" t="n">
+        <v>2687.6</v>
+      </c>
+      <c r="F294" t="n">
+        <v>839.41</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="11" t="inlineStr">
@@ -20343,6 +22095,12 @@
       <c r="D295" t="n">
         <v>1001.51</v>
       </c>
+      <c r="E295" t="n">
+        <v>2722.99</v>
+      </c>
+      <c r="F295" t="n">
+        <v>847.99</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="11" t="inlineStr">
@@ -20359,6 +22117,12 @@
       <c r="D296" t="n">
         <v>1004.03</v>
       </c>
+      <c r="E296" t="n">
+        <v>2722.85</v>
+      </c>
+      <c r="F296" t="n">
+        <v>851.01</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="11" t="inlineStr">
@@ -20375,6 +22139,12 @@
       <c r="D297" t="n">
         <v>1004.86</v>
       </c>
+      <c r="E297" t="n">
+        <v>2677.3</v>
+      </c>
+      <c r="F297" t="n">
+        <v>838.45</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="11" t="inlineStr">
@@ -20391,6 +22161,12 @@
       <c r="D298" t="n">
         <v>1001.66</v>
       </c>
+      <c r="E298" t="n">
+        <v>2635.44</v>
+      </c>
+      <c r="F298" t="n">
+        <v>831.99</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="11" t="inlineStr">
@@ -20407,6 +22183,12 @@
       <c r="D299" t="n">
         <v>1008.99</v>
       </c>
+      <c r="E299" t="n">
+        <v>2636.52</v>
+      </c>
+      <c r="F299" t="n">
+        <v>839.98</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="11" t="inlineStr">
@@ -20423,6 +22205,12 @@
       <c r="D300" t="n">
         <v>1012.58</v>
       </c>
+      <c r="E300" t="n">
+        <v>2682.52</v>
+      </c>
+      <c r="F300" t="n">
+        <v>844.72</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="11" t="inlineStr">
@@ -20439,6 +22227,12 @@
       <c r="D301" t="n">
         <v>1007.35</v>
       </c>
+      <c r="E301" t="n">
+        <v>2662.1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>845.84</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="11" t="inlineStr">
@@ -20455,6 +22249,12 @@
       <c r="D302" t="n">
         <v>1007.32</v>
       </c>
+      <c r="E302" t="n">
+        <v>2689.5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>850.75</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="11" t="inlineStr">
@@ -20471,6 +22271,12 @@
       <c r="D303" t="n">
         <v>1007.93</v>
       </c>
+      <c r="E303" t="n">
+        <v>2722.67</v>
+      </c>
+      <c r="F303" t="n">
+        <v>866.1799999999999</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="11" t="inlineStr">
@@ -20487,6 +22293,12 @@
       <c r="D304" t="n">
         <v>1008.11</v>
       </c>
+      <c r="E304" t="n">
+        <v>2701.17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>864.71</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="11" t="inlineStr">
@@ -20503,6 +22315,12 @@
       <c r="D305" t="n">
         <v>1002.36</v>
       </c>
+      <c r="E305" t="n">
+        <v>2705.32</v>
+      </c>
+      <c r="F305" t="n">
+        <v>868.36</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="11" t="inlineStr">
@@ -20519,6 +22337,12 @@
       <c r="D306" t="n">
         <v>1012.01</v>
       </c>
+      <c r="E306" t="n">
+        <v>2728.17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>870.67</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="11" t="inlineStr">
@@ -20535,6 +22359,12 @@
       <c r="D307" t="n">
         <v>1013.69</v>
       </c>
+      <c r="E307" t="n">
+        <v>2754.89</v>
+      </c>
+      <c r="F307" t="n">
+        <v>871.33</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="11" t="inlineStr">
@@ -20551,6 +22381,12 @@
       <c r="D308" t="n">
         <v>1010.6</v>
       </c>
+      <c r="E308" t="n">
+        <v>2758.42</v>
+      </c>
+      <c r="F308" t="n">
+        <v>862.1900000000001</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="11" t="inlineStr">
@@ -20567,6 +22403,12 @@
       <c r="D309" t="n">
         <v>1010.94</v>
       </c>
+      <c r="E309" t="n">
+        <v>2744.1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>858.96</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="11" t="inlineStr">
@@ -20583,6 +22425,12 @@
       <c r="D310" t="n">
         <v>1015.19</v>
       </c>
+      <c r="E310" t="n">
+        <v>2763.92</v>
+      </c>
+      <c r="F310" t="n">
+        <v>858.95</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="11" t="inlineStr">
@@ -20599,6 +22447,12 @@
       <c r="D311" t="n">
         <v>1021.8</v>
       </c>
+      <c r="E311" t="n">
+        <v>2797.33</v>
+      </c>
+      <c r="F311" t="n">
+        <v>861.17</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="11" t="inlineStr">
@@ -20615,6 +22469,12 @@
       <c r="D312" t="n">
         <v>1017.37</v>
       </c>
+      <c r="E312" t="n">
+        <v>2807.63</v>
+      </c>
+      <c r="F312" t="n">
+        <v>857.51</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="11" t="inlineStr">
@@ -20631,6 +22491,12 @@
       <c r="D313" t="n">
         <v>1013.47</v>
       </c>
+      <c r="E313" t="n">
+        <v>2784.26</v>
+      </c>
+      <c r="F313" t="n">
+        <v>852.67</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="11" t="inlineStr">
@@ -20647,6 +22513,12 @@
       <c r="D314" t="n">
         <v>1013.66</v>
       </c>
+      <c r="E314" t="n">
+        <v>2764.73</v>
+      </c>
+      <c r="F314" t="n">
+        <v>841.52</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="11" t="inlineStr">
@@ -20663,6 +22535,12 @@
       <c r="D315" t="n">
         <v>1015.86</v>
       </c>
+      <c r="E315" t="n">
+        <v>2774.39</v>
+      </c>
+      <c r="F315" t="n">
+        <v>841.99</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="11" t="inlineStr">
@@ -20679,6 +22557,12 @@
       <c r="D316" t="n">
         <v>1014.24</v>
       </c>
+      <c r="E316" t="n">
+        <v>2792.05</v>
+      </c>
+      <c r="F316" t="n">
+        <v>842.12</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="11" t="inlineStr">
@@ -20695,6 +22579,12 @@
       <c r="D317" t="n">
         <v>1017.16</v>
       </c>
+      <c r="E317" t="n">
+        <v>2784.06</v>
+      </c>
+      <c r="F317" t="n">
+        <v>838.65</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="11" t="inlineStr">
@@ -20711,6 +22601,12 @@
       <c r="D318" t="n">
         <v>1015.21</v>
       </c>
+      <c r="E318" t="n">
+        <v>2797.82</v>
+      </c>
+      <c r="F318" t="n">
+        <v>840.4400000000001</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="11" t="inlineStr">
@@ -20727,6 +22623,12 @@
       <c r="D319" t="n">
         <v>1007.27</v>
       </c>
+      <c r="E319" t="n">
+        <v>2804.31</v>
+      </c>
+      <c r="F319" t="n">
+        <v>847.15</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="11" t="inlineStr">
@@ -20743,6 +22645,12 @@
       <c r="D320" t="n">
         <v>996.6799999999999</v>
       </c>
+      <c r="E320" t="n">
+        <v>2780.86</v>
+      </c>
+      <c r="F320" t="n">
+        <v>829.91</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="11" t="inlineStr">
@@ -20759,6 +22667,12 @@
       <c r="D321" t="n">
         <v>983.9400000000001</v>
       </c>
+      <c r="E321" t="n">
+        <v>2794.01</v>
+      </c>
+      <c r="F321" t="n">
+        <v>836.1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="11" t="inlineStr">
@@ -20775,6 +22689,12 @@
       <c r="D322" t="n">
         <v>989.61</v>
       </c>
+      <c r="E322" t="n">
+        <v>2824.94</v>
+      </c>
+      <c r="F322" t="n">
+        <v>840.8099999999999</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="11" t="inlineStr">
@@ -20791,6 +22711,12 @@
       <c r="D323" t="n">
         <v>991.8200000000001</v>
       </c>
+      <c r="E323" t="n">
+        <v>2862.23</v>
+      </c>
+      <c r="F323" t="n">
+        <v>847.49</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="11" t="inlineStr">
@@ -20807,6 +22733,12 @@
       <c r="D324" t="n">
         <v>997.78</v>
       </c>
+      <c r="E324" t="n">
+        <v>2857.76</v>
+      </c>
+      <c r="F324" t="n">
+        <v>859.27</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="11" t="inlineStr">
@@ -20823,6 +22755,12 @@
       <c r="D325" t="n">
         <v>998.91</v>
       </c>
+      <c r="E325" t="n">
+        <v>2867.38</v>
+      </c>
+      <c r="F325" t="n">
+        <v>860.42</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="11" t="inlineStr">
@@ -20839,6 +22777,12 @@
       <c r="D326" t="n">
         <v>1005.29</v>
       </c>
+      <c r="E326" t="n">
+        <v>2867.99</v>
+      </c>
+      <c r="F326" t="n">
+        <v>858.55</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="11" t="inlineStr">
@@ -20855,6 +22799,12 @@
       <c r="D327" t="n">
         <v>1010.46</v>
       </c>
+      <c r="E327" t="n">
+        <v>2891.35</v>
+      </c>
+      <c r="F327" t="n">
+        <v>852.42</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="11" t="inlineStr">
@@ -20871,6 +22821,12 @@
       <c r="D328" t="n">
         <v>1008.44</v>
       </c>
+      <c r="E328" t="n">
+        <v>2857</v>
+      </c>
+      <c r="F328" t="n">
+        <v>850.37</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="11" t="inlineStr">
@@ -20887,6 +22843,12 @@
       <c r="D329" t="n">
         <v>1006.14</v>
       </c>
+      <c r="E329" t="n">
+        <v>2860.92</v>
+      </c>
+      <c r="F329" t="n">
+        <v>852.88</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="11" t="inlineStr">
@@ -20903,6 +22865,12 @@
       <c r="D330" t="n">
         <v>1003.64</v>
       </c>
+      <c r="E330" t="n">
+        <v>2866.09</v>
+      </c>
+      <c r="F330" t="n">
+        <v>839.61</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="11" t="inlineStr">
@@ -20919,6 +22887,12 @@
       <c r="D331" t="n">
         <v>989.29</v>
       </c>
+      <c r="E331" t="n">
+        <v>2843.29</v>
+      </c>
+      <c r="F331" t="n">
+        <v>829.41</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="11" t="inlineStr">
@@ -20935,6 +22909,12 @@
       <c r="D332" t="n">
         <v>989.64</v>
       </c>
+      <c r="E332" t="n">
+        <v>2824.35</v>
+      </c>
+      <c r="F332" t="n">
+        <v>822.48</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="11" t="inlineStr">
@@ -20951,6 +22931,12 @@
       <c r="D333" t="n">
         <v>983.89</v>
       </c>
+      <c r="E333" t="n">
+        <v>2795.46</v>
+      </c>
+      <c r="F333" t="n">
+        <v>828.72</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="11" t="inlineStr">
@@ -20967,6 +22953,12 @@
       <c r="D334" t="n">
         <v>971.74</v>
       </c>
+      <c r="E334" t="n">
+        <v>2763.51</v>
+      </c>
+      <c r="F334" t="n">
+        <v>809.96</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="11" t="inlineStr">
@@ -20983,6 +22975,12 @@
       <c r="D335" t="n">
         <v>973.1900000000001</v>
       </c>
+      <c r="E335" t="n">
+        <v>2774.29</v>
+      </c>
+      <c r="F335" t="n">
+        <v>812.12</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="11" t="inlineStr">
@@ -20999,6 +22997,12 @@
       <c r="D336" t="n">
         <v>968.88</v>
       </c>
+      <c r="E336" t="n">
+        <v>2758.71</v>
+      </c>
+      <c r="F336" t="n">
+        <v>814.25</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="11" t="inlineStr">
@@ -21015,6 +23019,12 @@
       <c r="D337" t="n">
         <v>959.67</v>
       </c>
+      <c r="E337" t="n">
+        <v>2710.65</v>
+      </c>
+      <c r="F337" t="n">
+        <v>797.29</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="11" t="inlineStr">
@@ -21031,6 +23041,12 @@
       <c r="D338" t="n">
         <v>954.89</v>
       </c>
+      <c r="E338" t="n">
+        <v>2731.9</v>
+      </c>
+      <c r="F338" t="n">
+        <v>797.5599999999999</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="11" t="inlineStr">
@@ -21047,6 +23063,12 @@
       <c r="D339" t="n">
         <v>961.54</v>
       </c>
+      <c r="E339" t="n">
+        <v>2765.53</v>
+      </c>
+      <c r="F339" t="n">
+        <v>807.99</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="11" t="inlineStr">
@@ -21063,6 +23085,12 @@
       <c r="D340" t="n">
         <v>959.37</v>
       </c>
+      <c r="E340" t="n">
+        <v>2738.19</v>
+      </c>
+      <c r="F340" t="n">
+        <v>803.78</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="11" t="inlineStr">
@@ -21079,6 +23107,12 @@
       <c r="D341" t="n">
         <v>959.46</v>
       </c>
+      <c r="E341" t="n">
+        <v>2770.69</v>
+      </c>
+      <c r="F341" t="n">
+        <v>803.15</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="11" t="inlineStr">
@@ -21095,6 +23129,12 @@
       <c r="D342" t="n">
         <v>957.85</v>
       </c>
+      <c r="E342" t="n">
+        <v>2777.68</v>
+      </c>
+      <c r="F342" t="n">
+        <v>813.53</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="11" t="inlineStr">
@@ -21111,6 +23151,12 @@
       <c r="D343" t="n">
         <v>938.88</v>
       </c>
+      <c r="E343" t="n">
+        <v>2676.19</v>
+      </c>
+      <c r="F343" t="n">
+        <v>779.33</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="11" t="inlineStr">
@@ -21127,6 +23173,12 @@
       <c r="D344" t="n">
         <v>908.23</v>
       </c>
+      <c r="E344" t="n">
+        <v>2441.55</v>
+      </c>
+      <c r="F344" t="n">
+        <v>691.28</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="11" t="inlineStr">
@@ -21143,6 +23195,12 @@
       <c r="D345" t="n">
         <v>917.79</v>
       </c>
+      <c r="E345" t="n">
+        <v>2522.15</v>
+      </c>
+      <c r="F345" t="n">
+        <v>732.87</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="11" t="inlineStr">
@@ -21159,6 +23217,12 @@
       <c r="D346" t="n">
         <v>917.04</v>
       </c>
+      <c r="E346" t="n">
+        <v>2568.41</v>
+      </c>
+      <c r="F346" t="n">
+        <v>748.54</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="11" t="inlineStr">
@@ -21175,6 +23239,12 @@
       <c r="D347" t="n">
         <v>915.37</v>
       </c>
+      <c r="E347" t="n">
+        <v>2556.73</v>
+      </c>
+      <c r="F347" t="n">
+        <v>745.28</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="11" t="inlineStr">
@@ -21191,6 +23261,12 @@
       <c r="D348" t="n">
         <v>924.33</v>
       </c>
+      <c r="E348" t="n">
+        <v>2588.43</v>
+      </c>
+      <c r="F348" t="n">
+        <v>764.4299999999999</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="11" t="inlineStr">
@@ -21207,6 +23283,12 @@
       <c r="D349" t="n">
         <v>928.2</v>
       </c>
+      <c r="E349" t="n">
+        <v>2618.3</v>
+      </c>
+      <c r="F349" t="n">
+        <v>772.72</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="11" t="inlineStr">
@@ -21223,6 +23305,12 @@
       <c r="D350" t="n">
         <v>925.33</v>
       </c>
+      <c r="E350" t="n">
+        <v>2621.5</v>
+      </c>
+      <c r="F350" t="n">
+        <v>764.86</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="11" t="inlineStr">
@@ -21239,6 +23327,12 @@
       <c r="D351" t="n">
         <v>927.5599999999999</v>
       </c>
+      <c r="E351" t="n">
+        <v>2644.5</v>
+      </c>
+      <c r="F351" t="n">
+        <v>776.83</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="11" t="inlineStr">
@@ -21255,6 +23349,12 @@
       <c r="D352" t="n">
         <v>930.4299999999999</v>
       </c>
+      <c r="E352" t="n">
+        <v>2697.23</v>
+      </c>
+      <c r="F352" t="n">
+        <v>786.33</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="11" t="inlineStr">
@@ -21271,6 +23371,12 @@
       <c r="D353" t="n">
         <v>927.46</v>
       </c>
+      <c r="E353" t="n">
+        <v>2674.36</v>
+      </c>
+      <c r="F353" t="n">
+        <v>777.47</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="11" t="inlineStr">
@@ -21287,6 +23393,12 @@
       <c r="D354" t="n">
         <v>935.7</v>
       </c>
+      <c r="E354" t="n">
+        <v>2696.63</v>
+      </c>
+      <c r="F354" t="n">
+        <v>787.4400000000001</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="11" t="inlineStr">
@@ -21303,6 +23415,12 @@
       <c r="D355" t="n">
         <v>934.3</v>
       </c>
+      <c r="E355" t="n">
+        <v>2701.13</v>
+      </c>
+      <c r="F355" t="n">
+        <v>779.87</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="11" t="inlineStr">
@@ -21319,6 +23437,12 @@
       <c r="D356" t="n">
         <v>934.6900000000001</v>
       </c>
+      <c r="E356" t="n">
+        <v>2707.67</v>
+      </c>
+      <c r="F356" t="n">
+        <v>773.47</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="11" t="inlineStr">
@@ -21335,6 +23459,12 @@
       <c r="D357" t="n">
         <v>935.6</v>
       </c>
+      <c r="E357" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="F357" t="n">
+        <v>773.26</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="11" t="inlineStr">
@@ -21351,6 +23481,12 @@
       <c r="D358" t="n">
         <v>929.87</v>
       </c>
+      <c r="E358" t="n">
+        <v>2698.01</v>
+      </c>
+      <c r="F358" t="n">
+        <v>766.79</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="11" t="inlineStr">
@@ -21367,6 +23503,12 @@
       <c r="D359" t="n">
         <v>929.05</v>
       </c>
+      <c r="E359" t="n">
+        <v>2689.25</v>
+      </c>
+      <c r="F359" t="n">
+        <v>764.95</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="11" t="inlineStr">
@@ -21383,6 +23525,12 @@
       <c r="D360" t="n">
         <v>928.12</v>
       </c>
+      <c r="E360" t="n">
+        <v>2689.83</v>
+      </c>
+      <c r="F360" t="n">
+        <v>762.5</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="11" t="inlineStr">
@@ -21399,6 +23547,12 @@
       <c r="D361" t="n">
         <v>923.98</v>
       </c>
+      <c r="E361" t="n">
+        <v>2662.28</v>
+      </c>
+      <c r="F361" t="n">
+        <v>756.04</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="11" t="inlineStr">
@@ -21415,6 +23569,12 @@
       <c r="D362" t="n">
         <v>925.02</v>
       </c>
+      <c r="E362" t="n">
+        <v>2674.31</v>
+      </c>
+      <c r="F362" t="n">
+        <v>767.66</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="11" t="inlineStr">
@@ -21431,6 +23591,12 @@
       <c r="D363" t="n">
         <v>927.28</v>
       </c>
+      <c r="E363" t="n">
+        <v>2681</v>
+      </c>
+      <c r="F363" t="n">
+        <v>769.21</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="11" t="inlineStr">
@@ -21447,6 +23613,12 @@
       <c r="D364" t="n">
         <v>931.72</v>
       </c>
+      <c r="E364" t="n">
+        <v>2664.63</v>
+      </c>
+      <c r="F364" t="n">
+        <v>760.37</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="11" t="inlineStr">
@@ -21463,6 +23635,12 @@
       <c r="D365" t="n">
         <v>927.5700000000001</v>
       </c>
+      <c r="E365" t="n">
+        <v>2580.8</v>
+      </c>
+      <c r="F365" t="n">
+        <v>731.75</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="11" t="inlineStr">
@@ -21479,6 +23657,12 @@
       <c r="D366" t="n">
         <v>930.9299999999999</v>
       </c>
+      <c r="E366" t="n">
+        <v>2575.5</v>
+      </c>
+      <c r="F366" t="n">
+        <v>725.28</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="11" t="inlineStr">
@@ -21495,6 +23679,12 @@
       <c r="D367" t="n">
         <v>927.11</v>
       </c>
+      <c r="E367" t="n">
+        <v>2544.28</v>
+      </c>
+      <c r="F367" t="n">
+        <v>706.59</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="11" t="inlineStr">
@@ -21511,6 +23701,12 @@
       <c r="D368" t="n">
         <v>930.8200000000001</v>
       </c>
+      <c r="E368" t="n">
+        <v>2535.93</v>
+      </c>
+      <c r="F368" t="n">
+        <v>714.46</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="11" t="inlineStr">
@@ -21527,6 +23723,12 @@
       <c r="D369" t="n">
         <v>928.3099999999999</v>
       </c>
+      <c r="E369" t="n">
+        <v>2523.43</v>
+      </c>
+      <c r="F369" t="n">
+        <v>706.2</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="11" t="inlineStr">
@@ -21543,6 +23745,12 @@
       <c r="D370" t="n">
         <v>928.36</v>
       </c>
+      <c r="E370" t="n">
+        <v>2513.37</v>
+      </c>
+      <c r="F370" t="n">
+        <v>709.42</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="11" t="inlineStr">
@@ -21559,6 +23767,12 @@
       <c r="D371" t="n">
         <v>931.6</v>
       </c>
+      <c r="E371" t="n">
+        <v>2572.09</v>
+      </c>
+      <c r="F371" t="n">
+        <v>731.03</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="11" t="inlineStr">
@@ -21575,6 +23789,12 @@
       <c r="D372" t="n">
         <v>932.3200000000001</v>
       </c>
+      <c r="E372" t="n">
+        <v>2575.41</v>
+      </c>
+      <c r="F372" t="n">
+        <v>733.2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="11" t="inlineStr">
@@ -21591,6 +23811,12 @@
       <c r="D373" t="n">
         <v>931.66</v>
       </c>
+      <c r="E373" t="n">
+        <v>2580.8</v>
+      </c>
+      <c r="F373" t="n">
+        <v>739.51</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="11" t="inlineStr">
@@ -21607,6 +23833,12 @@
       <c r="D374" t="n">
         <v>934.76</v>
       </c>
+      <c r="E374" t="n">
+        <v>2593.37</v>
+      </c>
+      <c r="F374" t="n">
+        <v>748.33</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="11" t="inlineStr">
@@ -21623,6 +23855,12 @@
       <c r="D375" t="n">
         <v>939.04</v>
       </c>
+      <c r="E375" t="n">
+        <v>2602.01</v>
+      </c>
+      <c r="F375" t="n">
+        <v>755.12</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="11" t="inlineStr">
@@ -21639,6 +23877,12 @@
       <c r="D376" t="n">
         <v>934.47</v>
       </c>
+      <c r="E376" t="n">
+        <v>2631.68</v>
+      </c>
+      <c r="F376" t="n">
+        <v>767.35</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="11" t="inlineStr">
@@ -21655,6 +23899,12 @@
       <c r="D377" t="n">
         <v>924.95</v>
       </c>
+      <c r="E377" t="n">
+        <v>2596.32</v>
+      </c>
+      <c r="F377" t="n">
+        <v>759.3</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="11" t="inlineStr">
@@ -21671,6 +23921,12 @@
       <c r="D378" t="n">
         <v>932.55</v>
       </c>
+      <c r="E378" t="n">
+        <v>2671.57</v>
+      </c>
+      <c r="F378" t="n">
+        <v>779.1799999999999</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="11" t="inlineStr">
@@ -21687,6 +23943,12 @@
       <c r="D379" t="n">
         <v>926.11</v>
       </c>
+      <c r="E379" t="n">
+        <v>2649.78</v>
+      </c>
+      <c r="F379" t="n">
+        <v>774.49</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="11" t="inlineStr">
@@ -21703,6 +23965,12 @@
       <c r="D380" t="n">
         <v>925.3</v>
       </c>
+      <c r="E380" t="n">
+        <v>2593.27</v>
+      </c>
+      <c r="F380" t="n">
+        <v>763.88</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="11" t="inlineStr">
@@ -21719,6 +23987,12 @@
       <c r="D381" t="n">
         <v>912.5</v>
       </c>
+      <c r="E381" t="n">
+        <v>2561.69</v>
+      </c>
+      <c r="F381" t="n">
+        <v>762.13</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="11" t="inlineStr">
@@ -21735,6 +24009,12 @@
       <c r="D382" t="n">
         <v>918.25</v>
       </c>
+      <c r="E382" t="n">
+        <v>2569.71</v>
+      </c>
+      <c r="F382" t="n">
+        <v>768.98</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="11" t="inlineStr">
@@ -21751,6 +24031,12 @@
       <c r="D383" t="n">
         <v>929</v>
       </c>
+      <c r="E383" t="n">
+        <v>2610.38</v>
+      </c>
+      <c r="F383" t="n">
+        <v>781.01</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="11" t="inlineStr">
@@ -21767,6 +24053,12 @@
       <c r="D384" t="n">
         <v>924.2</v>
       </c>
+      <c r="E384" t="n">
+        <v>2594.36</v>
+      </c>
+      <c r="F384" t="n">
+        <v>778.24</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="11" t="inlineStr">
@@ -21783,6 +24075,12 @@
       <c r="D385" t="n">
         <v>933.01</v>
       </c>
+      <c r="E385" t="n">
+        <v>2599.16</v>
+      </c>
+      <c r="F385" t="n">
+        <v>775.48</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="11" t="inlineStr">
@@ -21799,6 +24097,12 @@
       <c r="D386" t="n">
         <v>932</v>
       </c>
+      <c r="E386" t="n">
+        <v>2596.91</v>
+      </c>
+      <c r="F386" t="n">
+        <v>770.98</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="11" t="inlineStr">
@@ -21815,6 +24119,12 @@
       <c r="D387" t="n">
         <v>941.63</v>
       </c>
+      <c r="E387" t="n">
+        <v>2623.29</v>
+      </c>
+      <c r="F387" t="n">
+        <v>770.26</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="11" t="inlineStr">
@@ -21831,6 +24141,12 @@
       <c r="D388" t="n">
         <v>952.91</v>
       </c>
+      <c r="E388" t="n">
+        <v>2633.45</v>
+      </c>
+      <c r="F388" t="n">
+        <v>773.8099999999999</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="11" t="inlineStr">
@@ -21847,6 +24163,12 @@
       <c r="D389" t="n">
         <v>952.05</v>
       </c>
+      <c r="E389" t="n">
+        <v>2610.36</v>
+      </c>
+      <c r="F389" t="n">
+        <v>765.79</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="11" t="inlineStr">
@@ -21863,6 +24185,12 @@
       <c r="D390" t="n">
         <v>963.85</v>
       </c>
+      <c r="E390" t="n">
+        <v>2609.3</v>
+      </c>
+      <c r="F390" t="n">
+        <v>765.0599999999999</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="11" t="inlineStr">
@@ -21879,6 +24207,12 @@
       <c r="D391" t="n">
         <v>954.17</v>
       </c>
+      <c r="E391" t="n">
+        <v>2593.82</v>
+      </c>
+      <c r="F391" t="n">
+        <v>753.22</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="11" t="inlineStr">
@@ -21895,6 +24229,12 @@
       <c r="D392" t="n">
         <v>955.84</v>
       </c>
+      <c r="E392" t="n">
+        <v>2604.92</v>
+      </c>
+      <c r="F392" t="n">
+        <v>759.95</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="11" t="inlineStr">
@@ -21911,6 +24251,12 @@
       <c r="D393" t="n">
         <v>955.03</v>
       </c>
+      <c r="E393" t="n">
+        <v>2570.7</v>
+      </c>
+      <c r="F393" t="n">
+        <v>738.34</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="11" t="inlineStr">
@@ -21927,6 +24273,12 @@
       <c r="D394" t="n">
         <v>959.92</v>
       </c>
+      <c r="E394" t="n">
+        <v>2599.62</v>
+      </c>
+      <c r="F394" t="n">
+        <v>745.1900000000001</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="11" t="inlineStr">
@@ -21943,6 +24295,12 @@
       <c r="D395" t="n">
         <v>957.87</v>
       </c>
+      <c r="E395" t="n">
+        <v>2581.03</v>
+      </c>
+      <c r="F395" t="n">
+        <v>734.59</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="11" t="inlineStr">
@@ -21959,6 +24317,12 @@
       <c r="D396" t="n">
         <v>953.51</v>
       </c>
+      <c r="E396" t="n">
+        <v>2583.27</v>
+      </c>
+      <c r="F396" t="n">
+        <v>727.41</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="11" t="inlineStr">
@@ -21975,6 +24339,12 @@
       <c r="D397" t="n">
         <v>951.48</v>
       </c>
+      <c r="E397" t="n">
+        <v>2612.43</v>
+      </c>
+      <c r="F397" t="n">
+        <v>740.48</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="11" t="inlineStr">
@@ -21991,6 +24361,12 @@
       <c r="D398" t="n">
         <v>947.98</v>
       </c>
+      <c r="E398" t="n">
+        <v>2617.8</v>
+      </c>
+      <c r="F398" t="n">
+        <v>744.1799999999999</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="11" t="inlineStr">
@@ -22007,6 +24383,12 @@
       <c r="D399" t="n">
         <v>945.9299999999999</v>
       </c>
+      <c r="E399" t="n">
+        <v>2593.79</v>
+      </c>
+      <c r="F399" t="n">
+        <v>738.1900000000001</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="11" t="inlineStr">
@@ -22023,6 +24405,12 @@
       <c r="D400" t="n">
         <v>935.74</v>
       </c>
+      <c r="E400" t="n">
+        <v>2556.15</v>
+      </c>
+      <c r="F400" t="n">
+        <v>743.0599999999999</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="11" t="inlineStr">
@@ -22039,6 +24427,12 @@
       <c r="D401" t="n">
         <v>927.12</v>
       </c>
+      <c r="E401" t="n">
+        <v>2542.36</v>
+      </c>
+      <c r="F401" t="n">
+        <v>729.05</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="11" t="inlineStr">
@@ -22055,6 +24449,12 @@
       <c r="D402" t="n">
         <v>940.9299999999999</v>
       </c>
+      <c r="E402" t="n">
+        <v>2588.97</v>
+      </c>
+      <c r="F402" t="n">
+        <v>754.08</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="11" t="inlineStr">
@@ -22071,6 +24471,12 @@
       <c r="D403" t="n">
         <v>938.78</v>
       </c>
+      <c r="E403" t="n">
+        <v>2576.88</v>
+      </c>
+      <c r="F403" t="n">
+        <v>751.8099999999999</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="11" t="inlineStr">
@@ -22087,6 +24493,12 @@
       <c r="D404" t="n">
         <v>945.35</v>
       </c>
+      <c r="E404" t="n">
+        <v>2563.51</v>
+      </c>
+      <c r="F404" t="n">
+        <v>743.3099999999999</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="11" t="inlineStr">
@@ -22103,6 +24515,12 @@
       <c r="D405" t="n">
         <v>943.51</v>
       </c>
+      <c r="E405" t="n">
+        <v>2564.63</v>
+      </c>
+      <c r="F405" t="n">
+        <v>733.52</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="11" t="inlineStr">
@@ -22119,6 +24537,12 @@
       <c r="D406" t="n">
         <v>937.08</v>
       </c>
+      <c r="E406" t="n">
+        <v>2561.15</v>
+      </c>
+      <c r="F406" t="n">
+        <v>743.38</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="11" t="inlineStr">
@@ -22135,6 +24559,12 @@
       <c r="D407" t="n">
         <v>926.71</v>
       </c>
+      <c r="E407" t="n">
+        <v>2531.66</v>
+      </c>
+      <c r="F407" t="n">
+        <v>728.84</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="11" t="inlineStr">
@@ -22151,6 +24581,12 @@
       <c r="D408" t="n">
         <v>897.91</v>
       </c>
+      <c r="E408" t="n">
+        <v>2482.57</v>
+      </c>
+      <c r="F408" t="n">
+        <v>710.52</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="11" t="inlineStr">
@@ -22167,6 +24603,12 @@
       <c r="D409" t="n">
         <v>891.74</v>
       </c>
+      <c r="E409" t="n">
+        <v>2417.08</v>
+      </c>
+      <c r="F409" t="n">
+        <v>689.65</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="11" t="inlineStr">
@@ -22183,6 +24625,12 @@
       <c r="D410" t="n">
         <v>894.38</v>
       </c>
+      <c r="E410" t="n">
+        <v>2418.86</v>
+      </c>
+      <c r="F410" t="n">
+        <v>681.5599999999999</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="11" t="inlineStr">
@@ -22199,6 +24647,12 @@
       <c r="D411" t="n">
         <v>894.73</v>
       </c>
+      <c r="E411" t="n">
+        <v>2416.86</v>
+      </c>
+      <c r="F411" t="n">
+        <v>685.42</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="11" t="inlineStr">
@@ -22215,6 +24669,12 @@
       <c r="D412" t="n">
         <v>900.29</v>
       </c>
+      <c r="E412" t="n">
+        <v>2469.07</v>
+      </c>
+      <c r="F412" t="n">
+        <v>689.55</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="11" t="inlineStr">
@@ -22231,6 +24691,12 @@
       <c r="D413" t="n">
         <v>899.0700000000001</v>
       </c>
+      <c r="E413" t="n">
+        <v>2471.95</v>
+      </c>
+      <c r="F413" t="n">
+        <v>686.12</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="11" t="inlineStr">
@@ -22247,6 +24713,12 @@
       <c r="D414" t="n">
         <v>898.17</v>
       </c>
+      <c r="E414" t="n">
+        <v>2482.29</v>
+      </c>
+      <c r="F414" t="n">
+        <v>682.91</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="11" t="inlineStr">
@@ -22263,6 +24735,12 @@
       <c r="D415" t="n">
         <v>883.49</v>
       </c>
+      <c r="E415" t="n">
+        <v>2480.63</v>
+      </c>
+      <c r="F415" t="n">
+        <v>680.67</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="11" t="inlineStr">
@@ -22279,6 +24757,12 @@
       <c r="D416" t="n">
         <v>883.65</v>
       </c>
+      <c r="E416" t="n">
+        <v>2501.24</v>
+      </c>
+      <c r="F416" t="n">
+        <v>677.01</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="11" t="inlineStr">
@@ -22295,6 +24779,12 @@
       <c r="D417" t="n">
         <v>890.29</v>
       </c>
+      <c r="E417" t="n">
+        <v>2534.34</v>
+      </c>
+      <c r="F417" t="n">
+        <v>696.83</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="11" t="inlineStr">
@@ -22311,6 +24801,12 @@
       <c r="D418" t="n">
         <v>878.79</v>
       </c>
+      <c r="E418" t="n">
+        <v>2520.36</v>
+      </c>
+      <c r="F418" t="n">
+        <v>693.15</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="11" t="inlineStr">
@@ -22327,6 +24823,12 @@
       <c r="D419" t="n">
         <v>875.98</v>
       </c>
+      <c r="E419" t="n">
+        <v>2503.06</v>
+      </c>
+      <c r="F419" t="n">
+        <v>692</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="11" t="inlineStr">
@@ -22343,6 +24845,12 @@
       <c r="D420" t="n">
         <v>876.77</v>
       </c>
+      <c r="E420" t="n">
+        <v>2504.67</v>
+      </c>
+      <c r="F420" t="n">
+        <v>694.39</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="11" t="inlineStr">
@@ -22359,6 +24867,12 @@
       <c r="D421" t="n">
         <v>868.25</v>
       </c>
+      <c r="E421" t="n">
+        <v>2455.91</v>
+      </c>
+      <c r="F421" t="n">
+        <v>678.1900000000001</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="11" t="inlineStr">
@@ -22375,6 +24889,12 @@
       <c r="D422" t="n">
         <v>873.77</v>
       </c>
+      <c r="E422" t="n">
+        <v>2454.48</v>
+      </c>
+      <c r="F422" t="n">
+        <v>675.84</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="11" t="inlineStr">
@@ -22391,6 +24911,12 @@
       <c r="D423" t="n">
         <v>896.08</v>
       </c>
+      <c r="E423" t="n">
+        <v>2500.1</v>
+      </c>
+      <c r="F423" t="n">
+        <v>690.8</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="11" t="inlineStr">
@@ -22407,6 +24933,12 @@
       <c r="D424" t="n">
         <v>882.73</v>
       </c>
+      <c r="E424" t="n">
+        <v>2464</v>
+      </c>
+      <c r="F424" t="n">
+        <v>677.15</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="11" t="inlineStr">
@@ -22423,6 +24955,12 @@
       <c r="D425" t="n">
         <v>873.46</v>
       </c>
+      <c r="E425" t="n">
+        <v>2441.85</v>
+      </c>
+      <c r="F425" t="n">
+        <v>670.9400000000001</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="11" t="inlineStr">
@@ -22439,6 +24977,12 @@
       <c r="D426" t="n">
         <v>863.99</v>
       </c>
+      <c r="E426" t="n">
+        <v>2428.16</v>
+      </c>
+      <c r="F426" t="n">
+        <v>661.33</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="11" t="inlineStr">
@@ -22455,6 +24999,12 @@
       <c r="D427" t="n">
         <v>840.36</v>
       </c>
+      <c r="E427" t="n">
+        <v>2360.58</v>
+      </c>
+      <c r="F427" t="n">
+        <v>627.01</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="11" t="inlineStr">
@@ -22471,6 +25021,12 @@
       <c r="D428" t="n">
         <v>868.23</v>
       </c>
+      <c r="E428" t="n">
+        <v>2417.84</v>
+      </c>
+      <c r="F428" t="n">
+        <v>661.59</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="11" t="inlineStr">
@@ -22487,6 +25043,12 @@
       <c r="D429" t="n">
         <v>888.95</v>
       </c>
+      <c r="E429" t="n">
+        <v>2442.51</v>
+      </c>
+      <c r="F429" t="n">
+        <v>675.92</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="11" t="inlineStr">
@@ -22503,6 +25065,12 @@
       <c r="D430" t="n">
         <v>897.97</v>
       </c>
+      <c r="E430" t="n">
+        <v>2482.12</v>
+      </c>
+      <c r="F430" t="n">
+        <v>683.35</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="11" t="inlineStr">
@@ -22519,6 +25087,12 @@
       <c r="D431" t="n">
         <v>910.54</v>
       </c>
+      <c r="E431" t="n">
+        <v>2494.46</v>
+      </c>
+      <c r="F431" t="n">
+        <v>693.73</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="11" t="inlineStr">
@@ -22535,6 +25109,12 @@
       <c r="D432" t="n">
         <v>915.86</v>
       </c>
+      <c r="E432" t="n">
+        <v>2488.97</v>
+      </c>
+      <c r="F432" t="n">
+        <v>698.53</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="11" t="inlineStr">
@@ -22551,6 +25131,12 @@
       <c r="D433" t="n">
         <v>908.8099999999999</v>
       </c>
+      <c r="E433" t="n">
+        <v>2456.81</v>
+      </c>
+      <c r="F433" t="n">
+        <v>694.47</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="11" t="inlineStr">
@@ -22567,6 +25153,12 @@
       <c r="D434" t="n">
         <v>902.28</v>
       </c>
+      <c r="E434" t="n">
+        <v>2484.43</v>
+      </c>
+      <c r="F434" t="n">
+        <v>697.5700000000001</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="11" t="inlineStr">
@@ -22583,6 +25175,12 @@
       <c r="D435" t="n">
         <v>893.52</v>
       </c>
+      <c r="E435" t="n">
+        <v>2435.93</v>
+      </c>
+      <c r="F435" t="n">
+        <v>684.36</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="11" t="inlineStr">
@@ -22599,6 +25197,12 @@
       <c r="D436" t="n">
         <v>881.6</v>
       </c>
+      <c r="E436" t="n">
+        <v>2404.15</v>
+      </c>
+      <c r="F436" t="n">
+        <v>668.3099999999999</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="11" t="inlineStr">
@@ -22615,6 +25219,12 @@
       <c r="D437" t="n">
         <v>891.47</v>
       </c>
+      <c r="E437" t="n">
+        <v>2442.01</v>
+      </c>
+      <c r="F437" t="n">
+        <v>679.24</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="11" t="inlineStr">
@@ -22631,6 +25241,12 @@
       <c r="D438" t="n">
         <v>896.13</v>
       </c>
+      <c r="E438" t="n">
+        <v>2440.52</v>
+      </c>
+      <c r="F438" t="n">
+        <v>680.11</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="11" t="inlineStr">
@@ -22647,6 +25263,12 @@
       <c r="D439" t="n">
         <v>895.14</v>
       </c>
+      <c r="E439" t="n">
+        <v>2429.67</v>
+      </c>
+      <c r="F439" t="n">
+        <v>675.64</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="11" t="inlineStr">
@@ -22663,6 +25285,12 @@
       <c r="D440" t="n">
         <v>888.24</v>
       </c>
+      <c r="E440" t="n">
+        <v>2404.77</v>
+      </c>
+      <c r="F440" t="n">
+        <v>665.97</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="11" t="inlineStr">
@@ -22679,6 +25307,12 @@
       <c r="D441" t="n">
         <v>893.62</v>
       </c>
+      <c r="E441" t="n">
+        <v>2399.49</v>
+      </c>
+      <c r="F441" t="n">
+        <v>678.1900000000001</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="11" t="inlineStr">
@@ -22711,6 +25345,12 @@
       <c r="D443" t="n">
         <v>894.98</v>
       </c>
+      <c r="E443" t="n">
+        <v>2398.94</v>
+      </c>
+      <c r="F443" t="n">
+        <v>686.63</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="11" t="inlineStr">
@@ -22727,6 +25367,12 @@
       <c r="D444" t="n">
         <v>910.52</v>
       </c>
+      <c r="E444" t="n">
+        <v>2441.92</v>
+      </c>
+      <c r="F444" t="n">
+        <v>705.76</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="11" t="inlineStr">
@@ -22743,6 +25389,12 @@
       <c r="D445" t="n">
         <v>927.35</v>
       </c>
+      <c r="E445" t="n">
+        <v>2488.64</v>
+      </c>
+      <c r="F445" t="n">
+        <v>717.96</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="11" t="inlineStr">
@@ -22759,6 +25411,12 @@
       <c r="D446" t="n">
         <v>921.47</v>
       </c>
+      <c r="E446" t="n">
+        <v>2492.1</v>
+      </c>
+      <c r="F446" t="n">
+        <v>718.29</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="11" t="inlineStr">
@@ -22775,6 +25433,12 @@
       <c r="D447" t="n">
         <v>914.76</v>
       </c>
+      <c r="E447" t="n">
+        <v>2521.05</v>
+      </c>
+      <c r="F447" t="n">
+        <v>719.63</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="11" t="inlineStr">
@@ -22791,6 +25455,12 @@
       <c r="D448" t="n">
         <v>923.12</v>
       </c>
+      <c r="E448" t="n">
+        <v>2521.9</v>
+      </c>
+      <c r="F448" t="n">
+        <v>723.52</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="11" t="inlineStr">
@@ -22807,6 +25477,12 @@
       <c r="D449" t="n">
         <v>922.76</v>
       </c>
+      <c r="E449" t="n">
+        <v>2515.78</v>
+      </c>
+      <c r="F449" t="n">
+        <v>717.89</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="11" t="inlineStr">
@@ -22823,6 +25499,12 @@
       <c r="D450" t="n">
         <v>918.62</v>
       </c>
+      <c r="E450" t="n">
+        <v>2489.56</v>
+      </c>
+      <c r="F450" t="n">
+        <v>708.21</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="11" t="inlineStr">
@@ -22839,6 +25521,12 @@
       <c r="D451" t="n">
         <v>927.85</v>
       </c>
+      <c r="E451" t="n">
+        <v>2497.4</v>
+      </c>
+      <c r="F451" t="n">
+        <v>718.04</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="11" t="inlineStr">
@@ -22855,6 +25543,12 @@
       <c r="D452" t="n">
         <v>925.61</v>
       </c>
+      <c r="E452" t="n">
+        <v>2496.81</v>
+      </c>
+      <c r="F452" t="n">
+        <v>711.61</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="11" t="inlineStr">
@@ -22871,6 +25565,12 @@
       <c r="D453" t="n">
         <v>934.0700000000001</v>
       </c>
+      <c r="E453" t="n">
+        <v>2527.49</v>
+      </c>
+      <c r="F453" t="n">
+        <v>724.24</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="11" t="inlineStr">
@@ -22887,6 +25587,12 @@
       <c r="D454" t="n">
         <v>942.9</v>
       </c>
+      <c r="E454" t="n">
+        <v>2523.55</v>
+      </c>
+      <c r="F454" t="n">
+        <v>724.6900000000001</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="11" t="inlineStr">
@@ -22903,6 +25609,12 @@
       <c r="D455" t="n">
         <v>940.98</v>
       </c>
+      <c r="E455" t="n">
+        <v>2520.05</v>
+      </c>
+      <c r="F455" t="n">
+        <v>727.66</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="11" t="inlineStr">
@@ -22919,6 +25631,12 @@
       <c r="D456" t="n">
         <v>953.51</v>
       </c>
+      <c r="E456" t="n">
+        <v>2518.03</v>
+      </c>
+      <c r="F456" t="n">
+        <v>726.0700000000001</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="11" t="inlineStr">
@@ -22935,6 +25653,12 @@
       <c r="D457" t="n">
         <v>962.76</v>
       </c>
+      <c r="E457" t="n">
+        <v>2547.06</v>
+      </c>
+      <c r="F457" t="n">
+        <v>732.3099999999999</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="11" t="inlineStr">
@@ -22951,6 +25675,12 @@
       <c r="D458" t="n">
         <v>946.95</v>
       </c>
+      <c r="E458" t="n">
+        <v>2515.49</v>
+      </c>
+      <c r="F458" t="n">
+        <v>724.01</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="11" t="inlineStr">
@@ -22967,6 +25697,12 @@
       <c r="D459" t="n">
         <v>964.96</v>
       </c>
+      <c r="E459" t="n">
+        <v>2536.8</v>
+      </c>
+      <c r="F459" t="n">
+        <v>728.74</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="11" t="inlineStr">
@@ -22983,6 +25719,12 @@
       <c r="D460" t="n">
         <v>951.86</v>
       </c>
+      <c r="E460" t="n">
+        <v>2517.37</v>
+      </c>
+      <c r="F460" t="n">
+        <v>728.29</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="11" t="inlineStr">
@@ -22999,6 +25741,12 @@
       <c r="D461" t="n">
         <v>929.49</v>
       </c>
+      <c r="E461" t="n">
+        <v>2453.95</v>
+      </c>
+      <c r="F461" t="n">
+        <v>703.8</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="11" t="inlineStr">
@@ -23015,6 +25763,12 @@
       <c r="D462" t="n">
         <v>948.02</v>
       </c>
+      <c r="E462" t="n">
+        <v>2481.69</v>
+      </c>
+      <c r="F462" t="n">
+        <v>719.92</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="11" t="inlineStr">
@@ -23031,6 +25785,12 @@
       <c r="D463" t="n">
         <v>953.37</v>
       </c>
+      <c r="E463" t="n">
+        <v>2509.27</v>
+      </c>
+      <c r="F463" t="n">
+        <v>730.98</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="11" t="inlineStr">
@@ -23047,6 +25807,12 @@
       <c r="D464" t="n">
         <v>970.51</v>
       </c>
+      <c r="E464" t="n">
+        <v>2536.75</v>
+      </c>
+      <c r="F464" t="n">
+        <v>740.3200000000001</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="11" t="inlineStr">
@@ -23062,6 +25828,12 @@
       </c>
       <c r="D465" t="n">
         <v>965.96</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2521.92</v>
+      </c>
+      <c r="F465" t="n">
+        <v>742.9</v>
       </c>
     </row>
     <row r="466">
@@ -94991,9 +97763,6 @@
           <t>24.6%</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>24.6%</t>
@@ -95014,21 +97783,11 @@
           <t>21.6%</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>21.6%</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -95156,9 +97915,6 @@
           <t>15.6%</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>23.0%</t>
@@ -95179,20 +97935,11 @@
           <t>17.6%</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -95325,9 +98072,6 @@
           <t>15.6%</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>23.0%</t>
@@ -95348,20 +98092,11 @@
           <t>17.6%</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -95494,9 +98229,6 @@
           <t>19.4%</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
           <t>31.0%</t>
@@ -95517,9 +98249,6 @@
           <t>18.5%</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>21.7%</t>
@@ -95530,11 +98259,6 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -95667,9 +98391,6 @@
           <t>17.4%</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>30.7%</t>
@@ -95690,9 +98411,6 @@
           <t>16.6%</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
           <t>19.5%</t>
@@ -95703,11 +98421,6 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -95905,10 +98618,6 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>1.2%</t>
@@ -96106,10 +98815,6 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr">
         <is>
           <t>2.4%</t>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EE333-CDE1-4BEA-BAFD-6073F3756115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C6072D-6410-4D56-8B4E-C1646736D7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31195,8 +31195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="E715" sqref="E715"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54B6EF-17F1-4C6C-A5FF-3A242D29DCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17FDFFE-3E88-4CE0-BD2D-71748088130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
     <sheet name="Code" sheetId="3" r:id="rId3"/>
     <sheet name="수익률" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19634,7 +19647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19677,6 +19690,30 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19752,10 +19789,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -19791,8 +19831,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -31596,10 +31640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="D715" sqref="D715"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="A714" sqref="A714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -44373,7 +44417,7 @@
       <c r="B682">
         <v>2021.31</v>
       </c>
-      <c r="C682">
+      <c r="C682" s="13">
         <v>2038.06</v>
       </c>
       <c r="D682">
@@ -44393,7 +44437,7 @@
       <c r="B683">
         <v>2089.4899999999998</v>
       </c>
-      <c r="C683">
+      <c r="C683" s="14">
         <v>2047.3</v>
       </c>
       <c r="D683">
@@ -45060,6 +45104,11 @@
       <c r="G715">
         <v>1024.43</v>
       </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B716" s="15"/>
+      <c r="C716" s="15"/>
+      <c r="D716" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17FDFFE-3E88-4CE0-BD2D-71748088130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E020C9D-444C-4B1C-9CFE-7D7C3BBA1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31643,7 +31643,7 @@
   <dimension ref="A1:G716"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="A714" sqref="A714"/>
+      <selection activeCell="F695" sqref="F695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Antigravity_Market_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E020C9D-444C-4B1C-9CFE-7D7C3BBA1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B197898A-50DD-4467-BB6B-DC25B788CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31642,8 +31642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="F695" sqref="F695"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -17050,51 +17050,51 @@
   </sheetPr>
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>트루밸류</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>Value ESG</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>개방형 랩</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>KOSPI</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
-        <is>
-          <t>KOSDAQ</t>
-        </is>
-      </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="F1" s="16" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>목표전환형</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
@@ -17110,7 +17110,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
@@ -17126,7 +17126,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
@@ -17145,7 +17145,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
@@ -17164,7 +17164,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
@@ -17183,7 +17183,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
@@ -17202,7 +17202,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
@@ -17221,7 +17221,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
@@ -17240,7 +17240,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
@@ -17259,7 +17259,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="16" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
@@ -17278,7 +17278,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
@@ -17297,7 +17297,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
@@ -17316,7 +17316,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
@@ -17335,7 +17335,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
@@ -17354,7 +17354,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
@@ -17373,7 +17373,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
@@ -17392,7 +17392,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
@@ -17411,7 +17411,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
@@ -17449,7 +17449,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
@@ -17468,7 +17468,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
@@ -17487,7 +17487,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
@@ -17506,7 +17506,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
@@ -17525,7 +17525,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
@@ -17544,7 +17544,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
@@ -17563,7 +17563,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="inlineStr">
+      <c r="A27" s="16" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
@@ -17582,7 +17582,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
+      <c r="A28" s="16" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
@@ -17601,7 +17601,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="inlineStr">
+      <c r="A29" s="16" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
@@ -17620,7 +17620,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="A30" s="16" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
@@ -17639,7 +17639,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="16" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
@@ -17658,7 +17658,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="inlineStr">
+      <c r="A32" s="16" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
@@ -17677,7 +17677,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="inlineStr">
+      <c r="A33" s="16" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
@@ -17696,7 +17696,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="inlineStr">
+      <c r="A34" s="16" t="inlineStr">
         <is>
           <t>2023-05-02</t>
         </is>
@@ -17715,7 +17715,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
+      <c r="A35" s="16" t="inlineStr">
         <is>
           <t>2023-05-03</t>
         </is>
@@ -17734,7 +17734,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
+      <c r="A36" s="16" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
@@ -17753,7 +17753,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
+      <c r="A37" s="16" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
@@ -17772,7 +17772,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+      <c r="A38" s="16" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
@@ -17791,7 +17791,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="inlineStr">
+      <c r="A39" s="16" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
@@ -17810,7 +17810,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+      <c r="A40" s="16" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
@@ -17829,7 +17829,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A41" s="16" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
@@ -17848,7 +17848,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="inlineStr">
+      <c r="A42" s="16" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
@@ -17867,7 +17867,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="inlineStr">
+      <c r="A43" s="16" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
@@ -17886,7 +17886,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="inlineStr">
+      <c r="A44" s="16" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
@@ -17905,7 +17905,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+      <c r="A45" s="16" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
@@ -17924,7 +17924,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+      <c r="A46" s="16" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
@@ -17943,7 +17943,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="inlineStr">
+      <c r="A47" s="16" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
@@ -17962,7 +17962,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="inlineStr">
+      <c r="A48" s="16" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
@@ -17981,7 +17981,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="inlineStr">
+      <c r="A49" s="16" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
@@ -18000,7 +18000,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="inlineStr">
+      <c r="A50" s="16" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
@@ -18019,7 +18019,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="inlineStr">
+      <c r="A51" s="16" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
@@ -18038,7 +18038,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
+      <c r="A52" s="16" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
@@ -18057,7 +18057,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="inlineStr">
+      <c r="A53" s="16" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
@@ -18076,7 +18076,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="inlineStr">
+      <c r="A54" s="16" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
@@ -18095,7 +18095,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="inlineStr">
+      <c r="A55" s="16" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
@@ -18114,7 +18114,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="inlineStr">
+      <c r="A56" s="16" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
@@ -18133,7 +18133,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+      <c r="A57" s="16" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
@@ -18152,7 +18152,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="inlineStr">
+      <c r="A58" s="16" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
@@ -18171,7 +18171,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
+      <c r="A59" s="16" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
@@ -18190,7 +18190,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="inlineStr">
+      <c r="A60" s="16" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
@@ -18209,7 +18209,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
+      <c r="A61" s="16" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
@@ -18228,7 +18228,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="inlineStr">
+      <c r="A62" s="16" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
@@ -18247,7 +18247,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+      <c r="A63" s="16" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
@@ -18266,7 +18266,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
+      <c r="A64" s="16" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
@@ -18285,7 +18285,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="inlineStr">
+      <c r="A65" s="16" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
@@ -18304,7 +18304,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="inlineStr">
+      <c r="A66" s="16" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
@@ -18323,7 +18323,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="inlineStr">
+      <c r="A67" s="16" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
@@ -18342,7 +18342,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
+      <c r="A68" s="16" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
@@ -18361,7 +18361,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="inlineStr">
+      <c r="A69" s="16" t="inlineStr">
         <is>
           <t>2023-06-23</t>
         </is>
@@ -18380,7 +18380,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="inlineStr">
+      <c r="A70" s="16" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
@@ -18399,7 +18399,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="16" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
@@ -18418,7 +18418,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="inlineStr">
+      <c r="A72" s="16" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
@@ -18437,7 +18437,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="inlineStr">
+      <c r="A73" s="16" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
@@ -18456,7 +18456,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="inlineStr">
+      <c r="A74" s="16" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
@@ -18475,7 +18475,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="inlineStr">
+      <c r="A75" s="16" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
@@ -18494,7 +18494,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="inlineStr">
+      <c r="A76" s="16" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
@@ -18513,7 +18513,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="inlineStr">
+      <c r="A77" s="16" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
@@ -18532,7 +18532,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="inlineStr">
+      <c r="A78" s="16" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
@@ -18551,7 +18551,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="inlineStr">
+      <c r="A79" s="16" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
@@ -18570,7 +18570,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="inlineStr">
+      <c r="A80" s="16" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
@@ -18589,7 +18589,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="inlineStr">
+      <c r="A81" s="16" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
@@ -18608,7 +18608,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="inlineStr">
+      <c r="A82" s="16" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
@@ -18627,7 +18627,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="inlineStr">
+      <c r="A83" s="16" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
@@ -18646,7 +18646,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="inlineStr">
+      <c r="A84" s="16" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
@@ -18665,7 +18665,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="inlineStr">
+      <c r="A85" s="16" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
@@ -18684,7 +18684,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="inlineStr">
+      <c r="A86" s="16" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
@@ -18703,7 +18703,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="inlineStr">
+      <c r="A87" s="16" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
@@ -18722,7 +18722,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="inlineStr">
+      <c r="A88" s="16" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
@@ -18741,7 +18741,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="inlineStr">
+      <c r="A89" s="16" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
@@ -18760,7 +18760,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="inlineStr">
+      <c r="A90" s="16" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
@@ -18779,7 +18779,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="inlineStr">
+      <c r="A91" s="16" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
@@ -18798,7 +18798,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="inlineStr">
+      <c r="A92" s="16" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
@@ -18817,7 +18817,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="inlineStr">
+      <c r="A93" s="16" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
@@ -18836,7 +18836,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="inlineStr">
+      <c r="A94" s="16" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
@@ -18855,7 +18855,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="inlineStr">
+      <c r="A95" s="16" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
@@ -18874,7 +18874,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="inlineStr">
+      <c r="A96" s="16" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
@@ -18893,7 +18893,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="inlineStr">
+      <c r="A97" s="16" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
@@ -18912,7 +18912,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="inlineStr">
+      <c r="A98" s="16" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
@@ -18931,7 +18931,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="inlineStr">
+      <c r="A99" s="16" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
@@ -18950,7 +18950,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="inlineStr">
+      <c r="A100" s="16" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
@@ -18969,7 +18969,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="inlineStr">
+      <c r="A101" s="16" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
@@ -18988,7 +18988,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="8" t="inlineStr">
+      <c r="A102" s="16" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
@@ -19007,7 +19007,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="8" t="inlineStr">
+      <c r="A103" s="16" t="inlineStr">
         <is>
           <t>2023-08-10</t>
         </is>
@@ -19026,7 +19026,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="8" t="inlineStr">
+      <c r="A104" s="16" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
@@ -19045,7 +19045,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="8" t="inlineStr">
+      <c r="A105" s="16" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
@@ -19064,7 +19064,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="8" t="inlineStr">
+      <c r="A106" s="16" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
@@ -19083,7 +19083,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="8" t="inlineStr">
+      <c r="A107" s="16" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
@@ -19102,7 +19102,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="8" t="inlineStr">
+      <c r="A108" s="16" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
@@ -19121,7 +19121,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="8" t="inlineStr">
+      <c r="A109" s="16" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
@@ -19140,7 +19140,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="8" t="inlineStr">
+      <c r="A110" s="16" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
@@ -19159,7 +19159,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="8" t="inlineStr">
+      <c r="A111" s="16" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
@@ -19178,7 +19178,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="8" t="inlineStr">
+      <c r="A112" s="16" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
@@ -19197,7 +19197,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="8" t="inlineStr">
+      <c r="A113" s="16" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
@@ -19216,7 +19216,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="8" t="inlineStr">
+      <c r="A114" s="16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
@@ -19235,7 +19235,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="8" t="inlineStr">
+      <c r="A115" s="16" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
@@ -19254,7 +19254,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="8" t="inlineStr">
+      <c r="A116" s="16" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
@@ -19273,7 +19273,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="8" t="inlineStr">
+      <c r="A117" s="16" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
@@ -19292,7 +19292,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="8" t="inlineStr">
+      <c r="A118" s="16" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
@@ -19311,7 +19311,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="8" t="inlineStr">
+      <c r="A119" s="16" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
@@ -19330,7 +19330,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="inlineStr">
+      <c r="A120" s="16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
@@ -19349,7 +19349,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="inlineStr">
+      <c r="A121" s="16" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
@@ -19368,7 +19368,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr">
+      <c r="A122" s="16" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
@@ -19387,7 +19387,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="inlineStr">
+      <c r="A123" s="16" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
@@ -19406,7 +19406,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="inlineStr">
+      <c r="A124" s="16" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
@@ -19425,7 +19425,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr">
+      <c r="A125" s="16" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
@@ -19444,7 +19444,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="inlineStr">
+      <c r="A126" s="16" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
@@ -19463,7 +19463,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="inlineStr">
+      <c r="A127" s="16" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
@@ -19482,7 +19482,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="inlineStr">
+      <c r="A128" s="16" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
@@ -19501,7 +19501,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
+      <c r="A129" s="16" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
@@ -19520,7 +19520,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="8" t="inlineStr">
+      <c r="A130" s="16" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
@@ -19539,7 +19539,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="8" t="inlineStr">
+      <c r="A131" s="16" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
@@ -19558,7 +19558,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="8" t="inlineStr">
+      <c r="A132" s="16" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
@@ -19577,7 +19577,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="8" t="inlineStr">
+      <c r="A133" s="16" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
@@ -19596,7 +19596,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="8" t="inlineStr">
+      <c r="A134" s="16" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
@@ -19615,7 +19615,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="inlineStr">
+      <c r="A135" s="16" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
@@ -19634,7 +19634,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="8" t="inlineStr">
+      <c r="A136" s="16" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
@@ -19653,7 +19653,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr">
+      <c r="A137" s="16" t="inlineStr">
         <is>
           <t>2023-10-04</t>
         </is>
@@ -19672,7 +19672,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr">
+      <c r="A138" s="16" t="inlineStr">
         <is>
           <t>2023-10-05</t>
         </is>
@@ -19691,7 +19691,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="8" t="inlineStr">
+      <c r="A139" s="16" t="inlineStr">
         <is>
           <t>2023-10-06</t>
         </is>
@@ -19710,7 +19710,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="8" t="inlineStr">
+      <c r="A140" s="16" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
@@ -19729,7 +19729,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="8" t="inlineStr">
+      <c r="A141" s="16" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
@@ -19748,7 +19748,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="8" t="inlineStr">
+      <c r="A142" s="16" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
@@ -19767,7 +19767,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="8" t="inlineStr">
+      <c r="A143" s="16" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
@@ -19786,7 +19786,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="8" t="inlineStr">
+      <c r="A144" s="16" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
@@ -19805,7 +19805,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="8" t="inlineStr">
+      <c r="A145" s="16" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
@@ -19824,7 +19824,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="8" t="inlineStr">
+      <c r="A146" s="16" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
@@ -19843,7 +19843,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="8" t="inlineStr">
+      <c r="A147" s="16" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
@@ -19862,7 +19862,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="inlineStr">
+      <c r="A148" s="16" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
@@ -19881,7 +19881,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="8" t="inlineStr">
+      <c r="A149" s="16" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
@@ -19900,7 +19900,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="8" t="inlineStr">
+      <c r="A150" s="16" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
@@ -19919,7 +19919,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="8" t="inlineStr">
+      <c r="A151" s="16" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
@@ -19938,7 +19938,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="8" t="inlineStr">
+      <c r="A152" s="16" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
@@ -19957,7 +19957,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="8" t="inlineStr">
+      <c r="A153" s="16" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
@@ -19976,7 +19976,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="8" t="inlineStr">
+      <c r="A154" s="16" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
@@ -19995,7 +19995,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="8" t="inlineStr">
+      <c r="A155" s="16" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
@@ -20014,7 +20014,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="8" t="inlineStr">
+      <c r="A156" s="16" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
@@ -20033,7 +20033,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="8" t="inlineStr">
+      <c r="A157" s="16" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
@@ -20052,7 +20052,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="8" t="inlineStr">
+      <c r="A158" s="16" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
@@ -20071,7 +20071,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="8" t="inlineStr">
+      <c r="A159" s="16" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
@@ -20090,7 +20090,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="8" t="inlineStr">
+      <c r="A160" s="16" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
@@ -20109,7 +20109,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="8" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
@@ -20128,7 +20128,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="8" t="inlineStr">
+      <c r="A162" s="16" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
@@ -20147,7 +20147,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="8" t="inlineStr">
+      <c r="A163" s="16" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
@@ -20166,7 +20166,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="8" t="inlineStr">
+      <c r="A164" s="16" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
@@ -20185,7 +20185,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="8" t="inlineStr">
+      <c r="A165" s="16" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
@@ -20204,7 +20204,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="8" t="inlineStr">
+      <c r="A166" s="16" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
@@ -20223,7 +20223,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="8" t="inlineStr">
+      <c r="A167" s="16" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
@@ -20242,7 +20242,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="8" t="inlineStr">
+      <c r="A168" s="16" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
@@ -20261,7 +20261,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="8" t="inlineStr">
+      <c r="A169" s="16" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
@@ -20280,7 +20280,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="8" t="inlineStr">
+      <c r="A170" s="16" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
@@ -20299,7 +20299,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="8" t="inlineStr">
+      <c r="A171" s="16" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
@@ -20318,7 +20318,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="8" t="inlineStr">
+      <c r="A172" s="16" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
@@ -20337,7 +20337,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="8" t="inlineStr">
+      <c r="A173" s="16" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
@@ -20356,7 +20356,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="8" t="inlineStr">
+      <c r="A174" s="16" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
@@ -20375,7 +20375,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="8" t="inlineStr">
+      <c r="A175" s="16" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
@@ -20394,7 +20394,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="8" t="inlineStr">
+      <c r="A176" s="16" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
@@ -20413,7 +20413,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="8" t="inlineStr">
+      <c r="A177" s="16" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
@@ -20432,7 +20432,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="8" t="inlineStr">
+      <c r="A178" s="16" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
@@ -20451,7 +20451,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="8" t="inlineStr">
+      <c r="A179" s="16" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
@@ -20470,7 +20470,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="8" t="inlineStr">
+      <c r="A180" s="16" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
@@ -20489,7 +20489,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="8" t="inlineStr">
+      <c r="A181" s="16" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
@@ -20508,7 +20508,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="8" t="inlineStr">
+      <c r="A182" s="16" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
@@ -20527,7 +20527,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="8" t="inlineStr">
+      <c r="A183" s="16" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
@@ -20546,7 +20546,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="8" t="inlineStr">
+      <c r="A184" s="16" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
@@ -20565,7 +20565,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="8" t="inlineStr">
+      <c r="A185" s="16" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
@@ -20584,7 +20584,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="8" t="inlineStr">
+      <c r="A186" s="16" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
@@ -20603,7 +20603,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="8" t="inlineStr">
+      <c r="A187" s="16" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
@@ -20622,7 +20622,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="8" t="inlineStr">
+      <c r="A188" s="16" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
@@ -20641,7 +20641,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="8" t="inlineStr">
+      <c r="A189" s="16" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
@@ -20660,7 +20660,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="8" t="inlineStr">
+      <c r="A190" s="16" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
@@ -20679,7 +20679,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="8" t="inlineStr">
+      <c r="A191" s="16" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
@@ -20698,7 +20698,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="8" t="inlineStr">
+      <c r="A192" s="16" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
@@ -20717,7 +20717,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="8" t="inlineStr">
+      <c r="A193" s="16" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
@@ -20736,7 +20736,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="8" t="inlineStr">
+      <c r="A194" s="16" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
@@ -20755,7 +20755,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="8" t="inlineStr">
+      <c r="A195" s="16" t="inlineStr">
         <is>
           <t>2023-12-27</t>
         </is>
@@ -20774,7 +20774,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="8" t="inlineStr">
+      <c r="A196" s="16" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
@@ -20793,7 +20793,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="8" t="inlineStr">
+      <c r="A197" s="16" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
@@ -20812,7 +20812,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="8" t="inlineStr">
+      <c r="A198" s="16" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
@@ -20831,7 +20831,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="8" t="inlineStr">
+      <c r="A199" s="16" t="inlineStr">
         <is>
           <t>2024-01-04</t>
         </is>
@@ -20850,7 +20850,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="8" t="inlineStr">
+      <c r="A200" s="16" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
@@ -20869,7 +20869,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="8" t="inlineStr">
+      <c r="A201" s="16" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
@@ -20888,7 +20888,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="8" t="inlineStr">
+      <c r="A202" s="16" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
@@ -20907,7 +20907,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="8" t="inlineStr">
+      <c r="A203" s="16" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
@@ -20926,7 +20926,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="8" t="inlineStr">
+      <c r="A204" s="16" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
@@ -20945,7 +20945,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="8" t="inlineStr">
+      <c r="A205" s="16" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
@@ -20964,7 +20964,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="8" t="inlineStr">
+      <c r="A206" s="16" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
@@ -20983,7 +20983,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="8" t="inlineStr">
+      <c r="A207" s="16" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
@@ -21002,7 +21002,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="8" t="inlineStr">
+      <c r="A208" s="16" t="inlineStr">
         <is>
           <t>2024-01-17</t>
         </is>
@@ -21021,7 +21021,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="8" t="inlineStr">
+      <c r="A209" s="16" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
@@ -21040,7 +21040,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="8" t="inlineStr">
+      <c r="A210" s="16" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
@@ -21059,7 +21059,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="8" t="inlineStr">
+      <c r="A211" s="16" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
@@ -21078,7 +21078,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="8" t="inlineStr">
+      <c r="A212" s="16" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
@@ -21097,7 +21097,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="8" t="inlineStr">
+      <c r="A213" s="16" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
@@ -21116,7 +21116,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="8" t="inlineStr">
+      <c r="A214" s="16" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
@@ -21135,7 +21135,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="8" t="inlineStr">
+      <c r="A215" s="16" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
@@ -21154,7 +21154,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="8" t="inlineStr">
+      <c r="A216" s="16" t="inlineStr">
         <is>
           <t>2024-01-29</t>
         </is>
@@ -21173,7 +21173,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="8" t="inlineStr">
+      <c r="A217" s="16" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
@@ -21192,7 +21192,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="8" t="inlineStr">
+      <c r="A218" s="16" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
@@ -21211,7 +21211,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="8" t="inlineStr">
+      <c r="A219" s="16" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
@@ -21230,7 +21230,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="8" t="inlineStr">
+      <c r="A220" s="16" t="inlineStr">
         <is>
           <t>2024-02-02</t>
         </is>
@@ -21249,7 +21249,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="8" t="inlineStr">
+      <c r="A221" s="16" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
@@ -21268,7 +21268,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="8" t="inlineStr">
+      <c r="A222" s="16" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
@@ -21287,7 +21287,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="8" t="inlineStr">
+      <c r="A223" s="16" t="inlineStr">
         <is>
           <t>2024-02-07</t>
         </is>
@@ -21306,7 +21306,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="8" t="inlineStr">
+      <c r="A224" s="16" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
@@ -21325,7 +21325,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="8" t="inlineStr">
+      <c r="A225" s="16" t="inlineStr">
         <is>
           <t>2024-02-13</t>
         </is>
@@ -21344,7 +21344,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="8" t="inlineStr">
+      <c r="A226" s="16" t="inlineStr">
         <is>
           <t>2024-02-14</t>
         </is>
@@ -21363,7 +21363,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="8" t="inlineStr">
+      <c r="A227" s="16" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
@@ -21382,7 +21382,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="8" t="inlineStr">
+      <c r="A228" s="16" t="inlineStr">
         <is>
           <t>2024-02-16</t>
         </is>
@@ -21401,7 +21401,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="8" t="inlineStr">
+      <c r="A229" s="16" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
@@ -21420,7 +21420,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="8" t="inlineStr">
+      <c r="A230" s="16" t="inlineStr">
         <is>
           <t>2024-02-20</t>
         </is>
@@ -21439,7 +21439,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="8" t="inlineStr">
+      <c r="A231" s="16" t="inlineStr">
         <is>
           <t>2024-02-21</t>
         </is>
@@ -21458,7 +21458,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="8" t="inlineStr">
+      <c r="A232" s="16" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
@@ -21477,7 +21477,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="8" t="inlineStr">
+      <c r="A233" s="16" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
@@ -21496,7 +21496,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="8" t="inlineStr">
+      <c r="A234" s="16" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
@@ -21515,7 +21515,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="8" t="inlineStr">
+      <c r="A235" s="16" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
@@ -21534,7 +21534,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="8" t="inlineStr">
+      <c r="A236" s="16" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
@@ -21553,7 +21553,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="8" t="inlineStr">
+      <c r="A237" s="16" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
@@ -21572,7 +21572,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="8" t="inlineStr">
+      <c r="A238" s="16" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
@@ -21591,7 +21591,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="8" t="inlineStr">
+      <c r="A239" s="16" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
@@ -21610,7 +21610,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="8" t="inlineStr">
+      <c r="A240" s="16" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
@@ -21629,7 +21629,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="8" t="inlineStr">
+      <c r="A241" s="16" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
@@ -21648,7 +21648,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="8" t="inlineStr">
+      <c r="A242" s="16" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
@@ -21667,7 +21667,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="8" t="inlineStr">
+      <c r="A243" s="16" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
@@ -21686,7 +21686,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="8" t="inlineStr">
+      <c r="A244" s="16" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
@@ -21705,7 +21705,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="8" t="inlineStr">
+      <c r="A245" s="16" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
@@ -21724,7 +21724,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="8" t="inlineStr">
+      <c r="A246" s="16" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
@@ -21743,7 +21743,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="8" t="inlineStr">
+      <c r="A247" s="16" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
@@ -21762,7 +21762,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="8" t="inlineStr">
+      <c r="A248" s="16" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
@@ -21781,7 +21781,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="8" t="inlineStr">
+      <c r="A249" s="16" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
@@ -21800,7 +21800,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="8" t="inlineStr">
+      <c r="A250" s="16" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
@@ -21819,7 +21819,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="8" t="inlineStr">
+      <c r="A251" s="16" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
@@ -21838,7 +21838,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="8" t="inlineStr">
+      <c r="A252" s="16" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
@@ -21857,7 +21857,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="8" t="inlineStr">
+      <c r="A253" s="16" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
@@ -21876,7 +21876,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="8" t="inlineStr">
+      <c r="A254" s="16" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
@@ -21895,7 +21895,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="8" t="inlineStr">
+      <c r="A255" s="16" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
@@ -21914,7 +21914,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="8" t="inlineStr">
+      <c r="A256" s="16" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
@@ -21933,7 +21933,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="8" t="inlineStr">
+      <c r="A257" s="16" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
@@ -21952,7 +21952,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="8" t="inlineStr">
+      <c r="A258" s="16" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
@@ -21971,7 +21971,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="8" t="inlineStr">
+      <c r="A259" s="16" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
@@ -21990,7 +21990,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="8" t="inlineStr">
+      <c r="A260" s="16" t="inlineStr">
         <is>
           <t>2024-04-03</t>
         </is>
@@ -22009,7 +22009,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="8" t="inlineStr">
+      <c r="A261" s="16" t="inlineStr">
         <is>
           <t>2024-04-04</t>
         </is>
@@ -22028,7 +22028,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="8" t="inlineStr">
+      <c r="A262" s="16" t="inlineStr">
         <is>
           <t>2024-04-05</t>
         </is>
@@ -22047,7 +22047,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="8" t="inlineStr">
+      <c r="A263" s="16" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
@@ -22066,7 +22066,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="8" t="inlineStr">
+      <c r="A264" s="16" t="inlineStr">
         <is>
           <t>2024-04-09</t>
         </is>
@@ -22085,7 +22085,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="8" t="inlineStr">
+      <c r="A265" s="16" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
@@ -22104,7 +22104,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="8" t="inlineStr">
+      <c r="A266" s="16" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
@@ -22123,7 +22123,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="8" t="inlineStr">
+      <c r="A267" s="16" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
@@ -22142,7 +22142,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="8" t="inlineStr">
+      <c r="A268" s="16" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
@@ -22161,7 +22161,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="8" t="inlineStr">
+      <c r="A269" s="16" t="inlineStr">
         <is>
           <t>2024-04-17</t>
         </is>
@@ -22180,7 +22180,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="8" t="inlineStr">
+      <c r="A270" s="16" t="inlineStr">
         <is>
           <t>2024-04-18</t>
         </is>
@@ -22199,7 +22199,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="8" t="inlineStr">
+      <c r="A271" s="16" t="inlineStr">
         <is>
           <t>2024-04-19</t>
         </is>
@@ -22218,7 +22218,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="8" t="inlineStr">
+      <c r="A272" s="16" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
@@ -22237,7 +22237,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="8" t="inlineStr">
+      <c r="A273" s="16" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
@@ -22256,7 +22256,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="8" t="inlineStr">
+      <c r="A274" s="16" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
@@ -22275,7 +22275,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="8" t="inlineStr">
+      <c r="A275" s="16" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
@@ -22294,7 +22294,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="8" t="inlineStr">
+      <c r="A276" s="16" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
@@ -22313,7 +22313,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="8" t="inlineStr">
+      <c r="A277" s="16" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
@@ -22332,7 +22332,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="8" t="inlineStr">
+      <c r="A278" s="16" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
@@ -22351,7 +22351,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="8" t="inlineStr">
+      <c r="A279" s="16" t="inlineStr">
         <is>
           <t>2024-05-02</t>
         </is>
@@ -22370,7 +22370,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="8" t="inlineStr">
+      <c r="A280" s="16" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
@@ -22389,7 +22389,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="8" t="inlineStr">
+      <c r="A281" s="16" t="inlineStr">
         <is>
           <t>2024-05-07</t>
         </is>
@@ -22408,7 +22408,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="8" t="inlineStr">
+      <c r="A282" s="16" t="inlineStr">
         <is>
           <t>2024-05-08</t>
         </is>
@@ -22427,7 +22427,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="8" t="inlineStr">
+      <c r="A283" s="16" t="inlineStr">
         <is>
           <t>2024-05-09</t>
         </is>
@@ -22446,7 +22446,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="8" t="inlineStr">
+      <c r="A284" s="16" t="inlineStr">
         <is>
           <t>2024-05-10</t>
         </is>
@@ -22465,7 +22465,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="8" t="inlineStr">
+      <c r="A285" s="16" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
@@ -22484,7 +22484,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="8" t="inlineStr">
+      <c r="A286" s="16" t="inlineStr">
         <is>
           <t>2024-05-14</t>
         </is>
@@ -22503,7 +22503,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="8" t="inlineStr">
+      <c r="A287" s="16" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
@@ -22525,7 +22525,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="8" t="inlineStr">
+      <c r="A288" s="16" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
@@ -22547,7 +22547,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="8" t="inlineStr">
+      <c r="A289" s="16" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
@@ -22569,7 +22569,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="8" t="inlineStr">
+      <c r="A290" s="16" t="inlineStr">
         <is>
           <t>2024-05-21</t>
         </is>
@@ -22591,7 +22591,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="8" t="inlineStr">
+      <c r="A291" s="16" t="inlineStr">
         <is>
           <t>2024-05-22</t>
         </is>
@@ -22613,7 +22613,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="8" t="inlineStr">
+      <c r="A292" s="16" t="inlineStr">
         <is>
           <t>2024-05-23</t>
         </is>
@@ -22635,7 +22635,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="8" t="inlineStr">
+      <c r="A293" s="16" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
@@ -22657,7 +22657,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="8" t="inlineStr">
+      <c r="A294" s="16" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
@@ -22679,7 +22679,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="8" t="inlineStr">
+      <c r="A295" s="16" t="inlineStr">
         <is>
           <t>2024-05-28</t>
         </is>
@@ -22701,7 +22701,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="8" t="inlineStr">
+      <c r="A296" s="16" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
@@ -22723,7 +22723,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="8" t="inlineStr">
+      <c r="A297" s="16" t="inlineStr">
         <is>
           <t>2024-05-30</t>
         </is>
@@ -22745,7 +22745,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="8" t="inlineStr">
+      <c r="A298" s="16" t="inlineStr">
         <is>
           <t>2024-05-31</t>
         </is>
@@ -22767,7 +22767,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="8" t="inlineStr">
+      <c r="A299" s="16" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
@@ -22789,7 +22789,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="8" t="inlineStr">
+      <c r="A300" s="16" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
@@ -22811,7 +22811,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="8" t="inlineStr">
+      <c r="A301" s="16" t="inlineStr">
         <is>
           <t>2024-06-05</t>
         </is>
@@ -22833,7 +22833,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="8" t="inlineStr">
+      <c r="A302" s="16" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
@@ -22855,7 +22855,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="8" t="inlineStr">
+      <c r="A303" s="16" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
@@ -22877,7 +22877,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="8" t="inlineStr">
+      <c r="A304" s="16" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
@@ -22899,7 +22899,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="8" t="inlineStr">
+      <c r="A305" s="16" t="inlineStr">
         <is>
           <t>2024-06-12</t>
         </is>
@@ -22921,7 +22921,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="8" t="inlineStr">
+      <c r="A306" s="16" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
@@ -22943,7 +22943,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="8" t="inlineStr">
+      <c r="A307" s="16" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
@@ -22965,7 +22965,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="8" t="inlineStr">
+      <c r="A308" s="16" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
@@ -22987,7 +22987,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="8" t="inlineStr">
+      <c r="A309" s="16" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
@@ -23009,7 +23009,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="8" t="inlineStr">
+      <c r="A310" s="16" t="inlineStr">
         <is>
           <t>2024-06-19</t>
         </is>
@@ -23031,7 +23031,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="8" t="inlineStr">
+      <c r="A311" s="16" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
@@ -23053,7 +23053,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="8" t="inlineStr">
+      <c r="A312" s="16" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
@@ -23075,7 +23075,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="8" t="inlineStr">
+      <c r="A313" s="16" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
@@ -23097,7 +23097,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="8" t="inlineStr">
+      <c r="A314" s="16" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
@@ -23119,7 +23119,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="8" t="inlineStr">
+      <c r="A315" s="16" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
@@ -23141,7 +23141,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="8" t="inlineStr">
+      <c r="A316" s="16" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
@@ -23163,7 +23163,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="8" t="inlineStr">
+      <c r="A317" s="16" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
@@ -23185,7 +23185,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="8" t="inlineStr">
+      <c r="A318" s="16" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
@@ -23207,7 +23207,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="8" t="inlineStr">
+      <c r="A319" s="16" t="inlineStr">
         <is>
           <t>2024-07-02</t>
         </is>
@@ -23229,7 +23229,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="8" t="inlineStr">
+      <c r="A320" s="16" t="inlineStr">
         <is>
           <t>2024-07-03</t>
         </is>
@@ -23251,7 +23251,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="8" t="inlineStr">
+      <c r="A321" s="16" t="inlineStr">
         <is>
           <t>2024-07-04</t>
         </is>
@@ -23273,7 +23273,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="8" t="inlineStr">
+      <c r="A322" s="16" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
@@ -23295,7 +23295,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="8" t="inlineStr">
+      <c r="A323" s="16" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
@@ -23317,7 +23317,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="8" t="inlineStr">
+      <c r="A324" s="16" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
@@ -23339,7 +23339,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="8" t="inlineStr">
+      <c r="A325" s="16" t="inlineStr">
         <is>
           <t>2024-07-10</t>
         </is>
@@ -23361,7 +23361,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="8" t="inlineStr">
+      <c r="A326" s="16" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
@@ -23383,7 +23383,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="8" t="inlineStr">
+      <c r="A327" s="16" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
@@ -23405,7 +23405,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="8" t="inlineStr">
+      <c r="A328" s="16" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
@@ -23427,7 +23427,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="8" t="inlineStr">
+      <c r="A329" s="16" t="inlineStr">
         <is>
           <t>2024-07-16</t>
         </is>
@@ -23449,7 +23449,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="8" t="inlineStr">
+      <c r="A330" s="16" t="inlineStr">
         <is>
           <t>2024-07-17</t>
         </is>
@@ -23471,7 +23471,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="8" t="inlineStr">
+      <c r="A331" s="16" t="inlineStr">
         <is>
           <t>2024-07-18</t>
         </is>
@@ -23493,7 +23493,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="8" t="inlineStr">
+      <c r="A332" s="16" t="inlineStr">
         <is>
           <t>2024-07-19</t>
         </is>
@@ -23515,7 +23515,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="8" t="inlineStr">
+      <c r="A333" s="16" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
@@ -23537,7 +23537,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="8" t="inlineStr">
+      <c r="A334" s="16" t="inlineStr">
         <is>
           <t>2024-07-23</t>
         </is>
@@ -23559,7 +23559,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="8" t="inlineStr">
+      <c r="A335" s="16" t="inlineStr">
         <is>
           <t>2024-07-24</t>
         </is>
@@ -23581,7 +23581,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="8" t="inlineStr">
+      <c r="A336" s="16" t="inlineStr">
         <is>
           <t>2024-07-25</t>
         </is>
@@ -23603,7 +23603,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="8" t="inlineStr">
+      <c r="A337" s="16" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
@@ -23625,7 +23625,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="8" t="inlineStr">
+      <c r="A338" s="16" t="inlineStr">
         <is>
           <t>2024-07-29</t>
         </is>
@@ -23647,7 +23647,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="8" t="inlineStr">
+      <c r="A339" s="16" t="inlineStr">
         <is>
           <t>2024-07-30</t>
         </is>
@@ -23669,7 +23669,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="8" t="inlineStr">
+      <c r="A340" s="16" t="inlineStr">
         <is>
           <t>2024-07-31</t>
         </is>
@@ -23691,7 +23691,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="8" t="inlineStr">
+      <c r="A341" s="16" t="inlineStr">
         <is>
           <t>2024-08-01</t>
         </is>
@@ -23713,7 +23713,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="8" t="inlineStr">
+      <c r="A342" s="16" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
@@ -23735,7 +23735,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="8" t="inlineStr">
+      <c r="A343" s="16" t="inlineStr">
         <is>
           <t>2024-08-05</t>
         </is>
@@ -23757,7 +23757,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="8" t="inlineStr">
+      <c r="A344" s="16" t="inlineStr">
         <is>
           <t>2024-08-06</t>
         </is>
@@ -23779,7 +23779,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="8" t="inlineStr">
+      <c r="A345" s="16" t="inlineStr">
         <is>
           <t>2024-08-07</t>
         </is>
@@ -23801,7 +23801,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="8" t="inlineStr">
+      <c r="A346" s="16" t="inlineStr">
         <is>
           <t>2024-08-08</t>
         </is>
@@ -23823,7 +23823,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="8" t="inlineStr">
+      <c r="A347" s="16" t="inlineStr">
         <is>
           <t>2024-08-09</t>
         </is>
@@ -23845,7 +23845,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="8" t="inlineStr">
+      <c r="A348" s="16" t="inlineStr">
         <is>
           <t>2024-08-12</t>
         </is>
@@ -23867,7 +23867,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="8" t="inlineStr">
+      <c r="A349" s="16" t="inlineStr">
         <is>
           <t>2024-08-13</t>
         </is>
@@ -23889,7 +23889,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="8" t="inlineStr">
+      <c r="A350" s="16" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
@@ -23911,7 +23911,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="8" t="inlineStr">
+      <c r="A351" s="16" t="inlineStr">
         <is>
           <t>2024-08-16</t>
         </is>
@@ -23933,7 +23933,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="8" t="inlineStr">
+      <c r="A352" s="16" t="inlineStr">
         <is>
           <t>2024-08-19</t>
         </is>
@@ -23955,7 +23955,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="8" t="inlineStr">
+      <c r="A353" s="16" t="inlineStr">
         <is>
           <t>2024-08-20</t>
         </is>
@@ -23977,7 +23977,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="8" t="inlineStr">
+      <c r="A354" s="16" t="inlineStr">
         <is>
           <t>2024-08-21</t>
         </is>
@@ -23999,7 +23999,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="8" t="inlineStr">
+      <c r="A355" s="16" t="inlineStr">
         <is>
           <t>2024-08-22</t>
         </is>
@@ -24021,7 +24021,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="8" t="inlineStr">
+      <c r="A356" s="16" t="inlineStr">
         <is>
           <t>2024-08-23</t>
         </is>
@@ -24043,7 +24043,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="8" t="inlineStr">
+      <c r="A357" s="16" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>
@@ -24065,7 +24065,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="8" t="inlineStr">
+      <c r="A358" s="16" t="inlineStr">
         <is>
           <t>2024-08-27</t>
         </is>
@@ -24087,7 +24087,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="8" t="inlineStr">
+      <c r="A359" s="16" t="inlineStr">
         <is>
           <t>2024-08-28</t>
         </is>
@@ -24109,7 +24109,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="8" t="inlineStr">
+      <c r="A360" s="16" t="inlineStr">
         <is>
           <t>2024-08-29</t>
         </is>
@@ -24131,7 +24131,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="8" t="inlineStr">
+      <c r="A361" s="16" t="inlineStr">
         <is>
           <t>2024-08-30</t>
         </is>
@@ -24153,7 +24153,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="8" t="inlineStr">
+      <c r="A362" s="16" t="inlineStr">
         <is>
           <t>2024-09-02</t>
         </is>
@@ -24175,7 +24175,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="8" t="inlineStr">
+      <c r="A363" s="16" t="inlineStr">
         <is>
           <t>2024-09-03</t>
         </is>
@@ -24197,7 +24197,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="8" t="inlineStr">
+      <c r="A364" s="16" t="inlineStr">
         <is>
           <t>2024-09-04</t>
         </is>
@@ -24219,7 +24219,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="8" t="inlineStr">
+      <c r="A365" s="16" t="inlineStr">
         <is>
           <t>2024-09-05</t>
         </is>
@@ -24241,7 +24241,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="8" t="inlineStr">
+      <c r="A366" s="16" t="inlineStr">
         <is>
           <t>2024-09-06</t>
         </is>
@@ -24263,7 +24263,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="8" t="inlineStr">
+      <c r="A367" s="16" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>
@@ -24285,7 +24285,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="8" t="inlineStr">
+      <c r="A368" s="16" t="inlineStr">
         <is>
           <t>2024-09-10</t>
         </is>
@@ -24307,7 +24307,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="8" t="inlineStr">
+      <c r="A369" s="16" t="inlineStr">
         <is>
           <t>2024-09-11</t>
         </is>
@@ -24329,7 +24329,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="8" t="inlineStr">
+      <c r="A370" s="16" t="inlineStr">
         <is>
           <t>2024-09-12</t>
         </is>
@@ -24351,7 +24351,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="8" t="inlineStr">
+      <c r="A371" s="16" t="inlineStr">
         <is>
           <t>2024-09-13</t>
         </is>
@@ -24373,7 +24373,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="8" t="inlineStr">
+      <c r="A372" s="16" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
@@ -24395,7 +24395,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="8" t="inlineStr">
+      <c r="A373" s="16" t="inlineStr">
         <is>
           <t>2024-09-20</t>
         </is>
@@ -24417,7 +24417,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="8" t="inlineStr">
+      <c r="A374" s="16" t="inlineStr">
         <is>
           <t>2024-09-23</t>
         </is>
@@ -24439,7 +24439,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="8" t="inlineStr">
+      <c r="A375" s="16" t="inlineStr">
         <is>
           <t>2024-09-24</t>
         </is>
@@ -24461,7 +24461,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="8" t="inlineStr">
+      <c r="A376" s="16" t="inlineStr">
         <is>
           <t>2024-09-25</t>
         </is>
@@ -24483,7 +24483,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="8" t="inlineStr">
+      <c r="A377" s="16" t="inlineStr">
         <is>
           <t>2024-09-26</t>
         </is>
@@ -24505,7 +24505,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="8" t="inlineStr">
+      <c r="A378" s="16" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
@@ -24527,7 +24527,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="8" t="inlineStr">
+      <c r="A379" s="16" t="inlineStr">
         <is>
           <t>2024-09-30</t>
         </is>
@@ -24549,7 +24549,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="8" t="inlineStr">
+      <c r="A380" s="16" t="inlineStr">
         <is>
           <t>2024-10-02</t>
         </is>
@@ -24571,7 +24571,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="8" t="inlineStr">
+      <c r="A381" s="16" t="inlineStr">
         <is>
           <t>2024-10-04</t>
         </is>
@@ -24593,7 +24593,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="8" t="inlineStr">
+      <c r="A382" s="16" t="inlineStr">
         <is>
           <t>2024-10-07</t>
         </is>
@@ -24615,7 +24615,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="8" t="inlineStr">
+      <c r="A383" s="16" t="inlineStr">
         <is>
           <t>2024-10-08</t>
         </is>
@@ -24637,7 +24637,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="8" t="inlineStr">
+      <c r="A384" s="16" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
@@ -24659,7 +24659,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="8" t="inlineStr">
+      <c r="A385" s="16" t="inlineStr">
         <is>
           <t>2024-10-11</t>
         </is>
@@ -24681,7 +24681,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="8" t="inlineStr">
+      <c r="A386" s="16" t="inlineStr">
         <is>
           <t>2024-10-14</t>
         </is>
@@ -24703,7 +24703,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="8" t="inlineStr">
+      <c r="A387" s="16" t="inlineStr">
         <is>
           <t>2024-10-15</t>
         </is>
@@ -24725,7 +24725,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="8" t="inlineStr">
+      <c r="A388" s="16" t="inlineStr">
         <is>
           <t>2024-10-16</t>
         </is>
@@ -24747,7 +24747,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="8" t="inlineStr">
+      <c r="A389" s="16" t="inlineStr">
         <is>
           <t>2024-10-17</t>
         </is>
@@ -24769,7 +24769,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="8" t="inlineStr">
+      <c r="A390" s="16" t="inlineStr">
         <is>
           <t>2024-10-18</t>
         </is>
@@ -24791,7 +24791,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="8" t="inlineStr">
+      <c r="A391" s="16" t="inlineStr">
         <is>
           <t>2024-10-21</t>
         </is>
@@ -24813,7 +24813,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="8" t="inlineStr">
+      <c r="A392" s="16" t="inlineStr">
         <is>
           <t>2024-10-22</t>
         </is>
@@ -24835,7 +24835,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="8" t="inlineStr">
+      <c r="A393" s="16" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
@@ -24857,7 +24857,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="8" t="inlineStr">
+      <c r="A394" s="16" t="inlineStr">
         <is>
           <t>2024-10-24</t>
         </is>
@@ -24879,7 +24879,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="8" t="inlineStr">
+      <c r="A395" s="16" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
@@ -24901,7 +24901,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="8" t="inlineStr">
+      <c r="A396" s="16" t="inlineStr">
         <is>
           <t>2024-10-28</t>
         </is>
@@ -24923,7 +24923,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="8" t="inlineStr">
+      <c r="A397" s="16" t="inlineStr">
         <is>
           <t>2024-10-29</t>
         </is>
@@ -24945,7 +24945,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="8" t="inlineStr">
+      <c r="A398" s="16" t="inlineStr">
         <is>
           <t>2024-10-30</t>
         </is>
@@ -24967,7 +24967,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="8" t="inlineStr">
+      <c r="A399" s="16" t="inlineStr">
         <is>
           <t>2024-10-31</t>
         </is>
@@ -24989,7 +24989,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="8" t="inlineStr">
+      <c r="A400" s="16" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
@@ -25011,7 +25011,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="8" t="inlineStr">
+      <c r="A401" s="16" t="inlineStr">
         <is>
           <t>2024-11-04</t>
         </is>
@@ -25033,7 +25033,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="8" t="inlineStr">
+      <c r="A402" s="16" t="inlineStr">
         <is>
           <t>2024-11-05</t>
         </is>
@@ -25055,7 +25055,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="8" t="inlineStr">
+      <c r="A403" s="16" t="inlineStr">
         <is>
           <t>2024-11-06</t>
         </is>
@@ -25077,7 +25077,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="8" t="inlineStr">
+      <c r="A404" s="16" t="inlineStr">
         <is>
           <t>2024-11-07</t>
         </is>
@@ -25099,7 +25099,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="8" t="inlineStr">
+      <c r="A405" s="16" t="inlineStr">
         <is>
           <t>2024-11-08</t>
         </is>
@@ -25121,7 +25121,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="8" t="inlineStr">
+      <c r="A406" s="16" t="inlineStr">
         <is>
           <t>2024-11-11</t>
         </is>
@@ -25143,7 +25143,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="8" t="inlineStr">
+      <c r="A407" s="16" t="inlineStr">
         <is>
           <t>2024-11-12</t>
         </is>
@@ -25165,7 +25165,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="8" t="inlineStr">
+      <c r="A408" s="16" t="inlineStr">
         <is>
           <t>2024-11-13</t>
         </is>
@@ -25187,7 +25187,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="8" t="inlineStr">
+      <c r="A409" s="16" t="inlineStr">
         <is>
           <t>2024-11-14</t>
         </is>
@@ -25209,7 +25209,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="8" t="inlineStr">
+      <c r="A410" s="16" t="inlineStr">
         <is>
           <t>2024-11-15</t>
         </is>
@@ -25231,7 +25231,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="8" t="inlineStr">
+      <c r="A411" s="16" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
@@ -25253,7 +25253,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="8" t="inlineStr">
+      <c r="A412" s="16" t="inlineStr">
         <is>
           <t>2024-11-19</t>
         </is>
@@ -25275,7 +25275,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="8" t="inlineStr">
+      <c r="A413" s="16" t="inlineStr">
         <is>
           <t>2024-11-20</t>
         </is>
@@ -25297,7 +25297,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="8" t="inlineStr">
+      <c r="A414" s="16" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
@@ -25319,7 +25319,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="8" t="inlineStr">
+      <c r="A415" s="16" t="inlineStr">
         <is>
           <t>2024-11-22</t>
         </is>
@@ -25341,7 +25341,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="8" t="inlineStr">
+      <c r="A416" s="16" t="inlineStr">
         <is>
           <t>2024-11-25</t>
         </is>
@@ -25363,7 +25363,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="8" t="inlineStr">
+      <c r="A417" s="16" t="inlineStr">
         <is>
           <t>2024-11-26</t>
         </is>
@@ -25385,7 +25385,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="8" t="inlineStr">
+      <c r="A418" s="16" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
@@ -25407,7 +25407,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="8" t="inlineStr">
+      <c r="A419" s="16" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
@@ -25429,7 +25429,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="8" t="inlineStr">
+      <c r="A420" s="16" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
@@ -25451,7 +25451,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="8" t="inlineStr">
+      <c r="A421" s="16" t="inlineStr">
         <is>
           <t>2024-12-02</t>
         </is>
@@ -25473,7 +25473,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="8" t="inlineStr">
+      <c r="A422" s="16" t="inlineStr">
         <is>
           <t>2024-12-03</t>
         </is>
@@ -25495,7 +25495,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="8" t="inlineStr">
+      <c r="A423" s="16" t="inlineStr">
         <is>
           <t>2024-12-04</t>
         </is>
@@ -25517,7 +25517,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="8" t="inlineStr">
+      <c r="A424" s="16" t="inlineStr">
         <is>
           <t>2024-12-05</t>
         </is>
@@ -25539,7 +25539,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="8" t="inlineStr">
+      <c r="A425" s="16" t="inlineStr">
         <is>
           <t>2024-12-06</t>
         </is>
@@ -25561,7 +25561,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="8" t="inlineStr">
+      <c r="A426" s="16" t="inlineStr">
         <is>
           <t>2024-12-09</t>
         </is>
@@ -25583,7 +25583,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="8" t="inlineStr">
+      <c r="A427" s="16" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
@@ -25605,7 +25605,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="8" t="inlineStr">
+      <c r="A428" s="16" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
@@ -25627,7 +25627,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="8" t="inlineStr">
+      <c r="A429" s="16" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
@@ -25649,7 +25649,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="8" t="inlineStr">
+      <c r="A430" s="16" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
@@ -25671,7 +25671,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="8" t="inlineStr">
+      <c r="A431" s="16" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
@@ -25693,7 +25693,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="8" t="inlineStr">
+      <c r="A432" s="16" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
@@ -25715,7 +25715,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="8" t="inlineStr">
+      <c r="A433" s="16" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
@@ -25737,7 +25737,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="8" t="inlineStr">
+      <c r="A434" s="16" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
@@ -25759,7 +25759,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="8" t="inlineStr">
+      <c r="A435" s="16" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
@@ -25781,7 +25781,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="8" t="inlineStr">
+      <c r="A436" s="16" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
@@ -25803,7 +25803,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="8" t="inlineStr">
+      <c r="A437" s="16" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
@@ -25825,7 +25825,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="8" t="inlineStr">
+      <c r="A438" s="16" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
@@ -25847,7 +25847,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="8" t="inlineStr">
+      <c r="A439" s="16" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
@@ -25869,7 +25869,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="8" t="inlineStr">
+      <c r="A440" s="16" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
@@ -25891,7 +25891,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="8" t="inlineStr">
+      <c r="A441" s="16" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
@@ -25913,7 +25913,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="8" t="inlineStr">
+      <c r="A442" s="16" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
@@ -25935,7 +25935,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="8" t="inlineStr">
+      <c r="A443" s="16" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
@@ -25957,7 +25957,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="8" t="inlineStr">
+      <c r="A444" s="16" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
@@ -25979,7 +25979,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="8" t="inlineStr">
+      <c r="A445" s="16" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
@@ -26001,7 +26001,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="8" t="inlineStr">
+      <c r="A446" s="16" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
@@ -26023,7 +26023,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="8" t="inlineStr">
+      <c r="A447" s="16" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
@@ -26045,7 +26045,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="8" t="inlineStr">
+      <c r="A448" s="16" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
@@ -26067,7 +26067,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="8" t="inlineStr">
+      <c r="A449" s="16" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
@@ -26089,7 +26089,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="8" t="inlineStr">
+      <c r="A450" s="16" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
@@ -26111,7 +26111,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="8" t="inlineStr">
+      <c r="A451" s="16" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
@@ -26133,7 +26133,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="8" t="inlineStr">
+      <c r="A452" s="16" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
@@ -26155,7 +26155,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="8" t="inlineStr">
+      <c r="A453" s="16" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
@@ -26177,7 +26177,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="8" t="inlineStr">
+      <c r="A454" s="16" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
@@ -26199,7 +26199,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="8" t="inlineStr">
+      <c r="A455" s="16" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
@@ -26221,7 +26221,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="8" t="inlineStr">
+      <c r="A456" s="16" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
@@ -26243,7 +26243,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="8" t="inlineStr">
+      <c r="A457" s="16" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
@@ -26265,7 +26265,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="8" t="inlineStr">
+      <c r="A458" s="16" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
@@ -26287,7 +26287,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="8" t="inlineStr">
+      <c r="A459" s="16" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
@@ -26309,7 +26309,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="8" t="inlineStr">
+      <c r="A460" s="16" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
@@ -26331,7 +26331,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="8" t="inlineStr">
+      <c r="A461" s="16" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
@@ -26353,7 +26353,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="8" t="inlineStr">
+      <c r="A462" s="16" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
@@ -26375,7 +26375,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="8" t="inlineStr">
+      <c r="A463" s="16" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
@@ -26397,7 +26397,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="8" t="inlineStr">
+      <c r="A464" s="16" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
@@ -26419,7 +26419,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="8" t="inlineStr">
+      <c r="A465" s="16" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
@@ -26441,7 +26441,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="8" t="inlineStr">
+      <c r="A466" s="16" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
@@ -26463,7 +26463,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="8" t="inlineStr">
+      <c r="A467" s="16" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
@@ -26485,7 +26485,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="8" t="inlineStr">
+      <c r="A468" s="16" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
@@ -26507,7 +26507,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="8" t="inlineStr">
+      <c r="A469" s="16" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
@@ -26529,7 +26529,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="8" t="inlineStr">
+      <c r="A470" s="16" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
@@ -26551,7 +26551,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="8" t="inlineStr">
+      <c r="A471" s="16" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
@@ -26573,7 +26573,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="8" t="inlineStr">
+      <c r="A472" s="16" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
@@ -26595,7 +26595,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="8" t="inlineStr">
+      <c r="A473" s="16" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
@@ -26617,7 +26617,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="8" t="inlineStr">
+      <c r="A474" s="16" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
@@ -26639,7 +26639,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="8" t="inlineStr">
+      <c r="A475" s="16" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
@@ -26661,7 +26661,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="8" t="inlineStr">
+      <c r="A476" s="16" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
@@ -26683,7 +26683,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="8" t="inlineStr">
+      <c r="A477" s="16" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
@@ -26705,7 +26705,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="8" t="inlineStr">
+      <c r="A478" s="16" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
@@ -26727,7 +26727,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="8" t="inlineStr">
+      <c r="A479" s="16" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
@@ -26749,7 +26749,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="8" t="inlineStr">
+      <c r="A480" s="16" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
@@ -26771,7 +26771,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="8" t="inlineStr">
+      <c r="A481" s="16" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
@@ -26793,7 +26793,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="8" t="inlineStr">
+      <c r="A482" s="16" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
@@ -26815,7 +26815,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="8" t="inlineStr">
+      <c r="A483" s="16" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
@@ -26837,7 +26837,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="8" t="inlineStr">
+      <c r="A484" s="16" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
@@ -26859,7 +26859,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="8" t="inlineStr">
+      <c r="A485" s="16" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
@@ -26881,7 +26881,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="8" t="inlineStr">
+      <c r="A486" s="16" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
@@ -26903,7 +26903,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="8" t="inlineStr">
+      <c r="A487" s="16" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
@@ -26925,7 +26925,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="8" t="inlineStr">
+      <c r="A488" s="16" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
@@ -26947,7 +26947,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="8" t="inlineStr">
+      <c r="A489" s="16" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
@@ -26969,7 +26969,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="8" t="inlineStr">
+      <c r="A490" s="16" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
@@ -26991,7 +26991,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="8" t="inlineStr">
+      <c r="A491" s="16" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
@@ -27013,7 +27013,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="8" t="inlineStr">
+      <c r="A492" s="16" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
@@ -27035,7 +27035,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="8" t="inlineStr">
+      <c r="A493" s="16" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
@@ -27057,7 +27057,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="8" t="inlineStr">
+      <c r="A494" s="16" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
@@ -27079,7 +27079,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="8" t="inlineStr">
+      <c r="A495" s="16" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
@@ -27101,7 +27101,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="8" t="inlineStr">
+      <c r="A496" s="16" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
@@ -27123,7 +27123,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="8" t="inlineStr">
+      <c r="A497" s="16" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
@@ -27145,7 +27145,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="8" t="inlineStr">
+      <c r="A498" s="16" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
@@ -27167,7 +27167,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="8" t="inlineStr">
+      <c r="A499" s="16" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
@@ -27189,7 +27189,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="8" t="inlineStr">
+      <c r="A500" s="16" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
@@ -27211,7 +27211,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="8" t="inlineStr">
+      <c r="A501" s="16" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
@@ -27233,7 +27233,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="8" t="inlineStr">
+      <c r="A502" s="16" t="inlineStr">
         <is>
           <t>2025-04-04</t>
         </is>
@@ -27255,7 +27255,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="8" t="inlineStr">
+      <c r="A503" s="16" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
@@ -27277,7 +27277,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="8" t="inlineStr">
+      <c r="A504" s="16" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
@@ -27299,7 +27299,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="8" t="inlineStr">
+      <c r="A505" s="16" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
@@ -27321,7 +27321,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="8" t="inlineStr">
+      <c r="A506" s="16" t="inlineStr">
         <is>
           <t>2025-04-10</t>
         </is>
@@ -27343,7 +27343,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="8" t="inlineStr">
+      <c r="A507" s="16" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
@@ -27365,7 +27365,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="8" t="inlineStr">
+      <c r="A508" s="16" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
@@ -27387,7 +27387,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="8" t="inlineStr">
+      <c r="A509" s="16" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
@@ -27409,7 +27409,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="8" t="inlineStr">
+      <c r="A510" s="16" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
@@ -27431,7 +27431,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="8" t="inlineStr">
+      <c r="A511" s="16" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
@@ -27453,7 +27453,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="8" t="inlineStr">
+      <c r="A512" s="16" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
@@ -27475,7 +27475,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="8" t="inlineStr">
+      <c r="A513" s="16" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
@@ -27497,7 +27497,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="8" t="inlineStr">
+      <c r="A514" s="16" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
@@ -27519,7 +27519,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="8" t="inlineStr">
+      <c r="A515" s="16" t="inlineStr">
         <is>
           <t>2025-04-23</t>
         </is>
@@ -27541,7 +27541,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="8" t="inlineStr">
+      <c r="A516" s="16" t="inlineStr">
         <is>
           <t>2025-04-24</t>
         </is>
@@ -27563,7 +27563,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="8" t="inlineStr">
+      <c r="A517" s="16" t="inlineStr">
         <is>
           <t>2025-04-25</t>
         </is>
@@ -27585,7 +27585,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="8" t="inlineStr">
+      <c r="A518" s="16" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
@@ -27607,7 +27607,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="8" t="inlineStr">
+      <c r="A519" s="16" t="inlineStr">
         <is>
           <t>2025-04-29</t>
         </is>
@@ -27629,7 +27629,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="8" t="inlineStr">
+      <c r="A520" s="16" t="inlineStr">
         <is>
           <t>2025-04-30</t>
         </is>
@@ -27651,7 +27651,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="8" t="inlineStr">
+      <c r="A521" s="16" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
@@ -27673,7 +27673,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="8" t="inlineStr">
+      <c r="A522" s="16" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
@@ -27695,7 +27695,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="8" t="inlineStr">
+      <c r="A523" s="16" t="inlineStr">
         <is>
           <t>2025-05-08</t>
         </is>
@@ -27717,7 +27717,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="8" t="inlineStr">
+      <c r="A524" s="16" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
@@ -27739,7 +27739,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="8" t="inlineStr">
+      <c r="A525" s="16" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
@@ -27761,7 +27761,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="8" t="inlineStr">
+      <c r="A526" s="16" t="inlineStr">
         <is>
           <t>2025-05-13</t>
         </is>
@@ -27783,7 +27783,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="8" t="inlineStr">
+      <c r="A527" s="16" t="inlineStr">
         <is>
           <t>2025-05-14</t>
         </is>
@@ -27805,7 +27805,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="8" t="inlineStr">
+      <c r="A528" s="16" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>
@@ -27827,7 +27827,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="8" t="inlineStr">
+      <c r="A529" s="16" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
@@ -27849,7 +27849,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="8" t="inlineStr">
+      <c r="A530" s="16" t="inlineStr">
         <is>
           <t>2025-05-19</t>
         </is>
@@ -27871,7 +27871,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="8" t="inlineStr">
+      <c r="A531" s="16" t="inlineStr">
         <is>
           <t>2025-05-20</t>
         </is>
@@ -27893,7 +27893,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="8" t="inlineStr">
+      <c r="A532" s="16" t="inlineStr">
         <is>
           <t>2025-05-21</t>
         </is>
@@ -27915,7 +27915,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="8" t="inlineStr">
+      <c r="A533" s="16" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
@@ -27937,7 +27937,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="8" t="inlineStr">
+      <c r="A534" s="16" t="inlineStr">
         <is>
           <t>2025-05-23</t>
         </is>
@@ -27959,7 +27959,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="8" t="inlineStr">
+      <c r="A535" s="16" t="inlineStr">
         <is>
           <t>2025-05-26</t>
         </is>
@@ -27981,7 +27981,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="8" t="inlineStr">
+      <c r="A536" s="16" t="inlineStr">
         <is>
           <t>2025-05-27</t>
         </is>
@@ -28003,7 +28003,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="8" t="inlineStr">
+      <c r="A537" s="16" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
@@ -28025,7 +28025,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="8" t="inlineStr">
+      <c r="A538" s="16" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
@@ -28047,7 +28047,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="8" t="inlineStr">
+      <c r="A539" s="16" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
@@ -28069,7 +28069,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="8" t="inlineStr">
+      <c r="A540" s="16" t="inlineStr">
         <is>
           <t>2025-06-02</t>
         </is>
@@ -28091,7 +28091,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="8" t="inlineStr">
+      <c r="A541" s="16" t="inlineStr">
         <is>
           <t>2025-06-04</t>
         </is>
@@ -28113,7 +28113,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="8" t="inlineStr">
+      <c r="A542" s="16" t="inlineStr">
         <is>
           <t>2025-06-05</t>
         </is>
@@ -28135,7 +28135,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="8" t="inlineStr">
+      <c r="A543" s="16" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
@@ -28157,7 +28157,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="8" t="inlineStr">
+      <c r="A544" s="16" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
@@ -28179,7 +28179,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="8" t="inlineStr">
+      <c r="A545" s="16" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
@@ -28201,7 +28201,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="8" t="inlineStr">
+      <c r="A546" s="16" t="inlineStr">
         <is>
           <t>2025-06-12</t>
         </is>
@@ -28223,7 +28223,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="8" t="inlineStr">
+      <c r="A547" s="16" t="inlineStr">
         <is>
           <t>2025-06-13</t>
         </is>
@@ -28245,7 +28245,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="8" t="inlineStr">
+      <c r="A548" s="16" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
@@ -28267,7 +28267,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="8" t="inlineStr">
+      <c r="A549" s="16" t="inlineStr">
         <is>
           <t>2025-06-17</t>
         </is>
@@ -28289,7 +28289,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="8" t="inlineStr">
+      <c r="A550" s="16" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
@@ -28311,7 +28311,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="8" t="inlineStr">
+      <c r="A551" s="16" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
@@ -28333,7 +28333,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="8" t="inlineStr">
+      <c r="A552" s="16" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
@@ -28355,7 +28355,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="8" t="inlineStr">
+      <c r="A553" s="16" t="inlineStr">
         <is>
           <t>2025-06-23</t>
         </is>
@@ -28377,7 +28377,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="8" t="inlineStr">
+      <c r="A554" s="16" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
@@ -28399,7 +28399,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="8" t="inlineStr">
+      <c r="A555" s="16" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
@@ -28421,7 +28421,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="8" t="inlineStr">
+      <c r="A556" s="16" t="inlineStr">
         <is>
           <t>2025-06-26</t>
         </is>
@@ -28443,7 +28443,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="8" t="inlineStr">
+      <c r="A557" s="16" t="inlineStr">
         <is>
           <t>2025-06-27</t>
         </is>
@@ -28465,7 +28465,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="8" t="inlineStr">
+      <c r="A558" s="16" t="inlineStr">
         <is>
           <t>2025-06-30</t>
         </is>
@@ -28487,7 +28487,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="8" t="inlineStr">
+      <c r="A559" s="16" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
@@ -28509,7 +28509,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="8" t="inlineStr">
+      <c r="A560" s="16" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
@@ -28531,7 +28531,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="8" t="inlineStr">
+      <c r="A561" s="16" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
@@ -28553,7 +28553,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="8" t="inlineStr">
+      <c r="A562" s="16" t="inlineStr">
         <is>
           <t>2025-07-04</t>
         </is>
@@ -28575,7 +28575,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="8" t="inlineStr">
+      <c r="A563" s="16" t="inlineStr">
         <is>
           <t>2025-07-07</t>
         </is>
@@ -28597,7 +28597,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="8" t="inlineStr">
+      <c r="A564" s="16" t="inlineStr">
         <is>
           <t>2025-07-08</t>
         </is>
@@ -28619,7 +28619,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="8" t="inlineStr">
+      <c r="A565" s="16" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
@@ -28641,7 +28641,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="8" t="inlineStr">
+      <c r="A566" s="16" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
@@ -28663,7 +28663,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="8" t="inlineStr">
+      <c r="A567" s="16" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
@@ -28685,7 +28685,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="8" t="inlineStr">
+      <c r="A568" s="16" t="inlineStr">
         <is>
           <t>2025-07-14</t>
         </is>
@@ -28707,7 +28707,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="8" t="inlineStr">
+      <c r="A569" s="16" t="inlineStr">
         <is>
           <t>2025-07-15</t>
         </is>
@@ -28729,7 +28729,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="8" t="inlineStr">
+      <c r="A570" s="16" t="inlineStr">
         <is>
           <t>2025-07-16</t>
         </is>
@@ -28751,7 +28751,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="8" t="inlineStr">
+      <c r="A571" s="16" t="inlineStr">
         <is>
           <t>2025-07-17</t>
         </is>
@@ -28773,7 +28773,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="8" t="inlineStr">
+      <c r="A572" s="16" t="inlineStr">
         <is>
           <t>2025-07-18</t>
         </is>
@@ -28795,7 +28795,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="8" t="inlineStr">
+      <c r="A573" s="16" t="inlineStr">
         <is>
           <t>2025-07-21</t>
         </is>
@@ -28817,7 +28817,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="8" t="inlineStr">
+      <c r="A574" s="16" t="inlineStr">
         <is>
           <t>2025-07-22</t>
         </is>
@@ -28839,7 +28839,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="8" t="inlineStr">
+      <c r="A575" s="16" t="inlineStr">
         <is>
           <t>2025-07-23</t>
         </is>
@@ -28861,7 +28861,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="8" t="inlineStr">
+      <c r="A576" s="16" t="inlineStr">
         <is>
           <t>2025-07-24</t>
         </is>
@@ -28883,7 +28883,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="8" t="inlineStr">
+      <c r="A577" s="16" t="inlineStr">
         <is>
           <t>2025-07-25</t>
         </is>
@@ -28905,7 +28905,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="8" t="inlineStr">
+      <c r="A578" s="16" t="inlineStr">
         <is>
           <t>2025-07-28</t>
         </is>
@@ -28927,7 +28927,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="8" t="inlineStr">
+      <c r="A579" s="16" t="inlineStr">
         <is>
           <t>2025-07-29</t>
         </is>
@@ -28949,7 +28949,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="8" t="inlineStr">
+      <c r="A580" s="16" t="inlineStr">
         <is>
           <t>2025-07-30</t>
         </is>
@@ -28971,7 +28971,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="8" t="inlineStr">
+      <c r="A581" s="16" t="inlineStr">
         <is>
           <t>2025-07-31</t>
         </is>
@@ -28993,7 +28993,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="8" t="inlineStr">
+      <c r="A582" s="16" t="inlineStr">
         <is>
           <t>2025-08-01</t>
         </is>
@@ -29015,7 +29015,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="8" t="inlineStr">
+      <c r="A583" s="16" t="inlineStr">
         <is>
           <t>2025-08-04</t>
         </is>
@@ -29037,7 +29037,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="8" t="inlineStr">
+      <c r="A584" s="16" t="inlineStr">
         <is>
           <t>2025-08-05</t>
         </is>
@@ -29059,7 +29059,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="8" t="inlineStr">
+      <c r="A585" s="16" t="inlineStr">
         <is>
           <t>2025-08-06</t>
         </is>
@@ -29081,7 +29081,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="8" t="inlineStr">
+      <c r="A586" s="16" t="inlineStr">
         <is>
           <t>2025-08-07</t>
         </is>
@@ -29103,7 +29103,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="8" t="inlineStr">
+      <c r="A587" s="16" t="inlineStr">
         <is>
           <t>2025-08-08</t>
         </is>
@@ -29125,7 +29125,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="8" t="inlineStr">
+      <c r="A588" s="16" t="inlineStr">
         <is>
           <t>2025-08-11</t>
         </is>
@@ -29147,7 +29147,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="8" t="inlineStr">
+      <c r="A589" s="16" t="inlineStr">
         <is>
           <t>2025-08-12</t>
         </is>
@@ -29169,7 +29169,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="8" t="inlineStr">
+      <c r="A590" s="16" t="inlineStr">
         <is>
           <t>2025-08-13</t>
         </is>
@@ -29191,7 +29191,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="8" t="inlineStr">
+      <c r="A591" s="16" t="inlineStr">
         <is>
           <t>2025-08-14</t>
         </is>
@@ -29213,7 +29213,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="8" t="inlineStr">
+      <c r="A592" s="16" t="inlineStr">
         <is>
           <t>2025-08-18</t>
         </is>
@@ -29235,7 +29235,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="8" t="inlineStr">
+      <c r="A593" s="16" t="inlineStr">
         <is>
           <t>2025-08-19</t>
         </is>
@@ -29257,7 +29257,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="8" t="inlineStr">
+      <c r="A594" s="16" t="inlineStr">
         <is>
           <t>2025-08-20</t>
         </is>
@@ -29279,7 +29279,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="8" t="inlineStr">
+      <c r="A595" s="16" t="inlineStr">
         <is>
           <t>2025-08-21</t>
         </is>
@@ -29301,7 +29301,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="8" t="inlineStr">
+      <c r="A596" s="16" t="inlineStr">
         <is>
           <t>2025-08-22</t>
         </is>
@@ -29323,7 +29323,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="8" t="inlineStr">
+      <c r="A597" s="16" t="inlineStr">
         <is>
           <t>2025-08-25</t>
         </is>
@@ -29345,7 +29345,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="8" t="inlineStr">
+      <c r="A598" s="16" t="inlineStr">
         <is>
           <t>2025-08-26</t>
         </is>
@@ -29367,7 +29367,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="8" t="inlineStr">
+      <c r="A599" s="16" t="inlineStr">
         <is>
           <t>2025-08-27</t>
         </is>
@@ -29389,7 +29389,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="8" t="inlineStr">
+      <c r="A600" s="16" t="inlineStr">
         <is>
           <t>2025-08-28</t>
         </is>
@@ -29411,7 +29411,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="8" t="inlineStr">
+      <c r="A601" s="16" t="inlineStr">
         <is>
           <t>2025-08-29</t>
         </is>
@@ -29433,7 +29433,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="8" t="inlineStr">
+      <c r="A602" s="16" t="inlineStr">
         <is>
           <t>2025-09-01</t>
         </is>
@@ -29455,7 +29455,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="8" t="inlineStr">
+      <c r="A603" s="16" t="inlineStr">
         <is>
           <t>2025-09-02</t>
         </is>
@@ -29477,7 +29477,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="8" t="inlineStr">
+      <c r="A604" s="16" t="inlineStr">
         <is>
           <t>2025-09-03</t>
         </is>
@@ -29499,7 +29499,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="8" t="inlineStr">
+      <c r="A605" s="16" t="inlineStr">
         <is>
           <t>2025-09-04</t>
         </is>
@@ -29521,7 +29521,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="8" t="inlineStr">
+      <c r="A606" s="16" t="inlineStr">
         <is>
           <t>2025-09-05</t>
         </is>
@@ -29543,7 +29543,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="8" t="inlineStr">
+      <c r="A607" s="16" t="inlineStr">
         <is>
           <t>2025-09-08</t>
         </is>
@@ -29565,7 +29565,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="8" t="inlineStr">
+      <c r="A608" s="16" t="inlineStr">
         <is>
           <t>2025-09-09</t>
         </is>
@@ -29587,7 +29587,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="8" t="inlineStr">
+      <c r="A609" s="16" t="inlineStr">
         <is>
           <t>2025-09-10</t>
         </is>
@@ -29609,7 +29609,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="8" t="inlineStr">
+      <c r="A610" s="16" t="inlineStr">
         <is>
           <t>2025-09-11</t>
         </is>
@@ -29631,7 +29631,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="8" t="inlineStr">
+      <c r="A611" s="16" t="inlineStr">
         <is>
           <t>2025-09-12</t>
         </is>
@@ -29653,7 +29653,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="8" t="inlineStr">
+      <c r="A612" s="16" t="inlineStr">
         <is>
           <t>2025-09-15</t>
         </is>
@@ -29675,7 +29675,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="8" t="inlineStr">
+      <c r="A613" s="16" t="inlineStr">
         <is>
           <t>2025-09-16</t>
         </is>
@@ -29697,7 +29697,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="8" t="inlineStr">
+      <c r="A614" s="16" t="inlineStr">
         <is>
           <t>2025-09-17</t>
         </is>
@@ -29719,7 +29719,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="8" t="inlineStr">
+      <c r="A615" s="16" t="inlineStr">
         <is>
           <t>2025-09-18</t>
         </is>
@@ -29741,7 +29741,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="8" t="inlineStr">
+      <c r="A616" s="16" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
@@ -29763,7 +29763,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="8" t="inlineStr">
+      <c r="A617" s="16" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
@@ -29785,7 +29785,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="8" t="inlineStr">
+      <c r="A618" s="16" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
@@ -29807,7 +29807,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="8" t="inlineStr">
+      <c r="A619" s="16" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -29829,7 +29829,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="8" t="inlineStr">
+      <c r="A620" s="16" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -29851,7 +29851,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="8" t="inlineStr">
+      <c r="A621" s="16" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
@@ -29873,7 +29873,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="8" t="inlineStr">
+      <c r="A622" s="16" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -29895,7 +29895,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="8" t="inlineStr">
+      <c r="A623" s="16" t="inlineStr">
         <is>
           <t>2025-09-30</t>
         </is>
@@ -29917,7 +29917,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="8" t="inlineStr">
+      <c r="A624" s="16" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
@@ -29939,7 +29939,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="8" t="inlineStr">
+      <c r="A625" s="16" t="inlineStr">
         <is>
           <t>2025-10-02</t>
         </is>
@@ -29961,7 +29961,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="8" t="inlineStr">
+      <c r="A626" s="16" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
@@ -29983,7 +29983,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="8" t="inlineStr">
+      <c r="A627" s="16" t="inlineStr">
         <is>
           <t>2025-10-13</t>
         </is>
@@ -30005,7 +30005,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="8" t="inlineStr">
+      <c r="A628" s="16" t="inlineStr">
         <is>
           <t>2025-10-14</t>
         </is>
@@ -30027,7 +30027,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="8" t="inlineStr">
+      <c r="A629" s="16" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
@@ -30049,7 +30049,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="8" t="inlineStr">
+      <c r="A630" s="16" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
@@ -30071,7 +30071,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="8" t="inlineStr">
+      <c r="A631" s="16" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
@@ -30093,7 +30093,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="8" t="inlineStr">
+      <c r="A632" s="16" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
@@ -30115,7 +30115,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="8" t="inlineStr">
+      <c r="A633" s="16" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
@@ -30137,7 +30137,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="8" t="inlineStr">
+      <c r="A634" s="16" t="inlineStr">
         <is>
           <t>2025-10-22</t>
         </is>
@@ -30159,7 +30159,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="8" t="inlineStr">
+      <c r="A635" s="16" t="inlineStr">
         <is>
           <t>2025-10-23</t>
         </is>
@@ -30181,7 +30181,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="8" t="inlineStr">
+      <c r="A636" s="16" t="inlineStr">
         <is>
           <t>2025-10-24</t>
         </is>
@@ -30203,7 +30203,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="8" t="inlineStr">
+      <c r="A637" s="16" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
@@ -30225,7 +30225,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="8" t="inlineStr">
+      <c r="A638" s="16" t="inlineStr">
         <is>
           <t>2025-10-28</t>
         </is>
@@ -30247,7 +30247,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="8" t="inlineStr">
+      <c r="A639" s="16" t="inlineStr">
         <is>
           <t>2025-10-29</t>
         </is>
@@ -30269,7 +30269,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="8" t="inlineStr">
+      <c r="A640" s="16" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
@@ -30291,7 +30291,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="8" t="inlineStr">
+      <c r="A641" s="16" t="inlineStr">
         <is>
           <t>2025-10-31</t>
         </is>
@@ -30313,7 +30313,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="8" t="inlineStr">
+      <c r="A642" s="16" t="inlineStr">
         <is>
           <t>2025-11-03</t>
         </is>
@@ -30335,7 +30335,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="8" t="inlineStr">
+      <c r="A643" s="16" t="inlineStr">
         <is>
           <t>2025-11-04</t>
         </is>
@@ -30357,7 +30357,7 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="8" t="inlineStr">
+      <c r="A644" s="16" t="inlineStr">
         <is>
           <t>2025-11-05</t>
         </is>
@@ -30379,7 +30379,7 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="8" t="inlineStr">
+      <c r="A645" s="16" t="inlineStr">
         <is>
           <t>2025-11-06</t>
         </is>
@@ -30401,7 +30401,7 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="8" t="inlineStr">
+      <c r="A646" s="16" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
@@ -30423,7 +30423,7 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="8" t="inlineStr">
+      <c r="A647" s="16" t="inlineStr">
         <is>
           <t>2025-11-10</t>
         </is>
@@ -30445,7 +30445,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="8" t="inlineStr">
+      <c r="A648" s="16" t="inlineStr">
         <is>
           <t>2025-11-11</t>
         </is>
@@ -30467,7 +30467,7 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="8" t="inlineStr">
+      <c r="A649" s="16" t="inlineStr">
         <is>
           <t>2025-11-12</t>
         </is>
@@ -30489,7 +30489,7 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="8" t="inlineStr">
+      <c r="A650" s="16" t="inlineStr">
         <is>
           <t>2025-11-13</t>
         </is>
@@ -30511,7 +30511,7 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="8" t="inlineStr">
+      <c r="A651" s="16" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
@@ -30533,7 +30533,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="8" t="inlineStr">
+      <c r="A652" s="16" t="inlineStr">
         <is>
           <t>2025-11-17</t>
         </is>
@@ -30555,7 +30555,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="8" t="inlineStr">
+      <c r="A653" s="16" t="inlineStr">
         <is>
           <t>2025-11-18</t>
         </is>
@@ -30577,7 +30577,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="8" t="inlineStr">
+      <c r="A654" s="16" t="inlineStr">
         <is>
           <t>2025-11-19</t>
         </is>
@@ -30599,7 +30599,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="8" t="inlineStr">
+      <c r="A655" s="16" t="inlineStr">
         <is>
           <t>2025-11-20</t>
         </is>
@@ -30621,7 +30621,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="8" t="inlineStr">
+      <c r="A656" s="16" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
@@ -30643,7 +30643,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="8" t="inlineStr">
+      <c r="A657" s="16" t="inlineStr">
         <is>
           <t>2025-11-24</t>
         </is>
@@ -30665,7 +30665,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="8" t="inlineStr">
+      <c r="A658" s="16" t="inlineStr">
         <is>
           <t>2025-11-25</t>
         </is>
@@ -30687,7 +30687,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="8" t="inlineStr">
+      <c r="A659" s="16" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
@@ -30709,7 +30709,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="8" t="inlineStr">
+      <c r="A660" s="16" t="inlineStr">
         <is>
           <t>2025-11-27</t>
         </is>
@@ -30731,7 +30731,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="8" t="inlineStr">
+      <c r="A661" s="16" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
@@ -30753,7 +30753,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="8" t="inlineStr">
+      <c r="A662" s="16" t="inlineStr">
         <is>
           <t>2025-12-01</t>
         </is>
@@ -30775,7 +30775,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="8" t="inlineStr">
+      <c r="A663" s="16" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
@@ -30797,7 +30797,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="8" t="inlineStr">
+      <c r="A664" s="16" t="inlineStr">
         <is>
           <t>2025-12-03</t>
         </is>
@@ -30819,7 +30819,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="8" t="inlineStr">
+      <c r="A665" s="16" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
@@ -30841,7 +30841,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="8" t="inlineStr">
+      <c r="A666" s="16" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
@@ -30863,7 +30863,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="8" t="inlineStr">
+      <c r="A667" s="16" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
@@ -30885,7 +30885,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="8" t="inlineStr">
+      <c r="A668" s="16" t="inlineStr">
         <is>
           <t>2025-12-09</t>
         </is>
@@ -30907,7 +30907,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="8" t="inlineStr">
+      <c r="A669" s="16" t="inlineStr">
         <is>
           <t>2025-12-10</t>
         </is>
@@ -30929,7 +30929,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="8" t="inlineStr">
+      <c r="A670" s="16" t="inlineStr">
         <is>
           <t>2025-12-11</t>
         </is>
@@ -30951,7 +30951,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="8" t="inlineStr">
+      <c r="A671" s="16" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
@@ -30973,7 +30973,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="8" t="inlineStr">
+      <c r="A672" s="16" t="inlineStr">
         <is>
           <t>2025-12-15</t>
         </is>
@@ -30995,7 +30995,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="8" t="inlineStr">
+      <c r="A673" s="16" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
@@ -31017,7 +31017,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="8" t="inlineStr">
+      <c r="A674" s="16" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
@@ -31039,7 +31039,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="8" t="inlineStr">
+      <c r="A675" s="16" t="inlineStr">
         <is>
           <t>2025-12-18</t>
         </is>
@@ -31061,7 +31061,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="8" t="inlineStr">
+      <c r="A676" s="16" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
@@ -31083,7 +31083,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="8" t="inlineStr">
+      <c r="A677" s="16" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
@@ -31105,7 +31105,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="8" t="inlineStr">
+      <c r="A678" s="16" t="inlineStr">
         <is>
           <t>2025-12-23</t>
         </is>
@@ -31127,7 +31127,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="8" t="inlineStr">
+      <c r="A679" s="16" t="inlineStr">
         <is>
           <t>2025-12-24</t>
         </is>
@@ -31149,7 +31149,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="8" t="inlineStr">
+      <c r="A680" s="16" t="inlineStr">
         <is>
           <t>2025-12-26</t>
         </is>
@@ -31171,7 +31171,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="8" t="inlineStr">
+      <c r="A681" s="16" t="inlineStr">
         <is>
           <t>2025-12-29</t>
         </is>
@@ -31193,7 +31193,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="8" t="inlineStr">
+      <c r="A682" s="16" t="inlineStr">
         <is>
           <t>2025-12-30</t>
         </is>
@@ -31201,7 +31201,7 @@
       <c r="B682" t="n">
         <v>2021.31</v>
       </c>
-      <c r="C682" s="13" t="n">
+      <c r="C682" t="n">
         <v>2038.06</v>
       </c>
       <c r="D682" t="n">
@@ -31215,7 +31215,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="8" t="inlineStr">
+      <c r="A683" s="16" t="inlineStr">
         <is>
           <t>2026-01-02</t>
         </is>
@@ -31223,7 +31223,7 @@
       <c r="B683" t="n">
         <v>2089.49</v>
       </c>
-      <c r="C683" s="14" t="n">
+      <c r="C683" t="n">
         <v>2047.3</v>
       </c>
       <c r="D683" t="n">
@@ -31237,7 +31237,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="8" t="inlineStr">
+      <c r="A684" s="16" t="inlineStr">
         <is>
           <t>2026-01-05</t>
         </is>
@@ -31259,7 +31259,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="8" t="inlineStr">
+      <c r="A685" s="16" t="inlineStr">
         <is>
           <t>2026-01-06</t>
         </is>
@@ -31281,7 +31281,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="8" t="inlineStr">
+      <c r="A686" s="16" t="inlineStr">
         <is>
           <t>2026-01-07</t>
         </is>
@@ -31303,7 +31303,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="8" t="inlineStr">
+      <c r="A687" s="16" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
@@ -31325,7 +31325,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="8" t="inlineStr">
+      <c r="A688" s="16" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
@@ -31347,7 +31347,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="8" t="inlineStr">
+      <c r="A689" s="16" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
@@ -31369,7 +31369,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="8" t="inlineStr">
+      <c r="A690" s="16" t="inlineStr">
         <is>
           <t>2026-01-13</t>
         </is>
@@ -31391,7 +31391,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="8" t="inlineStr">
+      <c r="A691" s="16" t="inlineStr">
         <is>
           <t>2026-01-14</t>
         </is>
@@ -31413,7 +31413,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="8" t="inlineStr">
+      <c r="A692" s="16" t="inlineStr">
         <is>
           <t>2026-01-15</t>
         </is>
@@ -31435,7 +31435,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="8" t="inlineStr">
+      <c r="A693" s="16" t="inlineStr">
         <is>
           <t>2026-01-16</t>
         </is>
@@ -31457,7 +31457,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="8" t="inlineStr">
+      <c r="A694" s="16" t="inlineStr">
         <is>
           <t>2026-01-19</t>
         </is>
@@ -31479,7 +31479,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="8" t="inlineStr">
+      <c r="A695" s="16" t="inlineStr">
         <is>
           <t>2026-01-20</t>
         </is>
@@ -31501,7 +31501,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="8" t="inlineStr">
+      <c r="A696" s="16" t="inlineStr">
         <is>
           <t>2026-01-21</t>
         </is>
@@ -31523,7 +31523,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="8" t="inlineStr">
+      <c r="A697" s="16" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
@@ -31545,7 +31545,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="8" t="inlineStr">
+      <c r="A698" s="16" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
@@ -31567,7 +31567,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="8" t="inlineStr">
+      <c r="A699" s="16" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
@@ -31589,7 +31589,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="8" t="inlineStr">
+      <c r="A700" s="16" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
@@ -31611,7 +31611,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="8" t="inlineStr">
+      <c r="A701" s="16" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
@@ -31633,7 +31633,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="8" t="inlineStr">
+      <c r="A702" s="16" t="inlineStr">
         <is>
           <t>2026-01-29</t>
         </is>
@@ -31655,7 +31655,7 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="8" t="inlineStr">
+      <c r="A703" s="16" t="inlineStr">
         <is>
           <t>2026-01-30</t>
         </is>
@@ -31677,7 +31677,7 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="8" t="inlineStr">
+      <c r="A704" s="16" t="inlineStr">
         <is>
           <t>2026-02-02</t>
         </is>
@@ -31699,7 +31699,7 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="8" t="inlineStr">
+      <c r="A705" s="16" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
@@ -31721,7 +31721,7 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="8" t="inlineStr">
+      <c r="A706" s="16" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
@@ -31743,7 +31743,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="8" t="inlineStr">
+      <c r="A707" s="16" t="inlineStr">
         <is>
           <t>2026-02-05</t>
         </is>
@@ -31765,7 +31765,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="8" t="inlineStr">
+      <c r="A708" s="16" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>
@@ -31787,7 +31787,7 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="8" t="inlineStr">
+      <c r="A709" s="16" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
@@ -31809,7 +31809,7 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="8" t="inlineStr">
+      <c r="A710" s="16" t="inlineStr">
         <is>
           <t>2026-02-10</t>
         </is>
@@ -31831,7 +31831,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="8" t="inlineStr">
+      <c r="A711" s="16" t="inlineStr">
         <is>
           <t>2026-02-11</t>
         </is>
@@ -31856,7 +31856,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="8" t="inlineStr">
+      <c r="A712" s="16" t="inlineStr">
         <is>
           <t>2026-02-12</t>
         </is>
@@ -31881,7 +31881,7 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="8" t="inlineStr">
+      <c r="A713" s="16" t="inlineStr">
         <is>
           <t>2026-02-13</t>
         </is>
@@ -31906,7 +31906,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="8" t="inlineStr">
+      <c r="A714" s="16" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
@@ -31931,7 +31931,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="8" t="inlineStr">
+      <c r="A715" s="16" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
@@ -31956,9 +31956,29 @@
       </c>
     </row>
     <row r="716">
-      <c r="B716" s="15" t="n"/>
-      <c r="C716" s="15" t="n"/>
-      <c r="D716" s="15" t="n"/>
+      <c r="A716" s="16" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>2907.36</v>
+      </c>
+      <c r="C716" t="n">
+        <v>2848.63</v>
+      </c>
+      <c r="D716" t="n">
+        <v>2193.28</v>
+      </c>
+      <c r="E716" t="n">
+        <v>5846.09</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1151.99</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1037.03</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -97977,7 +97997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99453,6 +99473,207 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.7%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.5%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>122.4%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>43.8%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>21.7%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>60.8%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>71.5%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>116.1%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>39.8%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>21.9%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>55.1%</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>66.4%</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>119.2%</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>17.2%</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>51.7%</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>84.5%</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>120.2%</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>38.7%</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>15.9%</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>47.2%</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>48.7%</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -17048,7 +17048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:G717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31978,6 +31978,31 @@
       </c>
       <c r="G716" t="n">
         <v>1037.03</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="16" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>2979.19</v>
+      </c>
+      <c r="C717" t="n">
+        <v>2919.01</v>
+      </c>
+      <c r="D717" t="n">
+        <v>2247.47</v>
+      </c>
+      <c r="E717" t="n">
+        <v>5969.64</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1060.47</v>
       </c>
     </row>
   </sheetData>
@@ -97997,7 +98022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99674,6 +99699,207 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.7%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.7%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>80.8%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>129.8%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>47.4%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>24.7%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>64.9%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>75.7%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>123.4%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>43.2%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>58.8%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>70.5%</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>126.9%</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>48.0%</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>8.4%</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>19.6%</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>88.4%</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>125.7%</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>5.3%</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>17.2%</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>48.9%</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>50.6%</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>25.9%</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -17048,7 +17048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G717"/>
+  <dimension ref="A1:G718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32003,6 +32003,31 @@
       </c>
       <c r="G717" t="n">
         <v>1060.47</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="16" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>3036.05</v>
+      </c>
+      <c r="C718" t="n">
+        <v>2974.72</v>
+      </c>
+      <c r="D718" t="n">
+        <v>2290.36</v>
+      </c>
+      <c r="E718" t="n">
+        <v>6093.33</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1165.73</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1079.98</v>
       </c>
     </row>
   </sheetData>
@@ -98022,7 +98047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99900,6 +99925,207 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.8%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>82.3%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>134.9%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>50.2%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>68.9%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>77.2%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>128.2%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>46.0%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>71.9%</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>131.6%</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>50.8%</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>10.6%</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>22.1%</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>57.9%</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>89.8%</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>131.7%</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>44.6%</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>17.3%</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>46.1%</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>51.5%</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>8.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Wrap_NAV.xlsx
+++ b/Wrap_NAV.xlsx
@@ -17102,12 +17102,15 @@
       <c r="B2" t="n">
         <v>1000</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>2377.91</v>
       </c>
       <c r="F2" t="n">
         <v>781.98</v>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr">
@@ -17118,12 +17121,15 @@
       <c r="B3" t="n">
         <v>1013.3</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>2395.69</v>
       </c>
       <c r="F3" t="n">
         <v>797.39</v>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr">
@@ -17137,12 +17143,14 @@
       <c r="C4" t="n">
         <v>1000</v>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>2379.2</v>
       </c>
       <c r="F4" t="n">
         <v>802.2</v>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr">
@@ -17156,12 +17164,14 @@
       <c r="C5" t="n">
         <v>1000.82</v>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>2388.35</v>
       </c>
       <c r="F5" t="n">
         <v>802.53</v>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
@@ -17175,12 +17185,14 @@
       <c r="C6" t="n">
         <v>1011.19</v>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>2416.96</v>
       </c>
       <c r="F6" t="n">
         <v>813.4299999999999</v>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr">
@@ -17194,12 +17206,14 @@
       <c r="C7" t="n">
         <v>1000.73</v>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>2424.48</v>
       </c>
       <c r="F7" t="n">
         <v>812.1900000000001</v>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -17213,12 +17227,14 @@
       <c r="C8" t="n">
         <v>998.92</v>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>2414.96</v>
       </c>
       <c r="F8" t="n">
         <v>824.11</v>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr">
@@ -17232,12 +17248,14 @@
       <c r="C9" t="n">
         <v>1017.16</v>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>2409.22</v>
       </c>
       <c r="F9" t="n">
         <v>827.6900000000001</v>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr">
@@ -17251,12 +17269,14 @@
       <c r="C10" t="n">
         <v>1025.08</v>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>2434.94</v>
       </c>
       <c r="F10" t="n">
         <v>833.51</v>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr">
@@ -17270,12 +17290,14 @@
       <c r="C11" t="n">
         <v>1025.93</v>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>2443.92</v>
       </c>
       <c r="F11" t="n">
         <v>843.9400000000001</v>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr">
@@ -17289,12 +17311,14 @@
       <c r="C12" t="n">
         <v>1034.32</v>
       </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>2453.16</v>
       </c>
       <c r="F12" t="n">
         <v>850.48</v>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -17308,12 +17332,14 @@
       <c r="C13" t="n">
         <v>1009.59</v>
       </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>2476.86</v>
       </c>
       <c r="F13" t="n">
         <v>847.52</v>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -17327,12 +17353,14 @@
       <c r="C14" t="n">
         <v>1021.12</v>
       </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>2472.34</v>
       </c>
       <c r="F14" t="n">
         <v>854.96</v>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -17346,12 +17374,14 @@
       <c r="C15" t="n">
         <v>1018.28</v>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>2480.51</v>
       </c>
       <c r="F15" t="n">
         <v>857.1799999999999</v>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr">
@@ -17365,12 +17395,14 @@
       <c r="C16" t="n">
         <v>1016</v>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>2495.21</v>
       </c>
       <c r="F16" t="n">
         <v>872.36</v>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr">
@@ -17384,12 +17416,14 @@
       <c r="C17" t="n">
         <v>999.51</v>
       </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>2459.23</v>
       </c>
       <c r="F17" t="n">
         <v>865.58</v>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr">
@@ -17403,12 +17437,14 @@
       <c r="C18" t="n">
         <v>1055.76</v>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>2490.41</v>
       </c>
       <c r="F18" t="n">
         <v>880.0700000000001</v>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -17422,12 +17458,14 @@
       <c r="C19" t="n">
         <v>1058.74</v>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>2512.08</v>
       </c>
       <c r="F19" t="n">
         <v>887.78</v>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
@@ -17441,12 +17479,14 @@
       <c r="C20" t="n">
         <v>1070.02</v>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>2547.86</v>
       </c>
       <c r="F20" t="n">
         <v>898.9400000000001</v>
       </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -17460,12 +17500,14 @@
       <c r="C21" t="n">
         <v>1091.78</v>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>2550.64</v>
       </c>
       <c r="F21" t="n">
         <v>890.62</v>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr">
@@ -17479,12 +17521,14 @@
       <c r="C22" t="n">
         <v>1104.07</v>
       </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>2561.66</v>
       </c>
       <c r="F22" t="n">
         <v>894.25</v>
       </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr">
@@ -17498,12 +17542,14 @@
       <c r="C23" t="n">
         <v>1117.52</v>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>2571.49</v>
       </c>
       <c r="F23" t="n">
         <v>903.84</v>
       </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr">
@@ -17517,12 +17563,14 @@
       <c r="C24" t="n">
         <v>1122.09</v>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>2575.91</v>
       </c>
       <c r="F24" t="n">
         <v>909.5</v>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr">
@@ -17536,12 +17584,14 @@
       <c r="C25" t="n">
         <v>1109.48</v>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>2571.09</v>
       </c>
       <c r="F25" t="n">
         <v>909.02</v>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr">
@@ -17555,12 +17605,14 @@
       <c r="C26" t="n">
         <v>1110.23</v>
       </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>2575.08</v>
       </c>
       <c r="F26" t="n">
         <v>909.2</v>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr">
@@ -17574,12 +17626,14 @@
       <c r="C27" t="n">
         <v>1080.8</v>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>2563.11</v>
       </c>
       <c r="F27" t="n">
         <v>885.71</v>
       </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr">
@@ -17593,12 +17647,14 @@
       <c r="C28" t="n">
         <v>1061.4</v>
       </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>2544.4</v>
       </c>
       <c r="F28" t="n">
         <v>868.8200000000001</v>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr">
@@ -17612,12 +17668,14 @@
       <c r="C29" t="n">
         <v>1059.88</v>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>2523.5</v>
       </c>
       <c r="F29" t="n">
         <v>855.23</v>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr">
@@ -17631,12 +17689,14 @@
       <c r="C30" t="n">
         <v>1048.98</v>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>2489.02</v>
       </c>
       <c r="F30" t="n">
         <v>838.71</v>
       </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr">
@@ -17650,12 +17710,14 @@
       <c r="C31" t="n">
         <v>1044.29</v>
       </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>2484.83</v>
       </c>
       <c r="F31" t="n">
         <v>830.4400000000001</v>
       </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr">
@@ -17669,12 +17731,14 @@
       <c r="C32" t="n">
         <v>1052.76</v>
       </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>2495.81</v>
       </c>
       <c r="F32" t="n">
         <v>850.21</v>
       </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr">
@@ -17688,12 +17752,14 @@
       <c r="C33" t="n">
         <v>1061.26</v>
       </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>2501.53</v>
       </c>
       <c r="F33" t="n">
         <v>842.83</v>
       </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr">
@@ -17707,12 +17773,14 @@
       <c r="C34" t="n">
         <v>1059.22</v>
       </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>2524.39</v>
       </c>
       <c r="F34" t="n">
         <v>855.61</v>
       </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr">
@@ -17726,12 +17794,14 @@
       <c r="C35" t="n">
         <v>1054.35</v>
       </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>2501.4</v>
       </c>
       <c r="F35" t="n">
         <v>843.1799999999999</v>
       </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr">
@@ -17745,12 +17815,14 @@
       <c r="C36" t="n">
         <v>1039.47</v>
       </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>2500.94</v>
       </c>
       <c r="F36" t="n">
         <v>845.0599999999999</v>
       </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr">
@@ -17764,12 +17836,14 @@
       <c r="C37" t="n">
         <v>1038.63</v>
       </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>2513.21</v>
       </c>
       <c r="F37" t="n">
         <v>842.28</v>
       </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr">
@@ -17783,12 +17857,14 @@
       <c r="C38" t="n">
         <v>1026.13</v>
       </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>2510.06</v>
       </c>
       <c r="F38" t="n">
         <v>835.85</v>
       </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr">
@@ -17802,12 +17878,14 @@
       <c r="C39" t="n">
         <v>1019.56</v>
       </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>2496.51</v>
       </c>
       <c r="F39" t="n">
         <v>829.74</v>
       </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr">
@@ -17821,12 +17899,14 @@
       <c r="C40" t="n">
         <v>1025.62</v>
       </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>2491</v>
       </c>
       <c r="F40" t="n">
         <v>824.54</v>
       </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr">
@@ -17840,12 +17920,14 @@
       <c r="C41" t="n">
         <v>1019.32</v>
       </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>2475.42</v>
       </c>
       <c r="F41" t="n">
         <v>822.4299999999999</v>
       </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr">
@@ -17859,12 +17941,14 @@
       <c r="C42" t="n">
         <v>1018.18</v>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>2479.35</v>
       </c>
       <c r="F42" t="n">
         <v>814.53</v>
       </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr">
@@ -17878,12 +17962,14 @@
       <c r="C43" t="n">
         <v>1030.78</v>
       </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>2480.24</v>
       </c>
       <c r="F43" t="n">
         <v>816.75</v>
       </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr">
@@ -17897,12 +17983,14 @@
       <c r="C44" t="n">
         <v>1044.62</v>
       </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>2494.66</v>
       </c>
       <c r="F44" t="n">
         <v>834.1900000000001</v>
       </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr">
@@ -17916,12 +18004,14 @@
       <c r="C45" t="n">
         <v>1048.88</v>
       </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>2515.4</v>
       </c>
       <c r="F45" t="n">
         <v>835.89</v>
       </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr">
@@ -17935,12 +18025,14 @@
       <c r="C46" t="n">
         <v>1049.14</v>
       </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>2537.79</v>
       </c>
       <c r="F46" t="n">
         <v>841.72</v>
       </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr">
@@ -17954,12 +18046,14 @@
       <c r="C47" t="n">
         <v>1050.7</v>
       </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>2557.08</v>
       </c>
       <c r="F47" t="n">
         <v>852.04</v>
       </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr">
@@ -17973,12 +18067,14 @@
       <c r="C48" t="n">
         <v>1052.87</v>
       </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>2567.55</v>
       </c>
       <c r="F48" t="n">
         <v>859.16</v>
       </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr">
@@ -17992,12 +18088,14 @@
       <c r="C49" t="n">
         <v>1051.49</v>
       </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>2567.45</v>
       </c>
       <c r="F49" t="n">
         <v>855.46</v>
       </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr">
@@ -18011,12 +18109,14 @@
       <c r="C50" t="n">
         <v>1047.33</v>
       </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>2554.69</v>
       </c>
       <c r="F50" t="n">
         <v>847.72</v>
       </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr">
@@ -18030,12 +18130,14 @@
       <c r="C51" t="n">
         <v>1051.53</v>
       </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>2558.81</v>
       </c>
       <c r="F51" t="n">
         <v>843.23</v>
       </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr">
@@ -18049,12 +18151,14 @@
       <c r="C52" t="n">
         <v>1064.51</v>
       </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>2585.52</v>
       </c>
       <c r="F52" t="n">
         <v>851.5</v>
       </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr">
@@ -18068,12 +18172,14 @@
       <c r="C53" t="n">
         <v>1058.41</v>
       </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
         <v>2577.12</v>
       </c>
       <c r="F53" t="n">
         <v>856.9400000000001</v>
       </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr">
@@ -18087,12 +18193,14 @@
       <c r="C54" t="n">
         <v>1057.64</v>
       </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>2569.17</v>
       </c>
       <c r="F54" t="n">
         <v>863.78</v>
       </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr">
@@ -18106,12 +18214,14 @@
       <c r="C55" t="n">
         <v>1068.08</v>
       </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
         <v>2601.36</v>
       </c>
       <c r="F55" t="n">
         <v>868.0599999999999</v>
       </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr">
@@ -18125,12 +18235,14 @@
       <c r="C56" t="n">
         <v>1074.57</v>
       </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>2615.41</v>
       </c>
       <c r="F56" t="n">
         <v>870.28</v>
       </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr">
@@ -18144,12 +18256,14 @@
       <c r="C57" t="n">
         <v>1078.57</v>
       </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>2615.6</v>
       </c>
       <c r="F57" t="n">
         <v>880.72</v>
       </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr">
@@ -18163,12 +18277,14 @@
       <c r="C58" t="n">
         <v>1082.67</v>
       </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>2610.85</v>
       </c>
       <c r="F58" t="n">
         <v>876.13</v>
       </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr">
@@ -18182,12 +18298,14 @@
       <c r="C59" t="n">
         <v>1083.76</v>
       </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>2641.16</v>
       </c>
       <c r="F59" t="n">
         <v>883.71</v>
       </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr">
@@ -18201,12 +18319,14 @@
       <c r="C60" t="n">
         <v>1080.35</v>
       </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>2629.35</v>
       </c>
       <c r="F60" t="n">
         <v>885.76</v>
       </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr">
@@ -18220,12 +18340,14 @@
       <c r="C61" t="n">
         <v>1083.04</v>
       </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>2637.95</v>
       </c>
       <c r="F61" t="n">
         <v>896.8099999999999</v>
       </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr">
@@ -18239,12 +18361,14 @@
       <c r="C62" t="n">
         <v>1071.37</v>
       </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>2619.08</v>
       </c>
       <c r="F62" t="n">
         <v>871.83</v>
       </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr">
@@ -18258,12 +18382,14 @@
       <c r="C63" t="n">
         <v>1078.47</v>
       </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>2608.54</v>
       </c>
       <c r="F63" t="n">
         <v>878.04</v>
       </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr">
@@ -18277,12 +18403,14 @@
       <c r="C64" t="n">
         <v>1094.44</v>
       </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>2625.79</v>
       </c>
       <c r="F64" t="n">
         <v>887.95</v>
       </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
@@ -18296,12 +18424,14 @@
       <c r="C65" t="n">
         <v>1091.2</v>
       </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>2609.5</v>
       </c>
       <c r="F65" t="n">
         <v>888.61</v>
       </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr">
@@ -18315,12 +18445,14 @@
       <c r="C66" t="n">
         <v>1097.84</v>
       </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>2604.91</v>
       </c>
       <c r="F66" t="n">
         <v>886.41</v>
       </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr">
@@ -18334,12 +18466,14 @@
       <c r="C67" t="n">
         <v>1086.82</v>
       </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
         <v>2582.63</v>
       </c>
       <c r="F67" t="n">
         <v>875.7</v>
       </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
@@ -18353,12 +18487,14 @@
       <c r="C68" t="n">
         <v>1086.07</v>
       </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
         <v>2593.7</v>
       </c>
       <c r="F68" t="n">
         <v>876.38</v>
       </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
@@ -18372,12 +18508,14 @@
       <c r="C69" t="n">
         <v>1074.68</v>
       </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>2570.1</v>
       </c>
       <c r="F69" t="n">
         <v>874.84</v>
       </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
@@ -18391,12 +18529,14 @@
       <c r="C70" t="n">
         <v>1074.96</v>
       </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
         <v>2582.2</v>
       </c>
       <c r="F70" t="n">
         <v>879.5</v>
       </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
@@ -18410,12 +18550,14 @@
       <c r="C71" t="n">
         <v>1080.7</v>
       </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
         <v>2581.39</v>
       </c>
       <c r="F71" t="n">
         <v>874.14</v>
       </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
@@ -18429,12 +18571,14 @@
       <c r="C72" t="n">
         <v>1077.65</v>
       </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>2564.19</v>
       </c>
       <c r="F72" t="n">
         <v>866.97</v>
       </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
@@ -18448,12 +18592,14 @@
       <c r="C73" t="n">
         <v>1082.89</v>
       </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
         <v>2550.02</v>
       </c>
       <c r="F73" t="n">
         <v>861.79</v>
       </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
@@ -18467,12 +18613,14 @@
       <c r="C74" t="n">
         <v>1085.96</v>
       </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
         <v>2564.28</v>
       </c>
       <c r="F74" t="n">
         <v>868.24</v>
       </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
@@ -18486,12 +18634,14 @@
       <c r="C75" t="n">
         <v>1092.14</v>
       </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
         <v>2602.47</v>
       </c>
       <c r="F75" t="n">
         <v>889.29</v>
       </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
@@ -18505,12 +18655,14 @@
       <c r="C76" t="n">
         <v>1093.64</v>
       </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>2593.31</v>
       </c>
       <c r="F76" t="n">
         <v>890</v>
       </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
@@ -18524,12 +18676,14 @@
       <c r="C77" t="n">
         <v>1086.7</v>
       </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
         <v>2579</v>
       </c>
       <c r="F77" t="n">
         <v>891.1799999999999</v>
       </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
@@ -18543,12 +18697,14 @@
       <c r="C78" t="n">
         <v>1066.95</v>
       </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
         <v>2556.29</v>
       </c>
       <c r="F78" t="n">
         <v>870.53</v>
       </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
@@ -18562,12 +18718,14 @@
       <c r="C79" t="n">
         <v>1055.64</v>
       </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>2526.71</v>
       </c>
       <c r="F79" t="n">
         <v>867.27</v>
       </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
@@ -18581,12 +18739,14 @@
       <c r="C80" t="n">
         <v>1047.43</v>
       </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
         <v>2520.7</v>
       </c>
       <c r="F80" t="n">
         <v>860.35</v>
       </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
@@ -18600,12 +18760,14 @@
       <c r="C81" t="n">
         <v>1069.82</v>
       </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
         <v>2562.49</v>
       </c>
       <c r="F81" t="n">
         <v>878.73</v>
       </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
@@ -18619,12 +18781,14 @@
       <c r="C82" t="n">
         <v>1077.26</v>
       </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
         <v>2574.72</v>
       </c>
       <c r="F82" t="n">
         <v>879.88</v>
       </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
@@ -18638,12 +18802,14 @@
       <c r="C83" t="n">
         <v>1072.17</v>
       </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
         <v>2591.23</v>
       </c>
       <c r="F83" t="n">
         <v>893.0700000000001</v>
       </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
@@ -18657,12 +18823,14 @@
       <c r="C84" t="n">
         <v>1087.2</v>
       </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
         <v>2628.3</v>
       </c>
       <c r="F84" t="n">
         <v>896.28</v>
       </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
@@ -18676,12 +18844,14 @@
       <c r="C85" t="n">
         <v>1083</v>
       </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>2619</v>
       </c>
       <c r="F85" t="n">
         <v>898.29</v>
       </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr">
@@ -18695,12 +18865,14 @@
       <c r="C86" t="n">
         <v>1077.96</v>
       </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
         <v>2607.62</v>
       </c>
       <c r="F86" t="n">
         <v>914.14</v>
       </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr">
@@ -18714,12 +18886,14 @@
       <c r="C87" t="n">
         <v>1077.97</v>
       </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>2608.24</v>
       </c>
       <c r="F87" t="n">
         <v>923.72</v>
       </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr">
@@ -18733,12 +18907,14 @@
       <c r="C88" t="n">
         <v>1097.54</v>
       </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
         <v>2600.23</v>
       </c>
       <c r="F88" t="n">
         <v>931.6</v>
       </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr">
@@ -18752,12 +18928,14 @@
       <c r="C89" t="n">
         <v>1085.12</v>
       </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>2609.76</v>
       </c>
       <c r="F89" t="n">
         <v>934.58</v>
       </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr">
@@ -18771,12 +18949,14 @@
       <c r="C90" t="n">
         <v>1082.68</v>
       </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
         <v>2628.53</v>
       </c>
       <c r="F90" t="n">
         <v>929.9</v>
       </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr">
@@ -18790,12 +18970,14 @@
       <c r="C91" t="n">
         <v>1092.34</v>
       </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>2636.46</v>
       </c>
       <c r="F91" t="n">
         <v>939.96</v>
       </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr">
@@ -18809,12 +18991,14 @@
       <c r="C92" t="n">
         <v>1050.28</v>
       </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
         <v>2592.36</v>
       </c>
       <c r="F92" t="n">
         <v>900.63</v>
       </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr">
@@ -18828,12 +19012,14 @@
       <c r="C93" t="n">
         <v>1094.42</v>
       </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>2603.81</v>
       </c>
       <c r="F93" t="n">
         <v>883.79</v>
       </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr">
@@ -18847,12 +19033,14 @@
       <c r="C94" t="n">
         <v>1113.19</v>
       </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
         <v>2608.32</v>
       </c>
       <c r="F94" t="n">
         <v>913.74</v>
       </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr">
@@ -18866,12 +19054,14 @@
       <c r="C95" t="n">
         <v>1121.31</v>
       </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
         <v>2632.58</v>
       </c>
       <c r="F95" t="n">
         <v>935.97</v>
       </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr">
@@ -18885,12 +19075,14 @@
       <c r="C96" t="n">
         <v>1155.51</v>
       </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
         <v>2667.07</v>
       </c>
       <c r="F96" t="n">
         <v>939.67</v>
       </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr">
@@ -18904,12 +19096,14 @@
       <c r="C97" t="n">
         <v>1115.14</v>
       </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
         <v>2616.47</v>
       </c>
       <c r="F97" t="n">
         <v>909.76</v>
       </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr">
@@ -18923,12 +19117,14 @@
       <c r="C98" t="n">
         <v>1126.13</v>
       </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
         <v>2605.39</v>
       </c>
       <c r="F98" t="n">
         <v>920.3200000000001</v>
       </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr">
@@ -18942,12 +19138,14 @@
       <c r="C99" t="n">
         <v>1126.2</v>
       </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
         <v>2602.8</v>
       </c>
       <c r="F99" t="n">
         <v>918.4299999999999</v>
       </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="16" t="inlineStr">
@@ -18961,12 +19159,14 @@
       <c r="C100" t="n">
         <v>1126.82</v>
       </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
         <v>2580.71</v>
       </c>
       <c r="F100" t="n">
         <v>898.22</v>
       </c>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="16" t="inlineStr">
@@ -18980,12 +19180,14 @@
       <c r="C101" t="n">
         <v>1113.55</v>
       </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
         <v>2573.98</v>
       </c>
       <c r="F101" t="n">
         <v>892.34</v>
       </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="16" t="inlineStr">
@@ -18999,12 +19201,14 @@
       <c r="C102" t="n">
         <v>1133.75</v>
       </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
         <v>2605.12</v>
       </c>
       <c r="F102" t="n">
         <v>908.98</v>
       </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="16" t="inlineStr">
@@ -19018,12 +19222,14 @@
       <c r="C103" t="n">
         <v>1128.99</v>
       </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
         <v>2601.56</v>
       </c>
       <c r="F103" t="n">
         <v>911.29</v>
       </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="16" t="inlineStr">
@@ -19037,12 +19243,14 @@
       <c r="C104" t="n">
         <v>1161.09</v>
       </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
         <v>2591.26</v>
       </c>
       <c r="F104" t="n">
         <v>912.2</v>
       </c>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="16" t="inlineStr">
@@ -19056,12 +19264,14 @@
       <c r="C105" t="n">
         <v>1156.28</v>
       </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
         <v>2570.87</v>
       </c>
       <c r="F105" t="n">
         <v>901.6799999999999</v>
       </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="16" t="inlineStr">
@@ -19075,12 +19285,14 @@
       <c r="C106" t="n">
         <v>1146.4</v>
       </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
         <v>2525.64</v>
       </c>
       <c r="F106" t="n">
         <v>878.29</v>
       </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="16" t="inlineStr">
@@ -19094,12 +19306,14 @@
       <c r="C107" t="n">
         <v>1141.91</v>
       </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
         <v>2519.85</v>
       </c>
       <c r="F107" t="n">
         <v>886.04</v>
       </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="16" t="inlineStr">
@@ -19113,12 +19327,14 @@
       <c r="C108" t="n">
         <v>1125.74</v>
       </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
         <v>2504.5</v>
       </c>
       <c r="F108" t="n">
         <v>877.3200000000001</v>
       </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="16" t="inlineStr">
@@ -19132,12 +19348,14 @@
       <c r="C109" t="n">
         <v>1118.91</v>
       </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
         <v>2508.8</v>
       </c>
       <c r="F109" t="n">
         <v>888.71</v>
       </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="16" t="inlineStr">
@@ -19151,12 +19369,14 @@
       <c r="C110" t="n">
         <v>1122.35</v>
       </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
         <v>2515.74</v>
       </c>
       <c r="F110" t="n">
         <v>893.33</v>
       </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="16" t="inlineStr">
@@ -19170,12 +19390,14 @@
       <c r="C111" t="n">
         <v>1126.03</v>
       </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="n">
         <v>2505.5</v>
       </c>
       <c r="F111" t="n">
         <v>882.87</v>
       </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="16" t="inlineStr">
@@ -19189,12 +19411,14 @@
       <c r="C112" t="n">
         <v>1143.22</v>
       </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
         <v>2537.68</v>
       </c>
       <c r="F112" t="n">
         <v>901.74</v>
       </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="16" t="inlineStr">
@@ -19208,12 +19432,14 @@
       <c r="C113" t="n">
         <v>1122.1</v>
       </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
         <v>2519.14</v>
       </c>
       <c r="F113" t="n">
         <v>899.38</v>
       </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="16" t="inlineStr">
@@ -19227,12 +19453,14 @@
       <c r="C114" t="n">
         <v>1123.88</v>
       </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
         <v>2543.41</v>
       </c>
       <c r="F114" t="n">
         <v>909.38</v>
       </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="16" t="inlineStr">
@@ -19246,12 +19474,14 @@
       <c r="C115" t="n">
         <v>1132.88</v>
       </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
         <v>2552.16</v>
       </c>
       <c r="F115" t="n">
         <v>916.24</v>
       </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="16" t="inlineStr">
@@ -19265,12 +19495,14 @@
       <c r="C116" t="n">
         <v>1154.37</v>
       </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
         <v>2561.22</v>
       </c>
       <c r="F116" t="n">
         <v>923.8099999999999</v>
       </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="16" t="inlineStr">
@@ -19284,12 +19516,14 @@
       <c r="C117" t="n">
         <v>1158.19</v>
       </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
         <v>2556.27</v>
       </c>
       <c r="F117" t="n">
         <v>928.4</v>
       </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="16" t="inlineStr">
@@ -19303,12 +19537,14 @@
       <c r="C118" t="n">
         <v>1175.83</v>
       </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
         <v>2563.71</v>
       </c>
       <c r="F118" t="n">
         <v>919.74</v>
       </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="16" t="inlineStr">
@@ -19322,12 +19558,14 @@
       <c r="C119" t="n">
         <v>1167.64</v>
       </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
         <v>2584.55</v>
       </c>
       <c r="F119" t="n">
         <v>919.16</v>
       </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="16" t="inlineStr">
@@ -19341,12 +19579,14 @@
       <c r="C120" t="n">
         <v>1168.53</v>
       </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
         <v>2582.18</v>
       </c>
       <c r="F120" t="n">
         <v>921.48</v>
       </c>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="16" t="inlineStr">
@@ -19360,12 +19600,14 @@
       <c r="C121" t="n">
         <v>1164.09</v>
       </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
         <v>2563.34</v>
       </c>
       <c r="F121" t="n">
         <v>917.95</v>
       </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="16" t="inlineStr">
@@ -19379,12 +19621,14 @@
       <c r="C122" t="n">
         <v>1165.37</v>
       </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
         <v>2548.26</v>
       </c>
       <c r="F122" t="n">
         <v>906.36</v>
       </c>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="16" t="inlineStr">
@@ -19398,12 +19642,14 @@
       <c r="C123" t="n">
         <v>1155.25</v>
       </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
         <v>2547.68</v>
       </c>
       <c r="F123" t="n">
         <v>914.1799999999999</v>
       </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="16" t="inlineStr">
@@ -19417,12 +19663,14 @@
       <c r="C124" t="n">
         <v>1158.75</v>
       </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
         <v>2556.88</v>
       </c>
       <c r="F124" t="n">
         <v>912.55</v>
       </c>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="16" t="inlineStr">
@@ -19436,12 +19684,14 @@
       <c r="C125" t="n">
         <v>1152.39</v>
       </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
         <v>2536.58</v>
       </c>
       <c r="F125" t="n">
         <v>898.04</v>
       </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="16" t="inlineStr">
@@ -19455,12 +19705,14 @@
       <c r="C126" t="n">
         <v>1152.49</v>
       </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
         <v>2534.7</v>
       </c>
       <c r="F126" t="n">
         <v>882.72</v>
       </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="16" t="inlineStr">
@@ -19474,12 +19726,14 @@
       <c r="C127" t="n">
         <v>1166.48</v>
       </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
         <v>2572.89</v>
       </c>
       <c r="F127" t="n">
         <v>899.47</v>
       </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="16" t="inlineStr">
@@ -19493,12 +19747,14 @@
       <c r="C128" t="n">
         <v>1172.54</v>
       </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
         <v>2601.28</v>
       </c>
       <c r="F128" t="n">
         <v>899.03</v>
       </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="16" t="inlineStr">
@@ -19512,12 +19768,14 @@
       <c r="C129" t="n">
         <v>1159.29</v>
       </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
         <v>2574.72</v>
       </c>
       <c r="F129" t="n">
         <v>891.29</v>
       </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="16" t="inlineStr">
@@ -19531,12 +19789,14 @@
       <c r="C130" t="n">
         <v>1156.87</v>
       </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
         <v>2559.21</v>
       </c>
       <c r="F130" t="n">
         <v>883.89</v>
       </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="16" t="inlineStr">
@@ -19550,12 +19810,14 @@
       <c r="C131" t="n">
         <v>1144.9</v>
       </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="n">
         <v>2559.74</v>
       </c>
       <c r="F131" t="n">
         <v>882.72</v>
       </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="16" t="inlineStr">
@@ -19569,12 +19831,14 @@
       <c r="C132" t="n">
         <v>1124.56</v>
       </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
         <v>2514.97</v>
       </c>
       <c r="F132" t="n">
         <v>860.6799999999999</v>
       </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="16" t="inlineStr">
@@ -19588,12 +19852,14 @@
       <c r="C133" t="n">
         <v>1129.74</v>
       </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
         <v>2508.13</v>
       </c>
       <c r="F133" t="n">
         <v>857.35</v>
       </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="16" t="inlineStr">
@@ -19607,12 +19873,14 @@
       <c r="C134" t="n">
         <v>1129.76</v>
       </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
         <v>2495.76</v>
       </c>
       <c r="F134" t="n">
         <v>839.17</v>
       </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="16" t="inlineStr">
@@ -19626,12 +19894,14 @@
       <c r="C135" t="n">
         <v>1118.26</v>
       </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
         <v>2462.97</v>
       </c>
       <c r="F135" t="n">
         <v>827.8200000000001</v>
       </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="16" t="inlineStr">
@@ -19645,12 +19915,14 @@
       <c r="C136" t="n">
         <v>1120.67</v>
       </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
         <v>2465.07</v>
       </c>
       <c r="F136" t="n">
         <v>841.02</v>
       </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="16" t="inlineStr">
@@ -19664,12 +19936,14 @@
       <c r="C137" t="n">
         <v>1105.42</v>
       </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
         <v>2405.69</v>
       </c>
       <c r="F137" t="n">
         <v>807.4</v>
       </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="16" t="inlineStr">
@@ -19683,12 +19957,14 @@
       <c r="C138" t="n">
         <v>1108.8</v>
       </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
         <v>2403.6</v>
       </c>
       <c r="F138" t="n">
         <v>801.02</v>
       </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="16" t="inlineStr">
@@ -19702,12 +19978,14 @@
       <c r="C139" t="n">
         <v>1117.53</v>
       </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
         <v>2408.73</v>
       </c>
       <c r="F139" t="n">
         <v>816.39</v>
       </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="16" t="inlineStr">
@@ -19721,12 +19999,14 @@
       <c r="C140" t="n">
         <v>1103.96</v>
       </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
         <v>2402.58</v>
       </c>
       <c r="F140" t="n">
         <v>795</v>
       </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="16" t="inlineStr">
@@ -19740,12 +20020,14 @@
       <c r="C141" t="n">
         <v>1111.37</v>
       </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
         <v>2450.08</v>
       </c>
       <c r="F141" t="n">
         <v>817.12</v>
       </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="16" t="inlineStr">
@@ -19759,12 +20041,14 @@
       <c r="C142" t="n">
         <v>1123.02</v>
       </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
         <v>2479.82</v>
       </c>
       <c r="F142" t="n">
         <v>835.49</v>
       </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="16" t="inlineStr">
@@ -19778,12 +20062,14 @@
       <c r="C143" t="n">
         <v>1121.87</v>
       </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
         <v>2456.15</v>
       </c>
       <c r="F143" t="n">
         <v>822.78</v>
       </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="16" t="inlineStr">
@@ -19797,12 +20083,14 @@
       <c r="C144" t="n">
         <v>1112.69</v>
       </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
         <v>2436.24</v>
       </c>
       <c r="F144" t="n">
         <v>810.54</v>
       </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="16" t="inlineStr">
@@ -19816,12 +20104,14 @@
       <c r="C145" t="n">
         <v>1132.17</v>
       </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
         <v>2460.17</v>
       </c>
       <c r="F145" t="n">
         <v>820.38</v>
       </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="16" t="inlineStr">
@@ -19835,12 +20125,14 @@
       <c r="C146" t="n">
         <v>1129.25</v>
       </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
         <v>2462.6</v>
       </c>
       <c r="F146" t="n">
         <v>808.89</v>
       </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="16" t="inlineStr">
@@ -19854,12 +20146,14 @@
       <c r="C147" t="n">
         <v>1102.48</v>
       </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
         <v>2415.8</v>
       </c>
       <c r="F147" t="n">
         <v>784.04</v>
       </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="16" t="inlineStr">
@@ -19873,12 +20167,14 @@
       <c r="C148" t="n">
         <v>1096.27</v>
       </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
         <v>2375</v>
       </c>
       <c r="F148" t="n">
         <v>769.25</v>
       </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="16" t="inlineStr">
@@ -19892,12 +20188,14 @@
       <c r="C149" t="n">
         <v>1081.28</v>
       </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="n">
         <v>2357.02</v>
       </c>
       <c r="F149" t="n">
         <v>763.6900000000001</v>
       </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="16" t="inlineStr">
@@ -19911,12 +20209,14 @@
       <c r="C150" t="n">
         <v>1100.28</v>
       </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
         <v>2383.51</v>
       </c>
       <c r="F150" t="n">
         <v>784.86</v>
       </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="16" t="inlineStr">
@@ -19930,12 +20230,14 @@
       <c r="C151" t="n">
         <v>1103.26</v>
       </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
         <v>2363.17</v>
       </c>
       <c r="F151" t="n">
         <v>770.84</v>
       </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="16" t="inlineStr">
@@ -19949,12 +20251,14 @@
       <c r="C152" t="n">
         <v>1082.53</v>
       </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
         <v>2299.08</v>
       </c>
       <c r="F152" t="n">
         <v>743.85</v>
       </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="16" t="inlineStr">
@@ -19968,12 +20272,14 @@
       <c r="C153" t="n">
         <v>1079.74</v>
       </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
         <v>2302.81</v>
       </c>
       <c r="F153" t="n">
         <v>748.49</v>
       </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="16" t="inlineStr">
@@ -19987,12 +20293,14 @@
       <c r="C154" t="n">
         <v>1086.33</v>
       </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
         <v>2310.55</v>
       </c>
       <c r="F154" t="n">
         <v>757.12</v>
       </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="16" t="inlineStr">
@@ -20006,12 +20314,14 @@
       <c r="C155" t="n">
         <v>1069.05</v>
       </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
         <v>2277.99</v>
       </c>
       <c r="F155" t="n">
         <v>736.1</v>
       </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="16" t="inlineStr">
@@ -20025,12 +20335,14 @@
       <c r="C156" t="n">
         <v>1071.44</v>
       </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="n">
         <v>2301.56</v>
       </c>
       <c r="F156" t="n">
         <v>739.23</v>
       </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="16" t="inlineStr">
@@ -20044,12 +20356,14 @@
       <c r="C157" t="n">
         <v>1084.57</v>
       </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="n">
         <v>2343.12</v>
       </c>
       <c r="F157" t="n">
         <v>772.84</v>
       </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="16" t="inlineStr">
@@ -20063,12 +20377,14 @@
       <c r="C158" t="n">
         <v>1088.03</v>
       </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="n">
         <v>2368.34</v>
       </c>
       <c r="F158" t="n">
         <v>782.05</v>
       </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="16" t="inlineStr">
@@ -20082,12 +20398,14 @@
       <c r="C159" t="n">
         <v>1111.68</v>
       </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
         <v>2502.37</v>
       </c>
       <c r="F159" t="n">
         <v>839.45</v>
       </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="16" t="inlineStr">
@@ -20101,12 +20419,14 @@
       <c r="C160" t="n">
         <v>1097.38</v>
       </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="n">
         <v>2443.96</v>
       </c>
       <c r="F160" t="n">
         <v>824.37</v>
       </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="16" t="inlineStr">
@@ -20120,12 +20440,14 @@
       <c r="C161" t="n">
         <v>1089.33</v>
       </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
         <v>2421.62</v>
       </c>
       <c r="F161" t="n">
         <v>811.02</v>
       </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="16" t="inlineStr">
@@ -20139,12 +20461,14 @@
       <c r="C162" t="n">
         <v>1088.05</v>
       </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
         <v>2427.08</v>
       </c>
       <c r="F162" t="n">
         <v>802.87</v>
       </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="16" t="inlineStr">
@@ -20158,12 +20482,14 @@
       <c r="C163" t="n">
         <v>1090.75</v>
       </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
         <v>2409.66</v>
       </c>
       <c r="F163" t="n">
         <v>789.3099999999999</v>
       </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="16" t="inlineStr">
@@ -20177,12 +20503,14 @@
       <c r="C164" t="n">
         <v>1083.94</v>
       </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
         <v>2403.76</v>
       </c>
       <c r="F164" t="n">
         <v>774.42</v>
       </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="16" t="inlineStr">
@@ -20196,12 +20524,14 @@
       <c r="C165" t="n">
         <v>1094.23</v>
       </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
         <v>2433.25</v>
       </c>
       <c r="F165" t="n">
         <v>794.1900000000001</v>
       </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="16" t="inlineStr">
@@ -20215,12 +20545,14 @@
       <c r="C166" t="n">
         <v>1102.86</v>
       </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
         <v>2486.67</v>
       </c>
       <c r="F166" t="n">
         <v>809.36</v>
       </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="16" t="inlineStr">
@@ -20234,12 +20566,14 @@
       <c r="C167" t="n">
         <v>1097.96</v>
       </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
         <v>2488.18</v>
       </c>
       <c r="F167" t="n">
         <v>811.11</v>
       </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="16" t="inlineStr">
@@ -20253,12 +20587,14 @@
       <c r="C168" t="n">
         <v>1092.04</v>
       </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="n">
         <v>2469.85</v>
       </c>
       <c r="F168" t="n">
         <v>799.0599999999999</v>
       </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="16" t="inlineStr">
@@ -20272,12 +20608,14 @@
       <c r="C169" t="n">
         <v>1095.68</v>
       </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
         <v>2491.2</v>
       </c>
       <c r="F169" t="n">
         <v>813.08</v>
       </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="16" t="inlineStr">
@@ -20291,12 +20629,14 @@
       <c r="C170" t="n">
         <v>1099.48</v>
       </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
         <v>2510.42</v>
       </c>
       <c r="F170" t="n">
         <v>817.01</v>
       </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="16" t="inlineStr">
@@ -20310,12 +20650,14 @@
       <c r="C171" t="n">
         <v>1102.09</v>
       </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
         <v>2511.7</v>
       </c>
       <c r="F171" t="n">
         <v>814.61</v>
       </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="16" t="inlineStr">
@@ -20329,12 +20671,14 @@
       <c r="C172" t="n">
         <v>1097.66</v>
       </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
         <v>2514.96</v>
       </c>
       <c r="F172" t="n">
         <v>815.98</v>
       </c>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="16" t="inlineStr">
@@ -20348,12 +20692,14 @@
       <c r="C173" t="n">
         <v>1088.68</v>
       </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="n">
         <v>2496.63</v>
       </c>
       <c r="F173" t="n">
         <v>815</v>
       </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="16" t="inlineStr">
@@ -20367,12 +20713,14 @@
       <c r="C174" t="n">
         <v>1096.25</v>
       </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
         <v>2495.66</v>
       </c>
       <c r="F174" t="n">
         <v>810.25</v>
       </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="16" t="inlineStr">
@@ -20386,12 +20734,14 @@
       <c r="C175" t="n">
         <v>1099.43</v>
       </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
         <v>2521.76</v>
       </c>
       <c r="F175" t="n">
         <v>816.4400000000001</v>
       </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="16" t="inlineStr">
@@ -20405,12 +20755,14 @@
       <c r="C176" t="n">
         <v>1096.9</v>
       </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
         <v>2519.81</v>
       </c>
       <c r="F176" t="n">
         <v>822.4400000000001</v>
       </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="16" t="inlineStr">
@@ -20424,12 +20776,14 @@
       <c r="C177" t="n">
         <v>1097.36</v>
       </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
         <v>2535.29</v>
       </c>
       <c r="F177" t="n">
         <v>831.6799999999999</v>
       </c>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="16" t="inlineStr">
@@ -20443,12 +20797,14 @@
       <c r="C178" t="n">
         <v>1092.47</v>
       </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
         <v>2505.01</v>
       </c>
       <c r="F178" t="n">
         <v>827.24</v>
       </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="16" t="inlineStr">
@@ -20462,12 +20818,14 @@
       <c r="C179" t="n">
         <v>1083.21</v>
       </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
         <v>2514.95</v>
       </c>
       <c r="F179" t="n">
         <v>828.52</v>
       </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="16" t="inlineStr">
@@ -20481,12 +20839,14 @@
       <c r="C180" t="n">
         <v>1067.94</v>
       </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>2494.28</v>
       </c>
       <c r="F180" t="n">
         <v>813.38</v>
       </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="16" t="inlineStr">
@@ -20500,12 +20860,14 @@
       <c r="C181" t="n">
         <v>1085.65</v>
       </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
         <v>2495.38</v>
       </c>
       <c r="F181" t="n">
         <v>819.54</v>
       </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="16" t="inlineStr">
@@ -20519,12 +20881,14 @@
       <c r="C182" t="n">
         <v>1074.99</v>
       </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
         <v>2492.07</v>
       </c>
       <c r="F182" t="n">
         <v>813.2</v>
       </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="16" t="inlineStr">
@@ -20538,12 +20902,14 @@
       <c r="C183" t="n">
         <v>1084.78</v>
       </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
         <v>2517.85</v>
       </c>
       <c r="F183" t="n">
         <v>830.37</v>
       </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="16" t="inlineStr">
@@ -20557,12 +20923,14 @@
       <c r="C184" t="n">
         <v>1093.9</v>
       </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
         <v>2525.36</v>
       </c>
       <c r="F184" t="n">
         <v>835.25</v>
       </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="16" t="inlineStr">
@@ -20576,12 +20944,14 @@
       <c r="C185" t="n">
         <v>1097.34</v>
       </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
         <v>2535.27</v>
       </c>
       <c r="F185" t="n">
         <v>839.53</v>
       </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="16" t="inlineStr">
@@ -20595,12 +20965,14 @@
       <c r="C186" t="n">
         <v>1104.09</v>
       </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
         <v>2510.66</v>
       </c>
       <c r="F186" t="n">
         <v>829.3099999999999</v>
       </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="16" t="inlineStr">
@@ -20614,12 +20986,14 @@
       <c r="C187" t="n">
         <v>1118.43</v>
       </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
         <v>2544.18</v>
       </c>
       <c r="F187" t="n">
         <v>840.59</v>
       </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="16" t="inlineStr">
@@ -20633,12 +21007,14 @@
       <c r="C188" t="n">
         <v>1117.33</v>
       </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>2563.56</v>
       </c>
       <c r="F188" t="n">
         <v>838.3099999999999</v>
       </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="16" t="inlineStr">
@@ -20652,12 +21028,14 @@
       <c r="C189" t="n">
         <v>1124.47</v>
       </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>2566.86</v>
       </c>
       <c r="F189" t="n">
         <v>850.96</v>
       </c>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="16" t="inlineStr">
@@ -20671,12 +21049,14 @@
       <c r="C190" t="n">
         <v>1123.45</v>
       </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
         <v>2568.55</v>
       </c>
       <c r="F190" t="n">
         <v>858.3</v>
       </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="16" t="inlineStr">
@@ -20690,12 +21070,14 @@
       <c r="C191" t="n">
         <v>1135.03</v>
       </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
         <v>2614.3</v>
       </c>
       <c r="F191" t="n">
         <v>862.98</v>
       </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="16" t="inlineStr">
@@ -20709,12 +21091,14 @@
       <c r="C192" t="n">
         <v>1129.47</v>
       </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>2600.02</v>
       </c>
       <c r="F192" t="n">
         <v>859.4400000000001</v>
       </c>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="16" t="inlineStr">
@@ -20728,12 +21112,14 @@
       <c r="C193" t="n">
         <v>1117.56</v>
       </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
         <v>2599.51</v>
       </c>
       <c r="F193" t="n">
         <v>854.62</v>
       </c>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="16" t="inlineStr">
@@ -20747,12 +21133,14 @@
       <c r="C194" t="n">
         <v>1127.37</v>
       </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>2602.59</v>
       </c>
       <c r="F194" t="n">
         <v>848.34</v>
       </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="16" t="inlineStr">
@@ -20766,12 +21154,14 @@
       <c r="C195" t="n">
         <v>1141.71</v>
       </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
         <v>2613.5</v>
       </c>
       <c r="F195" t="n">
         <v>859.79</v>
       </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="16" t="inlineStr">
@@ -20785,12 +21175,14 @@
       <c r="C196" t="n">
         <v>1141.71</v>
       </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
         <v>2655.28</v>
       </c>
       <c r="F196" t="n">
         <v>866.5700000000001</v>
       </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="16" t="inlineStr">
@@ -20804,12 +21196,14 @@
       <c r="C197" t="n">
         <v>1161.7</v>
       </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
         <v>2669.81</v>
       </c>
       <c r="F197" t="n">
         <v>878.9299999999999</v>
       </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="16" t="inlineStr">
@@ -20823,12 +21217,14 @@
       <c r="C198" t="n">
         <v>1149.69</v>
       </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
         <v>2607.31</v>
       </c>
       <c r="F198" t="n">
         <v>871.5700000000001</v>
       </c>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="16" t="inlineStr">
@@ -20842,12 +21238,14 @@
       <c r="C199" t="n">
         <v>1148.12</v>
       </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
         <v>2587.02</v>
       </c>
       <c r="F199" t="n">
         <v>866.25</v>
       </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="16" t="inlineStr">
@@ -20861,12 +21259,14 @@
       <c r="C200" t="n">
         <v>1140.63</v>
       </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
         <v>2578.08</v>
       </c>
       <c r="F200" t="n">
         <v>878.33</v>
       </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="16" t="inlineStr">
@@ -20880,12 +21280,14 @@
       <c r="C201" t="n">
         <v>1153.74</v>
       </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
         <v>2567.82</v>
       </c>
       <c r="F201" t="n">
         <v>879.34</v>
       </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="16" t="inlineStr">
@@ -20899,12 +21301,14 @@
       <c r="C202" t="n">
         <v>1162.75</v>
       </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
         <v>2561.24</v>
       </c>
       <c r="F202" t="n">
         <v>884.64</v>
       </c>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="16" t="inlineStr">
@@ -20918,12 +21322,14 @@
       <c r="C203" t="n">
         <v>1157.29</v>
       </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
         <v>2541.98</v>
       </c>
       <c r="F203" t="n">
         <v>875.46</v>
       </c>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="16" t="inlineStr">
@@ -20937,12 +21343,14 @@
       <c r="C204" t="n">
         <v>1159.14</v>
       </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
         <v>2540.27</v>
       </c>
       <c r="F204" t="n">
         <v>882.53</v>
       </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="16" t="inlineStr">
@@ -20956,12 +21364,14 @@
       <c r="C205" t="n">
         <v>1150.54</v>
       </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
         <v>2525.05</v>
       </c>
       <c r="F205" t="n">
         <v>868.08</v>
       </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="16" t="inlineStr">
@@ -20975,12 +21385,14 @@
       <c r="C206" t="n">
         <v>1142.67</v>
       </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
         <v>2525.99</v>
       </c>
       <c r="F206" t="n">
         <v>859.71</v>
       </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="16" t="inlineStr">
@@ -20994,12 +21406,14 @@
       <c r="C207" t="n">
         <v>1133.06</v>
       </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
         <v>2497.59</v>
       </c>
       <c r="F207" t="n">
         <v>854.83</v>
       </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="16" t="inlineStr">
@@ -21013,12 +21427,14 @@
       <c r="C208" t="n">
         <v>1119.83</v>
       </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
         <v>2435.9</v>
       </c>
       <c r="F208" t="n">
         <v>833.05</v>
       </c>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="16" t="inlineStr">
@@ -21032,12 +21448,14 @@
       <c r="C209" t="n">
         <v>1118.2</v>
       </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
         <v>2440.04</v>
       </c>
       <c r="F209" t="n">
         <v>840.33</v>
       </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="16" t="inlineStr">
@@ -21051,12 +21469,14 @@
       <c r="C210" t="n">
         <v>1124.96</v>
       </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="n">
         <v>2472.74</v>
       </c>
       <c r="F210" t="n">
         <v>842.67</v>
       </c>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="16" t="inlineStr">
@@ -21070,12 +21490,14 @@
       <c r="C211" t="n">
         <v>1126.7</v>
       </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
         <v>2464.35</v>
       </c>
       <c r="F211" t="n">
         <v>839.6900000000001</v>
       </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="16" t="inlineStr">
@@ -21089,12 +21511,14 @@
       <c r="C212" t="n">
         <v>1134.29</v>
       </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
         <v>2478.61</v>
       </c>
       <c r="F212" t="n">
         <v>840.11</v>
       </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="16" t="inlineStr">
@@ -21108,12 +21532,14 @@
       <c r="C213" t="n">
         <v>1133.03</v>
       </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
         <v>2469.69</v>
       </c>
       <c r="F213" t="n">
         <v>836.21</v>
       </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="16" t="inlineStr">
@@ -21127,12 +21553,14 @@
       <c r="C214" t="n">
         <v>1143.44</v>
       </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="n">
         <v>2470.34</v>
       </c>
       <c r="F214" t="n">
         <v>823.74</v>
       </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="16" t="inlineStr">
@@ -21146,12 +21574,14 @@
       <c r="C215" t="n">
         <v>1145.61</v>
       </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
         <v>2478.56</v>
       </c>
       <c r="F215" t="n">
         <v>837.24</v>
       </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="16" t="inlineStr">
@@ -21165,12 +21595,14 @@
       <c r="C216" t="n">
         <v>1134.17</v>
       </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="n">
         <v>2500.65</v>
       </c>
       <c r="F216" t="n">
         <v>819.14</v>
       </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="16" t="inlineStr">
@@ -21184,12 +21616,14 @@
       <c r="C217" t="n">
         <v>1132.94</v>
       </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="n">
         <v>2498.81</v>
       </c>
       <c r="F217" t="n">
         <v>818.86</v>
       </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="16" t="inlineStr">
@@ -21203,12 +21637,14 @@
       <c r="C218" t="n">
         <v>1128.55</v>
       </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="n">
         <v>2497.09</v>
       </c>
       <c r="F218" t="n">
         <v>799.24</v>
       </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="16" t="inlineStr">
@@ -21222,12 +21658,14 @@
       <c r="C219" t="n">
         <v>1126.69</v>
       </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="n">
         <v>2542.46</v>
       </c>
       <c r="F219" t="n">
         <v>798.73</v>
       </c>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="16" t="inlineStr">
@@ -21241,12 +21679,14 @@
       <c r="C220" t="n">
         <v>1153.41</v>
       </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="n">
         <v>2615.31</v>
       </c>
       <c r="F220" t="n">
         <v>814.77</v>
       </c>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="16" t="inlineStr">
@@ -21260,12 +21700,14 @@
       <c r="C221" t="n">
         <v>1141.1</v>
       </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="n">
         <v>2591.31</v>
       </c>
       <c r="F221" t="n">
         <v>807.99</v>
       </c>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="16" t="inlineStr">
@@ -21279,12 +21721,14 @@
       <c r="C222" t="n">
         <v>1124.32</v>
       </c>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="n">
         <v>2576.2</v>
       </c>
       <c r="F222" t="n">
         <v>807.03</v>
       </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="16" t="inlineStr">
@@ -21298,12 +21742,14 @@
       <c r="C223" t="n">
         <v>1133.38</v>
       </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="n">
         <v>2609.58</v>
       </c>
       <c r="F223" t="n">
         <v>811.92</v>
       </c>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="16" t="inlineStr">
@@ -21317,12 +21763,14 @@
       <c r="C224" t="n">
         <v>1134.33</v>
       </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
         <v>2620.32</v>
       </c>
       <c r="F224" t="n">
         <v>826.58</v>
       </c>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="16" t="inlineStr">
@@ -21336,12 +21784,14 @@
       <c r="C225" t="n">
         <v>1129.72</v>
       </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
         <v>2649.64</v>
       </c>
       <c r="F225" t="n">
         <v>845.15</v>
       </c>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="16" t="inlineStr">
@@ -21355,12 +21805,14 @@
       <c r="C226" t="n">
         <v>1132.07</v>
       </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
         <v>2620.42</v>
       </c>
       <c r="F226" t="n">
         <v>853.3</v>
       </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="16" t="inlineStr">
@@ -21374,12 +21826,14 @@
       <c r="C227" t="n">
         <v>1129.97</v>
       </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="n">
         <v>2613.8</v>
       </c>
       <c r="F227" t="n">
         <v>859.21</v>
       </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="16" t="inlineStr">
@@ -21393,12 +21847,14 @@
       <c r="C228" t="n">
         <v>1140.21</v>
       </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
         <v>2648.76</v>
       </c>
       <c r="F228" t="n">
         <v>857.6</v>
       </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="16" t="inlineStr">
@@ -21412,12 +21868,14 @@
       <c r="C229" t="n">
         <v>1134.27</v>
       </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
         <v>2680.26</v>
       </c>
       <c r="F229" t="n">
         <v>858.47</v>
       </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="16" t="inlineStr">
@@ -21431,12 +21889,14 @@
       <c r="C230" t="n">
         <v>1123.01</v>
       </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
         <v>2657.79</v>
       </c>
       <c r="F230" t="n">
         <v>866.17</v>
       </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="16" t="inlineStr">
@@ -21450,12 +21910,14 @@
       <c r="C231" t="n">
         <v>1127.8</v>
       </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
         <v>2653.31</v>
       </c>
       <c r="F231" t="n">
         <v>864.0700000000001</v>
       </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="16" t="inlineStr">
@@ -21469,12 +21931,14 @@
       <c r="C232" t="n">
         <v>1136.82</v>
       </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
         <v>2664.27</v>
       </c>
       <c r="F232" t="n">
         <v>870.11</v>
       </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="16" t="inlineStr">
@@ -21488,12 +21952,14 @@
       <c r="C233" t="n">
         <v>1135.46</v>
       </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="n">
         <v>2667.7</v>
       </c>
       <c r="F233" t="n">
         <v>868.5700000000001</v>
       </c>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="16" t="inlineStr">
@@ -21507,12 +21973,14 @@
       <c r="C234" t="n">
         <v>1132.86</v>
       </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
         <v>2647.08</v>
       </c>
       <c r="F234" t="n">
         <v>867.4</v>
       </c>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="16" t="inlineStr">
@@ -21526,12 +21994,14 @@
       <c r="C235" t="n">
         <v>1126.34</v>
       </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="n">
         <v>2625.05</v>
       </c>
       <c r="F235" t="n">
         <v>853.75</v>
       </c>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="16" t="inlineStr">
@@ -21545,12 +22015,14 @@
       <c r="C236" t="n">
         <v>1136.1</v>
       </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
         <v>2652.29</v>
       </c>
       <c r="F236" t="n">
         <v>863.39</v>
       </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="16" t="inlineStr">
@@ -21564,12 +22036,14 @@
       <c r="C237" t="n">
         <v>1137.51</v>
       </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="n">
         <v>2642.36</v>
       </c>
       <c r="F237" t="n">
         <v>862.96</v>
       </c>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="16" t="inlineStr">
@@ -21583,12 +22057,14 @@
       <c r="C238" t="n">
         <v>1128.62</v>
       </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
         <v>2674.27</v>
       </c>
       <c r="F238" t="n">
         <v>872.97</v>
       </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="16" t="inlineStr">
@@ -21602,12 +22078,14 @@
       <c r="C239" t="n">
         <v>1135.8</v>
       </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
         <v>2649.4</v>
       </c>
       <c r="F239" t="n">
         <v>866.37</v>
       </c>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="16" t="inlineStr">
@@ -21621,12 +22099,14 @@
       <c r="C240" t="n">
         <v>1135.38</v>
       </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
         <v>2641.49</v>
       </c>
       <c r="F240" t="n">
         <v>870.67</v>
       </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="16" t="inlineStr">
@@ -21640,12 +22120,14 @@
       <c r="C241" t="n">
         <v>1129.81</v>
       </c>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
         <v>2647.62</v>
       </c>
       <c r="F241" t="n">
         <v>863.37</v>
       </c>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="16" t="inlineStr">
@@ -21659,12 +22141,14 @@
       <c r="C242" t="n">
         <v>1134.62</v>
       </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
         <v>2680.35</v>
       </c>
       <c r="F242" t="n">
         <v>873.1799999999999</v>
       </c>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="16" t="inlineStr">
@@ -21678,12 +22162,14 @@
       <c r="C243" t="n">
         <v>1135.83</v>
       </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
         <v>2659.84</v>
       </c>
       <c r="F243" t="n">
         <v>875.9299999999999</v>
       </c>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="16" t="inlineStr">
@@ -21697,12 +22183,14 @@
       <c r="C244" t="n">
         <v>1134.54</v>
       </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
         <v>2681.81</v>
       </c>
       <c r="F244" t="n">
         <v>889.71</v>
       </c>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="16" t="inlineStr">
@@ -21716,12 +22204,14 @@
       <c r="C245" t="n">
         <v>1133.92</v>
       </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
         <v>2693.57</v>
       </c>
       <c r="F245" t="n">
         <v>889.9299999999999</v>
       </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="16" t="inlineStr">
@@ -21735,12 +22225,14 @@
       <c r="C246" t="n">
         <v>1146.67</v>
       </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
         <v>2718.76</v>
       </c>
       <c r="F246" t="n">
         <v>887.52</v>
       </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="16" t="inlineStr">
@@ -21754,12 +22246,14 @@
       <c r="C247" t="n">
         <v>1146.09</v>
       </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="n">
         <v>2666.84</v>
       </c>
       <c r="F247" t="n">
         <v>880.46</v>
       </c>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="16" t="inlineStr">
@@ -21773,12 +22267,14 @@
       <c r="C248" t="n">
         <v>1152.21</v>
       </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
         <v>2685.84</v>
       </c>
       <c r="F248" t="n">
         <v>894.48</v>
       </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="16" t="inlineStr">
@@ -21792,12 +22288,14 @@
       <c r="C249" t="n">
         <v>1151.03</v>
       </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
         <v>2656.17</v>
       </c>
       <c r="F249" t="n">
         <v>891.91</v>
       </c>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="16" t="inlineStr">
@@ -21811,12 +22309,14 @@
       <c r="C250" t="n">
         <v>1153.12</v>
       </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
         <v>2690.14</v>
       </c>
       <c r="F250" t="n">
         <v>891.45</v>
       </c>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="16" t="inlineStr">
@@ -21830,12 +22330,14 @@
       <c r="C251" t="n">
         <v>1152.94</v>
       </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
         <v>2754.86</v>
       </c>
       <c r="F251" t="n">
         <v>904.29</v>
       </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="16" t="inlineStr">
@@ -21849,12 +22351,14 @@
       <c r="C252" t="n">
         <v>1153.75</v>
       </c>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
         <v>2748.56</v>
       </c>
       <c r="F252" t="n">
         <v>903.98</v>
       </c>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="16" t="inlineStr">
@@ -21868,12 +22372,14 @@
       <c r="C253" t="n">
         <v>1152.6</v>
       </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
         <v>2737.57</v>
       </c>
       <c r="F253" t="n">
         <v>913.6900000000001</v>
       </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="16" t="inlineStr">
@@ -21887,12 +22393,14 @@
       <c r="C254" t="n">
         <v>1159.12</v>
       </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
         <v>2757.09</v>
       </c>
       <c r="F254" t="n">
         <v>916.09</v>
       </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="16" t="inlineStr">
@@ -21906,12 +22414,14 @@
       <c r="C255" t="n">
         <v>1174</v>
       </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="n">
         <v>2755.11</v>
       </c>
       <c r="F255" t="n">
         <v>911.25</v>
       </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="16" t="inlineStr">
@@ -21925,12 +22435,14 @@
       <c r="C256" t="n">
         <v>1176.04</v>
       </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="n">
         <v>2745.82</v>
       </c>
       <c r="F256" t="n">
         <v>910.05</v>
       </c>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="16" t="inlineStr">
@@ -21944,12 +22456,14 @@
       <c r="C257" t="n">
         <v>1168.54</v>
       </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="n">
         <v>2746.63</v>
       </c>
       <c r="F257" t="n">
         <v>905.5</v>
       </c>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="16" t="inlineStr">
@@ -21963,12 +22477,14 @@
       <c r="C258" t="n">
         <v>1197.14</v>
       </c>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="n">
         <v>2747.86</v>
       </c>
       <c r="F258" t="n">
         <v>912.45</v>
       </c>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="16" t="inlineStr">
@@ -21982,12 +22498,14 @@
       <c r="C259" t="n">
         <v>1191.61</v>
       </c>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="n">
         <v>2753.16</v>
       </c>
       <c r="F259" t="n">
         <v>891.59</v>
       </c>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="16" t="inlineStr">
@@ -22001,12 +22519,14 @@
       <c r="C260" t="n">
         <v>1188.1</v>
       </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
         <v>2706.97</v>
       </c>
       <c r="F260" t="n">
         <v>879.96</v>
       </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="16" t="inlineStr">
@@ -22020,12 +22540,14 @@
       <c r="C261" t="n">
         <v>1196.31</v>
       </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="n">
         <v>2742</v>
       </c>
       <c r="F261" t="n">
         <v>882.9</v>
       </c>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="16" t="inlineStr">
@@ -22039,12 +22561,14 @@
       <c r="C262" t="n">
         <v>1192.68</v>
       </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
         <v>2714.21</v>
       </c>
       <c r="F262" t="n">
         <v>872.29</v>
       </c>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="16" t="inlineStr">
@@ -22058,12 +22582,14 @@
       <c r="C263" t="n">
         <v>1179.24</v>
       </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="n">
         <v>2717.65</v>
       </c>
       <c r="F263" t="n">
         <v>860.5700000000001</v>
       </c>
+      <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="16" t="inlineStr">
@@ -22077,12 +22603,14 @@
       <c r="C264" t="n">
         <v>1184.12</v>
       </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="n">
         <v>2705.16</v>
       </c>
       <c r="F264" t="n">
         <v>859.33</v>
       </c>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="16" t="inlineStr">
@@ -22096,12 +22624,14 @@
       <c r="C265" t="n">
         <v>1189.64</v>
       </c>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="n">
         <v>2706.96</v>
       </c>
       <c r="F265" t="n">
         <v>858.1</v>
       </c>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="16" t="inlineStr">
@@ -22115,12 +22645,14 @@
       <c r="C266" t="n">
         <v>1186.54</v>
       </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="n">
         <v>2681.82</v>
       </c>
       <c r="F266" t="n">
         <v>860.47</v>
       </c>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="16" t="inlineStr">
@@ -22134,12 +22666,14 @@
       <c r="C267" t="n">
         <v>1187.28</v>
       </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="n">
         <v>2670.43</v>
       </c>
       <c r="F267" t="n">
         <v>852.42</v>
       </c>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="16" t="inlineStr">
@@ -22153,12 +22687,14 @@
       <c r="C268" t="n">
         <v>1172.24</v>
       </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="n">
         <v>2609.63</v>
       </c>
       <c r="F268" t="n">
         <v>832.8099999999999</v>
       </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="16" t="inlineStr">
@@ -22172,12 +22708,14 @@
       <c r="C269" t="n">
         <v>1172.07</v>
       </c>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="n">
         <v>2584.18</v>
       </c>
       <c r="F269" t="n">
         <v>833.03</v>
       </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="16" t="inlineStr">
@@ -22191,12 +22729,14 @@
       <c r="C270" t="n">
         <v>1192.55</v>
       </c>
+      <c r="D270" t="inlineStr"/>
       <c r="E270" t="n">
         <v>2634.7</v>
       </c>
       <c r="F270" t="n">
         <v>855.65</v>
       </c>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="16" t="inlineStr">
@@ -22210,12 +22750,14 @@
       <c r="C271" t="n">
         <v>1182.83</v>
       </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="n">
         <v>2591.86</v>
       </c>
       <c r="F271" t="n">
         <v>841.91</v>
       </c>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="16" t="inlineStr">
@@ -22229,12 +22771,14 @@
       <c r="C272" t="n">
         <v>1198.67</v>
       </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="n">
         <v>2629.44</v>
       </c>
       <c r="F272" t="n">
         <v>845.8200000000001</v>
       </c>
+      <c r="G272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="16" t="inlineStr">
@@ -22248,12 +22792,14 @@
       <c r="C273" t="n">
         <v>1189.99</v>
       </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="n">
         <v>2623.02</v>
       </c>
       <c r="F273" t="n">
         <v>845.4400000000001</v>
       </c>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="16" t="inlineStr">
@@ -22267,12 +22813,14 @@
       <c r="C274" t="n">
         <v>1200.15</v>
       </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="n">
         <v>2675.75</v>
       </c>
       <c r="F274" t="n">
         <v>862.23</v>
       </c>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="16" t="inlineStr">
@@ -22286,12 +22834,14 @@
       <c r="C275" t="n">
         <v>1192.51</v>
       </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="n">
         <v>2628.62</v>
       </c>
       <c r="F275" t="n">
         <v>853.26</v>
       </c>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="16" t="inlineStr">
@@ -22305,12 +22855,14 @@
       <c r="C276" t="n">
         <v>1193.73</v>
       </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
         <v>2656.33</v>
       </c>
       <c r="F276" t="n">
         <v>856.8200000000001</v>
       </c>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="16" t="inlineStr">
@@ -22324,12 +22876,14 @@
       <c r="C277" t="n">
         <v>1213.9</v>
       </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="n">
         <v>2687.44</v>
       </c>
       <c r="F277" t="n">
         <v>869.72</v>
       </c>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="16" t="inlineStr">
@@ -22343,12 +22897,14 @@
       <c r="C278" t="n">
         <v>1206.12</v>
       </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="n">
         <v>2692.06</v>
       </c>
       <c r="F278" t="n">
         <v>868.9299999999999</v>
       </c>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="16" t="inlineStr">
@@ -22362,12 +22918,14 @@
       <c r="C279" t="n">
         <v>1210.66</v>
       </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="n">
         <v>2683.65</v>
       </c>
       <c r="F279" t="n">
         <v>867.48</v>
       </c>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="16" t="inlineStr">
@@ -22381,12 +22939,14 @@
       <c r="C280" t="n">
         <v>1217.46</v>
       </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="n">
         <v>2676.63</v>
       </c>
       <c r="F280" t="n">
         <v>865.59</v>
       </c>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="16" t="inlineStr">
@@ -22400,12 +22960,14 @@
       <c r="C281" t="n">
         <v>1236.52</v>
       </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="n">
         <v>2734.36</v>
       </c>
       <c r="F281" t="n">
         <v>871.26</v>
       </c>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="16" t="inlineStr">
@@ -22419,12 +22981,14 @@
       <c r="C282" t="n">
         <v>1242.93</v>
       </c>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="n">
         <v>2745.05</v>
       </c>
       <c r="F282" t="n">
         <v>872.42</v>
       </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="16" t="inlineStr">
@@ -22438,12 +23002,14 @@
       <c r="C283" t="n">
         <v>1237.58</v>
       </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="n">
         <v>2712.14</v>
       </c>
       <c r="F283" t="n">
         <v>870.15</v>
       </c>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="16" t="inlineStr">
@@ -22457,12 +23023,14 @@
       <c r="C284" t="n">
         <v>1220.48</v>
       </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="n">
         <v>2727.63</v>
       </c>
       <c r="F284" t="n">
         <v>864.16</v>
       </c>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="16" t="inlineStr">
@@ -22476,12 +23044,14 @@
       <c r="C285" t="n">
         <v>1222.63</v>
       </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="n">
         <v>2727.21</v>
       </c>
       <c r="F285" t="n">
         <v>854.4299999999999</v>
       </c>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="16" t="inlineStr">
@@ -22495,12 +23065,14 @@
       <c r="C286" t="n">
         <v>1224.2</v>
       </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="n">
         <v>2730.34</v>
       </c>
       <c r="F286" t="n">
         <v>862.15</v>
       </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="16" t="inlineStr">
@@ -22523,6 +23095,7 @@
       <c r="F287" t="n">
         <v>870.37</v>
       </c>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="16" t="inlineStr">
@@ -22545,6 +23118,7 @@
       <c r="F288" t="n">
         <v>855.0599999999999</v>
       </c>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="16" t="inlineStr">
@@ -22567,6 +23141,7 @@
       <c r="F289" t="n">
         <v>847.08</v>
       </c>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="16" t="inlineStr">
@@ -22589,6 +23164,7 @@
       <c r="F290" t="n">
         <v>846.51</v>
       </c>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="16" t="inlineStr">
@@ -22611,6 +23187,7 @@
       <c r="F291" t="n">
         <v>845.72</v>
       </c>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="16" t="inlineStr">
@@ -22633,6 +23210,7 @@
       <c r="F292" t="n">
         <v>846.58</v>
       </c>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="16" t="inlineStr">
@@ -22655,6 +23233,7 @@
       <c r="F293" t="n">
         <v>839.41</v>
       </c>
+      <c r="G293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="16" t="inlineStr">
@@ -22677,6 +23256,7 @@
       <c r="F294" t="n">
         <v>847.99</v>
       </c>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="16" t="inlineStr">
@@ -22699,6 +23279,7 @@
       <c r="F295" t="n">
         <v>851.01</v>
       </c>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="16" t="inlineStr">
@@ -22721,6 +23302,7 @@
       <c r="F296" t="n">
         <v>838.45</v>
       </c>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="16" t="inlineStr">
@@ -22743,6 +23325,7 @@
       <c r="F297" t="n">
         <v>831.99</v>
       </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="16" t="inlineStr">
@@ -22765,6 +23348,7 @@
       <c r="F298" t="n">
         <v>839.98</v>
       </c>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="16" t="inlineStr">
@@ -22787,6 +23371,7 @@
       <c r="F299" t="n">
         <v>844.72</v>
       </c>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="16" t="inlineStr">
@@ -22809,6 +23394,7 @@
       <c r="F300" t="n">
         <v>845.84</v>
       </c>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="16" t="inlineStr">
@@ -22831,6 +23417,7 @@
       <c r="F301" t="n">
         <v>850.75</v>
       </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="16" t="inlineStr">
@@ -22853,6 +23440,7 @@
       <c r="F302" t="n">
         <v>866.1799999999999</v>
       </c>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="16" t="inlineStr">
@@ -22875,6 +23463,7 @@
       <c r="F303" t="n">
         <v>864.71</v>
       </c>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="16" t="inlineStr">
@@ -22897,6 +23486,7 @@
       <c r="F304" t="n">
         <v>868.36</v>
       </c>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="16" t="inlineStr">
@@ -22919,6 +23509,7 @@
       <c r="F305" t="n">
         <v>870.67</v>
       </c>
+      <c r="G305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="16" t="inlineStr">
@@ -22941,6 +23532,7 @@
       <c r="F306" t="n">
         <v>871.33</v>
       </c>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="16" t="inlineStr">
@@ -22963,6 +23555,7 @@
       <c r="F307" t="n">
         <v>862.1900000000001</v>
       </c>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="16" t="inlineStr">
@@ -22985,6 +23578,7 @@
       <c r="F308" t="n">
         <v>858.96</v>
       </c>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="16" t="inlineStr">
@@ -23007,6 +23601,7 @@
       <c r="F309" t="n">
         <v>858.95</v>
       </c>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="16" t="inlineStr">
@@ -23029,6 +23624,7 @@
       <c r="F310" t="n">
         <v>861.17</v>
       </c>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="16" t="inlineStr">
@@ -23051,6 +23647,7 @@
       <c r="F311" t="n">
         <v>857.51</v>
       </c>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="16" t="inlineStr">
@@ -23073,6 +23670,7 @@
       <c r="F312" t="n">
         <v>852.67</v>
       </c>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="16" t="inlineStr">
@@ -23095,6 +23693,7 @@
       <c r="F313" t="n">
         <v>841.52</v>
       </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="16" t="inlineStr">
@@ -23117,6 +23716,7 @@
       <c r="F314" t="n">
         <v>841.99</v>
       </c>
+      <c r="G314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="16" t="inlineStr">
@@ -23139,6 +23739,7 @@
       <c r="F315" t="n">
         <v>842.12</v>
       </c>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="16" t="inlineStr">
@@ -23161,6 +23762,7 @@
       <c r="F316" t="n">
         <v>838.65</v>
       </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="16" t="inlineStr">
@@ -23183,6 +23785,7 @@
       <c r="F317" t="n">
         <v>840.4400000000001</v>
       </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="16" t="inlineStr">
@@ -23205,6 +23808,7 @@
       <c r="F318" t="n">
         <v>847.15</v>
       </c>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="16" t="inlineStr">
@@ -23227,6 +23831,7 @@
       <c r="F319" t="n">
         <v>829.91</v>
       </c>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="16" t="inlineStr">
@@ -23249,6 +23854,7 @@
       <c r="F320" t="n">
         <v>836.1</v>
       </c>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="16" t="inlineStr">
@@ -23271,6 +23877,7 @@
       <c r="F321" t="n">
         <v>840.8099999999999</v>
       </c>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="16" t="inlineStr">
@@ -23293,6 +23900,7 @@
       <c r="F322" t="n">
         <v>847.49</v>
       </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="16" t="inlineStr">
@@ -23315,6 +23923,7 @@
       <c r="F323" t="n">
         <v>859.27</v>
       </c>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="16" t="inlineStr">
@@ -23337,6 +23946,7 @@
       <c r="F324" t="n">
         <v>860.42</v>
       </c>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="16" t="inlineStr">
@@ -23359,6 +23969,7 @@
       <c r="F325" t="n">
         <v>858.55</v>
       </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="16" t="inlineStr">
@@ -23381,6 +23992,7 @@
       <c r="F326" t="n">
         <v>852.42</v>
       </c>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="16" t="inlineStr">
@@ -23403,6 +24015,7 @@
       <c r="F327" t="n">
         <v>850.37</v>
       </c>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="16" t="inlineStr">
@@ -23425,6 +24038,7 @@
       <c r="F328" t="n">
         <v>852.88</v>
       </c>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="16" t="inlineStr">
@@ -23447,6 +24061,7 @@
       <c r="F329" t="n">
         <v>839.61</v>
       </c>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="16" t="inlineStr">
@@ -23469,6 +24084,7 @@
       <c r="F330" t="n">
         <v>829.41</v>
       </c>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="16" t="inlineStr">
@@ -23491,6 +24107,7 @@
       <c r="F331" t="n">
         <v>822.48</v>
       </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="16" t="inlineStr">
@@ -23513,6 +24130,7 @@
       <c r="F332" t="n">
         <v>828.72</v>
       </c>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="16" t="inlineStr">
@@ -23535,6 +24153,7 @@
       <c r="F333" t="n">
         <v>809.96</v>
       </c>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="16" t="inlineStr">
@@ -23557,6 +24176,7 @@
       <c r="F334" t="n">
         <v>812.12</v>
       </c>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="16" t="inlineStr">
@@ -23579,6 +24199,7 @@
       <c r="F335" t="n">
         <v>814.25</v>
       </c>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="16" t="inlineStr">
@@ -23601,6 +24222,7 @@
       <c r="F336" t="n">
         <v>797.29</v>
       </c>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="16" t="inlineStr">
@@ -23623,6 +24245,7 @@
       <c r="F337" t="n">
         <v>797.5599999999999</v>
       </c>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="16" t="inlineStr">
@@ -23645,6 +24268,7 @@
       <c r="F338" t="n">
         <v>807.99</v>
       </c>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="16" t="inlineStr">
@@ -23667,6 +24291,7 @@
       <c r="F339" t="n">
         <v>803.78</v>
       </c>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="16" t="inlineStr">
@@ -23689,6 +24314,7 @@
       <c r="F340" t="n">
         <v>803.15</v>
       </c>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="16" t="inlineStr">
@@ -23711,6 +24337,7 @@
       <c r="F341" t="n">
         <v>813.53</v>
       </c>
+      <c r="G341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="16" t="inlineStr">
@@ -23733,6 +24360,7 @@
       <c r="F342" t="n">
         <v>779.33</v>
       </c>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="16" t="inlineStr">
@@ -23755,6 +24383,7 @@
       <c r="F343" t="n">
         <v>691.28</v>
       </c>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="16" t="inlineStr">
@@ -23777,6 +24406,7 @@
       <c r="F344" t="n">
         <v>732.87</v>
       </c>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="16" t="inlineStr">
@@ -23799,6 +24429,7 @@
       <c r="F345" t="n">
         <v>748.54</v>
       </c>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="16" t="inlineStr">
@@ -23821,6 +24452,7 @@
       <c r="F346" t="n">
         <v>745.28</v>
       </c>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="16" t="inlineStr">
@@ -23843,6 +24475,7 @@
       <c r="F347" t="n">
         <v>764.4299999999999</v>
       </c>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="16" t="inlineStr">
@@ -23865,6 +24498,7 @@
       <c r="F348" t="n">
         <v>772.72</v>
       </c>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="16" t="inlineStr">
@@ -23887,6 +24521,7 @@
       <c r="F349" t="n">
         <v>764.86</v>
       </c>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="16" t="inlineStr">
@@ -23909,6 +24544,7 @@
       <c r="F350" t="n">
         <v>776.83</v>
       </c>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="16" t="inlineStr">
@@ -23931,6 +24567,7 @@
       <c r="F351" t="n">
         <v>786.33</v>
       </c>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="16" t="inlineStr">
@@ -23953,6 +24590,7 @@
       <c r="F352" t="n">
         <v>777.47</v>
       </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="16" t="inlineStr">
@@ -23975,6 +24613,7 @@
       <c r="F353" t="n">
         <v>787.4400000000001</v>
       </c>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="16" t="inlineStr">
@@ -23997,6 +24636,7 @@
       <c r="F354" t="n">
         <v>779.87</v>
       </c>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="16" t="inlineStr">
@@ -24019,6 +24659,7 @@
       <c r="F355" t="n">
         <v>773.47</v>
       </c>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="16" t="inlineStr">
@@ -24041,6 +24682,7 @@
       <c r="F356" t="n">
         <v>773.26</v>
       </c>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="16" t="inlineStr">
@@ -24063,6 +24705,7 @@
       <c r="F357" t="n">
         <v>766.79</v>
       </c>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="16" t="inlineStr">
@@ -24085,6 +24728,7 @@
       <c r="F358" t="n">
         <v>764.95</v>
       </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="16" t="inlineStr">
@@ -24107,6 +24751,7 @@
       <c r="F359" t="n">
         <v>762.5</v>
       </c>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="16" t="inlineStr">
@@ -24129,6 +24774,7 @@
       <c r="F360" t="n">
         <v>756.04</v>
       </c>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="16" t="inlineStr">
@@ -24151,6 +24797,7 @@
       <c r="F361" t="n">
         <v>767.66</v>
       </c>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="16" t="inlineStr">
@@ -24173,6 +24820,7 @@
       <c r="F362" t="n">
         <v>769.21</v>
       </c>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="16" t="inlineStr">
@@ -24195,6 +24843,7 @@
       <c r="F363" t="n">
         <v>760.37</v>
       </c>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="16" t="inlineStr">
@@ -24217,6 +24866,7 @@
       <c r="F364" t="n">
         <v>731.75</v>
       </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="16" t="inlineStr">
@@ -24239,6 +24889,7 @@
       <c r="F365" t="n">
         <v>725.28</v>
       </c>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="16" t="inlineStr">
@@ -24261,6 +24912,7 @@
       <c r="F366" t="n">
         <v>706.59</v>
       </c>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="16" t="inlineStr">
@@ -24283,6 +24935,7 @@
       <c r="F367" t="n">
         <v>714.46</v>
       </c>
+      <c r="G367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="16" t="inlineStr">
@@ -24305,6 +24958,7 @@
       <c r="F368" t="n">
         <v>706.2</v>
       </c>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="16" t="inlineStr">
@@ -24327,6 +24981,7 @@
       <c r="F369" t="n">
         <v>709.42</v>
       </c>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="16" t="inlineStr">
@@ -24349,6 +25004,7 @@
       <c r="F370" t="n">
         <v>731.03</v>
       </c>
+      <c r="G370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="16" t="inlineStr">
@@ -24371,6 +25027,7 @@
       <c r="F371" t="n">
         <v>733.2</v>
       </c>
+      <c r="G371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="16" t="inlineStr">
@@ -24393,6 +25050,7 @@
       <c r="F372" t="n">
         <v>739.51</v>
       </c>
+      <c r="G372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="16" t="inlineStr">
@@ -24415,6 +25073,7 @@
       <c r="F373" t="n">
         <v>748.33</v>
       </c>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="16" t="inlineStr">
@@ -24437,6 +25096,7 @@
       <c r="F374" t="n">
         <v>755.12</v>
       </c>
+      <c r="G374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="16" t="inlineStr">
@@ -24459,6 +25119,7 @@
       <c r="F375" t="n">
         <v>767.35</v>
       </c>
+      <c r="G375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="16" t="inlineStr">
@@ -24481,6 +25142,7 @@
       <c r="F376" t="n">
         <v>759.3</v>
       </c>
+      <c r="G376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="16" t="inlineStr">
@@ -24503,6 +25165,7 @@
       <c r="F377" t="n">
         <v>779.1799999999999</v>
       </c>
+      <c r="G377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="16" t="inlineStr">
@@ -24525,6 +25188,7 @@
       <c r="F378" t="n">
         <v>774.49</v>
       </c>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="16" t="inlineStr">
@@ -24547,6 +25211,7 @@
       <c r="F379" t="n">
         <v>763.88</v>
       </c>
+      <c r="G379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="16" t="inlineStr">
@@ -24569,6 +25234,7 @@
       <c r="F380" t="n">
         <v>762.13</v>
       </c>
+      <c r="G380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="16" t="inlineStr">
@@ -24591,6 +25257,7 @@
       <c r="F381" t="n">
         <v>768.98</v>
       </c>
+      <c r="G381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="16" t="inlineStr">
@@ -24613,6 +25280,7 @@
       <c r="F382" t="n">
         <v>781.01</v>
       </c>
+      <c r="G382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="16" t="inlineStr">
@@ -24635,6 +25303,7 @@
       <c r="F383" t="n">
         <v>778.24</v>
       </c>
+      <c r="G383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="16" t="inlineStr">
@@ -24657,6 +25326,7 @@
       <c r="F384" t="n">
         <v>775.48</v>
       </c>
+      <c r="G384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="16" t="inlineStr">
@@ -24679,6 +25349,7 @@
       <c r="F385" t="n">
         <v>770.98</v>
       </c>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="16" t="inlineStr">
@@ -24701,6 +25372,7 @@
       <c r="F386" t="n">
         <v>770.26</v>
       </c>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="16" t="inlineStr">
@@ -24723,6 +25395,7 @@
       <c r="F387" t="n">
         <v>773.8099999999999</v>
       </c>
+      <c r="G387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="16" t="inlineStr">
@@ -24745,6 +25418,7 @@
       <c r="F388" t="n">
         <v>765.79</v>
       </c>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="16" t="inlineStr">
@@ -24767,6 +25441,7 @@
       <c r="F389" t="n">
         <v>765.0599999999999</v>
       </c>
+      <c r="G389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="16" t="inlineStr">
@@ -24789,6 +25464,7 @@
       <c r="F390" t="n">
         <v>753.22</v>
       </c>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="16" t="inlineStr">
@@ -24811,6 +25487,7 @@
       <c r="F391" t="n">
         <v>759.95</v>
       </c>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="16" t="inlineStr">
@@ -24833,6 +25510,7 @@
       <c r="F392" t="n">
         <v>738.34</v>
       </c>
+      <c r="G392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="16" t="inlineStr">
@@ -24855,6 +25533,7 @@
       <c r="F393" t="n">
         <v>745.1900000000001</v>
       </c>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="16" t="inlineStr">
@@ -24877,6 +25556,7 @@
       <c r="F394" t="n">
         <v>734.59</v>
       </c>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="16" t="inlineStr">
@@ -24899,6 +25579,7 @@
       <c r="F395" t="n">
         <v>727.41</v>
       </c>
+      <c r="G395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="16" t="inlineStr">
@@ -24921,6 +25602,7 @@
       <c r="F396" t="n">
         <v>740.48</v>
       </c>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="16" t="inlineStr">
@@ -24943,6 +25625,7 @@
       <c r="F397" t="n">
         <v>744.1799999999999</v>
       </c>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="16" t="inlineStr">
@@ -24965,6 +25648,7 @@
       <c r="F398" t="n">
         <v>738.1900000000001</v>
       </c>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="16" t="inlineStr">
@@ -24987,6 +25671,7 @@
       <c r="F399" t="n">
         <v>743.0599999999999</v>
       </c>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="16" t="inlineStr">
@@ -25009,6 +25694,7 @@
       <c r="F400" t="n">
         <v>729.05</v>
       </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="16" t="inlineStr">
@@ -25031,6 +25717,7 @@
       <c r="F401" t="n">
         <v>754.08</v>
       </c>
+      <c r="G401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="16" t="inlineStr">
@@ -25053,6 +25740,7 @@
       <c r="F402" t="n">
         <v>751.8099999999999</v>
       </c>
+      <c r="G402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="16" t="inlineStr">
@@ -25075,6 +25763,7 @@
       <c r="F403" t="n">
         <v>743.3099999999999</v>
       </c>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="16" t="inlineStr">
@@ -25097,6 +25786,7 @@
       <c r="F404" t="n">
         <v>733.52</v>
       </c>
+      <c r="G404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="16" t="inlineStr">
@@ -25119,6 +25809,7 @@
       <c r="F405" t="n">
         <v>743.38</v>
       </c>
+      <c r="G405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="16" t="inlineStr">
@@ -25141,6 +25832,7 @@
       <c r="F406" t="n">
         <v>728.84</v>
       </c>
+      <c r="G406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="16" t="inlineStr">
@@ -25163,6 +25855,7 @@
       <c r="F407" t="n">
         <v>710.52</v>
       </c>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="16" t="inlineStr">
@@ -25185,6 +25878,7 @@
       <c r="F408" t="n">
         <v>689.65</v>
       </c>
+      <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="16" t="inlineStr">
@@ -25207,6 +25901,7 @@
       <c r="F409" t="n">
         <v>681.5599999999999</v>
       </c>
+      <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="16" t="inlineStr">
@@ -25229,6 +25924,7 @@
       <c r="F410" t="n">
         <v>685.42</v>
       </c>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="16" t="inlineStr">
@@ -25251,6 +25947,7 @@
       <c r="F411" t="n">
         <v>689.55</v>
       </c>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="16" t="inlineStr">
@@ -25273,6 +25970,7 @@
       <c r="F412" t="n">
         <v>686.12</v>
       </c>
+      <c r="G412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="16" t="inlineStr">
@@ -25295,6 +25993,7 @@
       <c r="F413" t="n">
         <v>682.91</v>
       </c>
+      <c r="G413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="16" t="inlineStr">
@@ -25317,6 +26016,7 @@
       <c r="F414" t="n">
         <v>680.67</v>
       </c>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="16" t="inlineStr">
@@ -25339,6 +26039,7 @@
       <c r="F415" t="n">
         <v>677.01</v>
       </c>
+      <c r="G415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="16" t="inlineStr">
@@ -25361,6 +26062,7 @@
       <c r="F416" t="n">
         <v>696.83</v>
       </c>
+      <c r="G416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="16" t="inlineStr">
@@ -25383,6 +26085,7 @@
       <c r="F417" t="n">
         <v>693.15</v>
       </c>
+      <c r="G417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="16" t="inlineStr">
@@ -25405,6 +26108,7 @@
       <c r="F418" t="n">
         <v>692</v>
       </c>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="16" t="inlineStr">
@@ -25427,6 +26131,7 @@
       <c r="F419" t="n">
         <v>694.39</v>
       </c>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="16" t="inlineStr">
@@ -25449,6 +26154,7 @@
       <c r="F420" t="n">
         <v>678.1900000000001</v>
       </c>
+      <c r="G420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="16" t="inlineStr">
@@ -25471,6 +26177,7 @@
       <c r="F421" t="n">
         <v>675.84</v>
       </c>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="16" t="inlineStr">
@@ -25493,6 +26200,7 @@
       <c r="F422" t="n">
         <v>690.8</v>
       </c>
+      <c r="G422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="16" t="inlineStr">
@@ -25515,6 +26223,7 @@
       <c r="F423" t="n">
         <v>677.15</v>
       </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="16" t="inlineStr">
@@ -25537,6 +26246,7 @@
       <c r="F424" t="n">
         <v>670.9400000000001</v>
       </c>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="16" t="inlineStr">
@@ -25559,6 +26269,7 @@
       <c r="F425" t="n">
         <v>661.33</v>
       </c>
+      <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="16" t="inlineStr">
@@ -25581,6 +26292,7 @@
       <c r="F426" t="n">
         <v>627.01</v>
       </c>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="16" t="inlineStr">
@@ -25603,6 +26315,7 @@
       <c r="F427" t="n">
         <v>661.59</v>
       </c>
+      <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="16" t="inlineStr">
@@ -25625,6 +26338,7 @@
       <c r="F428" t="n">
         <v>675.92</v>
       </c>
+      <c r="G428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="16" t="inlineStr">
@@ -25647,6 +26361,7 @@
       <c r="F429" t="n">
         <v>683.35</v>
       </c>
+      <c r="G429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="16" t="inlineStr">
@@ -25669,6 +26384,7 @@
       <c r="F430" t="n">
         <v>693.73</v>
       </c>
+      <c r="G430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="16" t="inlineStr">
@@ -25691,6 +26407,7 @@
       <c r="F431" t="n">
         <v>698.53</v>
       </c>
+      <c r="G431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="16" t="inlineStr">
@@ -25713,6 +26430,7 @@
       <c r="F432" t="n">
         <v>694.47</v>
       </c>
+      <c r="G432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="16" t="inlineStr">
@@ -25735,6 +26453,7 @@
       <c r="F433" t="n">
         <v>697.5700000000001</v>
       </c>
+      <c r="G433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="16" t="inlineStr">
@@ -25757,6 +26476,7 @@
       <c r="F434" t="n">
         <v>684.36</v>
       </c>
+      <c r="G434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="16" t="inlineStr">
@@ -25779,6 +26499,7 @@
       <c r="F435" t="n">
         <v>668.3099999999999</v>
       </c>
+      <c r="G435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="16" t="inlineStr">
@@ -25801,6 +26522,7 @@
       <c r="F436" t="n">
         <v>679.24</v>
       </c>
+      <c r="G436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="16" t="inlineStr">
@@ -25823,6 +26545,7 @@
       <c r="F437" t="n">
         <v>680.11</v>
       </c>
+      <c r="G437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="16" t="inlineStr">
@@ -25845,6 +26568,7 @@
       <c r="F438" t="n">
         <v>675.64</v>
       </c>
+      <c r="G438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="16" t="inlineStr">
@@ -25867,6 +26591,7 @@
       <c r="F439" t="n">
         <v>665.97</v>
       </c>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="16" t="inlineStr">
@@ -25889,6 +26614,7 @@
       <c r="F440" t="n">
         <v>678.1900000000001</v>
       </c>
+      <c r="G440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="16" t="inlineStr">
@@ -25911,6 +26637,7 @@
       <c r="F441" t="n">
         <v>686.63</v>
       </c>
+      <c r="G441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="16" t="inlineStr">
@@ -25933,6 +26660,7 @@
       <c r="F442" t="n">
         <v>705.76</v>
       </c>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="16" t="inlineStr">
@@ -25955,6 +26683,7 @@
       <c r="F443" t="n">
         <v>717.96</v>
       </c>
+      <c r="G443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="16" t="inlineStr">
@@ -25977,6 +26706,7 @@
       <c r="F444" t="n">
         <v>718.29</v>
       </c>
+      <c r="G444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="16" t="inlineStr">
@@ -25999,6 +26729,7 @@
       <c r="F445" t="n">
         <v>719.63</v>
       </c>
+      <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="16" t="inlineStr">
@@ -26021,6 +26752,7 @@
       <c r="F446" t="n">
         <v>723.52</v>
       </c>
+      <c r="G446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="16" t="inlineStr">
@@ -26043,6 +26775,7 @@
       <c r="F447" t="n">
         <v>717.89</v>
       </c>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="16" t="inlineStr">
@@ -26065,6 +26798,7 @@
       <c r="F448" t="n">
         <v>708.21</v>
       </c>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="16" t="inlineStr">
@@ -26087,6 +26821,7 @@
       <c r="F449" t="n">
         <v>718.04</v>
       </c>
+      <c r="G449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="16" t="inlineStr">
@@ -26109,6 +26844,7 @@
       <c r="F450" t="n">
         <v>711.61</v>
       </c>
+      <c r="G450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="16" t="inlineStr">
@@ -26131,6 +26867,7 @@
       <c r="F451" t="n">
         <v>724.24</v>
       </c>
+      <c r="G451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="16" t="inlineStr">
@@ -26153,6 +26890,7 @@
       <c r="F452" t="n">
         <v>724.6900000000001</v>
       </c>
+      <c r="G452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="16" t="inlineStr">
@@ -26175,6 +26913,7 @@
       <c r="F453" t="n">
         <v>727.66</v>
       </c>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="16" t="inlineStr">
@@ -26197,6 +26936,7 @@
       <c r="F454" t="n">
         <v>726.0700000000001</v>
       </c>
+      <c r="G454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="16" t="inlineStr">
@@ -26219,6 +26959,7 @@
       <c r="F455" t="n">
         <v>732.3099999999999</v>
       </c>
+      <c r="G455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="16" t="inlineStr">
@@ -26241,6 +26982,7 @@
       <c r="F456" t="n">
         <v>724.01</v>
       </c>
+      <c r="G456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="16" t="inlineStr">
@@ -26263,6 +27005,7 @@
       <c r="F457" t="n">
         <v>728.74</v>
       </c>
+      <c r="G457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="16" t="inlineStr">
@@ -26285,6 +27028,7 @@
       <c r="F458" t="n">
         <v>728.29</v>
       </c>
+      <c r="G458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="16" t="inlineStr">
@@ -26307,6 +27051,7 @@
       <c r="F459" t="n">
         <v>703.8</v>
       </c>
+      <c r="G459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="16" t="inlineStr">
@@ -26329,6 +27074,7 @@
       <c r="F460" t="n">
         <v>719.92</v>
       </c>
+      <c r="G460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="16" t="inlineStr">
@@ -26351,6 +27097,7 @@
       <c r="F461" t="n">
         <v>730.98</v>
       </c>
+      <c r="G461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="16" t="inlineStr">
@@ -26373,6 +27120,7 @@
       <c r="F462" t="n">
         <v>740.3200000000001</v>
       </c>
+      <c r="G462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="16" t="inlineStr">
@@ -26395,6 +27143,7 @@
       <c r="F463" t="n">
         <v>742.9</v>
       </c>
+      <c r="G463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="16" t="inlineStr">
@@ -26417,6 +27166,7 @@
       <c r="F464" t="n">
         <v>749.67</v>
       </c>
+      <c r="G464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="16" t="inlineStr">
@@ -26439,6 +27189,7 @@
       <c r="F465" t="n">
         <v>749.59</v>
       </c>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="16" t="inlineStr">
@@ -26461,6 +27212,7 @@
       <c r="F466" t="n">
         <v>745.1799999999999</v>
       </c>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="16" t="inlineStr">
@@ -26483,6 +27235,7 @@
       <c r="F467" t="n">
         <v>749.28</v>
       </c>
+      <c r="G467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="16" t="inlineStr">
@@ -26505,6 +27258,7 @@
       <c r="F468" t="n">
         <v>756.3200000000001</v>
       </c>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="16" t="inlineStr">
@@ -26527,6 +27281,7 @@
       <c r="F469" t="n">
         <v>768.48</v>
       </c>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="16" t="inlineStr">
@@ -26549,6 +27304,7 @@
       <c r="F470" t="n">
         <v>773.65</v>
       </c>
+      <c r="G470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="16" t="inlineStr">
@@ -26571,6 +27327,7 @@
       <c r="F471" t="n">
         <v>778.27</v>
       </c>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="16" t="inlineStr">
@@ -26593,6 +27350,7 @@
       <c r="F472" t="n">
         <v>768.27</v>
       </c>
+      <c r="G472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="16" t="inlineStr">
@@ -26615,6 +27373,7 @@
       <c r="F473" t="n">
         <v>774.65</v>
       </c>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="16" t="inlineStr">
@@ -26637,6 +27396,7 @@
       <c r="F474" t="n">
         <v>773.33</v>
       </c>
+      <c r="G474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="16" t="inlineStr">
@@ -26659,6 +27419,7 @@
       <c r="F475" t="n">
         <v>769.4299999999999</v>
       </c>
+      <c r="G475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="16" t="inlineStr">
@@ -26681,6 +27442,7 @@
       <c r="F476" t="n">
         <v>771.41</v>
       </c>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="16" t="inlineStr">
@@ -26703,6 +27465,7 @@
       <c r="F477" t="n">
         <v>770.85</v>
       </c>
+      <c r="G477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="16" t="inlineStr">
@@ -26725,6 +27488,7 @@
       <c r="F478" t="n">
         <v>743.96</v>
       </c>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="16" t="inlineStr">
@@ -26747,6 +27511,7 @@
       <c r="F479" t="n">
         <v>737.9</v>
       </c>
+      <c r="G479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="16" t="inlineStr">
@@ -26769,6 +27534,7 @@
       <c r="F480" t="n">
         <v>746.95</v>
       </c>
+      <c r="G480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="16" t="inlineStr">
@@ -26791,6 +27557,7 @@
       <c r="F481" t="n">
         <v>734.92</v>
       </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="16" t="inlineStr">
@@ -26813,6 +27580,7 @@
       <c r="F482" t="n">
         <v>727.7</v>
       </c>
+      <c r="G482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="16" t="inlineStr">
@@ -26835,6 +27603,7 @@
       <c r="F483" t="n">
         <v>725.8200000000001</v>
       </c>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="16" t="inlineStr">
@@ -26857,6 +27626,7 @@
       <c r="F484" t="n">
         <v>721.5</v>
       </c>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="16" t="inlineStr">
@@ -26879,6 +27649,7 @@
       <c r="F485" t="n">
         <v>729.49</v>
       </c>
+      <c r="G485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="16" t="inlineStr">
@@ -26901,6 +27672,7 @@
       <c r="F486" t="n">
         <v>722.8</v>
       </c>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="16" t="inlineStr">
@@ -26923,6 +27695,7 @@
       <c r="F487" t="n">
         <v>734.26</v>
       </c>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="16" t="inlineStr">
@@ -26945,6 +27718,7 @@
       <c r="F488" t="n">
         <v>743.51</v>
       </c>
+      <c r="G488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="16" t="inlineStr">
@@ -26967,6 +27741,7 @@
       <c r="F489" t="n">
         <v>745.54</v>
       </c>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="16" t="inlineStr">
@@ -26989,6 +27764,7 @@
       <c r="F490" t="n">
         <v>738.35</v>
       </c>
+      <c r="G490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="16" t="inlineStr">
@@ -27011,6 +27787,7 @@
       <c r="F491" t="n">
         <v>725.15</v>
       </c>
+      <c r="G491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="16" t="inlineStr">
@@ -27033,6 +27810,7 @@
       <c r="F492" t="n">
         <v>719.41</v>
       </c>
+      <c r="G492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="16" t="inlineStr">
@@ -27055,6 +27833,7 @@
       <c r="F493" t="n">
         <v>720.22</v>
       </c>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="16" t="inlineStr">
@@ -27077,6 +27856,7 @@
       <c r="F494" t="n">
         <v>711.26</v>
       </c>
+      <c r="G494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="16" t="inlineStr">
@@ -27099,6 +27879,7 @@
       <c r="F495" t="n">
         <v>716.48</v>
       </c>
+      <c r="G495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="16" t="inlineStr">
@@ -27121,6 +27902,7 @@
       <c r="F496" t="n">
         <v>707.49</v>
       </c>
+      <c r="G496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="16" t="inlineStr">
@@ -27143,6 +27925,7 @@
       <c r="F497" t="n">
         <v>693.76</v>
       </c>
+      <c r="G497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="16" t="inlineStr">
@@ -27165,6 +27948,7 @@
       <c r="F498" t="n">
         <v>672.85</v>
       </c>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="16" t="inlineStr">
@@ -27187,6 +27971,7 @@
       <c r="F499" t="n">
         <v>691.45</v>
       </c>
+      <c r="G499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="16" t="inlineStr">
@@ -27209,6 +27994,7 @@
       <c r="F500" t="n">
         <v>684.85</v>
       </c>
+      <c r="G500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="16" t="inlineStr">
@@ -27231,6 +28017,7 @@
       <c r="F501" t="n">
         <v>683.49</v>
       </c>
+      <c r="G501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="16" t="inlineStr">
@@ -27253,6 +28040,7 @@
       <c r="F502" t="n">
         <v>687.39</v>
       </c>
+      <c r="G502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="16" t="inlineStr">
@@ -27275,6 +28063,7 @@
       <c r="F503" t="n">
         <v>651.3</v>
       </c>
+      <c r="G503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="16" t="inlineStr">
@@ -27297,6 +28086,7 @@
       <c r="F504" t="n">
         <v>658.45</v>
       </c>
+      <c r="G504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="16" t="inlineStr">
@@ -27319,6 +28109,7 @@
       <c r="F505" t="n">
         <v>643.39</v>
       </c>
+      <c r="G505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="16" t="inlineStr">
@@ -27341,6 +28132,7 @@
       <c r="F506" t="n">
         <v>681.79</v>
       </c>
+      <c r="G506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="16" t="inlineStr">
@@ -27363,6 +28155,7 @@
       <c r="F507" t="n">
         <v>695.59</v>
       </c>
+      <c r="G507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="16" t="inlineStr">
@@ -27385,6 +28178,7 @@
       <c r="F508" t="n">
         <v>708.98</v>
       </c>
+      <c r="G508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="16" t="inlineStr">
@@ -27407,6 +28201,7 @@
       <c r="F509" t="n">
         <v>711.92</v>
       </c>
+      <c r="G509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="16" t="inlineStr">
@@ -27429,6 +28224,7 @@
       <c r="F510" t="n">
         <v>699.11</v>
       </c>
+      <c r="G510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="16" t="inlineStr">
@@ -27451,6 +28247,7 @@
       <c r="F511" t="n">
         <v>711.75</v>
       </c>
+      <c r="G511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="16" t="inlineStr">
@@ -27473,6 +28270,7 @@
       <c r="F512" t="n">
         <v>717.77</v>
       </c>
+      <c r="G512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="16" t="inlineStr">
@@ -27495,6 +28293,7 @@
       <c r="F513" t="n">
         <v>715.45</v>
       </c>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="16" t="inlineStr">
@@ -27517,6 +28316,7 @@
       <c r="F514" t="n">
         <v>716.12</v>
       </c>
+      <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="16" t="inlineStr">
@@ -27539,6 +28339,7 @@
       <c r="F515" t="n">
         <v>726.08</v>
       </c>
+      <c r="G515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="16" t="inlineStr">
@@ -27561,6 +28362,7 @@
       <c r="F516" t="n">
         <v>726.08</v>
       </c>
+      <c r="G516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="16" t="inlineStr">
@@ -27583,6 +28385,7 @@
       <c r="F517" t="n">
         <v>729.6900000000001</v>
       </c>
+      <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="16" t="inlineStr">
@@ -27605,6 +28408,7 @@
       <c r="F518" t="n">
         <v>719.41</v>
       </c>
+      <c r="G518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="16" t="inlineStr">
@@ -27627,6 +28431,7 @@
       <c r="F519" t="n">
         <v>726.46</v>
       </c>
+      <c r="G519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" s="16" t="inlineStr">
@@ -27649,6 +28454,7 @@
       <c r="F520" t="n">
         <v>717.24</v>
       </c>
+      <c r="G520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" s="16" t="inlineStr">
@@ -27671,6 +28477,7 @@
       <c r="F521" t="n">
         <v>721.86</v>
       </c>
+      <c r="G521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="16" t="inlineStr">
@@ -27693,6 +28500,7 @@
       <c r="F522" t="n">
         <v>722.8099999999999</v>
       </c>
+      <c r="G522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="16" t="inlineStr">
@@ -27715,6 +28523,7 @@
       <c r="F523" t="n">
         <v>729.59</v>
       </c>
+      <c r="G523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="16" t="inlineStr">
@@ -27737,6 +28546,7 @@
       <c r="F524" t="n">
         <v>722.52</v>
       </c>
+      <c r="G524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="16" t="inlineStr">
@@ -27759,6 +28569,7 @@
       <c r="F525" t="n">
         <v>725.4</v>
       </c>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="16" t="inlineStr">
@@ -27781,6 +28592,7 @@
       <c r="F526" t="n">
         <v>731.88</v>
       </c>
+      <c r="G526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="16" t="inlineStr">
@@ -27803,6 +28615,7 @@
       <c r="F527" t="n">
         <v>739.05</v>
       </c>
+      <c r="G527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="16" t="inlineStr">
@@ -27825,6 +28638,7 @@
       <c r="F528" t="n">
         <v>733.23</v>
       </c>
+      <c r="G528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="16" t="inlineStr">
@@ -27847,6 +28661,7 @@
       <c r="F529" t="n">
         <v>725.0700000000001</v>
       </c>
+      <c r="G529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="16" t="inlineStr">
@@ -27869,6 +28684,7 @@
       <c r="F530" t="n">
         <v>713.75</v>
       </c>
+      <c r="G530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="16" t="inlineStr">
@@ -27891,6 +28707,7 @@
       <c r="F531" t="n">
         <v>715.55</v>
       </c>
+      <c r="G531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" s="16" t="inlineStr">
@@ -27913,6 +28730,7 @@
       <c r="F532" t="n">
         <v>723.62</v>
       </c>
+      <c r="G532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="16" t="inlineStr">
@@ -27935,6 +28753,7 @@
       <c r="F533" t="n">
         <v>717.67</v>
       </c>
+      <c r="G533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="16" t="inlineStr">
@@ -27957,6 +28776,7 @@
       <c r="F534" t="n">
         <v>715.98</v>
       </c>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="16" t="inlineStr">
@@ -27979,6 +28799,7 @@
       <c r="F535" t="n">
         <v>725.27</v>
       </c>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" s="16" t="inlineStr">
@@ -28001,6 +28822,7 @@
       <c r="F536" t="n">
         <v>727.11</v>
       </c>
+      <c r="G536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="16" t="inlineStr">
@@ -28023,6 +28845,7 @@
       <c r="F537" t="n">
         <v>728.79</v>
       </c>
+      <c r="G537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" s="16" t="inlineStr">
@@ -28045,6 +28868,7 @@
       <c r="F538" t="n">
         <v>736.29</v>
       </c>
+      <c r="G538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="16" t="inlineStr">
@@ -28067,6 +28891,7 @@
       <c r="F539" t="n">
         <v>734.35</v>
       </c>
+      <c r="G539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="16" t="inlineStr">
@@ -28089,6 +28914,7 @@
       <c r="F540" t="n">
         <v>740.29</v>
       </c>
+      <c r="G540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" s="16" t="inlineStr">
@@ -28111,6 +28937,7 @@
       <c r="F541" t="n">
         <v>750.21</v>
       </c>
+      <c r="G541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" s="16" t="inlineStr">
@@ -28133,6 +28960,7 @@
       <c r="F542" t="n">
         <v>756.23</v>
       </c>
+      <c r="G542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="16" t="inlineStr">
@@ -28155,6 +28983,7 @@
       <c r="F543" t="n">
         <v>764.21</v>
       </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="16" t="inlineStr">
@@ -28177,6 +29006,7 @@
       <c r="F544" t="n">
         <v>771.2</v>
       </c>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="16" t="inlineStr">
@@ -28199,6 +29029,7 @@
       <c r="F545" t="n">
         <v>786.29</v>
       </c>
+      <c r="G545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" s="16" t="inlineStr">
@@ -28221,6 +29052,7 @@
       <c r="F546" t="n">
         <v>789.45</v>
       </c>
+      <c r="G546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" s="16" t="inlineStr">
@@ -28243,6 +29075,7 @@
       <c r="F547" t="n">
         <v>768.86</v>
       </c>
+      <c r="G547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="16" t="inlineStr">
@@ -28265,6 +29098,7 @@
       <c r="F548" t="n">
         <v>777.26</v>
       </c>
+      <c r="G548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="16" t="inlineStr">
@@ -28287,6 +29121,7 @@
       <c r="F549" t="n">
         <v>775.65</v>
       </c>
+      <c r="G549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="16" t="inlineStr">
@@ -28309,6 +29144,7 @@
       <c r="F550" t="n">
         <v>779.73</v>
       </c>
+      <c r="G550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="16" t="inlineStr">
@@ -28331,6 +29167,7 @@
       <c r="F551" t="n">
         <v>782.51</v>
       </c>
+      <c r="G551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" s="16" t="inlineStr">
@@ -28353,6 +29190,7 @@
       <c r="F552" t="n">
         <v>791.53</v>
       </c>
+      <c r="G552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" s="16" t="inlineStr">
@@ -28375,6 +29213,7 @@
       <c r="F553" t="n">
         <v>784.79</v>
       </c>
+      <c r="G553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="16" t="inlineStr">
@@ -28397,6 +29236,7 @@
       <c r="F554" t="n">
         <v>800.9299999999999</v>
       </c>
+      <c r="G554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="16" t="inlineStr">
@@ -28419,6 +29259,7 @@
       <c r="F555" t="n">
         <v>798.21</v>
       </c>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="16" t="inlineStr">
@@ -28441,6 +29282,7 @@
       <c r="F556" t="n">
         <v>787.95</v>
       </c>
+      <c r="G556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="16" t="inlineStr">
@@ -28463,6 +29305,7 @@
       <c r="F557" t="n">
         <v>781.5599999999999</v>
       </c>
+      <c r="G557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="16" t="inlineStr">
@@ -28485,6 +29328,7 @@
       <c r="F558" t="n">
         <v>781.5</v>
       </c>
+      <c r="G558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="16" t="inlineStr">
@@ -28507,6 +29351,7 @@
       <c r="F559" t="n">
         <v>783.67</v>
       </c>
+      <c r="G559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="16" t="inlineStr">
@@ -28529,6 +29374,7 @@
       <c r="F560" t="n">
         <v>782.17</v>
       </c>
+      <c r="G560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="16" t="inlineStr">
@@ -28551,6 +29397,7 @@
       <c r="F561" t="n">
         <v>793.33</v>
       </c>
+      <c r="G561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" s="16" t="inlineStr">
@@ -28573,6 +29420,7 @@
       <c r="F562" t="n">
         <v>775.8</v>
       </c>
+      <c r="G562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" s="16" t="inlineStr">
@@ -28595,6 +29443,7 @@
       <c r="F563" t="n">
         <v>778.46</v>
       </c>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="16" t="inlineStr">
@@ -28617,6 +29466,7 @@
       <c r="F564" t="n">
         <v>784.24</v>
       </c>
+      <c r="G564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="16" t="inlineStr">
@@ -28639,6 +29489,7 @@
       <c r="F565" t="n">
         <v>790.36</v>
       </c>
+      <c r="G565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="16" t="inlineStr">
@@ -28661,6 +29512,7 @@
       <c r="F566" t="n">
         <v>797.7</v>
       </c>
+      <c r="G566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" s="16" t="inlineStr">
@@ -28683,6 +29535,7 @@
       <c r="F567" t="n">
         <v>800.47</v>
       </c>
+      <c r="G567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="16" t="inlineStr">
@@ -28705,6 +29558,7 @@
       <c r="F568" t="n">
         <v>799.37</v>
       </c>
+      <c r="G568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="16" t="inlineStr">
@@ -28727,6 +29581,7 @@
       <c r="F569" t="n">
         <v>812.88</v>
       </c>
+      <c r="G569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="16" t="inlineStr">
@@ -28749,6 +29604,7 @@
       <c r="F570" t="n">
         <v>812.23</v>
       </c>
+      <c r="G570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="16" t="inlineStr">
@@ -28771,6 +29627,7 @@
       <c r="F571" t="n">
         <v>818.27</v>
       </c>
+      <c r="G571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="16" t="inlineStr">
@@ -28793,6 +29650,7 @@
       <c r="F572" t="n">
         <v>820.67</v>
       </c>
+      <c r="G572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="16" t="inlineStr">
@@ -28815,6 +29673,7 @@
       <c r="F573" t="n">
         <v>821.6900000000001</v>
       </c>
+      <c r="G573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="16" t="inlineStr">
@@ -28837,6 +29696,7 @@
       <c r="F574" t="n">
         <v>812.97</v>
       </c>
+      <c r="G574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="16" t="inlineStr">
@@ -28859,6 +29719,7 @@
       <c r="F575" t="n">
         <v>813.5599999999999</v>
       </c>
+      <c r="G575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" s="16" t="inlineStr">
@@ -28881,6 +29742,7 @@
       <c r="F576" t="n">
         <v>809.89</v>
       </c>
+      <c r="G576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="16" t="inlineStr">
@@ -28903,6 +29765,7 @@
       <c r="F577" t="n">
         <v>806.95</v>
       </c>
+      <c r="G577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="16" t="inlineStr">
@@ -28925,6 +29788,7 @@
       <c r="F578" t="n">
         <v>804.4</v>
       </c>
+      <c r="G578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" s="16" t="inlineStr">
@@ -28947,6 +29811,7 @@
       <c r="F579" t="n">
         <v>804.45</v>
       </c>
+      <c r="G579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" s="16" t="inlineStr">
@@ -28969,6 +29834,7 @@
       <c r="F580" t="n">
         <v>803.67</v>
       </c>
+      <c r="G580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="16" t="inlineStr">
@@ -28991,6 +29857,7 @@
       <c r="F581" t="n">
         <v>805.24</v>
       </c>
+      <c r="G581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="16" t="inlineStr">
@@ -29013,6 +29880,7 @@
       <c r="F582" t="n">
         <v>772.79</v>
       </c>
+      <c r="G582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="16" t="inlineStr">
@@ -29035,6 +29903,7 @@
       <c r="F583" t="n">
         <v>784.0599999999999</v>
       </c>
+      <c r="G583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="16" t="inlineStr">
@@ -29057,6 +29926,7 @@
       <c r="F584" t="n">
         <v>798.6</v>
       </c>
+      <c r="G584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="16" t="inlineStr">
@@ -29079,6 +29949,7 @@
       <c r="F585" t="n">
         <v>803.49</v>
       </c>
+      <c r="G585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="16" t="inlineStr">
@@ -29101,6 +29972,7 @@
       <c r="F586" t="n">
         <v>805.8099999999999</v>
       </c>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="16" t="inlineStr">
@@ -29123,6 +29995,7 @@
       <c r="F587" t="n">
         <v>809.27</v>
       </c>
+      <c r="G587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" s="16" t="inlineStr">
@@ -29145,6 +30018,7 @@
       <c r="F588" t="n">
         <v>811.85</v>
       </c>
+      <c r="G588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="16" t="inlineStr">
@@ -29167,6 +30041,7 @@
       <c r="F589" t="n">
         <v>807.1900000000001</v>
       </c>
+      <c r="G589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="16" t="inlineStr">
@@ -29189,6 +30064,7 @@
       <c r="F590" t="n">
         <v>814.1</v>
       </c>
+      <c r="G590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" s="16" t="inlineStr">
@@ -29211,6 +30087,7 @@
       <c r="F591" t="n">
         <v>815.26</v>
       </c>
+      <c r="G591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="16" t="inlineStr">
@@ -29233,6 +30110,7 @@
       <c r="F592" t="n">
         <v>798.05</v>
       </c>
+      <c r="G592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="16" t="inlineStr">
@@ -29255,6 +30133,7 @@
       <c r="F593" t="n">
         <v>787.96</v>
       </c>
+      <c r="G593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" s="16" t="inlineStr">
@@ -29277,6 +30156,7 @@
       <c r="F594" t="n">
         <v>777.61</v>
       </c>
+      <c r="G594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" s="16" t="inlineStr">
@@ -29299,6 +30179,7 @@
       <c r="F595" t="n">
         <v>777.24</v>
       </c>
+      <c r="G595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="16" t="inlineStr">
@@ -29321,6 +30202,7 @@
       <c r="F596" t="n">
         <v>782.51</v>
       </c>
+      <c r="G596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" s="16" t="inlineStr">
@@ -29343,6 +30225,7 @@
       <c r="F597" t="n">
         <v>798.02</v>
       </c>
+      <c r="G597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" s="16" t="inlineStr">
@@ -29365,6 +30248,7 @@
       <c r="F598" t="n">
         <v>801.66</v>
       </c>
+      <c r="G598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="16" t="inlineStr">
@@ -29387,6 +30271,7 @@
       <c r="F599" t="n">
         <v>801.72</v>
       </c>
+      <c r="G599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="16" t="inlineStr">
@@ -29409,6 +30294,7 @@
       <c r="F600" t="n">
         <v>798.4299999999999</v>
       </c>
+      <c r="G600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="16" t="inlineStr">
@@ -29431,6 +30317,7 @@
       <c r="F601" t="n">
         <v>796.91</v>
       </c>
+      <c r="G601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="16" t="inlineStr">
@@ -29453,6 +30340,7 @@
       <c r="F602" t="n">
         <v>785</v>
       </c>
+      <c r="G602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="16" t="inlineStr">
@@ -29475,6 +30363,7 @@
       <c r="F603" t="n">
         <v>794</v>
       </c>
+      <c r="G603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" s="16" t="inlineStr">
@@ -29497,6 +30386,7 @@
       <c r="F604" t="n">
         <v>796.8099999999999</v>
       </c>
+      <c r="G604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" s="16" t="inlineStr">
@@ -29519,6 +30409,7 @@
       <c r="F605" t="n">
         <v>805.42</v>
       </c>
+      <c r="G605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" s="16" t="inlineStr">
@@ -29541,6 +30432,7 @@
       <c r="F606" t="n">
         <v>811.4</v>
       </c>
+      <c r="G606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="16" t="inlineStr">
@@ -29563,6 +30455,7 @@
       <c r="F607" t="n">
         <v>818.6</v>
       </c>
+      <c r="G607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" s="16" t="inlineStr">
@@ -29585,6 +30478,7 @@
       <c r="F608" t="n">
         <v>824.8200000000001</v>
       </c>
+      <c r="G608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" s="16" t="inlineStr">
@@ -29607,6 +30501,7 @@
       <c r="F609" t="n">
         <v>833</v>
       </c>
+      <c r="G609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" s="16" t="inlineStr">
@@ -29629,6 +30524,7 @@
       <c r="F610" t="n">
         <v>834.76</v>
       </c>
+      <c r="G610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" s="16" t="inlineStr">
@@ -29651,6 +30547,7 @@
       <c r="F611" t="n">
         <v>847.08</v>
       </c>
+      <c r="G611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" s="16" t="inlineStr">
@@ -29673,6 +30570,7 @@
       <c r="F612" t="n">
         <v>852.6900000000001</v>
       </c>
+      <c r="G612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" s="16" t="inlineStr">
@@ -29695,6 +30593,7 @@
       <c r="F613" t="n">
         <v>851.84</v>
       </c>
+      <c r="G613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="16" t="inlineStr">
@@ -29717,6 +30616,7 @@
       <c r="F614" t="n">
         <v>845.53</v>
       </c>
+      <c r="G614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="16" t="inlineStr">
@@ -29739,6 +30639,7 @@
       <c r="F615" t="n">
         <v>857.11</v>
       </c>
+      <c r="G615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="16" t="inlineStr">
@@ -29761,6 +30662,7 @@
       <c r="F616" t="n">
         <v>863.11</v>
       </c>
+      <c r="G616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" s="16" t="inlineStr">
@@ -29783,6 +30685,7 @@
       <c r="F617" t="n">
         <v>874.36</v>
       </c>
+      <c r="G617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" s="16" t="inlineStr">
@@ -29805,6 +30708,7 @@
       <c r="F618" t="n">
         <v>872.21</v>
       </c>
+      <c r="G618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="16" t="inlineStr">
@@ -29827,6 +30731,7 @@
       <c r="F619" t="n">
         <v>860.9400000000001</v>
       </c>
+      <c r="G619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" s="16" t="inlineStr">
@@ -29849,6 +30754,7 @@
       <c r="F620" t="n">
         <v>852.48</v>
       </c>
+      <c r="G620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" s="16" t="inlineStr">
@@ -29871,6 +30777,7 @@
       <c r="F621" t="n">
         <v>835.1900000000001</v>
       </c>
+      <c r="G621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" s="16" t="inlineStr">
@@ -29893,6 +30800,7 @@
       <c r="F622" t="n">
         <v>846.71</v>
       </c>
+      <c r="G622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" s="16" t="inlineStr">
@@ -29915,6 +30823,7 @@
       <c r="F623" t="n">
         <v>841.99</v>
       </c>
+      <c r="G623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" s="16" t="inlineStr">
@@ -29937,6 +30846,7 @@
       <c r="F624" t="n">
         <v>845.34</v>
       </c>
+      <c r="G624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" s="16" t="inlineStr">
@@ -29959,6 +30869,7 @@
       <c r="F625" t="n">
         <v>854.25</v>
       </c>
+      <c r="G625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" s="16" t="inlineStr">
@@ -29981,6 +30892,7 @@
       <c r="F626" t="n">
         <v>859.49</v>
       </c>
+      <c r="G626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" s="16" t="inlineStr">
@@ -30003,6 +30915,7 @@
       <c r="F627" t="n">
         <v>860.49</v>
       </c>
+      <c r="G627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" s="16" t="inlineStr">
@@ -30025,6 +30938,7 @@
       <c r="F628" t="n">
         <v>847.96</v>
       </c>
+      <c r="G628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" s="16" t="inlineStr">
@@ -30047,6 +30961,7 @@
       <c r="F629" t="n">
         <v>864.72</v>
       </c>
+      <c r="G629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="16" t="inlineStr">
@@ -30069,6 +30984,7 @@
       <c r="F630" t="n">
         <v>865.41</v>
       </c>
+      <c r="G630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" s="16" t="inlineStr">
@@ -30091,6 +31007,7 @@
       <c r="F631" t="n">
         <v>859.54</v>
       </c>
+      <c r="G631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="16" t="inlineStr">
@@ -30113,6 +31030,7 @@
       <c r="F632" t="n">
         <v>875.77</v>
       </c>
+      <c r="G632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="16" t="inlineStr">
@@ -30135,6 +31053,7 @@
       <c r="F633" t="n">
         <v>872.5</v>
       </c>
+      <c r="G633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" s="16" t="inlineStr">
@@ -30157,6 +31076,7 @@
       <c r="F634" t="n">
         <v>879.15</v>
       </c>
+      <c r="G634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" s="16" t="inlineStr">
@@ -30179,6 +31099,7 @@
       <c r="F635" t="n">
         <v>872.03</v>
       </c>
+      <c r="G635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" s="16" t="inlineStr">
@@ -30201,6 +31122,7 @@
       <c r="F636" t="n">
         <v>883.08</v>
       </c>
+      <c r="G636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" s="16" t="inlineStr">
@@ -30223,6 +31145,7 @@
       <c r="F637" t="n">
         <v>902.7</v>
       </c>
+      <c r="G637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" s="16" t="inlineStr">
@@ -30245,6 +31168,7 @@
       <c r="F638" t="n">
         <v>903.3</v>
       </c>
+      <c r="G638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" s="16" t="inlineStr">
@@ -30267,6 +31191,7 @@
       <c r="F639" t="n">
         <v>901.59</v>
       </c>
+      <c r="G639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" s="16" t="inlineStr">
@@ -30289,6 +31214,7 @@
       <c r="F640" t="n">
         <v>890.86</v>
       </c>
+      <c r="G640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" s="16" t="inlineStr">
@@ -30311,6 +31237,7 @@
       <c r="F641" t="n">
         <v>900.42</v>
       </c>
+      <c r="G641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="16" t="inlineStr">
@@ -30333,6 +31260,7 @@
       <c r="F642" t="n">
         <v>914.55</v>
       </c>
+      <c r="G642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" s="16" t="inlineStr">
@@ -30355,6 +31283,7 @@
       <c r="F643" t="n">
         <v>926.5700000000001</v>
       </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" s="16" t="inlineStr">
@@ -30377,6 +31306,7 @@
       <c r="F644" t="n">
         <v>901.89</v>
       </c>
+      <c r="G644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" s="16" t="inlineStr">
@@ -30399,6 +31329,7 @@
       <c r="F645" t="n">
         <v>898.17</v>
       </c>
+      <c r="G645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="16" t="inlineStr">
@@ -30421,6 +31352,7 @@
       <c r="F646" t="n">
         <v>876.8099999999999</v>
       </c>
+      <c r="G646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="16" t="inlineStr">
@@ -30443,6 +31375,7 @@
       <c r="F647" t="n">
         <v>888.35</v>
       </c>
+      <c r="G647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" s="16" t="inlineStr">
@@ -30465,6 +31398,7 @@
       <c r="F648" t="n">
         <v>884.27</v>
       </c>
+      <c r="G648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" s="16" t="inlineStr">
@@ -30487,6 +31421,7 @@
       <c r="F649" t="n">
         <v>906.51</v>
       </c>
+      <c r="G649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" s="16" t="inlineStr">
@@ -30509,6 +31444,7 @@
       <c r="F650" t="n">
         <v>918.37</v>
       </c>
+      <c r="G650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" s="16" t="inlineStr">
@@ -30531,6 +31467,7 @@
       <c r="F651" t="n">
         <v>897.9</v>
       </c>
+      <c r="G651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" s="16" t="inlineStr">
@@ -30553,6 +31490,7 @@
       <c r="F652" t="n">
         <v>902.67</v>
       </c>
+      <c r="G652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" s="16" t="inlineStr">
@@ -30575,6 +31513,7 @@
       <c r="F653" t="n">
         <v>878.7</v>
       </c>
+      <c r="G653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" s="16" t="inlineStr">
@@ -30597,6 +31536,7 @@
       <c r="F654" t="n">
         <v>871.3200000000001</v>
       </c>
+      <c r="G654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" s="16" t="inlineStr">
@@ -30619,6 +31559,7 @@
       <c r="F655" t="n">
         <v>891.9400000000001</v>
       </c>
+      <c r="G655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" s="16" t="inlineStr">
@@ -30641,6 +31582,7 @@
       <c r="F656" t="n">
         <v>863.95</v>
       </c>
+      <c r="G656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" s="16" t="inlineStr">
@@ -30663,6 +31605,7 @@
       <c r="F657" t="n">
         <v>856.4400000000001</v>
       </c>
+      <c r="G657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" s="16" t="inlineStr">
@@ -30685,6 +31628,7 @@
       <c r="F658" t="n">
         <v>856.03</v>
       </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" s="16" t="inlineStr">
@@ -30707,6 +31651,7 @@
       <c r="F659" t="n">
         <v>877.3200000000001</v>
       </c>
+      <c r="G659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" s="16" t="inlineStr">
@@ -30729,6 +31674,7 @@
       <c r="F660" t="n">
         <v>880.0599999999999</v>
       </c>
+      <c r="G660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" s="16" t="inlineStr">
@@ -30751,6 +31697,7 @@
       <c r="F661" t="n">
         <v>912.67</v>
       </c>
+      <c r="G661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" s="16" t="inlineStr">
@@ -30773,6 +31720,7 @@
       <c r="F662" t="n">
         <v>922.38</v>
       </c>
+      <c r="G662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" s="16" t="inlineStr">
@@ -30795,6 +31743,7 @@
       <c r="F663" t="n">
         <v>928.42</v>
       </c>
+      <c r="G663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" s="16" t="inlineStr">
@@ -30817,6 +31766,7 @@
       <c r="F664" t="n">
         <v>932.01</v>
       </c>
+      <c r="G664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" s="16" t="inlineStr">
@@ -30839,6 +31789,7 @@
       <c r="F665" t="n">
         <v>929.83</v>
       </c>
+      <c r="G665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" s="16" t="inlineStr">
@@ -30861,6 +31812,7 @@
       <c r="F666" t="n">
         <v>924.74</v>
       </c>
+      <c r="G666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" s="16" t="inlineStr">
@@ -30883,6 +31835,7 @@
       <c r="F667" t="n">
         <v>927.79</v>
       </c>
+      <c r="G667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" s="16" t="inlineStr">
@@ -30905,6 +31858,7 @@
       <c r="F668" t="n">
         <v>931.35</v>
       </c>
+      <c r="G668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" s="16" t="inlineStr">
@@ -30927,6 +31881,7 @@
       <c r="F669" t="n">
         <v>935</v>
       </c>
+      <c r="G669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" s="16" t="inlineStr">
@@ -30949,6 +31904,7 @@
       <c r="F670" t="n">
         <v>934.64</v>
       </c>
+      <c r="G670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" s="16" t="inlineStr">
@@ -30971,6 +31927,7 @@
       <c r="F671" t="n">
         <v>937.34</v>
       </c>
+      <c r="G671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" s="16" t="inlineStr">
@@ -30993,6 +31950,7 @@
       <c r="F672" t="n">
         <v>938.83</v>
       </c>
+      <c r="G672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" s="16" t="inlineStr">
@@ -31015,6 +31973,7 @@
       <c r="F673" t="n">
         <v>916.11</v>
       </c>
+      <c r="G673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" s="16" t="inlineStr">
@@ -31037,6 +31996,7 @@
       <c r="F674" t="n">
         <v>911.0700000000001</v>
       </c>
+      <c r="G674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" s="16" t="inlineStr">
@@ -31059,6 +32019,7 @@
       <c r="F675" t="n">
         <v>901.33</v>
       </c>
+      <c r="G675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" s="16" t="inlineStr">
@@ -31081,6 +32042,7 @@
       <c r="F676" t="n">
         <v>915.27</v>
       </c>
+      <c r="G676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" s="16" t="inlineStr">
@@ -31103,6 +32065,7 @@
       <c r="F677" t="n">
         <v>929.14</v>
       </c>
+      <c r="G677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" s="16" t="inlineStr">
@@ -31125,6 +32088,7 @@
       <c r="F678" t="n">
         <v>919.5599999999999</v>
       </c>
+      <c r="G678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" s="16" t="inlineStr">
@@ -31147,6 +32111,7 @@
       <c r="F679" t="n">
         <v>915.2</v>
       </c>
+      <c r="G679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" s="16" t="inlineStr">
@@ -31169,6 +32134,7 @@
       <c r="F680" t="n">
         <v>919.67</v>
       </c>
+      <c r="G680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" s="16" t="inlineStr">
@@ -31191,6 +32157,7 @@
       <c r="F681" t="n">
         <v>932.59</v>
       </c>
+      <c r="G681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" s="16" t="inlineStr">
@@ -31213,6 +32180,7 @@
       <c r="F682" t="n">
         <v>925.47</v>
       </c>
+      <c r="G682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" s="16" t="inlineStr">
@@ -31235,6 +32203,7 @@
       <c r="F683" t="n">
         <v>945.5700000000001</v>
       </c>
+      <c r="G683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" s="16" t="inlineStr">
@@ -31257,6 +32226,7 @@
       <c r="F684" t="n">
         <v>957.5</v>
       </c>
+      <c r="G684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" s="16" t="inlineStr">
@@ -31279,6 +32249,7 @@
       <c r="F685" t="n">
         <v>955.97</v>
       </c>
+      <c r="G685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" s="16" t="inlineStr">
@@ -31301,6 +32272,7 @@
       <c r="F686" t="n">
         <v>947.39</v>
       </c>
+      <c r="G686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" s="16" t="inlineStr">
@@ -31323,6 +32295,7 @@
       <c r="F687" t="n">
         <v>944.0599999999999</v>
       </c>
+      <c r="G687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" s="16" t="inlineStr">
@@ -31345,6 +32318,7 @@
       <c r="F688" t="n">
         <v>947.92</v>
       </c>
+      <c r="G688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" s="16" t="inlineStr">
@@ -31367,6 +32341,7 @@
       <c r="F689" t="n">
         <v>949.8099999999999</v>
       </c>
+      <c r="G689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" s="16" t="inlineStr">
@@ -31389,6 +32364,7 @@
       <c r="F690" t="n">
         <v>948.98</v>
       </c>
+      <c r="G690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" s="16" t="inlineStr">
@@ -31411,6 +32387,7 @@
       <c r="F691" t="n">
         <v>942.1799999999999</v>
       </c>
+      <c r="G691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" s="16" t="inlineStr">
@@ -31433,6 +32410,7 @@
       <c r="F692" t="n">
         <v>951.16</v>
       </c>
+      <c r="G692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" s="16" t="inlineStr">
@@ -31455,6 +32433,7 @@
       <c r="F693" t="n">
         <v>954.59</v>
       </c>
+      <c r="G693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" s="16" t="inlineStr">
@@ -31477,6 +32456,7 @@
       <c r="F694" t="n">
         <v>968.36</v>
       </c>
+      <c r="G694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" s="16" t="inlineStr">
@@ -31499,6 +32479,7 @@
       <c r="F695" t="n">
         <v>976.37</v>
       </c>
+      <c r="G695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" s="16" t="inlineStr">
@@ -31521,6 +32502,7 @@
       <c r="F696" t="n">
         <v>951.29</v>
       </c>
+      <c r="G696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" s="16" t="inlineStr">
@@ -31543,6 +32525,7 @@
       <c r="F697" t="n">
         <v>970.35</v>
       </c>
+      <c r="G697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" s="16" t="inlineStr">
@@ -31565,6 +32548,7 @@
       <c r="F698" t="n">
         <v>993.9299999999999</v>
       </c>
+      <c r="G698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" s="16" t="inlineStr">
@@ -31587,6 +32571,7 @@
       <c r="F699" t="n">
         <v>1064.41</v>
       </c>
+      <c r="G699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" s="16" t="inlineStr">
@@ -31609,6 +32594,7 @@
       <c r="F700" t="n">
         <v>1082.59</v>
       </c>
+      <c r="G700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" s="16" t="inlineStr">
@@ -31631,6 +32617,7 @@
       <c r="F701" t="n">
         <v>1133.52</v>
       </c>
+      <c r="G701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" s="16" t="inlineStr">
@@ -31653,6 +32640,7 @@
       <c r="F702" t="n">
         <v>1164.41</v>
       </c>
+      <c r="G702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" s="16" t="inlineStr">
@@ -31675,6 +32663,7 @@
       <c r="F703" t="n">
         <v>1149.44</v>
       </c>
+      <c r="G703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" s="16" t="inlineStr">
@@ -31697,6 +32686,7 @@
       <c r="F704" t="n">
         <v>1098.36</v>
       </c>
+      <c r="G704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" s="16" t="inlineStr">
@@ -31719,6 +32709,7 @@
       <c r="F705" t="n">
         <v>1144.33</v>
       </c>
+      <c r="G705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" s="16" t="inlineStr">
@@ -31741,6 +32732,7 @@
       <c r="F706" t="n">
         <v>1149.43</v>
       </c>
+      <c r="G706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" s="16" t="inlineStr">
@@ -31763,6 +32755,7 @@
       <c r="F707" t="n">
         <v>1108.41</v>
       </c>
+      <c r="G707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" s="16" t="inlineStr">
@@ -31785,6 +32778,7 @@
       <c r="F708" t="n">
         <v>1080.77</v>
       </c>
+      <c r="G708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" s="16" t="inlineStr">
@@ -31807,6 +32801,7 @@
       <c r="F709" t="n">
         <v>1127.55</v>
       </c>
+      <c r="G709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" s="16" t="inlineStr">
@@ -31829,6 +32824,7 @@
       <c r="F710" t="n">
         <v>1115.2</v>
       </c>
+      <c r="G710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" s="16" t="inlineStr">
@@ -32021,10 +33017,10 @@
         <v>2290.36</v>
       </c>
       <c r="E718" t="n">
-        <v>6093.33</v>
+        <v>6083.86</v>
       </c>
       <c r="F718" t="n">
-        <v>1165.73</v>
+        <v>1165.25</v>
       </c>
       <c r="G718" t="n">
         <v>1079.98</v>
@@ -98398,9 +99394,6 @@
           <t>24.6%</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>24.6%</t>
@@ -98421,21 +99414,11 @@
           <t>21.6%</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>21.6%</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -98563,9 +99546,6 @@
           <t>15.6%</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>23.0%</t>
@@ -98586,20 +99566,11 @@
           <t>17.6%</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -98732,9 +99703,6 @@
           <t>15.6%</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>23.0%</t>
@@ -98755,20 +99723,11 @@
           <t>17.6%</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>17.9%</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -98901,9 +99860,6 @@
           <t>19.4%</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
           <t>31.0%</t>
@@ -98924,9 +99880,6 @@
           <t>18.5%</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>21.7%</t>
@@ -98937,11 +99890,6 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -99074,9 +100022,6 @@
           <t>17.4%</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>30.7%</t>
@@ -99097,9 +100042,6 @@
           <t>16.6%</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
           <t>19.5%</t>
@@ -99110,11 +100052,6 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -99312,10 +100249,6 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>1.2%</t>
@@ -99513,10 +100446,6 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr">
         <is>
           <t>2.4%</t>
@@ -99714,10 +100643,6 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr">
         <is>
           <t>3.7%</t>
@@ -99915,10 +100840,6 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr">
         <is>
           <t>6.0%</t>
@@ -100116,10 +101037,6 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr">
         <is>
           <t>8.0%</t>
